--- a/Prototypes/Mungbean/TOSobserved.xlsx
+++ b/Prototypes/Mungbean/TOSobserved.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47416035-770D-4E85-9F87-FD5B58D40027}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C397C1F-FC9E-4AFD-989A-E8DDF6929C36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="345" windowWidth="10785" windowHeight="10800" xr2:uid="{01D3E681-48EE-4304-AF98-4E94EBE61D53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01D3E681-48EE-4304-AF98-4E94EBE61D53}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$1:$AD$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$1:$AE$151</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="78">
   <si>
     <t>Location</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>Vegetative</t>
+  </si>
+  <si>
+    <t>Soybean.Leaf.BranchNumber</t>
   </si>
 </sst>
 </file>
@@ -689,11 +692,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3519DD51-BED6-4262-8A50-4DB48CCAF26B}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AE151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG128" sqref="AG128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -791,14 +795,16 @@
         <v>11</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="AD1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="3"/>
-    </row>
-    <row r="2" spans="1:31">
+      <c r="AE1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" hidden="1">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -860,7 +866,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" hidden="1">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -943,7 +949,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" hidden="1">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1005,7 +1011,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" hidden="1">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1085,7 +1091,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" hidden="1">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1144,7 +1150,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" hidden="1">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1228,7 +1234,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" hidden="1">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1287,7 +1293,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" hidden="1">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1371,7 +1377,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" hidden="1">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1433,7 +1439,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" hidden="1">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1517,7 +1523,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" hidden="1">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1579,7 +1585,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" hidden="1">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1663,7 +1669,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" hidden="1">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1724,8 +1730,12 @@
       <c r="AD14">
         <v>0.41457809879442498</v>
       </c>
-    </row>
-    <row r="15" spans="1:31">
+      <c r="AE14">
+        <f>AC14-1</f>
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" hidden="1">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1786,8 +1796,12 @@
       <c r="AD15">
         <v>0.52796780204857408</v>
       </c>
-    </row>
-    <row r="16" spans="1:31">
+      <c r="AE15">
+        <f>AC15-1</f>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" hidden="1">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1870,8 +1884,12 @@
       <c r="AD16">
         <v>0.71239034243875055</v>
       </c>
-    </row>
-    <row r="17" spans="1:31">
+      <c r="AE16">
+        <f t="shared" ref="AE16:AE38" si="0">AC16-1</f>
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" hidden="1">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1938,8 +1956,12 @@
       <c r="AD17">
         <v>0.44370598373247128</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" s="9" customFormat="1">
+      <c r="AE17">
+        <f t="shared" si="0"/>
+        <v>11.049999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" s="9" customFormat="1" hidden="1">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2010,9 +2032,12 @@
       <c r="AD18">
         <v>0.58040933831219732</v>
       </c>
-      <c r="AE18"/>
-    </row>
-    <row r="19" spans="1:31" s="9" customFormat="1">
+      <c r="AE18">
+        <f t="shared" si="0"/>
+        <v>5.7499999999999991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" s="9" customFormat="1" hidden="1">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2083,9 +2108,12 @@
       <c r="AD19">
         <v>0.34910600109422335</v>
       </c>
-      <c r="AE19"/>
-    </row>
-    <row r="20" spans="1:31" s="9" customFormat="1">
+      <c r="AE19">
+        <f t="shared" si="0"/>
+        <v>7.0500000000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" s="9" customFormat="1" hidden="1">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2171,9 +2199,12 @@
       <c r="AD20">
         <v>0.24874685927665507</v>
       </c>
-      <c r="AE20"/>
-    </row>
-    <row r="21" spans="1:31" s="9" customFormat="1">
+      <c r="AE20">
+        <f t="shared" si="0"/>
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" s="9" customFormat="1" hidden="1">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2248,9 +2279,12 @@
       <c r="AD21">
         <v>0.50249378105604425</v>
       </c>
-      <c r="AE21"/>
-    </row>
-    <row r="22" spans="1:31">
+      <c r="AE21">
+        <f t="shared" si="0"/>
+        <v>10.100000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" hidden="1">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -2311,8 +2345,12 @@
       <c r="AD22">
         <v>0.36996621467371954</v>
       </c>
-    </row>
-    <row r="23" spans="1:31">
+      <c r="AE22">
+        <f t="shared" si="0"/>
+        <v>3.4499999999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" hidden="1">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -2373,8 +2411,12 @@
       <c r="AD23">
         <v>0.43229041164476467</v>
       </c>
-    </row>
-    <row r="24" spans="1:31">
+      <c r="AE23">
+        <f t="shared" si="0"/>
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" hidden="1">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -2441,8 +2483,12 @@
       <c r="AD24">
         <v>0.63786754110865884</v>
       </c>
-    </row>
-    <row r="25" spans="1:31">
+      <c r="AE24">
+        <f t="shared" si="0"/>
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" hidden="1">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -2525,8 +2571,12 @@
       <c r="AD25">
         <v>0.50682837331783215</v>
       </c>
-    </row>
-    <row r="26" spans="1:31">
+      <c r="AE25">
+        <f t="shared" si="0"/>
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" hidden="1">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -2587,8 +2637,12 @@
       <c r="AD26">
         <v>0.5678908345800272</v>
       </c>
-    </row>
-    <row r="27" spans="1:31">
+      <c r="AE26">
+        <f t="shared" si="0"/>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" hidden="1">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -2649,8 +2703,12 @@
       <c r="AD27">
         <v>0.56734028589551277</v>
       </c>
-    </row>
-    <row r="28" spans="1:31">
+      <c r="AE27">
+        <f t="shared" si="0"/>
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" hidden="1">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -2733,8 +2791,12 @@
       <c r="AD28">
         <v>0.47696960070847289</v>
       </c>
-    </row>
-    <row r="29" spans="1:31">
+      <c r="AE28">
+        <f t="shared" si="0"/>
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" hidden="1">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -2801,8 +2863,12 @@
       <c r="AD29">
         <v>8.2915619758885034E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:31">
+      <c r="AE29">
+        <f t="shared" si="0"/>
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" hidden="1">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -2863,9 +2929,12 @@
       <c r="AD30">
         <v>0.73484692283495401</v>
       </c>
-      <c r="AE30" s="9"/>
-    </row>
-    <row r="31" spans="1:31">
+      <c r="AE30">
+        <f t="shared" si="0"/>
+        <v>5.1999999999999993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" hidden="1">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -2932,9 +3001,12 @@
       <c r="AD31">
         <v>0.55396299515400349</v>
       </c>
-      <c r="AE31" s="9"/>
-    </row>
-    <row r="32" spans="1:31">
+      <c r="AE31">
+        <f t="shared" si="0"/>
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" hidden="1">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -2995,9 +3067,12 @@
       <c r="AD32">
         <v>0.70887234393788967</v>
       </c>
-      <c r="AE32" s="9"/>
-    </row>
-    <row r="33" spans="1:31">
+      <c r="AE32">
+        <f t="shared" si="0"/>
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" hidden="1">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -3080,9 +3155,12 @@
       <c r="AD33">
         <v>0.44370598373247128</v>
       </c>
-      <c r="AE33" s="9"/>
-    </row>
-    <row r="34" spans="1:31">
+      <c r="AE33">
+        <f t="shared" si="0"/>
+        <v>10.050000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" hidden="1">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -3141,8 +3219,12 @@
       <c r="AD34">
         <v>0.37666297933298493</v>
       </c>
-    </row>
-    <row r="35" spans="1:31">
+      <c r="AE34">
+        <f t="shared" si="0"/>
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" hidden="1">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -3213,8 +3295,12 @@
       <c r="AD35">
         <v>0.60207972893961537</v>
       </c>
-    </row>
-    <row r="36" spans="1:31">
+      <c r="AE35">
+        <f t="shared" si="0"/>
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" hidden="1">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -3277,8 +3363,12 @@
       <c r="AD36">
         <v>0.49180788932265013</v>
       </c>
-    </row>
-    <row r="37" spans="1:31">
+      <c r="AE36">
+        <f t="shared" si="0"/>
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" hidden="1">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -3364,8 +3454,12 @@
       <c r="AD37">
         <v>0.62849025449882356</v>
       </c>
-    </row>
-    <row r="38" spans="1:31">
+      <c r="AE37">
+        <f t="shared" si="0"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" hidden="1">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -3432,8 +3526,12 @@
       <c r="AD38">
         <v>1.1757976016304847</v>
       </c>
-    </row>
-    <row r="39" spans="1:31">
+      <c r="AE38">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" hidden="1">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -3489,7 +3587,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:31" hidden="1">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -3551,7 +3649,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:31" hidden="1">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -3629,7 +3727,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:31" hidden="1">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -3690,8 +3788,12 @@
       <c r="AD42">
         <v>8.2915619758885076E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:31">
+      <c r="AE42">
+        <f>AC42-1</f>
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" hidden="1">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -3758,8 +3860,12 @@
       <c r="AD43">
         <v>0.43301270189222135</v>
       </c>
-    </row>
-    <row r="44" spans="1:31">
+      <c r="AE43">
+        <f>AC43-1</f>
+        <v>6.8999999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" hidden="1">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -3842,8 +3948,12 @@
       <c r="AD44">
         <v>0.23284920012746457</v>
       </c>
-    </row>
-    <row r="45" spans="1:31">
+      <c r="AE44">
+        <f t="shared" ref="AE44:AE51" si="1">AC44-1</f>
+        <v>10.875</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" hidden="1">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -3910,8 +4020,12 @@
       <c r="AD45">
         <v>0.49180788932264974</v>
       </c>
-    </row>
-    <row r="46" spans="1:31">
+      <c r="AE45">
+        <f t="shared" si="1"/>
+        <v>13.85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" hidden="1">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -3972,8 +4086,12 @@
       <c r="AD46">
         <v>0.47087020504593402</v>
       </c>
-    </row>
-    <row r="47" spans="1:31">
+      <c r="AE46">
+        <f t="shared" si="1"/>
+        <v>4.2750000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" hidden="1">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -4040,8 +4158,12 @@
       <c r="AD47">
         <v>0.68920243760451216</v>
       </c>
-    </row>
-    <row r="48" spans="1:31">
+      <c r="AE47">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" hidden="1">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -4124,8 +4246,12 @@
       <c r="AD48">
         <v>0.22484562605386729</v>
       </c>
-    </row>
-    <row r="49" spans="1:30">
+      <c r="AE48">
+        <f t="shared" si="1"/>
+        <v>10.433333333333332</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" hidden="1">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -4192,8 +4318,12 @@
       <c r="AD49">
         <v>1.3141061600951396</v>
       </c>
-    </row>
-    <row r="50" spans="1:30">
+      <c r="AE49">
+        <f t="shared" si="1"/>
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" hidden="1">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -4254,8 +4384,12 @@
       <c r="AD50">
         <v>0.27726341266023546</v>
       </c>
-    </row>
-    <row r="51" spans="1:30">
+      <c r="AE50">
+        <f t="shared" si="1"/>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" hidden="1">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -4322,8 +4456,12 @@
       <c r="AD51">
         <v>1.1884864324004689</v>
       </c>
-    </row>
-    <row r="52" spans="1:30">
+      <c r="AE51">
+        <f t="shared" si="1"/>
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" hidden="1">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -4385,7 +4523,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:31" hidden="1">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -4463,7 +4601,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:31" hidden="1">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -4530,8 +4668,12 @@
       <c r="AD54">
         <v>0.1732050807568877</v>
       </c>
-    </row>
-    <row r="55" spans="1:30">
+      <c r="AE54">
+        <f>AC54-1</f>
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" hidden="1">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -4614,8 +4756,12 @@
       <c r="AD55">
         <v>0.81499616563515842</v>
       </c>
-    </row>
-    <row r="56" spans="1:30">
+      <c r="AE55">
+        <f>AC55-1</f>
+        <v>11.475</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" hidden="1">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -4682,8 +4828,12 @@
       <c r="AD56">
         <v>0.28145825622994264</v>
       </c>
-    </row>
-    <row r="57" spans="1:30">
+      <c r="AE56">
+        <f t="shared" ref="AE56" si="2">AC56-1</f>
+        <v>12.525</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" hidden="1">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -4739,7 +4889,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:31" hidden="1">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -4800,8 +4950,12 @@
       <c r="AD58">
         <v>0.43229041164476623</v>
       </c>
-    </row>
-    <row r="59" spans="1:30">
+      <c r="AE58">
+        <f>AC58-1</f>
+        <v>4.4499999999999993</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" hidden="1">
       <c r="A59" t="s">
         <v>18</v>
       </c>
@@ -4868,8 +5022,12 @@
       <c r="AD59">
         <v>1.0353139620424348</v>
       </c>
-    </row>
-    <row r="60" spans="1:30">
+      <c r="AE59">
+        <f>AC59-1</f>
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" hidden="1">
       <c r="A60" t="s">
         <v>18</v>
       </c>
@@ -4952,8 +5110,12 @@
       <c r="AD60">
         <v>0.33541019662496857</v>
       </c>
-    </row>
-    <row r="61" spans="1:30">
+      <c r="AE60">
+        <f t="shared" ref="AE60:AE63" si="3">AC60-1</f>
+        <v>10.899999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" hidden="1">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -5020,8 +5182,12 @@
       <c r="AD61">
         <v>1.3827056809024814</v>
       </c>
-    </row>
-    <row r="62" spans="1:30">
+      <c r="AE61">
+        <f t="shared" si="3"/>
+        <v>13.65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" hidden="1">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -5088,8 +5254,12 @@
       <c r="AD62">
         <v>0.68590724591594887</v>
       </c>
-    </row>
-    <row r="63" spans="1:30">
+      <c r="AE62">
+        <f t="shared" si="3"/>
+        <v>7.1749999999999989</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" hidden="1">
       <c r="A63" t="s">
         <v>18</v>
       </c>
@@ -5156,8 +5326,12 @@
       <c r="AD63">
         <v>1.7846568297574714</v>
       </c>
-    </row>
-    <row r="64" spans="1:30">
+      <c r="AE63">
+        <f t="shared" si="3"/>
+        <v>12.400000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" hidden="1">
       <c r="A64" t="s">
         <v>18</v>
       </c>
@@ -5213,7 +5387,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:30">
+    <row r="65" spans="1:31" hidden="1">
       <c r="A65" t="s">
         <v>18</v>
       </c>
@@ -5291,7 +5465,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:30">
+    <row r="66" spans="1:31" hidden="1">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -5358,8 +5532,12 @@
       <c r="AD66">
         <v>0.18708286933869706</v>
       </c>
-    </row>
-    <row r="67" spans="1:30">
+      <c r="AE66">
+        <f>AC66-1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" hidden="1">
       <c r="A67" t="s">
         <v>18</v>
       </c>
@@ -5442,8 +5620,12 @@
       <c r="AD67">
         <v>0.26809513236909011</v>
       </c>
-    </row>
-    <row r="68" spans="1:30">
+      <c r="AE67">
+        <f>AC67-1</f>
+        <v>7.3500000000000014</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" hidden="1">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -5499,7 +5681,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:30">
+    <row r="69" spans="1:31" hidden="1">
       <c r="A69" t="s">
         <v>18</v>
       </c>
@@ -5561,7 +5743,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:30">
+    <row r="70" spans="1:31" hidden="1">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -5622,8 +5804,12 @@
       <c r="AD70">
         <v>0.55452682532047171</v>
       </c>
-    </row>
-    <row r="71" spans="1:30">
+      <c r="AE70">
+        <f>AC70-1</f>
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" hidden="1">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -5706,8 +5892,12 @@
       <c r="AD71">
         <v>0.71763500472036656</v>
       </c>
-    </row>
-    <row r="72" spans="1:30">
+      <c r="AE71">
+        <f>AC71-1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" hidden="1">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -5774,8 +5964,12 @@
       <c r="AD72">
         <v>0.7595228765481663</v>
       </c>
-    </row>
-    <row r="73" spans="1:30">
+      <c r="AE72">
+        <f>AC72-1</f>
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" hidden="1">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -5831,7 +6025,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:30">
+    <row r="74" spans="1:31" hidden="1">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -5898,8 +6092,12 @@
       <c r="AD74">
         <v>0.59319052588523336</v>
       </c>
-    </row>
-    <row r="75" spans="1:30">
+      <c r="AE74">
+        <f>AC74-1</f>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" hidden="1">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -5966,8 +6164,12 @@
       <c r="AD75">
         <v>0.81192287195274837</v>
       </c>
-    </row>
-    <row r="76" spans="1:30">
+      <c r="AE75">
+        <f>AC75-1</f>
+        <v>5.3250000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31" hidden="1">
       <c r="A76" t="s">
         <v>18</v>
       </c>
@@ -6023,7 +6225,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:30">
+    <row r="77" spans="1:31" hidden="1">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -6101,7 +6303,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:30">
+    <row r="78" spans="1:31" hidden="1">
       <c r="A78" t="s">
         <v>18</v>
       </c>
@@ -6168,8 +6370,12 @@
       <c r="AD78">
         <v>0.43011626335213293</v>
       </c>
-    </row>
-    <row r="79" spans="1:30">
+      <c r="AE78">
+        <f>AC78-1</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" hidden="1">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -6252,8 +6458,12 @@
       <c r="AD79">
         <v>0.11388041973930381</v>
       </c>
-    </row>
-    <row r="80" spans="1:30">
+      <c r="AE79">
+        <f>AC79-1</f>
+        <v>5.0250000000000004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" hidden="1">
       <c r="A80" t="s">
         <v>18</v>
       </c>
@@ -6309,7 +6519,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="1:30">
+    <row r="81" spans="1:31" hidden="1">
       <c r="A81" t="s">
         <v>18</v>
       </c>
@@ -6371,7 +6581,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="1:30">
+    <row r="82" spans="1:31" hidden="1">
       <c r="A82" t="s">
         <v>18</v>
       </c>
@@ -6432,8 +6642,12 @@
       <c r="AD82">
         <v>0.31917863337009217</v>
       </c>
-    </row>
-    <row r="83" spans="1:30">
+      <c r="AE82">
+        <f>AC82-1</f>
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31" hidden="1">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -6516,8 +6730,12 @@
       <c r="AD83">
         <v>0.24874685927665491</v>
       </c>
-    </row>
-    <row r="84" spans="1:30">
+      <c r="AE83">
+        <f>AC83-1</f>
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31" hidden="1">
       <c r="A84" t="s">
         <v>18</v>
       </c>
@@ -6584,8 +6802,12 @@
       <c r="AD84">
         <v>0.58309518948452843</v>
       </c>
-    </row>
-    <row r="85" spans="1:30">
+      <c r="AE84">
+        <f>AC84-1</f>
+        <v>6.8000000000000007</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31" hidden="1">
       <c r="A85" t="s">
         <v>18</v>
       </c>
@@ -6641,7 +6863,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="1:30">
+    <row r="86" spans="1:31">
       <c r="A86" t="s">
         <v>18</v>
       </c>
@@ -6662,8 +6884,12 @@
       <c r="AD86">
         <v>0.10897247358851676</v>
       </c>
-    </row>
-    <row r="87" spans="1:30">
+      <c r="AE86">
+        <f>AC86-1</f>
+        <v>4.5500000000000007</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31">
       <c r="A87" t="s">
         <v>18</v>
       </c>
@@ -6700,8 +6926,12 @@
       <c r="AD87">
         <v>0.76852130744697178</v>
       </c>
-    </row>
-    <row r="88" spans="1:30">
+      <c r="AE87">
+        <f>AC87-1</f>
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31">
       <c r="A88" t="s">
         <v>18</v>
       </c>
@@ -6731,7 +6961,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:30">
+    <row r="89" spans="1:31" hidden="1">
       <c r="A89" t="s">
         <v>18</v>
       </c>
@@ -6750,8 +6980,12 @@
       <c r="AD89">
         <v>0.12247448713915883</v>
       </c>
-    </row>
-    <row r="90" spans="1:30">
+      <c r="AE89">
+        <f>AC89-1</f>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:31" hidden="1">
       <c r="A90" t="s">
         <v>18</v>
       </c>
@@ -6788,8 +7022,12 @@
       <c r="AD90">
         <v>0.68328251843582888</v>
       </c>
-    </row>
-    <row r="91" spans="1:30">
+      <c r="AE90">
+        <f>AC90-1</f>
+        <v>12.049999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31" hidden="1">
       <c r="A91" t="s">
         <v>18</v>
       </c>
@@ -6819,7 +7057,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:30">
+    <row r="92" spans="1:31" hidden="1">
       <c r="A92" t="s">
         <v>18</v>
       </c>
@@ -6838,8 +7076,12 @@
       <c r="AD92">
         <v>0.25860201081971496</v>
       </c>
-    </row>
-    <row r="93" spans="1:30">
+      <c r="AE92">
+        <f>AC92-1</f>
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="93" spans="1:31" hidden="1">
       <c r="A93" t="s">
         <v>18</v>
       </c>
@@ -6876,8 +7118,12 @@
       <c r="AD93">
         <v>0.96136296475368743</v>
       </c>
-    </row>
-    <row r="94" spans="1:30">
+      <c r="AE93">
+        <f>AC93-1</f>
+        <v>5.9249999999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:31" hidden="1">
       <c r="A94" t="s">
         <v>18</v>
       </c>
@@ -6907,7 +7153,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="95" spans="1:30">
+    <row r="95" spans="1:31" hidden="1">
       <c r="A95" t="s">
         <v>18</v>
       </c>
@@ -6926,8 +7172,12 @@
       <c r="AD95">
         <v>0.13479150566708564</v>
       </c>
-    </row>
-    <row r="96" spans="1:30">
+      <c r="AE95">
+        <f>AC95-1</f>
+        <v>4.335</v>
+      </c>
+    </row>
+    <row r="96" spans="1:31" hidden="1">
       <c r="A96" t="s">
         <v>18</v>
       </c>
@@ -6964,8 +7214,12 @@
       <c r="AD96">
         <v>0.91472331882378766</v>
       </c>
-    </row>
-    <row r="97" spans="1:30">
+      <c r="AE96">
+        <f>AC96-1</f>
+        <v>6.9249999999999989</v>
+      </c>
+    </row>
+    <row r="97" spans="1:31" hidden="1">
       <c r="A97" t="s">
         <v>18</v>
       </c>
@@ -6995,7 +7249,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="98" spans="1:30">
+    <row r="98" spans="1:31" hidden="1">
       <c r="A98" t="s">
         <v>18</v>
       </c>
@@ -7014,8 +7268,12 @@
       <c r="AD98">
         <v>0.70887234393788967</v>
       </c>
-    </row>
-    <row r="99" spans="1:30">
+      <c r="AE98">
+        <f>AC98-1</f>
+        <v>4.8666666666666671</v>
+      </c>
+    </row>
+    <row r="99" spans="1:31" hidden="1">
       <c r="A99" t="s">
         <v>18</v>
       </c>
@@ -7052,8 +7310,12 @@
       <c r="AD99">
         <v>1.6416455159382026</v>
       </c>
-    </row>
-    <row r="100" spans="1:30">
+      <c r="AE99">
+        <f>AC99-1</f>
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:31" hidden="1">
       <c r="A100" t="s">
         <v>18</v>
       </c>
@@ -7083,7 +7345,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="101" spans="1:30">
+    <row r="101" spans="1:31" hidden="1">
       <c r="A101" t="s">
         <v>18</v>
       </c>
@@ -7102,8 +7364,12 @@
       <c r="AD101">
         <v>0.12990381056766589</v>
       </c>
-    </row>
-    <row r="102" spans="1:30">
+      <c r="AE101">
+        <f>AC101-1</f>
+        <v>3.8499999999999996</v>
+      </c>
+    </row>
+    <row r="102" spans="1:31" hidden="1">
       <c r="A102" t="s">
         <v>18</v>
       </c>
@@ -7140,8 +7406,12 @@
       <c r="AD102">
         <v>0.48653751140071555</v>
       </c>
-    </row>
-    <row r="103" spans="1:30">
+      <c r="AE102">
+        <f>AC102-1</f>
+        <v>6.0749999999999993</v>
+      </c>
+    </row>
+    <row r="103" spans="1:31" hidden="1">
       <c r="A103" t="s">
         <v>18</v>
       </c>
@@ -7171,7 +7441,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:30">
+    <row r="104" spans="1:31">
       <c r="A104" t="s">
         <v>18</v>
       </c>
@@ -7203,13 +7473,17 @@
         <v>77</v>
       </c>
       <c r="AC104">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="AD104">
-        <v>7.0710678118654655E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:30">
+        <v>1.0965856099730658</v>
+      </c>
+      <c r="AE104">
+        <f>AC104-1</f>
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:31">
       <c r="A105" t="s">
         <v>18</v>
       </c>
@@ -7241,13 +7515,17 @@
         <v>77</v>
       </c>
       <c r="AC105">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="AD105">
-        <v>1.0965856099730658</v>
-      </c>
-    </row>
-    <row r="106" spans="1:30">
+        <v>7.0710678118654655E-2</v>
+      </c>
+      <c r="AE105">
+        <f>AC105-1</f>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:31">
       <c r="A106" t="s">
         <v>18</v>
       </c>
@@ -7279,13 +7557,17 @@
         <v>77</v>
       </c>
       <c r="AC106">
-        <v>10.797499999999999</v>
+        <v>12.95</v>
       </c>
       <c r="AD106">
-        <v>1.1578664376775096</v>
-      </c>
-    </row>
-    <row r="107" spans="1:30">
+        <v>1.0280442597476069</v>
+      </c>
+      <c r="AE106">
+        <f>AC106-1</f>
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="107" spans="1:31">
       <c r="A107" t="s">
         <v>18</v>
       </c>
@@ -7317,13 +7599,17 @@
         <v>77</v>
       </c>
       <c r="AC107">
-        <v>12.95</v>
+        <v>10.797499999999999</v>
       </c>
       <c r="AD107">
-        <v>1.0280442597476069</v>
-      </c>
-    </row>
-    <row r="108" spans="1:30">
+        <v>1.1578664376775096</v>
+      </c>
+      <c r="AE107">
+        <f>AC107-1</f>
+        <v>9.7974999999999994</v>
+      </c>
+    </row>
+    <row r="108" spans="1:31" hidden="1">
       <c r="A108" t="s">
         <v>18</v>
       </c>
@@ -7360,8 +7646,12 @@
       <c r="AD108">
         <v>0.42720018726587772</v>
       </c>
-    </row>
-    <row r="109" spans="1:30">
+      <c r="AE108">
+        <f t="shared" ref="AE106:AE151" si="4">AC108-1</f>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:31" hidden="1">
       <c r="A109" t="s">
         <v>18</v>
       </c>
@@ -7393,13 +7683,17 @@
         <v>74</v>
       </c>
       <c r="AC109">
-        <v>7.8000000000000007</v>
+        <v>10.350000000000001</v>
       </c>
       <c r="AD109">
-        <v>0.25495097567963915</v>
-      </c>
-    </row>
-    <row r="110" spans="1:30">
+        <v>1.1453711188955278</v>
+      </c>
+      <c r="AE109">
+        <f>AC109-1</f>
+        <v>9.3500000000000014</v>
+      </c>
+    </row>
+    <row r="110" spans="1:31" hidden="1">
       <c r="A110" t="s">
         <v>18</v>
       </c>
@@ -7431,13 +7725,17 @@
         <v>74</v>
       </c>
       <c r="AC110">
-        <v>10.350000000000001</v>
+        <v>7.8000000000000007</v>
       </c>
       <c r="AD110">
-        <v>1.1453711188955278</v>
-      </c>
-    </row>
-    <row r="111" spans="1:30">
+        <v>0.25495097567963915</v>
+      </c>
+      <c r="AE110">
+        <f>AC110-1</f>
+        <v>6.8000000000000007</v>
+      </c>
+    </row>
+    <row r="111" spans="1:31" hidden="1">
       <c r="A111" t="s">
         <v>18</v>
       </c>
@@ -7474,8 +7772,12 @@
       <c r="AD111">
         <v>0.73950997288745202</v>
       </c>
-    </row>
-    <row r="112" spans="1:30">
+      <c r="AE111">
+        <f t="shared" si="4"/>
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:31" hidden="1">
       <c r="A112" t="s">
         <v>18</v>
       </c>
@@ -7512,8 +7814,12 @@
       <c r="AD112">
         <v>0.31917863337009256</v>
       </c>
-    </row>
-    <row r="113" spans="1:30">
+      <c r="AE112">
+        <f t="shared" si="4"/>
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="113" spans="1:31" hidden="1">
       <c r="A113" t="s">
         <v>18</v>
       </c>
@@ -7550,8 +7856,12 @@
       <c r="AD113">
         <v>0.42646805273080135</v>
       </c>
-    </row>
-    <row r="114" spans="1:30">
+      <c r="AE113">
+        <f t="shared" si="4"/>
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="114" spans="1:31" hidden="1">
       <c r="A114" t="s">
         <v>18</v>
       </c>
@@ -7583,13 +7893,17 @@
         <v>77</v>
       </c>
       <c r="AC114">
-        <v>10.734999999999999</v>
+        <v>11.6</v>
       </c>
       <c r="AD114">
-        <v>1.3066392960568749</v>
-      </c>
-    </row>
-    <row r="115" spans="1:30">
+        <v>0.25495097567963931</v>
+      </c>
+      <c r="AE114">
+        <f>AC114-1</f>
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:31" hidden="1">
       <c r="A115" t="s">
         <v>18</v>
       </c>
@@ -7621,13 +7935,17 @@
         <v>77</v>
       </c>
       <c r="AC115">
-        <v>11.6</v>
+        <v>10.734999999999999</v>
       </c>
       <c r="AD115">
-        <v>0.25495097567963931</v>
-      </c>
-    </row>
-    <row r="116" spans="1:30">
+        <v>1.3066392960568749</v>
+      </c>
+      <c r="AE115">
+        <f>AC115-1</f>
+        <v>9.7349999999999994</v>
+      </c>
+    </row>
+    <row r="116" spans="1:31" hidden="1">
       <c r="A116" t="s">
         <v>18</v>
       </c>
@@ -7664,8 +7982,12 @@
       <c r="AD116">
         <v>0.26562295750848708</v>
       </c>
-    </row>
-    <row r="117" spans="1:30">
+      <c r="AE116">
+        <f t="shared" si="4"/>
+        <v>5.3666666666666671</v>
+      </c>
+    </row>
+    <row r="117" spans="1:31" hidden="1">
       <c r="A117" t="s">
         <v>18</v>
       </c>
@@ -7702,8 +8024,12 @@
       <c r="AD117">
         <v>4.330127018922178E-2</v>
       </c>
-    </row>
-    <row r="118" spans="1:30">
+      <c r="AE117">
+        <f t="shared" si="4"/>
+        <v>5.5500000000000007</v>
+      </c>
+    </row>
+    <row r="118" spans="1:31" hidden="1">
       <c r="A118" t="s">
         <v>18</v>
       </c>
@@ -7735,13 +8061,17 @@
         <v>77</v>
       </c>
       <c r="AC118">
-        <v>9.5250000000000004</v>
+        <v>11.25</v>
       </c>
       <c r="AD118">
-        <v>1.1822991372744869</v>
-      </c>
-    </row>
-    <row r="119" spans="1:30">
+        <v>1.1233320969330469</v>
+      </c>
+      <c r="AE118">
+        <f>AC118-1</f>
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:31" hidden="1">
       <c r="A119" t="s">
         <v>18</v>
       </c>
@@ -7773,13 +8103,17 @@
         <v>77</v>
       </c>
       <c r="AC119">
-        <v>11.25</v>
+        <v>9.5250000000000004</v>
       </c>
       <c r="AD119">
-        <v>1.1233320969330469</v>
-      </c>
-    </row>
-    <row r="120" spans="1:30">
+        <v>1.1822991372744869</v>
+      </c>
+      <c r="AE119">
+        <f>AC119-1</f>
+        <v>8.5250000000000004</v>
+      </c>
+    </row>
+    <row r="120" spans="1:31" hidden="1">
       <c r="A120" t="s">
         <v>18</v>
       </c>
@@ -7811,13 +8145,17 @@
         <v>77</v>
       </c>
       <c r="AC120">
-        <v>8.3000000000000007</v>
+        <v>11.549999999999999</v>
       </c>
       <c r="AD120">
-        <v>0.35000000000000009</v>
-      </c>
-    </row>
-    <row r="121" spans="1:30">
+        <v>0.5117372372614678</v>
+      </c>
+      <c r="AE120">
+        <f>AC120-1</f>
+        <v>10.549999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:31" hidden="1">
       <c r="A121" t="s">
         <v>18</v>
       </c>
@@ -7849,13 +8187,17 @@
         <v>77</v>
       </c>
       <c r="AC121">
-        <v>8.35</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="AD121">
-        <v>0.47631397208144094</v>
-      </c>
-    </row>
-    <row r="122" spans="1:30">
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="AE121">
+        <f>AC121-1</f>
+        <v>7.3000000000000007</v>
+      </c>
+    </row>
+    <row r="122" spans="1:31" hidden="1">
       <c r="A122" t="s">
         <v>18</v>
       </c>
@@ -7887,13 +8229,17 @@
         <v>77</v>
       </c>
       <c r="AC122">
-        <v>11.549999999999999</v>
+        <v>8.35</v>
       </c>
       <c r="AD122">
-        <v>0.5117372372614678</v>
-      </c>
-    </row>
-    <row r="123" spans="1:30">
+        <v>0.47631397208144094</v>
+      </c>
+      <c r="AE122">
+        <f>AC122-1</f>
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="123" spans="1:31" hidden="1">
       <c r="A123" t="s">
         <v>18</v>
       </c>
@@ -7930,8 +8276,12 @@
       <c r="AD123">
         <v>2.0425657884141697</v>
       </c>
-    </row>
-    <row r="124" spans="1:30">
+      <c r="AE123">
+        <f t="shared" si="4"/>
+        <v>14.59</v>
+      </c>
+    </row>
+    <row r="124" spans="1:31" hidden="1">
       <c r="A124" t="s">
         <v>18</v>
       </c>
@@ -7968,8 +8318,12 @@
       <c r="AD124">
         <v>0.3112474899497184</v>
       </c>
-    </row>
-    <row r="125" spans="1:30">
+      <c r="AE124">
+        <f t="shared" si="4"/>
+        <v>5.4499999999999993</v>
+      </c>
+    </row>
+    <row r="125" spans="1:31" hidden="1">
       <c r="A125" t="s">
         <v>18</v>
       </c>
@@ -8006,8 +8360,12 @@
       <c r="AD125">
         <v>0.2165063509461097</v>
       </c>
-    </row>
-    <row r="126" spans="1:30">
+      <c r="AE125">
+        <f t="shared" si="4"/>
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="126" spans="1:31" hidden="1">
       <c r="A126" t="s">
         <v>18</v>
       </c>
@@ -8044,8 +8402,12 @@
       <c r="AD126">
         <v>1.2852528934026968</v>
       </c>
-    </row>
-    <row r="127" spans="1:30">
+      <c r="AE126">
+        <f t="shared" si="4"/>
+        <v>10.85</v>
+      </c>
+    </row>
+    <row r="127" spans="1:31" hidden="1">
       <c r="A127" t="s">
         <v>18</v>
       </c>
@@ -8082,8 +8444,12 @@
       <c r="AD127">
         <v>1.7997829730275812</v>
       </c>
-    </row>
-    <row r="128" spans="1:30">
+      <c r="AE127">
+        <f t="shared" si="4"/>
+        <v>11.324999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:31">
       <c r="A128" t="s">
         <v>18</v>
       </c>
@@ -8120,8 +8486,12 @@
       <c r="AD128">
         <v>0.4023369234857751</v>
       </c>
-    </row>
-    <row r="129" spans="1:30">
+      <c r="AE128">
+        <f t="shared" si="4"/>
+        <v>3.1500000000000004</v>
+      </c>
+    </row>
+    <row r="129" spans="1:31">
       <c r="A129" t="s">
         <v>18</v>
       </c>
@@ -8153,13 +8523,17 @@
         <v>86.75</v>
       </c>
       <c r="AC129">
-        <v>11.3</v>
+        <v>11.35</v>
       </c>
       <c r="AD129">
-        <v>0.40311288741492768</v>
-      </c>
-    </row>
-    <row r="130" spans="1:30">
+        <v>0.86998563206526625</v>
+      </c>
+      <c r="AE129">
+        <f>AC129-1</f>
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="130" spans="1:31">
       <c r="A130" t="s">
         <v>18</v>
       </c>
@@ -8191,13 +8565,17 @@
         <v>86.75</v>
       </c>
       <c r="AC130">
-        <v>11.35</v>
+        <v>11.4</v>
       </c>
       <c r="AD130">
-        <v>0.86998563206526625</v>
-      </c>
-    </row>
-    <row r="131" spans="1:30">
+        <v>0.59160797830996281</v>
+      </c>
+      <c r="AE130">
+        <f>AC130-1</f>
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:31">
       <c r="A131" t="s">
         <v>18</v>
       </c>
@@ -8229,13 +8607,17 @@
         <v>86.75</v>
       </c>
       <c r="AC131">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="AD131">
-        <v>0.59160797830996281</v>
-      </c>
-    </row>
-    <row r="132" spans="1:30">
+        <v>0.40311288741492768</v>
+      </c>
+      <c r="AE131">
+        <f>AC131-1</f>
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:31" hidden="1">
       <c r="A132" t="s">
         <v>18</v>
       </c>
@@ -8272,8 +8654,12 @@
       <c r="AD132">
         <v>0.2861380785564886</v>
       </c>
-    </row>
-    <row r="133" spans="1:30">
+      <c r="AE132">
+        <f t="shared" si="4"/>
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="133" spans="1:31" hidden="1">
       <c r="A133" t="s">
         <v>18</v>
       </c>
@@ -8305,13 +8691,17 @@
         <v>86</v>
       </c>
       <c r="AC133">
-        <v>6.75</v>
+        <v>14.8125</v>
       </c>
       <c r="AD133">
-        <v>0.57608593109014572</v>
-      </c>
-    </row>
-    <row r="134" spans="1:30">
+        <v>1.5370807355178191</v>
+      </c>
+      <c r="AE133">
+        <f>AC133-1</f>
+        <v>13.8125</v>
+      </c>
+    </row>
+    <row r="134" spans="1:31" hidden="1">
       <c r="A134" t="s">
         <v>18</v>
       </c>
@@ -8348,8 +8738,12 @@
       <c r="AD134">
         <v>1.6023420358962095</v>
       </c>
-    </row>
-    <row r="135" spans="1:30">
+      <c r="AE134">
+        <f t="shared" si="4"/>
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:31" hidden="1">
       <c r="A135" t="s">
         <v>18</v>
       </c>
@@ -8381,13 +8775,17 @@
         <v>86</v>
       </c>
       <c r="AC135">
-        <v>14.8125</v>
+        <v>6.75</v>
       </c>
       <c r="AD135">
-        <v>1.5370807355178191</v>
-      </c>
-    </row>
-    <row r="136" spans="1:30">
+        <v>0.57608593109014572</v>
+      </c>
+      <c r="AE135">
+        <f>AC135-1</f>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="136" spans="1:31" hidden="1">
       <c r="A136" t="s">
         <v>18</v>
       </c>
@@ -8424,8 +8822,12 @@
       <c r="AD136">
         <v>0.18027756377320001</v>
       </c>
-    </row>
-    <row r="137" spans="1:30">
+      <c r="AE136">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:31" hidden="1">
       <c r="A137" t="s">
         <v>18</v>
       </c>
@@ -8457,13 +8859,17 @@
         <v>89</v>
       </c>
       <c r="AC137">
-        <v>8.2000000000000011</v>
+        <v>12.15</v>
       </c>
       <c r="AD137">
-        <v>0.25495097567963931</v>
-      </c>
-    </row>
-    <row r="138" spans="1:30">
+        <v>1.0520812706250384</v>
+      </c>
+      <c r="AE137">
+        <f>AC137-1</f>
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:31" hidden="1">
       <c r="A138" t="s">
         <v>18</v>
       </c>
@@ -8500,8 +8906,12 @@
       <c r="AD138">
         <v>0.54025456962435869</v>
       </c>
-    </row>
-    <row r="139" spans="1:30">
+      <c r="AE138">
+        <f>AC138-1</f>
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="139" spans="1:31" hidden="1">
       <c r="A139" t="s">
         <v>18</v>
       </c>
@@ -8533,13 +8943,17 @@
         <v>89</v>
       </c>
       <c r="AC139">
-        <v>12.15</v>
+        <v>8.2000000000000011</v>
       </c>
       <c r="AD139">
-        <v>1.0520812706250384</v>
-      </c>
-    </row>
-    <row r="140" spans="1:30">
+        <v>0.25495097567963931</v>
+      </c>
+      <c r="AE139">
+        <f>AC139-1</f>
+        <v>7.2000000000000011</v>
+      </c>
+    </row>
+    <row r="140" spans="1:31" hidden="1">
       <c r="A140" t="s">
         <v>18</v>
       </c>
@@ -8576,8 +8990,12 @@
       <c r="AD140">
         <v>0.38951091127207282</v>
       </c>
-    </row>
-    <row r="141" spans="1:30">
+      <c r="AE140">
+        <f t="shared" si="4"/>
+        <v>2.7249999999999996</v>
+      </c>
+    </row>
+    <row r="141" spans="1:31" hidden="1">
       <c r="A141" t="s">
         <v>18</v>
       </c>
@@ -8609,13 +9027,17 @@
         <v>89</v>
       </c>
       <c r="AC141">
-        <v>7.7</v>
+        <v>12.55</v>
       </c>
       <c r="AD141">
-        <v>0.43874821936960495</v>
-      </c>
-    </row>
-    <row r="142" spans="1:30">
+        <v>1.0825317547305451</v>
+      </c>
+      <c r="AE141">
+        <f>AC141-1</f>
+        <v>11.55</v>
+      </c>
+    </row>
+    <row r="142" spans="1:31" hidden="1">
       <c r="A142" t="s">
         <v>18</v>
       </c>
@@ -8647,13 +9069,17 @@
         <v>89</v>
       </c>
       <c r="AC142">
-        <v>10.6</v>
+        <v>7.7</v>
       </c>
       <c r="AD142">
-        <v>0.37416573867739411</v>
-      </c>
-    </row>
-    <row r="143" spans="1:30">
+        <v>0.43874821936960495</v>
+      </c>
+      <c r="AE142">
+        <f>AC142-1</f>
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:31" hidden="1">
       <c r="A143" t="s">
         <v>18</v>
       </c>
@@ -8685,13 +9111,17 @@
         <v>89</v>
       </c>
       <c r="AC143">
-        <v>12.55</v>
+        <v>10.6</v>
       </c>
       <c r="AD143">
-        <v>1.0825317547305451</v>
-      </c>
-    </row>
-    <row r="144" spans="1:30">
+        <v>0.37416573867739411</v>
+      </c>
+      <c r="AE143">
+        <f>AC143-1</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:31" hidden="1">
       <c r="A144" t="s">
         <v>18</v>
       </c>
@@ -8728,8 +9158,12 @@
       <c r="AD144">
         <v>0.20463381929681126</v>
       </c>
-    </row>
-    <row r="145" spans="1:30">
+      <c r="AE144">
+        <f t="shared" si="4"/>
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="145" spans="1:31" hidden="1">
       <c r="A145" t="s">
         <v>18</v>
       </c>
@@ -8761,13 +9195,17 @@
         <v>86</v>
       </c>
       <c r="AC145">
-        <v>8.375</v>
+        <v>14.825000000000001</v>
       </c>
       <c r="AD145">
-        <v>0.57268555944776545</v>
-      </c>
-    </row>
-    <row r="146" spans="1:30">
+        <v>0.81729355191387199</v>
+      </c>
+      <c r="AE145">
+        <f>AC145-1</f>
+        <v>13.825000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:31" hidden="1">
       <c r="A146" t="s">
         <v>18</v>
       </c>
@@ -8799,13 +9237,17 @@
         <v>86</v>
       </c>
       <c r="AC146">
-        <v>12.95</v>
+        <v>8.375</v>
       </c>
       <c r="AD146">
-        <v>0.80738776309775961</v>
-      </c>
-    </row>
-    <row r="147" spans="1:30">
+        <v>0.57268555944776545</v>
+      </c>
+      <c r="AE146">
+        <f>AC146-1</f>
+        <v>7.375</v>
+      </c>
+    </row>
+    <row r="147" spans="1:31" hidden="1">
       <c r="A147" t="s">
         <v>18</v>
       </c>
@@ -8837,13 +9279,17 @@
         <v>86</v>
       </c>
       <c r="AC147">
-        <v>14.825000000000001</v>
+        <v>12.95</v>
       </c>
       <c r="AD147">
-        <v>0.81729355191387199</v>
-      </c>
-    </row>
-    <row r="148" spans="1:30">
+        <v>0.80738776309775961</v>
+      </c>
+      <c r="AE147">
+        <f>AC147-1</f>
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="148" spans="1:31" hidden="1">
       <c r="A148" t="s">
         <v>18</v>
       </c>
@@ -8880,8 +9326,12 @@
       <c r="AD148">
         <v>0.12247448713915901</v>
       </c>
-    </row>
-    <row r="149" spans="1:30">
+      <c r="AE148">
+        <f t="shared" si="4"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:31" hidden="1">
       <c r="A149" t="s">
         <v>18</v>
       </c>
@@ -8913,13 +9363,17 @@
         <v>88.25</v>
       </c>
       <c r="AC149">
-        <v>11.8</v>
+        <v>13.05</v>
       </c>
       <c r="AD149">
-        <v>1.0606601717798247</v>
-      </c>
-    </row>
-    <row r="150" spans="1:30">
+        <v>0.36314597615834865</v>
+      </c>
+      <c r="AE149">
+        <f>AC149-1</f>
+        <v>12.05</v>
+      </c>
+    </row>
+    <row r="150" spans="1:31" hidden="1">
       <c r="A150" t="s">
         <v>18</v>
       </c>
@@ -8951,13 +9405,17 @@
         <v>88.25</v>
       </c>
       <c r="AC150">
-        <v>13.05</v>
+        <v>13.75</v>
       </c>
       <c r="AD150">
-        <v>0.36314597615834865</v>
-      </c>
-    </row>
-    <row r="151" spans="1:30">
+        <v>1.6618889854620265</v>
+      </c>
+      <c r="AE150">
+        <f>AC150-1</f>
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="151" spans="1:31" hidden="1">
       <c r="A151" t="s">
         <v>18</v>
       </c>
@@ -8989,13 +9447,26 @@
         <v>88.25</v>
       </c>
       <c r="AC151">
-        <v>13.75</v>
+        <v>11.8</v>
       </c>
       <c r="AD151">
-        <v>1.6618889854620265</v>
+        <v>1.0606601717798247</v>
+      </c>
+      <c r="AE151">
+        <f>AC151-1</f>
+        <v>10.8</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AE151" xr:uid="{1EE8BA1D-C516-4D8E-A81D-3534C605AA12}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="TOSyear3SowNov20CvBerken"/>
+        <filter val="TOSyear3SowOct20CvBerken"/>
+        <filter val="TOSyear3SowSept20CvBerken"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD151">
     <sortCondition ref="B2:B151"/>
     <sortCondition ref="AC2:AC151"/>

--- a/Prototypes/Mungbean/TOSobserved.xlsx
+++ b/Prototypes/Mungbean/TOSobserved.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C397C1F-FC9E-4AFD-989A-E8DDF6929C36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE8F4CA-A154-40F2-B3B1-D43678963626}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01D3E681-48EE-4304-AF98-4E94EBE61D53}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01D3E681-48EE-4304-AF98-4E94EBE61D53}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -260,16 +260,16 @@
     <t>EndCanopyDevelopment</t>
   </si>
   <si>
-    <t>Soybean.AboVegatativeround.Wt</t>
-  </si>
-  <si>
-    <t>Soybean.AboVegatativeround.WtError</t>
-  </si>
-  <si>
     <t>Vegetative</t>
   </si>
   <si>
     <t>Soybean.Leaf.BranchNumber</t>
+  </si>
+  <si>
+    <t>Soybean.AboveGround.Wt</t>
+  </si>
+  <si>
+    <t>Soybean.AboveGround.WtError</t>
   </si>
 </sst>
 </file>
@@ -692,12 +692,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3519DD51-BED6-4262-8A50-4DB48CCAF26B}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AE151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG128" sqref="AG128"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -705,8 +704,7 @@
     <col min="2" max="2" width="43.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="28" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" customWidth="1"/>
+    <col min="5" max="29" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" ht="45">
@@ -735,10 +733,10 @@
         <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>6</v>
@@ -795,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AD1" s="3" t="s">
         <v>28</v>
@@ -804,7 +802,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:31" hidden="1">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -862,11 +860,8 @@
       <c r="AA2">
         <v>57.25</v>
       </c>
-      <c r="AB2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" hidden="1">
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -945,11 +940,8 @@
       <c r="AA3">
         <v>57.25</v>
       </c>
-      <c r="AB3">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" hidden="1">
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1007,11 +999,8 @@
       <c r="AA4">
         <v>57</v>
       </c>
-      <c r="AB4">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" hidden="1">
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1087,11 +1076,8 @@
       <c r="AA5">
         <v>57</v>
       </c>
-      <c r="AB5">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" hidden="1">
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1146,11 +1132,8 @@
       <c r="AA6">
         <v>77</v>
       </c>
-      <c r="AB6">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" hidden="1">
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1230,11 +1213,8 @@
       <c r="AA7">
         <v>77</v>
       </c>
-      <c r="AB7">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" hidden="1">
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1289,11 +1269,8 @@
       <c r="AA8">
         <v>76.25</v>
       </c>
-      <c r="AB8">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" hidden="1">
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1373,11 +1350,8 @@
       <c r="AA9">
         <v>76.25</v>
       </c>
-      <c r="AB9">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" hidden="1">
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1435,11 +1409,8 @@
       <c r="AA10">
         <v>56.5</v>
       </c>
-      <c r="AB10">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" hidden="1">
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1519,11 +1490,8 @@
       <c r="AA11">
         <v>56.5</v>
       </c>
-      <c r="AB11">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" hidden="1">
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1581,11 +1549,8 @@
       <c r="AA12">
         <v>55.75</v>
       </c>
-      <c r="AB12">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" hidden="1">
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1665,11 +1630,8 @@
       <c r="AA13">
         <v>55.75</v>
       </c>
-      <c r="AB13">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" hidden="1">
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1725,17 +1687,17 @@
         <v>73</v>
       </c>
       <c r="AC14">
-        <v>8.25</v>
+        <v>8.4</v>
       </c>
       <c r="AD14">
-        <v>0.41457809879442498</v>
+        <v>0.52796780204857408</v>
       </c>
       <c r="AE14">
         <f>AC14-1</f>
-        <v>7.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" hidden="1">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1746,7 +1708,7 @@
         <v>43886</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E15">
         <v>170.565</v>
@@ -1791,17 +1753,17 @@
         <v>73</v>
       </c>
       <c r="AC15">
-        <v>8.4</v>
+        <v>8.25</v>
       </c>
       <c r="AD15">
-        <v>0.52796780204857408</v>
+        <v>0.41457809879442498</v>
       </c>
       <c r="AE15">
         <f>AC15-1</f>
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" hidden="1">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1879,17 +1841,17 @@
         <v>73</v>
       </c>
       <c r="AC16">
-        <v>11.7</v>
+        <v>12.049999999999999</v>
       </c>
       <c r="AD16">
-        <v>0.71239034243875055</v>
+        <v>0.44370598373247128</v>
       </c>
       <c r="AE16">
-        <f t="shared" ref="AE16:AE38" si="0">AC16-1</f>
-        <v>10.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" hidden="1">
+        <f>AC16-1</f>
+        <v>11.049999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1951,17 +1913,17 @@
         <v>73</v>
       </c>
       <c r="AC17">
-        <v>12.049999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="AD17">
-        <v>0.44370598373247128</v>
+        <v>0.71239034243875055</v>
       </c>
       <c r="AE17">
-        <f t="shared" si="0"/>
-        <v>11.049999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" s="9" customFormat="1" hidden="1">
+        <f>AC17-1</f>
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" s="9" customFormat="1">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1972,7 +1934,7 @@
         <v>43886</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E18">
         <v>150.8475</v>
@@ -2033,11 +1995,11 @@
         <v>0.58040933831219732</v>
       </c>
       <c r="AE18">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AE18:AE38" si="0">AC18-1</f>
         <v>5.7499999999999991</v>
       </c>
     </row>
-    <row r="19" spans="1:31" s="9" customFormat="1" hidden="1">
+    <row r="19" spans="1:31" s="9" customFormat="1">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2113,7 +2075,7 @@
         <v>7.0500000000000007</v>
       </c>
     </row>
-    <row r="20" spans="1:31" s="9" customFormat="1" hidden="1">
+    <row r="20" spans="1:31" s="9" customFormat="1">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2194,17 +2156,17 @@
         <v>73</v>
       </c>
       <c r="AC20">
-        <v>10.35</v>
+        <v>11.100000000000001</v>
       </c>
       <c r="AD20">
-        <v>0.24874685927665507</v>
+        <v>0.50249378105604425</v>
       </c>
       <c r="AE20">
-        <f t="shared" si="0"/>
-        <v>9.35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" s="9" customFormat="1" hidden="1">
+        <f>AC20-1</f>
+        <v>10.100000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" s="9" customFormat="1">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2274,17 +2236,17 @@
         <v>73</v>
       </c>
       <c r="AC21">
-        <v>11.100000000000001</v>
+        <v>10.35</v>
       </c>
       <c r="AD21">
-        <v>0.50249378105604425</v>
+        <v>0.24874685927665507</v>
       </c>
       <c r="AE21">
-        <f t="shared" si="0"/>
-        <v>10.100000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" hidden="1">
+        <f>AC21-1</f>
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -2295,7 +2257,7 @@
         <v>43878</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E22">
         <v>35.647500000000001</v>
@@ -2350,7 +2312,7 @@
         <v>3.4499999999999993</v>
       </c>
     </row>
-    <row r="23" spans="1:31" hidden="1">
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -2416,7 +2378,7 @@
         <v>9.35</v>
       </c>
     </row>
-    <row r="24" spans="1:31" hidden="1">
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -2488,7 +2450,7 @@
         <v>10.95</v>
       </c>
     </row>
-    <row r="25" spans="1:31" hidden="1">
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -2576,7 +2538,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="26" spans="1:31" hidden="1">
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -2587,7 +2549,7 @@
         <v>43886</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E26">
         <v>119.9025</v>
@@ -2642,7 +2604,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="27" spans="1:31" hidden="1">
+    <row r="27" spans="1:31">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -2708,7 +2670,7 @@
         <v>7.15</v>
       </c>
     </row>
-    <row r="28" spans="1:31" hidden="1">
+    <row r="28" spans="1:31">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -2786,17 +2748,17 @@
         <v>73</v>
       </c>
       <c r="AC28">
-        <v>10.7</v>
+        <v>11.15</v>
       </c>
       <c r="AD28">
-        <v>0.47696960070847289</v>
+        <v>8.2915619758885034E-2</v>
       </c>
       <c r="AE28">
-        <f t="shared" si="0"/>
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" hidden="1">
+        <f>AC28-1</f>
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -2858,17 +2820,17 @@
         <v>73</v>
       </c>
       <c r="AC29">
-        <v>11.15</v>
+        <v>10.7</v>
       </c>
       <c r="AD29">
-        <v>8.2915619758885034E-2</v>
+        <v>0.47696960070847289</v>
       </c>
       <c r="AE29">
-        <f t="shared" si="0"/>
-        <v>10.15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" hidden="1">
+        <f>AC29-1</f>
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -2879,7 +2841,7 @@
         <v>43878</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E30">
         <v>51.699999999999996</v>
@@ -2934,7 +2896,7 @@
         <v>5.1999999999999993</v>
       </c>
     </row>
-    <row r="31" spans="1:31" hidden="1">
+    <row r="31" spans="1:31">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -2996,17 +2958,17 @@
         <v>69</v>
       </c>
       <c r="AC31">
-        <v>9.0500000000000007</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AD31">
-        <v>0.55396299515400349</v>
+        <v>0.70887234393788967</v>
       </c>
       <c r="AE31">
-        <f t="shared" si="0"/>
-        <v>8.0500000000000007</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" hidden="1">
+        <f>AC31-1</f>
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -3062,17 +3024,17 @@
         <v>69</v>
       </c>
       <c r="AC32">
-        <v>9.3000000000000007</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="AD32">
-        <v>0.70887234393788967</v>
+        <v>0.55396299515400349</v>
       </c>
       <c r="AE32">
-        <f t="shared" si="0"/>
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" hidden="1">
+        <f>AC32-1</f>
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -3160,7 +3122,7 @@
         <v>10.050000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:31" hidden="1">
+    <row r="34" spans="1:31">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -3171,7 +3133,7 @@
         <v>43886</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E34" s="9">
         <v>120.13</v>
@@ -3224,7 +3186,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="35" spans="1:31" hidden="1">
+    <row r="35" spans="1:31">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -3300,7 +3262,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="36" spans="1:31" hidden="1">
+    <row r="36" spans="1:31">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -3368,7 +3330,7 @@
         <v>8.85</v>
       </c>
     </row>
-    <row r="37" spans="1:31" hidden="1">
+    <row r="37" spans="1:31">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -3459,7 +3421,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="38" spans="1:31" hidden="1">
+    <row r="38" spans="1:31">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -3531,7 +3493,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="39" spans="1:31" hidden="1">
+    <row r="39" spans="1:31">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -3542,7 +3504,7 @@
         <v>43829</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E39">
         <v>45.575000000000003</v>
@@ -3587,7 +3549,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:31" hidden="1">
+    <row r="40" spans="1:31">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -3649,7 +3611,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:31" hidden="1">
+    <row r="41" spans="1:31">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -3727,7 +3689,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:31" hidden="1">
+    <row r="42" spans="1:31">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -3738,7 +3700,7 @@
         <v>43838</v>
       </c>
       <c r="D42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E42">
         <v>144.10750000000002</v>
@@ -3793,7 +3755,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="43" spans="1:31" hidden="1">
+    <row r="43" spans="1:31">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -3865,7 +3827,7 @@
         <v>6.8999999999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:31" hidden="1">
+    <row r="44" spans="1:31">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -3943,17 +3905,17 @@
         <v>83</v>
       </c>
       <c r="AC44">
-        <v>11.875</v>
+        <v>14.85</v>
       </c>
       <c r="AD44">
-        <v>0.23284920012746457</v>
+        <v>0.49180788932264974</v>
       </c>
       <c r="AE44">
-        <f t="shared" ref="AE44:AE51" si="1">AC44-1</f>
-        <v>10.875</v>
-      </c>
-    </row>
-    <row r="45" spans="1:31" hidden="1">
+        <f>AC44-1</f>
+        <v>13.85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -4015,17 +3977,17 @@
         <v>83</v>
       </c>
       <c r="AC45">
-        <v>14.85</v>
+        <v>11.875</v>
       </c>
       <c r="AD45">
-        <v>0.49180788932264974</v>
+        <v>0.23284920012746457</v>
       </c>
       <c r="AE45">
-        <f t="shared" si="1"/>
-        <v>13.85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:31" hidden="1">
+        <f>AC45-1</f>
+        <v>10.875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -4036,7 +3998,7 @@
         <v>43838</v>
       </c>
       <c r="D46" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E46">
         <v>94.9</v>
@@ -4087,11 +4049,11 @@
         <v>0.47087020504593402</v>
       </c>
       <c r="AE46">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AE46:AE51" si="1">AC46-1</f>
         <v>4.2750000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:31" hidden="1">
+    <row r="47" spans="1:31">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -4163,7 +4125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:31" hidden="1">
+    <row r="48" spans="1:31">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -4241,17 +4203,17 @@
         <v>83</v>
       </c>
       <c r="AC48">
-        <v>11.433333333333332</v>
+        <v>13.15</v>
       </c>
       <c r="AD48">
-        <v>0.22484562605386729</v>
+        <v>1.3141061600951396</v>
       </c>
       <c r="AE48">
-        <f t="shared" si="1"/>
-        <v>10.433333333333332</v>
-      </c>
-    </row>
-    <row r="49" spans="1:31" hidden="1">
+        <f>AC48-1</f>
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -4313,17 +4275,17 @@
         <v>83</v>
       </c>
       <c r="AC49">
-        <v>13.15</v>
+        <v>11.433333333333332</v>
       </c>
       <c r="AD49">
-        <v>1.3141061600951396</v>
+        <v>0.22484562605386729</v>
       </c>
       <c r="AE49">
-        <f t="shared" si="1"/>
-        <v>12.15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:31" hidden="1">
+        <f>AC49-1</f>
+        <v>10.433333333333332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -4334,7 +4296,7 @@
         <v>43829</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E50">
         <v>56.282499999999999</v>
@@ -4389,7 +4351,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="51" spans="1:31" hidden="1">
+    <row r="51" spans="1:31">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -4461,7 +4423,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="52" spans="1:31" hidden="1">
+    <row r="52" spans="1:31">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -4523,7 +4485,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:31" hidden="1">
+    <row r="53" spans="1:31">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -4601,7 +4563,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:31" hidden="1">
+    <row r="54" spans="1:31">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -4673,7 +4635,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="55" spans="1:31" hidden="1">
+    <row r="55" spans="1:31">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -4751,17 +4713,17 @@
         <v>83</v>
       </c>
       <c r="AC55">
-        <v>12.475</v>
+        <v>13.525</v>
       </c>
       <c r="AD55">
-        <v>0.81499616563515842</v>
+        <v>0.28145825622994264</v>
       </c>
       <c r="AE55">
-        <f>AC55-1</f>
-        <v>11.475</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31" hidden="1">
+        <f t="shared" ref="AE55" si="2">AC55-1</f>
+        <v>12.525</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -4823,17 +4785,17 @@
         <v>83</v>
       </c>
       <c r="AC56">
-        <v>13.525</v>
+        <v>12.475</v>
       </c>
       <c r="AD56">
-        <v>0.28145825622994264</v>
+        <v>0.81499616563515842</v>
       </c>
       <c r="AE56">
-        <f t="shared" ref="AE56" si="2">AC56-1</f>
-        <v>12.525</v>
-      </c>
-    </row>
-    <row r="57" spans="1:31" hidden="1">
+        <f>AC56-1</f>
+        <v>11.475</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -4844,7 +4806,7 @@
         <v>43838</v>
       </c>
       <c r="D57" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E57">
         <v>123.60249999999999</v>
@@ -4889,7 +4851,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:31" hidden="1">
+    <row r="58" spans="1:31">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -4900,7 +4862,7 @@
         <v>43838</v>
       </c>
       <c r="D58" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E58">
         <v>135.79250000000002</v>
@@ -4955,7 +4917,7 @@
         <v>4.4499999999999993</v>
       </c>
     </row>
-    <row r="59" spans="1:31" hidden="1">
+    <row r="59" spans="1:31">
       <c r="A59" t="s">
         <v>18</v>
       </c>
@@ -5027,7 +4989,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="60" spans="1:31" hidden="1">
+    <row r="60" spans="1:31">
       <c r="A60" t="s">
         <v>18</v>
       </c>
@@ -5105,17 +5067,17 @@
         <v>83</v>
       </c>
       <c r="AC60">
-        <v>11.899999999999999</v>
+        <v>14.65</v>
       </c>
       <c r="AD60">
-        <v>0.33541019662496857</v>
+        <v>1.3827056809024814</v>
       </c>
       <c r="AE60">
-        <f t="shared" ref="AE60:AE63" si="3">AC60-1</f>
-        <v>10.899999999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:31" hidden="1">
+        <f>AC60-1</f>
+        <v>13.65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -5177,17 +5139,17 @@
         <v>83</v>
       </c>
       <c r="AC61">
-        <v>14.65</v>
+        <v>11.899999999999999</v>
       </c>
       <c r="AD61">
-        <v>1.3827056809024814</v>
+        <v>0.33541019662496857</v>
       </c>
       <c r="AE61">
-        <f t="shared" si="3"/>
-        <v>13.65</v>
-      </c>
-    </row>
-    <row r="62" spans="1:31" hidden="1">
+        <f>AC61-1</f>
+        <v>10.899999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -5255,11 +5217,11 @@
         <v>0.68590724591594887</v>
       </c>
       <c r="AE62">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="AE62:AE63" si="3">AC62-1</f>
         <v>7.1749999999999989</v>
       </c>
     </row>
-    <row r="63" spans="1:31" hidden="1">
+    <row r="63" spans="1:31">
       <c r="A63" t="s">
         <v>18</v>
       </c>
@@ -5331,7 +5293,7 @@
         <v>12.400000000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:31" hidden="1">
+    <row r="64" spans="1:31">
       <c r="A64" t="s">
         <v>18</v>
       </c>
@@ -5342,7 +5304,7 @@
         <v>43788</v>
       </c>
       <c r="D64" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E64">
         <v>12.612500000000001</v>
@@ -5387,7 +5349,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:31" hidden="1">
+    <row r="65" spans="1:31">
       <c r="A65" t="s">
         <v>18</v>
       </c>
@@ -5465,7 +5427,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:31" hidden="1">
+    <row r="66" spans="1:31">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -5537,7 +5499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:31" hidden="1">
+    <row r="67" spans="1:31">
       <c r="A67" t="s">
         <v>18</v>
       </c>
@@ -5625,7 +5587,7 @@
         <v>7.3500000000000014</v>
       </c>
     </row>
-    <row r="68" spans="1:31" hidden="1">
+    <row r="68" spans="1:31">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -5636,7 +5598,7 @@
         <v>43795</v>
       </c>
       <c r="D68" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E68">
         <v>34.145000000000003</v>
@@ -5681,7 +5643,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:31" hidden="1">
+    <row r="69" spans="1:31">
       <c r="A69" t="s">
         <v>18</v>
       </c>
@@ -5743,7 +5705,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:31" hidden="1">
+    <row r="70" spans="1:31">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -5809,7 +5771,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="71" spans="1:31" hidden="1">
+    <row r="71" spans="1:31">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -5887,17 +5849,17 @@
         <v>91</v>
       </c>
       <c r="AC71">
-        <v>8</v>
+        <v>12.05</v>
       </c>
       <c r="AD71">
-        <v>0.71763500472036656</v>
+        <v>0.7595228765481663</v>
       </c>
       <c r="AE71">
         <f>AC71-1</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:31" hidden="1">
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -5959,17 +5921,17 @@
         <v>91</v>
       </c>
       <c r="AC72">
-        <v>12.05</v>
+        <v>8</v>
       </c>
       <c r="AD72">
-        <v>0.7595228765481663</v>
+        <v>0.71763500472036656</v>
       </c>
       <c r="AE72">
         <f>AC72-1</f>
-        <v>11.05</v>
-      </c>
-    </row>
-    <row r="73" spans="1:31" hidden="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -5980,7 +5942,7 @@
         <v>43795</v>
       </c>
       <c r="D73" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E73">
         <v>31.502499999999998</v>
@@ -6025,7 +5987,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:31" hidden="1">
+    <row r="74" spans="1:31">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -6087,17 +6049,17 @@
         <v>84</v>
       </c>
       <c r="AC74">
-        <v>5.75</v>
+        <v>6.3250000000000002</v>
       </c>
       <c r="AD74">
-        <v>0.59319052588523336</v>
+        <v>0.81192287195274837</v>
       </c>
       <c r="AE74">
         <f>AC74-1</f>
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:31" hidden="1">
+        <v>5.3250000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -6159,17 +6121,17 @@
         <v>84</v>
       </c>
       <c r="AC75">
-        <v>6.3250000000000002</v>
+        <v>5.75</v>
       </c>
       <c r="AD75">
-        <v>0.81192287195274837</v>
+        <v>0.59319052588523336</v>
       </c>
       <c r="AE75">
         <f>AC75-1</f>
-        <v>5.3250000000000002</v>
-      </c>
-    </row>
-    <row r="76" spans="1:31" hidden="1">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31">
       <c r="A76" t="s">
         <v>18</v>
       </c>
@@ -6180,7 +6142,7 @@
         <v>43788</v>
       </c>
       <c r="D76" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E76">
         <v>15.4725</v>
@@ -6225,7 +6187,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:31" hidden="1">
+    <row r="77" spans="1:31">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -6303,7 +6265,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:31" hidden="1">
+    <row r="78" spans="1:31">
       <c r="A78" t="s">
         <v>18</v>
       </c>
@@ -6375,7 +6337,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="79" spans="1:31" hidden="1">
+    <row r="79" spans="1:31">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -6463,7 +6425,7 @@
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:31" hidden="1">
+    <row r="80" spans="1:31">
       <c r="A80" t="s">
         <v>18</v>
       </c>
@@ -6474,7 +6436,7 @@
         <v>43795</v>
       </c>
       <c r="D80" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E80">
         <v>45.987500000000004</v>
@@ -6519,7 +6481,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="1:31" hidden="1">
+    <row r="81" spans="1:31">
       <c r="A81" t="s">
         <v>18</v>
       </c>
@@ -6581,7 +6543,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="1:31" hidden="1">
+    <row r="82" spans="1:31">
       <c r="A82" t="s">
         <v>18</v>
       </c>
@@ -6647,7 +6609,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="83" spans="1:31" hidden="1">
+    <row r="83" spans="1:31">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -6725,17 +6687,17 @@
         <v>91</v>
       </c>
       <c r="AC83">
-        <v>7.15</v>
+        <v>7.8000000000000007</v>
       </c>
       <c r="AD83">
-        <v>0.24874685927665491</v>
+        <v>0.58309518948452843</v>
       </c>
       <c r="AE83">
         <f>AC83-1</f>
-        <v>6.15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:31" hidden="1">
+        <v>6.8000000000000007</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31">
       <c r="A84" t="s">
         <v>18</v>
       </c>
@@ -6797,17 +6759,17 @@
         <v>91</v>
       </c>
       <c r="AC84">
-        <v>7.8000000000000007</v>
+        <v>7.15</v>
       </c>
       <c r="AD84">
-        <v>0.58309518948452843</v>
+        <v>0.24874685927665491</v>
       </c>
       <c r="AE84">
         <f>AC84-1</f>
-        <v>6.8000000000000007</v>
-      </c>
-    </row>
-    <row r="85" spans="1:31" hidden="1">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31">
       <c r="A85" t="s">
         <v>18</v>
       </c>
@@ -6818,7 +6780,7 @@
         <v>43795</v>
       </c>
       <c r="D85" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E85">
         <v>30.85</v>
@@ -6874,7 +6836,7 @@
         <v>44182</v>
       </c>
       <c r="D86" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S86" s="9"/>
       <c r="T86" s="9"/>
@@ -6961,7 +6923,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:31" hidden="1">
+    <row r="89" spans="1:31">
       <c r="A89" t="s">
         <v>18</v>
       </c>
@@ -6972,7 +6934,7 @@
         <v>44182</v>
       </c>
       <c r="D89" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AC89">
         <v>5.4</v>
@@ -6985,7 +6947,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="90" spans="1:31" hidden="1">
+    <row r="90" spans="1:31">
       <c r="A90" t="s">
         <v>18</v>
       </c>
@@ -7027,7 +6989,7 @@
         <v>12.049999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:31" hidden="1">
+    <row r="91" spans="1:31">
       <c r="A91" t="s">
         <v>18</v>
       </c>
@@ -7057,7 +7019,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:31" hidden="1">
+    <row r="92" spans="1:31">
       <c r="A92" t="s">
         <v>18</v>
       </c>
@@ -7068,7 +7030,7 @@
         <v>44182</v>
       </c>
       <c r="D92" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AC92">
         <v>5.15</v>
@@ -7081,7 +7043,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="93" spans="1:31" hidden="1">
+    <row r="93" spans="1:31">
       <c r="A93" t="s">
         <v>18</v>
       </c>
@@ -7123,7 +7085,7 @@
         <v>5.9249999999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:31" hidden="1">
+    <row r="94" spans="1:31">
       <c r="A94" t="s">
         <v>18</v>
       </c>
@@ -7153,7 +7115,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="95" spans="1:31" hidden="1">
+    <row r="95" spans="1:31">
       <c r="A95" t="s">
         <v>18</v>
       </c>
@@ -7164,7 +7126,7 @@
         <v>44182</v>
       </c>
       <c r="D95" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AC95">
         <v>5.335</v>
@@ -7177,7 +7139,7 @@
         <v>4.335</v>
       </c>
     </row>
-    <row r="96" spans="1:31" hidden="1">
+    <row r="96" spans="1:31">
       <c r="A96" t="s">
         <v>18</v>
       </c>
@@ -7219,7 +7181,7 @@
         <v>6.9249999999999989</v>
       </c>
     </row>
-    <row r="97" spans="1:31" hidden="1">
+    <row r="97" spans="1:31">
       <c r="A97" t="s">
         <v>18</v>
       </c>
@@ -7249,7 +7211,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="98" spans="1:31" hidden="1">
+    <row r="98" spans="1:31">
       <c r="A98" t="s">
         <v>18</v>
       </c>
@@ -7260,7 +7222,7 @@
         <v>44182</v>
       </c>
       <c r="D98" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AC98">
         <v>5.8666666666666671</v>
@@ -7273,7 +7235,7 @@
         <v>4.8666666666666671</v>
       </c>
     </row>
-    <row r="99" spans="1:31" hidden="1">
+    <row r="99" spans="1:31">
       <c r="A99" t="s">
         <v>18</v>
       </c>
@@ -7315,7 +7277,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="100" spans="1:31" hidden="1">
+    <row r="100" spans="1:31">
       <c r="A100" t="s">
         <v>18</v>
       </c>
@@ -7345,7 +7307,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="101" spans="1:31" hidden="1">
+    <row r="101" spans="1:31">
       <c r="A101" t="s">
         <v>18</v>
       </c>
@@ -7356,7 +7318,7 @@
         <v>44182</v>
       </c>
       <c r="D101" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AC101">
         <v>4.8499999999999996</v>
@@ -7369,7 +7331,7 @@
         <v>3.8499999999999996</v>
       </c>
     </row>
-    <row r="102" spans="1:31" hidden="1">
+    <row r="102" spans="1:31">
       <c r="A102" t="s">
         <v>18</v>
       </c>
@@ -7411,7 +7373,7 @@
         <v>6.0749999999999993</v>
       </c>
     </row>
-    <row r="103" spans="1:31" hidden="1">
+    <row r="103" spans="1:31">
       <c r="A103" t="s">
         <v>18</v>
       </c>
@@ -7494,7 +7456,7 @@
         <v>44158</v>
       </c>
       <c r="D105" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W105">
         <v>47</v>
@@ -7609,7 +7571,7 @@
         <v>9.7974999999999994</v>
       </c>
     </row>
-    <row r="108" spans="1:31" hidden="1">
+    <row r="108" spans="1:31">
       <c r="A108" t="s">
         <v>18</v>
       </c>
@@ -7620,7 +7582,7 @@
         <v>44158</v>
       </c>
       <c r="D108" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W108">
         <v>46</v>
@@ -7647,11 +7609,11 @@
         <v>0.42720018726587772</v>
       </c>
       <c r="AE108">
-        <f t="shared" ref="AE106:AE151" si="4">AC108-1</f>
+        <f t="shared" ref="AE108:AE148" si="4">AC108-1</f>
         <v>5.7</v>
       </c>
     </row>
-    <row r="109" spans="1:31" hidden="1">
+    <row r="109" spans="1:31">
       <c r="A109" t="s">
         <v>18</v>
       </c>
@@ -7693,7 +7655,7 @@
         <v>9.3500000000000014</v>
       </c>
     </row>
-    <row r="110" spans="1:31" hidden="1">
+    <row r="110" spans="1:31">
       <c r="A110" t="s">
         <v>18</v>
       </c>
@@ -7735,7 +7697,7 @@
         <v>6.8000000000000007</v>
       </c>
     </row>
-    <row r="111" spans="1:31" hidden="1">
+    <row r="111" spans="1:31">
       <c r="A111" t="s">
         <v>18</v>
       </c>
@@ -7777,7 +7739,7 @@
         <v>13.25</v>
       </c>
     </row>
-    <row r="112" spans="1:31" hidden="1">
+    <row r="112" spans="1:31">
       <c r="A112" t="s">
         <v>18</v>
       </c>
@@ -7819,7 +7781,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="113" spans="1:31" hidden="1">
+    <row r="113" spans="1:31">
       <c r="A113" t="s">
         <v>18</v>
       </c>
@@ -7830,7 +7792,7 @@
         <v>44158</v>
       </c>
       <c r="D113" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W113">
         <v>47</v>
@@ -7861,7 +7823,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="114" spans="1:31" hidden="1">
+    <row r="114" spans="1:31">
       <c r="A114" t="s">
         <v>18</v>
       </c>
@@ -7903,7 +7865,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="115" spans="1:31" hidden="1">
+    <row r="115" spans="1:31">
       <c r="A115" t="s">
         <v>18</v>
       </c>
@@ -7945,7 +7907,7 @@
         <v>9.7349999999999994</v>
       </c>
     </row>
-    <row r="116" spans="1:31" hidden="1">
+    <row r="116" spans="1:31">
       <c r="A116" t="s">
         <v>18</v>
       </c>
@@ -7956,7 +7918,7 @@
         <v>44158</v>
       </c>
       <c r="D116" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W116">
         <v>46.5</v>
@@ -7987,7 +7949,7 @@
         <v>5.3666666666666671</v>
       </c>
     </row>
-    <row r="117" spans="1:31" hidden="1">
+    <row r="117" spans="1:31">
       <c r="A117" t="s">
         <v>18</v>
       </c>
@@ -8029,7 +7991,7 @@
         <v>5.5500000000000007</v>
       </c>
     </row>
-    <row r="118" spans="1:31" hidden="1">
+    <row r="118" spans="1:31">
       <c r="A118" t="s">
         <v>18</v>
       </c>
@@ -8071,7 +8033,7 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="119" spans="1:31" hidden="1">
+    <row r="119" spans="1:31">
       <c r="A119" t="s">
         <v>18</v>
       </c>
@@ -8113,7 +8075,7 @@
         <v>8.5250000000000004</v>
       </c>
     </row>
-    <row r="120" spans="1:31" hidden="1">
+    <row r="120" spans="1:31">
       <c r="A120" t="s">
         <v>18</v>
       </c>
@@ -8155,7 +8117,7 @@
         <v>10.549999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:31" hidden="1">
+    <row r="121" spans="1:31">
       <c r="A121" t="s">
         <v>18</v>
       </c>
@@ -8166,7 +8128,7 @@
         <v>44158</v>
       </c>
       <c r="D121" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W121">
         <v>46</v>
@@ -8197,7 +8159,7 @@
         <v>7.3000000000000007</v>
       </c>
     </row>
-    <row r="122" spans="1:31" hidden="1">
+    <row r="122" spans="1:31">
       <c r="A122" t="s">
         <v>18</v>
       </c>
@@ -8239,7 +8201,7 @@
         <v>7.35</v>
       </c>
     </row>
-    <row r="123" spans="1:31" hidden="1">
+    <row r="123" spans="1:31">
       <c r="A123" t="s">
         <v>18</v>
       </c>
@@ -8281,7 +8243,7 @@
         <v>14.59</v>
       </c>
     </row>
-    <row r="124" spans="1:31" hidden="1">
+    <row r="124" spans="1:31">
       <c r="A124" t="s">
         <v>18</v>
       </c>
@@ -8292,7 +8254,7 @@
         <v>44158</v>
       </c>
       <c r="D124" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W124">
         <v>47</v>
@@ -8323,7 +8285,7 @@
         <v>5.4499999999999993</v>
       </c>
     </row>
-    <row r="125" spans="1:31" hidden="1">
+    <row r="125" spans="1:31">
       <c r="A125" t="s">
         <v>18</v>
       </c>
@@ -8365,7 +8327,7 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="126" spans="1:31" hidden="1">
+    <row r="126" spans="1:31">
       <c r="A126" t="s">
         <v>18</v>
       </c>
@@ -8407,7 +8369,7 @@
         <v>10.85</v>
       </c>
     </row>
-    <row r="127" spans="1:31" hidden="1">
+    <row r="127" spans="1:31">
       <c r="A127" t="s">
         <v>18</v>
       </c>
@@ -8460,7 +8422,7 @@
         <v>44117</v>
       </c>
       <c r="D128" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W128">
         <v>57</v>
@@ -8617,7 +8579,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="132" spans="1:31" hidden="1">
+    <row r="132" spans="1:31">
       <c r="A132" t="s">
         <v>18</v>
       </c>
@@ -8628,7 +8590,7 @@
         <v>44117</v>
       </c>
       <c r="D132" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W132">
         <v>48</v>
@@ -8659,7 +8621,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="133" spans="1:31" hidden="1">
+    <row r="133" spans="1:31">
       <c r="A133" t="s">
         <v>18</v>
       </c>
@@ -8701,7 +8663,7 @@
         <v>13.8125</v>
       </c>
     </row>
-    <row r="134" spans="1:31" hidden="1">
+    <row r="134" spans="1:31">
       <c r="A134" t="s">
         <v>18</v>
       </c>
@@ -8743,7 +8705,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="135" spans="1:31" hidden="1">
+    <row r="135" spans="1:31">
       <c r="A135" t="s">
         <v>18</v>
       </c>
@@ -8785,7 +8747,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="136" spans="1:31" hidden="1">
+    <row r="136" spans="1:31">
       <c r="A136" t="s">
         <v>18</v>
       </c>
@@ -8796,7 +8758,7 @@
         <v>44117</v>
       </c>
       <c r="D136" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W136">
         <v>58</v>
@@ -8827,7 +8789,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="137" spans="1:31" hidden="1">
+    <row r="137" spans="1:31">
       <c r="A137" t="s">
         <v>18</v>
       </c>
@@ -8869,7 +8831,7 @@
         <v>11.15</v>
       </c>
     </row>
-    <row r="138" spans="1:31" hidden="1">
+    <row r="138" spans="1:31">
       <c r="A138" t="s">
         <v>18</v>
       </c>
@@ -8911,7 +8873,7 @@
         <v>9.35</v>
       </c>
     </row>
-    <row r="139" spans="1:31" hidden="1">
+    <row r="139" spans="1:31">
       <c r="A139" t="s">
         <v>18</v>
       </c>
@@ -8953,7 +8915,7 @@
         <v>7.2000000000000011</v>
       </c>
     </row>
-    <row r="140" spans="1:31" hidden="1">
+    <row r="140" spans="1:31">
       <c r="A140" t="s">
         <v>18</v>
       </c>
@@ -8964,7 +8926,7 @@
         <v>44117</v>
       </c>
       <c r="D140" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W140">
         <v>50.25</v>
@@ -8995,7 +8957,7 @@
         <v>2.7249999999999996</v>
       </c>
     </row>
-    <row r="141" spans="1:31" hidden="1">
+    <row r="141" spans="1:31">
       <c r="A141" t="s">
         <v>18</v>
       </c>
@@ -9037,7 +8999,7 @@
         <v>11.55</v>
       </c>
     </row>
-    <row r="142" spans="1:31" hidden="1">
+    <row r="142" spans="1:31">
       <c r="A142" t="s">
         <v>18</v>
       </c>
@@ -9079,7 +9041,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="143" spans="1:31" hidden="1">
+    <row r="143" spans="1:31">
       <c r="A143" t="s">
         <v>18</v>
       </c>
@@ -9121,7 +9083,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="144" spans="1:31" hidden="1">
+    <row r="144" spans="1:31">
       <c r="A144" t="s">
         <v>18</v>
       </c>
@@ -9132,7 +9094,7 @@
         <v>44117</v>
       </c>
       <c r="D144" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W144">
         <v>48</v>
@@ -9163,7 +9125,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="145" spans="1:31" hidden="1">
+    <row r="145" spans="1:31">
       <c r="A145" t="s">
         <v>18</v>
       </c>
@@ -9205,7 +9167,7 @@
         <v>13.825000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:31" hidden="1">
+    <row r="146" spans="1:31">
       <c r="A146" t="s">
         <v>18</v>
       </c>
@@ -9247,7 +9209,7 @@
         <v>7.375</v>
       </c>
     </row>
-    <row r="147" spans="1:31" hidden="1">
+    <row r="147" spans="1:31">
       <c r="A147" t="s">
         <v>18</v>
       </c>
@@ -9289,7 +9251,7 @@
         <v>11.95</v>
       </c>
     </row>
-    <row r="148" spans="1:31" hidden="1">
+    <row r="148" spans="1:31">
       <c r="A148" t="s">
         <v>18</v>
       </c>
@@ -9300,7 +9262,7 @@
         <v>44117</v>
       </c>
       <c r="D148" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W148">
         <v>49.5</v>
@@ -9331,7 +9293,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="149" spans="1:31" hidden="1">
+    <row r="149" spans="1:31">
       <c r="A149" t="s">
         <v>18</v>
       </c>
@@ -9373,7 +9335,7 @@
         <v>12.05</v>
       </c>
     </row>
-    <row r="150" spans="1:31" hidden="1">
+    <row r="150" spans="1:31">
       <c r="A150" t="s">
         <v>18</v>
       </c>
@@ -9415,7 +9377,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="151" spans="1:31" hidden="1">
+    <row r="151" spans="1:31">
       <c r="A151" t="s">
         <v>18</v>
       </c>
@@ -9458,15 +9420,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE151" xr:uid="{1EE8BA1D-C516-4D8E-A81D-3534C605AA12}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="TOSyear3SowNov20CvBerken"/>
-        <filter val="TOSyear3SowOct20CvBerken"/>
-        <filter val="TOSyear3SowSept20CvBerken"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD151">
     <sortCondition ref="B2:B151"/>
     <sortCondition ref="AC2:AC151"/>

--- a/Prototypes/Mungbean/TOSobserved.xlsx
+++ b/Prototypes/Mungbean/TOSobserved.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE8F4CA-A154-40F2-B3B1-D43678963626}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401C138B-36F3-4322-9ADB-3ECB70D233A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01D3E681-48EE-4304-AF98-4E94EBE61D53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01D3E681-48EE-4304-AF98-4E94EBE61D53}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$1:$AE$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$1:$AF$151</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="80">
   <si>
     <t>Location</t>
   </si>
@@ -271,12 +271,18 @@
   <si>
     <t>Soybean.AboveGround.WtError</t>
   </si>
+  <si>
+    <t>RadiationInterceptedError</t>
+  </si>
+  <si>
+    <t>TOSyear2SowJan20RFCvCrystal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +325,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -340,7 +354,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -348,12 +362,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -377,9 +432,24 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{94A50D8A-FA47-4EE9-A808-FFF7C116D52D}"/>
     <cellStyle name="Normal_obs" xfId="1" xr:uid="{FF833C4C-3BE6-4C34-997C-72A4B695DEF6}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -692,11 +762,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3519DD51-BED6-4262-8A50-4DB48CCAF26B}">
-  <dimension ref="A1:AE151"/>
+  <dimension ref="A1:AF284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V153" sqref="V153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -704,10 +774,10 @@
     <col min="2" max="2" width="43.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="29" width="9.140625" customWidth="1"/>
+    <col min="5" max="30" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="45">
+    <row r="1" spans="1:32" s="1" customFormat="1" ht="45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -774,35 +844,38 @@
       <c r="V1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -845,23 +918,23 @@
       <c r="T2">
         <v>9.2119999999999997</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>42</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>44</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>43.25</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>48</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>57.25</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -925,23 +998,23 @@
       <c r="U3">
         <v>35.19883964351741</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>42</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>44</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>43.25</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>48</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>57.25</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -984,23 +1057,23 @@
       <c r="T4">
         <v>11.55</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>42</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>44</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>43</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>48</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1061,23 +1134,23 @@
       <c r="T5">
         <v>218.83725000000001</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>42</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>44</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>43</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>48</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1117,23 +1190,23 @@
       <c r="T6">
         <v>14.675000000000001</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>48</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>51</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>48</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>55</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1198,23 +1271,23 @@
       <c r="U7">
         <v>64.099733423782496</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>48</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>51</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>48</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>55</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:32">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1254,23 +1327,23 @@
       <c r="T8">
         <v>14.67</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>48</v>
-      </c>
-      <c r="X8">
-        <v>51</v>
       </c>
       <c r="Y8">
         <v>51</v>
       </c>
       <c r="Z8">
+        <v>51</v>
+      </c>
+      <c r="AA8">
         <v>55</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>76.25</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:32">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1335,23 +1408,23 @@
       <c r="U9">
         <v>39.228807017293157</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>48</v>
-      </c>
-      <c r="X9">
-        <v>51</v>
       </c>
       <c r="Y9">
         <v>51</v>
       </c>
       <c r="Z9">
+        <v>51</v>
+      </c>
+      <c r="AA9">
         <v>55</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>76.25</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:32">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1394,23 +1467,23 @@
       <c r="U10">
         <v>19.724914708307367</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>42</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>43.75</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>42.25</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>47</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>56.5</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:32">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1475,23 +1548,23 @@
       <c r="U11">
         <v>67.355064830592468</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>42</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>43.75</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>42.25</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>47</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>56.5</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:32">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1534,23 +1607,23 @@
       <c r="U12">
         <v>15.918328011027629</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>41.75</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>42.75</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>43</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>48</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>55.75</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:32">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1615,23 +1688,23 @@
       <c r="U13">
         <v>136.59009395511325</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>41.75</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>42.75</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>43</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>48</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>55.75</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:32">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1668,36 +1741,36 @@
       <c r="L14">
         <v>0.62652431956608889</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>42.75</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>46</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>45</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>50</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>60</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>73</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>8.4</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>0.52796780204857408</v>
       </c>
-      <c r="AE14">
-        <f>AC14-1</f>
+      <c r="AF14">
+        <f>AD14-1</f>
         <v>7.4</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:32">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1734,36 +1807,36 @@
       <c r="L15">
         <v>0.5775751949409198</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>42.75</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>46</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>45</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>50</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>60</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>73</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>8.25</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>0.41457809879442498</v>
       </c>
-      <c r="AE15">
-        <f>AC15-1</f>
+      <c r="AF15">
+        <f>AD15-1</f>
         <v>7.25</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:32">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1822,36 +1895,36 @@
       <c r="U16">
         <v>27.275245186799204</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>42.75</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>46</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>45</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>50</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>60</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>73</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>12.049999999999999</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>0.44370598373247128</v>
       </c>
-      <c r="AE16">
-        <f>AC16-1</f>
+      <c r="AF16">
+        <f>AD16-1</f>
         <v>11.049999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:32">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1894,36 +1967,36 @@
       <c r="U17">
         <v>22.459674975386456</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>42.75</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>46</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>45</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>50</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>60</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>73</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>11.7</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>0.71239034243875055</v>
       </c>
-      <c r="AE17">
-        <f>AC17-1</f>
+      <c r="AF17">
+        <f>AD17-1</f>
         <v>10.7</v>
       </c>
     </row>
-    <row r="18" spans="1:31" s="9" customFormat="1">
+    <row r="18" spans="1:32" s="9" customFormat="1">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1970,36 +2043,37 @@
       <c r="T18"/>
       <c r="U18"/>
       <c r="V18"/>
-      <c r="W18">
+      <c r="W18"/>
+      <c r="X18">
         <v>42.25</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>46</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>45.75</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>48.5</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>58.75</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>73</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>6.7499999999999991</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>0.58040933831219732</v>
       </c>
-      <c r="AE18">
-        <f t="shared" ref="AE18:AE38" si="0">AC18-1</f>
+      <c r="AF18">
+        <f t="shared" ref="AF18:AF38" si="0">AD18-1</f>
         <v>5.7499999999999991</v>
       </c>
     </row>
-    <row r="19" spans="1:31" s="9" customFormat="1">
+    <row r="19" spans="1:32" s="9" customFormat="1">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2046,36 +2120,37 @@
       <c r="T19"/>
       <c r="U19"/>
       <c r="V19"/>
-      <c r="W19">
+      <c r="W19"/>
+      <c r="X19">
         <v>42.25</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>46</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>45.75</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>48.5</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>58.75</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>73</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>8.0500000000000007</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>0.34910600109422335</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <f t="shared" si="0"/>
         <v>7.0500000000000007</v>
       </c>
     </row>
-    <row r="20" spans="1:31" s="9" customFormat="1">
+    <row r="20" spans="1:32" s="9" customFormat="1">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2137,36 +2212,37 @@
         <v>41.438129381846757</v>
       </c>
       <c r="V20"/>
-      <c r="W20">
+      <c r="W20"/>
+      <c r="X20">
         <v>42.25</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>46</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>45.75</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>48.5</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>58.75</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>73</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>11.100000000000001</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>0.50249378105604425</v>
       </c>
-      <c r="AE20">
-        <f>AC20-1</f>
+      <c r="AF20">
+        <f>AD20-1</f>
         <v>10.100000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:31" s="9" customFormat="1">
+    <row r="21" spans="1:32" s="9" customFormat="1">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2217,36 +2293,37 @@
         <v>36.543517893054698</v>
       </c>
       <c r="V21"/>
-      <c r="W21">
+      <c r="W21"/>
+      <c r="X21">
         <v>42.25</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>46</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>45.75</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>48.5</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>58.75</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>73</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>10.35</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.24874685927665507</v>
       </c>
-      <c r="AE21">
-        <f>AC21-1</f>
+      <c r="AF21">
+        <f>AD21-1</f>
         <v>9.35</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:32">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -2283,36 +2360,36 @@
       <c r="L22">
         <v>0.20607125941914289</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>42.5</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>45</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>44.5</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>48.75</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>58.25</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>69</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>4.4499999999999993</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.36996621467371954</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <f t="shared" si="0"/>
         <v>3.4499999999999993</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:32">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -2349,36 +2426,36 @@
       <c r="L23">
         <v>0.70250392606328482</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>42.5</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>45</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>44.5</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>48.75</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>58.25</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>69</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>10.35</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>0.43229041164476467</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <f t="shared" si="0"/>
         <v>9.35</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:32">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -2421,36 +2498,36 @@
       <c r="U24">
         <v>25.053388825998486</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>42.5</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>45</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>44.5</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>48.75</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>58.25</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>69</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>11.95</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>0.63786754110865884</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <f t="shared" si="0"/>
         <v>10.95</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:32">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -2509,36 +2586,36 @@
       <c r="U25">
         <v>73.782890236603464</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>42.5</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>45</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>44.5</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>48.75</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>58.25</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>69</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>12.25</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>0.50682837331783215</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <f t="shared" si="0"/>
         <v>11.25</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:32">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -2575,36 +2652,36 @@
       <c r="L26">
         <v>0.55552015649193798</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>43</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>46</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>44.75</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>50.5</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>59</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>73</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>6.7</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>0.5678908345800272</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <f t="shared" si="0"/>
         <v>5.7</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:32">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -2641,36 +2718,36 @@
       <c r="L27">
         <v>0.59161294319879854</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>43</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>46</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>44.75</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>50.5</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>59</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>73</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>8.15</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>0.56734028589551277</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <f t="shared" si="0"/>
         <v>7.15</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:32">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -2729,36 +2806,36 @@
       <c r="U28">
         <v>66.702658867544258</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>43</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>46</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>44.75</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>50.5</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>59</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>73</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>11.15</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>8.2915619758885034E-2</v>
       </c>
-      <c r="AE28">
-        <f>AC28-1</f>
+      <c r="AF28">
+        <f>AD28-1</f>
         <v>10.15</v>
       </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:32">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -2801,36 +2878,36 @@
       <c r="U29">
         <v>39.273929435865348</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>43</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>46</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>44.75</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>50.5</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>59</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>73</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>10.7</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>0.47696960070847289</v>
       </c>
-      <c r="AE29">
-        <f>AC29-1</f>
+      <c r="AF29">
+        <f>AD29-1</f>
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:32">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -2867,36 +2944,36 @@
       <c r="L30">
         <v>0.55030321540859262</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>42</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>45</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>43</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>47</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>58</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>69</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>6.1999999999999993</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>0.73484692283495401</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <f t="shared" si="0"/>
         <v>5.1999999999999993</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:32">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -2939,36 +3016,36 @@
       <c r="U31">
         <v>14.798027740209179</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>42</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>45</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>43</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>47</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>58</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>69</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>9.3000000000000007</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>0.70887234393788967</v>
       </c>
-      <c r="AE31">
-        <f>AC31-1</f>
+      <c r="AF31">
+        <f>AD31-1</f>
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:32">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -3005,36 +3082,36 @@
       <c r="L32">
         <v>0.44103160511302592</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>42</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>45</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>43</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>47</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>58</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>69</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>9.0500000000000007</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>0.55396299515400349</v>
       </c>
-      <c r="AE32">
-        <f>AC32-1</f>
+      <c r="AF32">
+        <f>AD32-1</f>
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:32">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -3093,36 +3170,36 @@
       <c r="U33">
         <v>29.476622375480268</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>42</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>45</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>43</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>47</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>58</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>69</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>11.05</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>0.44370598373247128</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <f t="shared" si="0"/>
         <v>10.050000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:32">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -3175,18 +3252,19 @@
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
-      <c r="AC34">
+      <c r="AC34" s="9"/>
+      <c r="AD34">
         <v>6.85</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>0.37666297933298493</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <f t="shared" si="0"/>
         <v>5.85</v>
       </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:32">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -3233,36 +3311,37 @@
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
-      <c r="W35" s="9">
+      <c r="W35" s="9"/>
+      <c r="X35" s="9">
         <v>42.25</v>
       </c>
-      <c r="X35" s="9">
+      <c r="Y35" s="9">
         <v>46</v>
       </c>
-      <c r="Y35" s="9">
+      <c r="Z35" s="9">
         <v>45</v>
       </c>
-      <c r="Z35" s="9">
+      <c r="AA35" s="9">
         <v>49</v>
       </c>
-      <c r="AA35" s="9">
+      <c r="AB35" s="9">
         <v>59.25</v>
       </c>
-      <c r="AB35" s="9">
+      <c r="AC35" s="9">
         <v>73</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>7.3</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>0.60207972893961537</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <f t="shared" si="0"/>
         <v>6.3</v>
       </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:32">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -3319,18 +3398,19 @@
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
-      <c r="AC36">
+      <c r="AC36" s="9"/>
+      <c r="AD36">
         <v>9.85</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>0.49180788932265013</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <f t="shared" si="0"/>
         <v>8.85</v>
       </c>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:32">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -3392,36 +3472,37 @@
         <v>63.502422525968804</v>
       </c>
       <c r="V37" s="9"/>
-      <c r="W37" s="9">
+      <c r="W37" s="9"/>
+      <c r="X37" s="9">
         <v>42.25</v>
       </c>
-      <c r="X37" s="9">
+      <c r="Y37" s="9">
         <v>46</v>
       </c>
-      <c r="Y37" s="9">
+      <c r="Z37" s="9">
         <v>45</v>
       </c>
-      <c r="Z37" s="9">
+      <c r="AA37" s="9">
         <v>49</v>
       </c>
-      <c r="AA37" s="9">
+      <c r="AB37" s="9">
         <v>59.25</v>
       </c>
-      <c r="AB37" s="9">
+      <c r="AC37" s="9">
         <v>73</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>10.6</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>0.62849025449882356</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <f t="shared" si="0"/>
         <v>9.6</v>
       </c>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:32">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -3464,36 +3545,36 @@
       <c r="U38">
         <v>55.586272885788432</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>40</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>46</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>41.75</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>47.5</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>57</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>77</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>11.5</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>1.1757976016304847</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:32">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -3530,26 +3611,26 @@
       <c r="L39">
         <v>0.13133561325488669</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>40</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>46</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>41.75</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>47.5</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>57</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:32">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -3592,26 +3673,26 @@
       <c r="U40">
         <v>1.1907805563298948</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>40</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <v>46</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>41.75</v>
       </c>
-      <c r="Z40">
+      <c r="AA40">
         <v>47.5</v>
       </c>
-      <c r="AA40">
+      <c r="AB40">
         <v>57</v>
       </c>
-      <c r="AB40">
+      <c r="AC40">
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:32">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -3670,26 +3751,26 @@
       <c r="U41">
         <v>25.816636754878267</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>40</v>
       </c>
-      <c r="X41">
+      <c r="Y41">
         <v>46</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <v>41.75</v>
       </c>
-      <c r="Z41">
+      <c r="AA41">
         <v>47.5</v>
       </c>
-      <c r="AA41">
+      <c r="AB41">
         <v>57</v>
       </c>
-      <c r="AB41">
+      <c r="AC41">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:32">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -3726,36 +3807,36 @@
       <c r="L42">
         <v>0.25161202481754191</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>43.75</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <v>53</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>46.25</v>
       </c>
-      <c r="Z42">
+      <c r="AA42">
         <v>54</v>
       </c>
-      <c r="AA42">
+      <c r="AB42">
         <v>63</v>
       </c>
-      <c r="AB42">
+      <c r="AC42">
         <v>83</v>
       </c>
-      <c r="AC42">
+      <c r="AD42">
         <v>5.95</v>
       </c>
-      <c r="AD42">
+      <c r="AE42">
         <v>8.2915619758885076E-2</v>
       </c>
-      <c r="AE42">
-        <f>AC42-1</f>
+      <c r="AF42">
+        <f>AD42-1</f>
         <v>4.95</v>
       </c>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:32">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -3798,36 +3879,36 @@
       <c r="U43">
         <v>1.4453949863849214</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>43.75</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>53</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>46.25</v>
       </c>
-      <c r="Z43">
+      <c r="AA43">
         <v>54</v>
       </c>
-      <c r="AA43">
+      <c r="AB43">
         <v>63</v>
       </c>
-      <c r="AB43">
+      <c r="AC43">
         <v>83</v>
       </c>
-      <c r="AC43">
+      <c r="AD43">
         <v>7.8999999999999995</v>
       </c>
-      <c r="AD43">
+      <c r="AE43">
         <v>0.43301270189222135</v>
       </c>
-      <c r="AE43">
-        <f>AC43-1</f>
+      <c r="AF43">
+        <f>AD43-1</f>
         <v>6.8999999999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:32">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -3886,36 +3967,36 @@
       <c r="U44">
         <v>41.571994980595619</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>43.75</v>
       </c>
-      <c r="X44">
+      <c r="Y44">
         <v>53</v>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <v>46.25</v>
       </c>
-      <c r="Z44">
+      <c r="AA44">
         <v>54</v>
       </c>
-      <c r="AA44">
+      <c r="AB44">
         <v>63</v>
       </c>
-      <c r="AB44">
+      <c r="AC44">
         <v>83</v>
       </c>
-      <c r="AC44">
+      <c r="AD44">
         <v>14.85</v>
       </c>
-      <c r="AD44">
+      <c r="AE44">
         <v>0.49180788932264974</v>
       </c>
-      <c r="AE44">
-        <f>AC44-1</f>
+      <c r="AF44">
+        <f>AD44-1</f>
         <v>13.85</v>
       </c>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:32">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -3958,36 +4039,36 @@
       <c r="U45">
         <v>16.046553887569317</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>43.75</v>
       </c>
-      <c r="X45">
+      <c r="Y45">
         <v>53</v>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <v>46.25</v>
       </c>
-      <c r="Z45">
+      <c r="AA45">
         <v>54</v>
       </c>
-      <c r="AA45">
+      <c r="AB45">
         <v>63</v>
       </c>
-      <c r="AB45">
+      <c r="AC45">
         <v>83</v>
       </c>
-      <c r="AC45">
+      <c r="AD45">
         <v>11.875</v>
       </c>
-      <c r="AD45">
+      <c r="AE45">
         <v>0.23284920012746457</v>
       </c>
-      <c r="AE45">
-        <f>AC45-1</f>
+      <c r="AF45">
+        <f>AD45-1</f>
         <v>10.875</v>
       </c>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:32">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -4024,36 +4105,36 @@
       <c r="L46">
         <v>6.1404477221319052E-2</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>43.75</v>
       </c>
-      <c r="X46">
+      <c r="Y46">
         <v>53</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <v>47.25</v>
       </c>
-      <c r="Z46">
+      <c r="AA46">
         <v>54</v>
       </c>
-      <c r="AA46">
+      <c r="AB46">
         <v>62.5</v>
       </c>
-      <c r="AB46">
+      <c r="AC46">
         <v>83</v>
       </c>
-      <c r="AC46">
+      <c r="AD46">
         <v>5.2750000000000004</v>
       </c>
-      <c r="AD46">
+      <c r="AE46">
         <v>0.47087020504593402</v>
       </c>
-      <c r="AE46">
-        <f t="shared" ref="AE46:AE51" si="1">AC46-1</f>
+      <c r="AF46">
+        <f t="shared" ref="AF46:AF51" si="1">AD46-1</f>
         <v>4.2750000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:32">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -4096,36 +4177,36 @@
       <c r="U47">
         <v>1.7727097901235871</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>43.75</v>
       </c>
-      <c r="X47">
+      <c r="Y47">
         <v>53</v>
       </c>
-      <c r="Y47">
+      <c r="Z47">
         <v>47.25</v>
       </c>
-      <c r="Z47">
+      <c r="AA47">
         <v>54</v>
       </c>
-      <c r="AA47">
+      <c r="AB47">
         <v>62.5</v>
       </c>
-      <c r="AB47">
+      <c r="AC47">
         <v>83</v>
       </c>
-      <c r="AC47">
+      <c r="AD47">
         <v>8</v>
       </c>
-      <c r="AD47">
+      <c r="AE47">
         <v>0.68920243760451216</v>
       </c>
-      <c r="AE47">
+      <c r="AF47">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:32">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -4184,36 +4265,36 @@
       <c r="U48">
         <v>60.977000035532321</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>43.75</v>
       </c>
-      <c r="X48">
+      <c r="Y48">
         <v>53</v>
       </c>
-      <c r="Y48">
+      <c r="Z48">
         <v>47.25</v>
       </c>
-      <c r="Z48">
+      <c r="AA48">
         <v>54</v>
       </c>
-      <c r="AA48">
+      <c r="AB48">
         <v>62.5</v>
       </c>
-      <c r="AB48">
+      <c r="AC48">
         <v>83</v>
       </c>
-      <c r="AC48">
+      <c r="AD48">
         <v>13.15</v>
       </c>
-      <c r="AD48">
+      <c r="AE48">
         <v>1.3141061600951396</v>
       </c>
-      <c r="AE48">
-        <f>AC48-1</f>
+      <c r="AF48">
+        <f>AD48-1</f>
         <v>12.15</v>
       </c>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:32">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -4256,36 +4337,36 @@
       <c r="U49">
         <v>22.600329459250528</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>43.75</v>
       </c>
-      <c r="X49">
+      <c r="Y49">
         <v>53</v>
       </c>
-      <c r="Y49">
+      <c r="Z49">
         <v>47.25</v>
       </c>
-      <c r="Z49">
+      <c r="AA49">
         <v>54</v>
       </c>
-      <c r="AA49">
+      <c r="AB49">
         <v>62.5</v>
       </c>
-      <c r="AB49">
+      <c r="AC49">
         <v>83</v>
       </c>
-      <c r="AC49">
+      <c r="AD49">
         <v>11.433333333333332</v>
       </c>
-      <c r="AD49">
+      <c r="AE49">
         <v>0.22484562605386729</v>
       </c>
-      <c r="AE49">
-        <f>AC49-1</f>
+      <c r="AF49">
+        <f>AD49-1</f>
         <v>10.433333333333332</v>
       </c>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:32">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -4322,36 +4403,36 @@
       <c r="L50">
         <v>0.14280973467142763</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>39</v>
       </c>
-      <c r="X50">
+      <c r="Y50">
         <v>46</v>
       </c>
-      <c r="Y50">
+      <c r="Z50">
         <v>41.25</v>
       </c>
-      <c r="Z50">
+      <c r="AA50">
         <v>48.25</v>
       </c>
-      <c r="AA50">
+      <c r="AB50">
         <v>55.75</v>
       </c>
-      <c r="AB50">
+      <c r="AC50">
         <v>77</v>
       </c>
-      <c r="AC50">
+      <c r="AD50">
         <v>5.75</v>
       </c>
-      <c r="AD50">
+      <c r="AE50">
         <v>0.27726341266023546</v>
       </c>
-      <c r="AE50">
+      <c r="AF50">
         <f t="shared" si="1"/>
         <v>4.75</v>
       </c>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:32">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -4394,36 +4475,36 @@
       <c r="U51">
         <v>25.340217540502774</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>39</v>
       </c>
-      <c r="X51">
+      <c r="Y51">
         <v>46</v>
       </c>
-      <c r="Y51">
+      <c r="Z51">
         <v>41.25</v>
       </c>
-      <c r="Z51">
+      <c r="AA51">
         <v>48.25</v>
       </c>
-      <c r="AA51">
+      <c r="AB51">
         <v>55.75</v>
       </c>
-      <c r="AB51">
+      <c r="AC51">
         <v>77</v>
       </c>
-      <c r="AC51">
+      <c r="AD51">
         <v>12.3</v>
       </c>
-      <c r="AD51">
+      <c r="AE51">
         <v>1.1884864324004689</v>
       </c>
-      <c r="AE51">
+      <c r="AF51">
         <f t="shared" si="1"/>
         <v>11.3</v>
       </c>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:32">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -4466,26 +4547,26 @@
       <c r="U52">
         <v>0.80276086102898703</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>39</v>
       </c>
-      <c r="X52">
+      <c r="Y52">
         <v>46</v>
       </c>
-      <c r="Y52">
+      <c r="Z52">
         <v>41.25</v>
       </c>
-      <c r="Z52">
+      <c r="AA52">
         <v>48.25</v>
       </c>
-      <c r="AA52">
+      <c r="AB52">
         <v>55.75</v>
       </c>
-      <c r="AB52">
+      <c r="AC52">
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53" spans="1:32">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -4544,26 +4625,26 @@
       <c r="U53">
         <v>207.97738226387347</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>39</v>
       </c>
-      <c r="X53">
+      <c r="Y53">
         <v>46</v>
       </c>
-      <c r="Y53">
+      <c r="Z53">
         <v>41.25</v>
       </c>
-      <c r="Z53">
+      <c r="AA53">
         <v>48.25</v>
       </c>
-      <c r="AA53">
+      <c r="AB53">
         <v>55.75</v>
       </c>
-      <c r="AB53">
+      <c r="AC53">
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:32">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -4606,36 +4687,36 @@
       <c r="U54">
         <v>1.4174507634012068</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>44</v>
       </c>
-      <c r="X54">
+      <c r="Y54">
         <v>53</v>
       </c>
-      <c r="Y54">
+      <c r="Z54">
         <v>46.75</v>
       </c>
-      <c r="Z54">
+      <c r="AA54">
         <v>54</v>
       </c>
-      <c r="AA54">
+      <c r="AB54">
         <v>64</v>
       </c>
-      <c r="AB54">
+      <c r="AC54">
         <v>83</v>
       </c>
-      <c r="AC54">
+      <c r="AD54">
         <v>7.2</v>
       </c>
-      <c r="AD54">
+      <c r="AE54">
         <v>0.1732050807568877</v>
       </c>
-      <c r="AE54">
-        <f>AC54-1</f>
+      <c r="AF54">
+        <f>AD54-1</f>
         <v>6.2</v>
       </c>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:32">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -4694,36 +4775,36 @@
       <c r="U55">
         <v>88.562285191459111</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>44</v>
       </c>
-      <c r="X55">
+      <c r="Y55">
         <v>53</v>
       </c>
-      <c r="Y55">
+      <c r="Z55">
         <v>46.75</v>
       </c>
-      <c r="Z55">
+      <c r="AA55">
         <v>54</v>
       </c>
-      <c r="AA55">
+      <c r="AB55">
         <v>64</v>
       </c>
-      <c r="AB55">
+      <c r="AC55">
         <v>83</v>
       </c>
-      <c r="AC55">
+      <c r="AD55">
         <v>13.525</v>
       </c>
-      <c r="AD55">
+      <c r="AE55">
         <v>0.28145825622994264</v>
       </c>
-      <c r="AE55">
-        <f t="shared" ref="AE55" si="2">AC55-1</f>
+      <c r="AF55">
+        <f t="shared" ref="AF55" si="2">AD55-1</f>
         <v>12.525</v>
       </c>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:32">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -4766,36 +4847,36 @@
       <c r="U56">
         <v>32.373614127351722</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>44</v>
       </c>
-      <c r="X56">
+      <c r="Y56">
         <v>53</v>
       </c>
-      <c r="Y56">
+      <c r="Z56">
         <v>46.75</v>
       </c>
-      <c r="Z56">
+      <c r="AA56">
         <v>54</v>
       </c>
-      <c r="AA56">
+      <c r="AB56">
         <v>64</v>
       </c>
-      <c r="AB56">
+      <c r="AC56">
         <v>83</v>
       </c>
-      <c r="AC56">
+      <c r="AD56">
         <v>12.475</v>
       </c>
-      <c r="AD56">
+      <c r="AE56">
         <v>0.81499616563515842</v>
       </c>
-      <c r="AE56">
-        <f>AC56-1</f>
+      <c r="AF56">
+        <f>AD56-1</f>
         <v>11.475</v>
       </c>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:32">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -4832,26 +4913,26 @@
       <c r="L57">
         <v>0.32889237855660702</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>44</v>
       </c>
-      <c r="X57">
+      <c r="Y57">
         <v>53</v>
       </c>
-      <c r="Y57">
+      <c r="Z57">
         <v>46.75</v>
       </c>
-      <c r="Z57">
+      <c r="AA57">
         <v>54</v>
       </c>
-      <c r="AA57">
+      <c r="AB57">
         <v>64</v>
       </c>
-      <c r="AB57">
+      <c r="AC57">
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:32">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -4888,36 +4969,36 @@
       <c r="L58">
         <v>6.018960998658645E-2</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>43.25</v>
       </c>
-      <c r="X58">
+      <c r="Y58">
         <v>53</v>
       </c>
-      <c r="Y58">
+      <c r="Z58">
         <v>46</v>
       </c>
-      <c r="Z58">
+      <c r="AA58">
         <v>54</v>
       </c>
-      <c r="AA58">
+      <c r="AB58">
         <v>61.5</v>
       </c>
-      <c r="AB58">
+      <c r="AC58">
         <v>83</v>
       </c>
-      <c r="AC58">
+      <c r="AD58">
         <v>5.4499999999999993</v>
       </c>
-      <c r="AD58">
+      <c r="AE58">
         <v>0.43229041164476623</v>
       </c>
-      <c r="AE58">
-        <f>AC58-1</f>
+      <c r="AF58">
+        <f>AD58-1</f>
         <v>4.4499999999999993</v>
       </c>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:32">
       <c r="A59" t="s">
         <v>18</v>
       </c>
@@ -4960,36 +5041,36 @@
       <c r="U59">
         <v>2.7121639576790586</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>43.25</v>
       </c>
-      <c r="X59">
+      <c r="Y59">
         <v>53</v>
       </c>
-      <c r="Y59">
+      <c r="Z59">
         <v>46</v>
       </c>
-      <c r="Z59">
+      <c r="AA59">
         <v>54</v>
       </c>
-      <c r="AA59">
+      <c r="AB59">
         <v>61.5</v>
       </c>
-      <c r="AB59">
+      <c r="AC59">
         <v>83</v>
       </c>
-      <c r="AC59">
+      <c r="AD59">
         <v>6.85</v>
       </c>
-      <c r="AD59">
+      <c r="AE59">
         <v>1.0353139620424348</v>
       </c>
-      <c r="AE59">
-        <f>AC59-1</f>
+      <c r="AF59">
+        <f>AD59-1</f>
         <v>5.85</v>
       </c>
     </row>
-    <row r="60" spans="1:31">
+    <row r="60" spans="1:32">
       <c r="A60" t="s">
         <v>18</v>
       </c>
@@ -5048,36 +5129,36 @@
       <c r="U60">
         <v>87.651067829585898</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>43.25</v>
       </c>
-      <c r="X60">
+      <c r="Y60">
         <v>53</v>
       </c>
-      <c r="Y60">
+      <c r="Z60">
         <v>46</v>
       </c>
-      <c r="Z60">
+      <c r="AA60">
         <v>54</v>
       </c>
-      <c r="AA60">
+      <c r="AB60">
         <v>61.5</v>
       </c>
-      <c r="AB60">
+      <c r="AC60">
         <v>83</v>
       </c>
-      <c r="AC60">
+      <c r="AD60">
         <v>14.65</v>
       </c>
-      <c r="AD60">
+      <c r="AE60">
         <v>1.3827056809024814</v>
       </c>
-      <c r="AE60">
-        <f>AC60-1</f>
+      <c r="AF60">
+        <f>AD60-1</f>
         <v>13.65</v>
       </c>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61" spans="1:32">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -5120,36 +5201,36 @@
       <c r="U61">
         <v>44.045898314523377</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>43.25</v>
       </c>
-      <c r="X61">
+      <c r="Y61">
         <v>53</v>
       </c>
-      <c r="Y61">
+      <c r="Z61">
         <v>46</v>
       </c>
-      <c r="Z61">
+      <c r="AA61">
         <v>54</v>
       </c>
-      <c r="AA61">
+      <c r="AB61">
         <v>61.5</v>
       </c>
-      <c r="AB61">
+      <c r="AC61">
         <v>83</v>
       </c>
-      <c r="AC61">
+      <c r="AD61">
         <v>11.899999999999999</v>
       </c>
-      <c r="AD61">
+      <c r="AE61">
         <v>0.33541019662496857</v>
       </c>
-      <c r="AE61">
-        <f>AC61-1</f>
+      <c r="AF61">
+        <f>AD61-1</f>
         <v>10.899999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" spans="1:32">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -5192,36 +5273,36 @@
       <c r="U62">
         <v>2.2985121999531204</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>40.75</v>
       </c>
-      <c r="X62">
+      <c r="Y62">
         <v>49</v>
       </c>
-      <c r="Y62">
+      <c r="Z62">
         <v>43</v>
       </c>
-      <c r="Z62">
+      <c r="AA62">
         <v>47.5</v>
       </c>
-      <c r="AA62">
+      <c r="AB62">
         <v>56.5</v>
       </c>
-      <c r="AB62">
+      <c r="AC62">
         <v>84</v>
       </c>
-      <c r="AC62">
+      <c r="AD62">
         <v>8.1749999999999989</v>
       </c>
-      <c r="AD62">
+      <c r="AE62">
         <v>0.68590724591594887</v>
       </c>
-      <c r="AE62">
-        <f t="shared" ref="AE62:AE63" si="3">AC62-1</f>
+      <c r="AF62">
+        <f t="shared" ref="AF62:AF63" si="3">AD62-1</f>
         <v>7.1749999999999989</v>
       </c>
     </row>
-    <row r="63" spans="1:31">
+    <row r="63" spans="1:32">
       <c r="A63" t="s">
         <v>18</v>
       </c>
@@ -5264,36 +5345,36 @@
       <c r="U63">
         <v>16.743847377469734</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>40.75</v>
       </c>
-      <c r="X63">
+      <c r="Y63">
         <v>49</v>
       </c>
-      <c r="Y63">
+      <c r="Z63">
         <v>43</v>
       </c>
-      <c r="Z63">
+      <c r="AA63">
         <v>47.5</v>
       </c>
-      <c r="AA63">
+      <c r="AB63">
         <v>56.5</v>
       </c>
-      <c r="AB63">
+      <c r="AC63">
         <v>84</v>
       </c>
-      <c r="AC63">
+      <c r="AD63">
         <v>13.400000000000002</v>
       </c>
-      <c r="AD63">
+      <c r="AE63">
         <v>1.7846568297574714</v>
       </c>
-      <c r="AE63">
+      <c r="AF63">
         <f t="shared" si="3"/>
         <v>12.400000000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64" spans="1:32">
       <c r="A64" t="s">
         <v>18</v>
       </c>
@@ -5330,26 +5411,26 @@
       <c r="L64">
         <v>3.5078538692328215E-2</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>40.75</v>
       </c>
-      <c r="X64">
+      <c r="Y64">
         <v>49</v>
       </c>
-      <c r="Y64">
+      <c r="Z64">
         <v>43</v>
       </c>
-      <c r="Z64">
+      <c r="AA64">
         <v>47.5</v>
       </c>
-      <c r="AA64">
+      <c r="AB64">
         <v>56.5</v>
       </c>
-      <c r="AB64">
+      <c r="AC64">
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:31">
+    <row r="65" spans="1:32">
       <c r="A65" t="s">
         <v>18</v>
       </c>
@@ -5408,26 +5489,26 @@
       <c r="U65">
         <v>86.495679034658394</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>40.75</v>
       </c>
-      <c r="X65">
+      <c r="Y65">
         <v>49</v>
       </c>
-      <c r="Y65">
+      <c r="Z65">
         <v>43</v>
       </c>
-      <c r="Z65">
+      <c r="AA65">
         <v>47.5</v>
       </c>
-      <c r="AA65">
+      <c r="AB65">
         <v>56.5</v>
       </c>
-      <c r="AB65">
+      <c r="AC65">
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:31">
+    <row r="66" spans="1:32">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -5470,36 +5551,36 @@
       <c r="U66">
         <v>0.77517202391899243</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>47.5</v>
       </c>
-      <c r="X66">
+      <c r="Y66">
         <v>56</v>
       </c>
-      <c r="Y66">
+      <c r="Z66">
         <v>49</v>
       </c>
-      <c r="Z66">
+      <c r="AA66">
         <v>55.25</v>
       </c>
-      <c r="AA66">
+      <c r="AB66">
         <v>67</v>
       </c>
-      <c r="AB66">
+      <c r="AC66">
         <v>91</v>
       </c>
-      <c r="AC66">
+      <c r="AD66">
         <v>7</v>
       </c>
-      <c r="AD66">
+      <c r="AE66">
         <v>0.18708286933869706</v>
       </c>
-      <c r="AE66">
-        <f>AC66-1</f>
+      <c r="AF66">
+        <f>AD66-1</f>
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:31">
+    <row r="67" spans="1:32">
       <c r="A67" t="s">
         <v>18</v>
       </c>
@@ -5558,36 +5639,36 @@
       <c r="U67">
         <v>85.2816670412425</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>47.5</v>
       </c>
-      <c r="X67">
+      <c r="Y67">
         <v>56</v>
       </c>
-      <c r="Y67">
+      <c r="Z67">
         <v>49</v>
       </c>
-      <c r="Z67">
+      <c r="AA67">
         <v>55.25</v>
       </c>
-      <c r="AA67">
+      <c r="AB67">
         <v>67</v>
       </c>
-      <c r="AB67">
+      <c r="AC67">
         <v>91</v>
       </c>
-      <c r="AC67">
+      <c r="AD67">
         <v>8.3500000000000014</v>
       </c>
-      <c r="AD67">
+      <c r="AE67">
         <v>0.26809513236909011</v>
       </c>
-      <c r="AE67">
-        <f>AC67-1</f>
+      <c r="AF67">
+        <f>AD67-1</f>
         <v>7.3500000000000014</v>
       </c>
     </row>
-    <row r="68" spans="1:31">
+    <row r="68" spans="1:32">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -5624,26 +5705,26 @@
       <c r="L68">
         <v>4.0198626571687754E-2</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>47.5</v>
       </c>
-      <c r="X68">
+      <c r="Y68">
         <v>56</v>
       </c>
-      <c r="Y68">
+      <c r="Z68">
         <v>49</v>
       </c>
-      <c r="Z68">
+      <c r="AA68">
         <v>55.25</v>
       </c>
-      <c r="AA68">
+      <c r="AB68">
         <v>67</v>
       </c>
-      <c r="AB68">
+      <c r="AC68">
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:31">
+    <row r="69" spans="1:32">
       <c r="A69" t="s">
         <v>18</v>
       </c>
@@ -5686,26 +5767,26 @@
       <c r="U69">
         <v>54.685450228252279</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>47.5</v>
       </c>
-      <c r="X69">
+      <c r="Y69">
         <v>56</v>
       </c>
-      <c r="Y69">
+      <c r="Z69">
         <v>49</v>
       </c>
-      <c r="Z69">
+      <c r="AA69">
         <v>55.25</v>
       </c>
-      <c r="AA69">
+      <c r="AB69">
         <v>67</v>
       </c>
-      <c r="AB69">
+      <c r="AC69">
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:31">
+    <row r="70" spans="1:32">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -5742,36 +5823,36 @@
       <c r="L70">
         <v>0.30668942311102998</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>43.75</v>
       </c>
-      <c r="X70">
+      <c r="Y70">
         <v>49</v>
       </c>
-      <c r="Y70">
+      <c r="Z70">
         <v>47.5</v>
       </c>
-      <c r="Z70">
+      <c r="AA70">
         <v>53</v>
       </c>
-      <c r="AA70">
+      <c r="AB70">
         <v>60.75</v>
       </c>
-      <c r="AB70">
+      <c r="AC70">
         <v>91</v>
       </c>
-      <c r="AC70">
+      <c r="AD70">
         <v>7.1</v>
       </c>
-      <c r="AD70">
+      <c r="AE70">
         <v>0.55452682532047171</v>
       </c>
-      <c r="AE70">
-        <f>AC70-1</f>
+      <c r="AF70">
+        <f>AD70-1</f>
         <v>6.1</v>
       </c>
     </row>
-    <row r="71" spans="1:31">
+    <row r="71" spans="1:32">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -5830,36 +5911,36 @@
       <c r="U71">
         <v>106.25905745707821</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>43.75</v>
       </c>
-      <c r="X71">
+      <c r="Y71">
         <v>49</v>
       </c>
-      <c r="Y71">
+      <c r="Z71">
         <v>47.5</v>
       </c>
-      <c r="Z71">
+      <c r="AA71">
         <v>53</v>
       </c>
-      <c r="AA71">
+      <c r="AB71">
         <v>60.75</v>
       </c>
-      <c r="AB71">
+      <c r="AC71">
         <v>91</v>
       </c>
-      <c r="AC71">
+      <c r="AD71">
         <v>12.05</v>
       </c>
-      <c r="AD71">
+      <c r="AE71">
         <v>0.7595228765481663</v>
       </c>
-      <c r="AE71">
-        <f>AC71-1</f>
+      <c r="AF71">
+        <f>AD71-1</f>
         <v>11.05</v>
       </c>
     </row>
-    <row r="72" spans="1:31">
+    <row r="72" spans="1:32">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -5902,36 +5983,36 @@
       <c r="U72">
         <v>24.553984741110071</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>43.75</v>
       </c>
-      <c r="X72">
+      <c r="Y72">
         <v>49</v>
       </c>
-      <c r="Y72">
+      <c r="Z72">
         <v>47.5</v>
       </c>
-      <c r="Z72">
+      <c r="AA72">
         <v>53</v>
       </c>
-      <c r="AA72">
+      <c r="AB72">
         <v>60.75</v>
       </c>
-      <c r="AB72">
+      <c r="AC72">
         <v>91</v>
       </c>
-      <c r="AC72">
+      <c r="AD72">
         <v>8</v>
       </c>
-      <c r="AD72">
+      <c r="AE72">
         <v>0.71763500472036656</v>
       </c>
-      <c r="AE72">
-        <f>AC72-1</f>
+      <c r="AF72">
+        <f>AD72-1</f>
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:31">
+    <row r="73" spans="1:32">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -5968,26 +6049,26 @@
       <c r="L73">
         <v>6.2447596005904639E-2</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>43.75</v>
       </c>
-      <c r="X73">
+      <c r="Y73">
         <v>49</v>
       </c>
-      <c r="Y73">
+      <c r="Z73">
         <v>47.5</v>
       </c>
-      <c r="Z73">
+      <c r="AA73">
         <v>53</v>
       </c>
-      <c r="AA73">
+      <c r="AB73">
         <v>60.75</v>
       </c>
-      <c r="AB73">
+      <c r="AC73">
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:31">
+    <row r="74" spans="1:32">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -6030,36 +6111,36 @@
       <c r="U74">
         <v>3.6165821802727876</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>40</v>
       </c>
-      <c r="X74">
+      <c r="Y74">
         <v>49</v>
       </c>
-      <c r="Y74">
+      <c r="Z74">
         <v>44.5</v>
       </c>
-      <c r="Z74">
+      <c r="AA74">
         <v>49.75</v>
       </c>
-      <c r="AA74">
+      <c r="AB74">
         <v>58</v>
       </c>
-      <c r="AB74">
+      <c r="AC74">
         <v>84</v>
       </c>
-      <c r="AC74">
+      <c r="AD74">
         <v>6.3250000000000002</v>
       </c>
-      <c r="AD74">
+      <c r="AE74">
         <v>0.81192287195274837</v>
       </c>
-      <c r="AE74">
-        <f>AC74-1</f>
+      <c r="AF74">
+        <f>AD74-1</f>
         <v>5.3250000000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:31">
+    <row r="75" spans="1:32">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -6102,36 +6183,36 @@
       <c r="U75">
         <v>0.21914607000811126</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>40</v>
       </c>
-      <c r="X75">
+      <c r="Y75">
         <v>49</v>
       </c>
-      <c r="Y75">
+      <c r="Z75">
         <v>44.5</v>
       </c>
-      <c r="Z75">
+      <c r="AA75">
         <v>49.75</v>
       </c>
-      <c r="AA75">
+      <c r="AB75">
         <v>58</v>
       </c>
-      <c r="AB75">
+      <c r="AC75">
         <v>84</v>
       </c>
-      <c r="AC75">
+      <c r="AD75">
         <v>5.75</v>
       </c>
-      <c r="AD75">
+      <c r="AE75">
         <v>0.59319052588523336</v>
       </c>
-      <c r="AE75">
-        <f>AC75-1</f>
+      <c r="AF75">
+        <f>AD75-1</f>
         <v>4.75</v>
       </c>
     </row>
-    <row r="76" spans="1:31">
+    <row r="76" spans="1:32">
       <c r="A76" t="s">
         <v>18</v>
       </c>
@@ -6168,26 +6249,26 @@
       <c r="L76">
         <v>3.457772575848745E-2</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>40</v>
       </c>
-      <c r="X76">
+      <c r="Y76">
         <v>49</v>
       </c>
-      <c r="Y76">
+      <c r="Z76">
         <v>44.5</v>
       </c>
-      <c r="Z76">
+      <c r="AA76">
         <v>49.75</v>
       </c>
-      <c r="AA76">
+      <c r="AB76">
         <v>58</v>
       </c>
-      <c r="AB76">
+      <c r="AC76">
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:31">
+    <row r="77" spans="1:32">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -6246,26 +6327,26 @@
       <c r="U77">
         <v>37.789551907019678</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>40</v>
       </c>
-      <c r="X77">
+      <c r="Y77">
         <v>49</v>
       </c>
-      <c r="Y77">
+      <c r="Z77">
         <v>44.5</v>
       </c>
-      <c r="Z77">
+      <c r="AA77">
         <v>49.75</v>
       </c>
-      <c r="AA77">
+      <c r="AB77">
         <v>58</v>
       </c>
-      <c r="AB77">
+      <c r="AC77">
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:31">
+    <row r="78" spans="1:32">
       <c r="A78" t="s">
         <v>18</v>
       </c>
@@ -6308,36 +6389,36 @@
       <c r="U78">
         <v>0.22201726659579132</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>45.5</v>
       </c>
-      <c r="X78">
+      <c r="Y78">
         <v>56</v>
       </c>
-      <c r="Y78">
+      <c r="Z78">
         <v>47.75</v>
       </c>
-      <c r="Z78">
+      <c r="AA78">
         <v>55.25</v>
       </c>
-      <c r="AA78">
+      <c r="AB78">
         <v>70</v>
       </c>
-      <c r="AB78">
+      <c r="AC78">
         <v>91</v>
       </c>
-      <c r="AC78">
+      <c r="AD78">
         <v>5.6</v>
       </c>
-      <c r="AD78">
+      <c r="AE78">
         <v>0.43011626335213293</v>
       </c>
-      <c r="AE78">
-        <f>AC78-1</f>
+      <c r="AF78">
+        <f>AD78-1</f>
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="79" spans="1:31">
+    <row r="79" spans="1:32">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -6396,36 +6477,36 @@
       <c r="U79">
         <v>41.481517470635865</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>45.5</v>
       </c>
-      <c r="X79">
+      <c r="Y79">
         <v>56</v>
       </c>
-      <c r="Y79">
+      <c r="Z79">
         <v>47.75</v>
       </c>
-      <c r="Z79">
+      <c r="AA79">
         <v>55.25</v>
       </c>
-      <c r="AA79">
+      <c r="AB79">
         <v>70</v>
       </c>
-      <c r="AB79">
+      <c r="AC79">
         <v>91</v>
       </c>
-      <c r="AC79">
+      <c r="AD79">
         <v>6.0250000000000004</v>
       </c>
-      <c r="AD79">
+      <c r="AE79">
         <v>0.11388041973930381</v>
       </c>
-      <c r="AE79">
-        <f>AC79-1</f>
+      <c r="AF79">
+        <f>AD79-1</f>
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:31">
+    <row r="80" spans="1:32">
       <c r="A80" t="s">
         <v>18</v>
       </c>
@@ -6462,26 +6543,26 @@
       <c r="L80">
         <v>5.8681671865384095E-2</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>45.5</v>
       </c>
-      <c r="X80">
+      <c r="Y80">
         <v>56</v>
       </c>
-      <c r="Y80">
+      <c r="Z80">
         <v>47.75</v>
       </c>
-      <c r="Z80">
+      <c r="AA80">
         <v>55.25</v>
       </c>
-      <c r="AA80">
+      <c r="AB80">
         <v>70</v>
       </c>
-      <c r="AB80">
+      <c r="AC80">
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="1:31">
+    <row r="81" spans="1:32">
       <c r="A81" t="s">
         <v>18</v>
       </c>
@@ -6524,26 +6605,26 @@
       <c r="U81">
         <v>6.1044758169723297</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>45.5</v>
       </c>
-      <c r="X81">
+      <c r="Y81">
         <v>56</v>
       </c>
-      <c r="Y81">
+      <c r="Z81">
         <v>47.75</v>
       </c>
-      <c r="Z81">
+      <c r="AA81">
         <v>55.25</v>
       </c>
-      <c r="AA81">
+      <c r="AB81">
         <v>70</v>
       </c>
-      <c r="AB81">
+      <c r="AC81">
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="1:31">
+    <row r="82" spans="1:32">
       <c r="A82" t="s">
         <v>18</v>
       </c>
@@ -6580,36 +6661,36 @@
       <c r="L82">
         <v>4.2138508537406971E-2</v>
       </c>
-      <c r="W82">
+      <c r="X82">
         <v>44.5</v>
       </c>
-      <c r="X82">
+      <c r="Y82">
         <v>49</v>
       </c>
-      <c r="Y82">
+      <c r="Z82">
         <v>47.75</v>
       </c>
-      <c r="Z82">
+      <c r="AA82">
         <v>55</v>
       </c>
-      <c r="AA82">
+      <c r="AB82">
         <v>65.25</v>
       </c>
-      <c r="AB82">
+      <c r="AC82">
         <v>91</v>
       </c>
-      <c r="AC82">
+      <c r="AD82">
         <v>5.95</v>
       </c>
-      <c r="AD82">
+      <c r="AE82">
         <v>0.31917863337009217</v>
       </c>
-      <c r="AE82">
-        <f>AC82-1</f>
+      <c r="AF82">
+        <f>AD82-1</f>
         <v>4.95</v>
       </c>
     </row>
-    <row r="83" spans="1:31">
+    <row r="83" spans="1:32">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -6668,36 +6749,36 @@
       <c r="U83">
         <v>30.242939120837267</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>44.5</v>
       </c>
-      <c r="X83">
+      <c r="Y83">
         <v>49</v>
       </c>
-      <c r="Y83">
+      <c r="Z83">
         <v>47.75</v>
       </c>
-      <c r="Z83">
+      <c r="AA83">
         <v>55</v>
       </c>
-      <c r="AA83">
+      <c r="AB83">
         <v>65.25</v>
       </c>
-      <c r="AB83">
+      <c r="AC83">
         <v>91</v>
       </c>
-      <c r="AC83">
+      <c r="AD83">
         <v>7.8000000000000007</v>
       </c>
-      <c r="AD83">
+      <c r="AE83">
         <v>0.58309518948452843</v>
       </c>
-      <c r="AE83">
-        <f>AC83-1</f>
+      <c r="AF83">
+        <f>AD83-1</f>
         <v>6.8000000000000007</v>
       </c>
     </row>
-    <row r="84" spans="1:31">
+    <row r="84" spans="1:32">
       <c r="A84" t="s">
         <v>18</v>
       </c>
@@ -6740,36 +6821,36 @@
       <c r="U84">
         <v>1.788227707349747</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>44.5</v>
       </c>
-      <c r="X84">
+      <c r="Y84">
         <v>49</v>
       </c>
-      <c r="Y84">
+      <c r="Z84">
         <v>47.75</v>
       </c>
-      <c r="Z84">
+      <c r="AA84">
         <v>55</v>
       </c>
-      <c r="AA84">
+      <c r="AB84">
         <v>65.25</v>
       </c>
-      <c r="AB84">
+      <c r="AC84">
         <v>91</v>
       </c>
-      <c r="AC84">
+      <c r="AD84">
         <v>7.15</v>
       </c>
-      <c r="AD84">
+      <c r="AE84">
         <v>0.24874685927665491</v>
       </c>
-      <c r="AE84">
-        <f>AC84-1</f>
+      <c r="AF84">
+        <f>AD84-1</f>
         <v>6.15</v>
       </c>
     </row>
-    <row r="85" spans="1:31">
+    <row r="85" spans="1:32">
       <c r="A85" t="s">
         <v>18</v>
       </c>
@@ -6806,26 +6887,26 @@
       <c r="L85">
         <v>7.7510266469997161E-2</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>44.5</v>
       </c>
-      <c r="X85">
+      <c r="Y85">
         <v>49</v>
       </c>
-      <c r="Y85">
+      <c r="Z85">
         <v>47.75</v>
       </c>
-      <c r="Z85">
+      <c r="AA85">
         <v>55</v>
       </c>
-      <c r="AA85">
+      <c r="AB85">
         <v>65.25</v>
       </c>
-      <c r="AB85">
+      <c r="AC85">
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="1:31">
+    <row r="86" spans="1:32">
       <c r="A86" t="s">
         <v>18</v>
       </c>
@@ -6840,18 +6921,18 @@
       </c>
       <c r="S86" s="9"/>
       <c r="T86" s="9"/>
-      <c r="AC86">
+      <c r="AD86">
         <v>5.5500000000000007</v>
       </c>
-      <c r="AD86">
+      <c r="AE86">
         <v>0.10897247358851676</v>
       </c>
-      <c r="AE86">
-        <f>AC86-1</f>
+      <c r="AF86">
+        <f>AD86-1</f>
         <v>4.5500000000000007</v>
       </c>
     </row>
-    <row r="87" spans="1:31">
+    <row r="87" spans="1:32">
       <c r="A87" t="s">
         <v>18</v>
       </c>
@@ -6864,36 +6945,36 @@
       <c r="D87" t="s">
         <v>72</v>
       </c>
-      <c r="W87">
+      <c r="X87">
         <v>39.5</v>
       </c>
-      <c r="X87">
+      <c r="Y87">
         <v>41</v>
       </c>
-      <c r="Y87">
+      <c r="Z87">
         <v>45</v>
       </c>
-      <c r="Z87">
+      <c r="AA87">
         <v>49.5</v>
       </c>
-      <c r="AA87">
+      <c r="AB87">
         <v>60</v>
       </c>
-      <c r="AB87">
+      <c r="AC87">
         <v>66</v>
       </c>
-      <c r="AC87">
+      <c r="AD87">
         <v>7.35</v>
       </c>
-      <c r="AD87">
+      <c r="AE87">
         <v>0.76852130744697178</v>
       </c>
-      <c r="AE87">
-        <f>AC87-1</f>
+      <c r="AF87">
+        <f>AD87-1</f>
         <v>6.35</v>
       </c>
     </row>
-    <row r="88" spans="1:31">
+    <row r="88" spans="1:32">
       <c r="A88" t="s">
         <v>18</v>
       </c>
@@ -6904,26 +6985,26 @@
       <c r="D88" t="s">
         <v>13</v>
       </c>
-      <c r="W88">
+      <c r="X88">
         <v>39.5</v>
       </c>
-      <c r="X88">
+      <c r="Y88">
         <v>41</v>
       </c>
-      <c r="Y88">
+      <c r="Z88">
         <v>45</v>
       </c>
-      <c r="Z88">
+      <c r="AA88">
         <v>49.5</v>
       </c>
-      <c r="AA88">
+      <c r="AB88">
         <v>60</v>
       </c>
-      <c r="AB88">
+      <c r="AC88">
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:31">
+    <row r="89" spans="1:32">
       <c r="A89" t="s">
         <v>18</v>
       </c>
@@ -6936,18 +7017,18 @@
       <c r="D89" t="s">
         <v>74</v>
       </c>
-      <c r="AC89">
+      <c r="AD89">
         <v>5.4</v>
       </c>
-      <c r="AD89">
+      <c r="AE89">
         <v>0.12247448713915883</v>
       </c>
-      <c r="AE89">
-        <f>AC89-1</f>
+      <c r="AF89">
+        <f>AD89-1</f>
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="90" spans="1:31">
+    <row r="90" spans="1:32">
       <c r="A90" t="s">
         <v>18</v>
       </c>
@@ -6960,36 +7041,36 @@
       <c r="D90" t="s">
         <v>72</v>
       </c>
-      <c r="W90">
+      <c r="X90">
         <v>35</v>
       </c>
-      <c r="X90">
+      <c r="Y90">
         <v>38</v>
       </c>
-      <c r="Y90">
+      <c r="Z90">
         <v>40.5</v>
       </c>
-      <c r="Z90">
+      <c r="AA90">
         <v>47</v>
       </c>
-      <c r="AA90">
+      <c r="AB90">
         <v>56.75</v>
       </c>
-      <c r="AB90">
+      <c r="AC90">
         <v>66</v>
       </c>
-      <c r="AC90">
+      <c r="AD90">
         <v>13.049999999999999</v>
       </c>
-      <c r="AD90">
+      <c r="AE90">
         <v>0.68328251843582888</v>
       </c>
-      <c r="AE90">
-        <f>AC90-1</f>
+      <c r="AF90">
+        <f>AD90-1</f>
         <v>12.049999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:31">
+    <row r="91" spans="1:32">
       <c r="A91" t="s">
         <v>18</v>
       </c>
@@ -7000,26 +7081,26 @@
       <c r="D91" t="s">
         <v>13</v>
       </c>
-      <c r="W91">
+      <c r="X91">
         <v>35</v>
       </c>
-      <c r="X91">
+      <c r="Y91">
         <v>38</v>
       </c>
-      <c r="Y91">
+      <c r="Z91">
         <v>40.5</v>
       </c>
-      <c r="Z91">
+      <c r="AA91">
         <v>47</v>
       </c>
-      <c r="AA91">
+      <c r="AB91">
         <v>56.75</v>
       </c>
-      <c r="AB91">
+      <c r="AC91">
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:31">
+    <row r="92" spans="1:32">
       <c r="A92" t="s">
         <v>18</v>
       </c>
@@ -7032,18 +7113,18 @@
       <c r="D92" t="s">
         <v>74</v>
       </c>
-      <c r="AC92">
+      <c r="AD92">
         <v>5.15</v>
       </c>
-      <c r="AD92">
+      <c r="AE92">
         <v>0.25860201081971496</v>
       </c>
-      <c r="AE92">
-        <f>AC92-1</f>
+      <c r="AF92">
+        <f>AD92-1</f>
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="93" spans="1:31">
+    <row r="93" spans="1:32">
       <c r="A93" t="s">
         <v>18</v>
       </c>
@@ -7056,36 +7137,36 @@
       <c r="D93" t="s">
         <v>72</v>
       </c>
-      <c r="W93">
+      <c r="X93">
         <v>40</v>
       </c>
-      <c r="X93">
+      <c r="Y93">
         <v>41</v>
       </c>
-      <c r="Y93">
+      <c r="Z93">
         <v>45</v>
       </c>
-      <c r="Z93">
+      <c r="AA93">
         <v>50.5</v>
       </c>
-      <c r="AA93">
+      <c r="AB93">
         <v>60</v>
       </c>
-      <c r="AB93">
+      <c r="AC93">
         <v>73</v>
       </c>
-      <c r="AC93">
+      <c r="AD93">
         <v>6.9249999999999998</v>
       </c>
-      <c r="AD93">
+      <c r="AE93">
         <v>0.96136296475368743</v>
       </c>
-      <c r="AE93">
-        <f>AC93-1</f>
+      <c r="AF93">
+        <f>AD93-1</f>
         <v>5.9249999999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:31">
+    <row r="94" spans="1:32">
       <c r="A94" t="s">
         <v>18</v>
       </c>
@@ -7096,26 +7177,26 @@
       <c r="D94" t="s">
         <v>13</v>
       </c>
-      <c r="W94">
+      <c r="X94">
         <v>40</v>
       </c>
-      <c r="X94">
+      <c r="Y94">
         <v>41</v>
       </c>
-      <c r="Y94">
+      <c r="Z94">
         <v>45</v>
       </c>
-      <c r="Z94">
+      <c r="AA94">
         <v>50.5</v>
       </c>
-      <c r="AA94">
+      <c r="AB94">
         <v>60</v>
       </c>
-      <c r="AB94">
+      <c r="AC94">
         <v>73</v>
       </c>
     </row>
-    <row r="95" spans="1:31">
+    <row r="95" spans="1:32">
       <c r="A95" t="s">
         <v>18</v>
       </c>
@@ -7128,18 +7209,18 @@
       <c r="D95" t="s">
         <v>74</v>
       </c>
-      <c r="AC95">
+      <c r="AD95">
         <v>5.335</v>
       </c>
-      <c r="AD95">
+      <c r="AE95">
         <v>0.13479150566708564</v>
       </c>
-      <c r="AE95">
-        <f>AC95-1</f>
+      <c r="AF95">
+        <f>AD95-1</f>
         <v>4.335</v>
       </c>
     </row>
-    <row r="96" spans="1:31">
+    <row r="96" spans="1:32">
       <c r="A96" t="s">
         <v>18</v>
       </c>
@@ -7152,36 +7233,36 @@
       <c r="D96" t="s">
         <v>72</v>
       </c>
-      <c r="W96">
+      <c r="X96">
         <v>39.25</v>
       </c>
-      <c r="X96">
+      <c r="Y96">
         <v>41</v>
       </c>
-      <c r="Y96">
+      <c r="Z96">
         <v>45</v>
       </c>
-      <c r="Z96">
+      <c r="AA96">
         <v>49</v>
       </c>
-      <c r="AA96">
+      <c r="AB96">
         <v>60</v>
       </c>
-      <c r="AB96">
+      <c r="AC96">
         <v>73</v>
       </c>
-      <c r="AC96">
+      <c r="AD96">
         <v>7.9249999999999989</v>
       </c>
-      <c r="AD96">
+      <c r="AE96">
         <v>0.91472331882378766</v>
       </c>
-      <c r="AE96">
-        <f>AC96-1</f>
+      <c r="AF96">
+        <f>AD96-1</f>
         <v>6.9249999999999989</v>
       </c>
     </row>
-    <row r="97" spans="1:31">
+    <row r="97" spans="1:32">
       <c r="A97" t="s">
         <v>18</v>
       </c>
@@ -7192,26 +7273,26 @@
       <c r="D97" t="s">
         <v>13</v>
       </c>
-      <c r="W97">
+      <c r="X97">
         <v>39.25</v>
       </c>
-      <c r="X97">
+      <c r="Y97">
         <v>41</v>
       </c>
-      <c r="Y97">
+      <c r="Z97">
         <v>45</v>
       </c>
-      <c r="Z97">
+      <c r="AA97">
         <v>49</v>
       </c>
-      <c r="AA97">
+      <c r="AB97">
         <v>60</v>
       </c>
-      <c r="AB97">
+      <c r="AC97">
         <v>73</v>
       </c>
     </row>
-    <row r="98" spans="1:31">
+    <row r="98" spans="1:32">
       <c r="A98" t="s">
         <v>18</v>
       </c>
@@ -7224,18 +7305,18 @@
       <c r="D98" t="s">
         <v>74</v>
       </c>
-      <c r="AC98">
+      <c r="AD98">
         <v>5.8666666666666671</v>
       </c>
-      <c r="AD98">
+      <c r="AE98">
         <v>0.70887234393788967</v>
       </c>
-      <c r="AE98">
-        <f>AC98-1</f>
+      <c r="AF98">
+        <f>AD98-1</f>
         <v>4.8666666666666671</v>
       </c>
     </row>
-    <row r="99" spans="1:31">
+    <row r="99" spans="1:32">
       <c r="A99" t="s">
         <v>18</v>
       </c>
@@ -7248,36 +7329,36 @@
       <c r="D99" t="s">
         <v>72</v>
       </c>
-      <c r="W99">
+      <c r="X99">
         <v>39.25</v>
       </c>
-      <c r="X99">
+      <c r="Y99">
         <v>41</v>
       </c>
-      <c r="Y99">
+      <c r="Z99">
         <v>45</v>
       </c>
-      <c r="Z99">
+      <c r="AA99">
         <v>53</v>
       </c>
-      <c r="AA99">
+      <c r="AB99">
         <v>60</v>
       </c>
-      <c r="AB99">
+      <c r="AC99">
         <v>76</v>
       </c>
-      <c r="AC99">
+      <c r="AD99">
         <v>13.2</v>
       </c>
-      <c r="AD99">
+      <c r="AE99">
         <v>1.6416455159382026</v>
       </c>
-      <c r="AE99">
-        <f>AC99-1</f>
+      <c r="AF99">
+        <f>AD99-1</f>
         <v>12.2</v>
       </c>
     </row>
-    <row r="100" spans="1:31">
+    <row r="100" spans="1:32">
       <c r="A100" t="s">
         <v>18</v>
       </c>
@@ -7288,26 +7369,26 @@
       <c r="D100" t="s">
         <v>13</v>
       </c>
-      <c r="W100">
+      <c r="X100">
         <v>39.25</v>
       </c>
-      <c r="X100">
+      <c r="Y100">
         <v>41</v>
       </c>
-      <c r="Y100">
+      <c r="Z100">
         <v>45</v>
       </c>
-      <c r="Z100">
+      <c r="AA100">
         <v>53</v>
       </c>
-      <c r="AA100">
+      <c r="AB100">
         <v>60</v>
       </c>
-      <c r="AB100">
+      <c r="AC100">
         <v>76</v>
       </c>
     </row>
-    <row r="101" spans="1:31">
+    <row r="101" spans="1:32">
       <c r="A101" t="s">
         <v>18</v>
       </c>
@@ -7320,18 +7401,18 @@
       <c r="D101" t="s">
         <v>74</v>
       </c>
-      <c r="AC101">
+      <c r="AD101">
         <v>4.8499999999999996</v>
       </c>
-      <c r="AD101">
+      <c r="AE101">
         <v>0.12990381056766589</v>
       </c>
-      <c r="AE101">
-        <f>AC101-1</f>
+      <c r="AF101">
+        <f>AD101-1</f>
         <v>3.8499999999999996</v>
       </c>
     </row>
-    <row r="102" spans="1:31">
+    <row r="102" spans="1:32">
       <c r="A102" t="s">
         <v>18</v>
       </c>
@@ -7344,36 +7425,36 @@
       <c r="D102" t="s">
         <v>72</v>
       </c>
-      <c r="W102">
+      <c r="X102">
         <v>38.5</v>
       </c>
-      <c r="X102">
+      <c r="Y102">
         <v>41</v>
       </c>
-      <c r="Y102">
+      <c r="Z102">
         <v>43</v>
       </c>
-      <c r="Z102">
+      <c r="AA102">
         <v>49</v>
       </c>
-      <c r="AA102">
+      <c r="AB102">
         <v>60</v>
       </c>
-      <c r="AB102">
+      <c r="AC102">
         <v>70</v>
       </c>
-      <c r="AC102">
+      <c r="AD102">
         <v>7.0749999999999993</v>
       </c>
-      <c r="AD102">
+      <c r="AE102">
         <v>0.48653751140071555</v>
       </c>
-      <c r="AE102">
-        <f>AC102-1</f>
+      <c r="AF102">
+        <f>AD102-1</f>
         <v>6.0749999999999993</v>
       </c>
     </row>
-    <row r="103" spans="1:31">
+    <row r="103" spans="1:32">
       <c r="A103" t="s">
         <v>18</v>
       </c>
@@ -7384,26 +7465,26 @@
       <c r="D103" t="s">
         <v>13</v>
       </c>
-      <c r="W103">
+      <c r="X103">
         <v>38.5</v>
       </c>
-      <c r="X103">
+      <c r="Y103">
         <v>41</v>
       </c>
-      <c r="Y103">
+      <c r="Z103">
         <v>43</v>
       </c>
-      <c r="Z103">
+      <c r="AA103">
         <v>49</v>
       </c>
-      <c r="AA103">
+      <c r="AB103">
         <v>60</v>
       </c>
-      <c r="AB103">
+      <c r="AC103">
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:31">
+    <row r="104" spans="1:32">
       <c r="A104" t="s">
         <v>18</v>
       </c>
@@ -7416,36 +7497,36 @@
       <c r="D104" t="s">
         <v>72</v>
       </c>
-      <c r="W104">
-        <v>47</v>
-      </c>
       <c r="X104">
         <v>47</v>
       </c>
       <c r="Y104">
+        <v>47</v>
+      </c>
+      <c r="Z104">
         <v>48.25</v>
       </c>
-      <c r="Z104">
+      <c r="AA104">
         <v>53</v>
       </c>
-      <c r="AA104">
+      <c r="AB104">
         <v>67</v>
       </c>
-      <c r="AB104">
+      <c r="AC104">
         <v>77</v>
       </c>
-      <c r="AC104">
+      <c r="AD104">
         <v>7.3</v>
       </c>
-      <c r="AD104">
+      <c r="AE104">
         <v>1.0965856099730658</v>
       </c>
-      <c r="AE104">
-        <f>AC104-1</f>
+      <c r="AF104">
+        <f>AD104-1</f>
         <v>6.3</v>
       </c>
     </row>
-    <row r="105" spans="1:31">
+    <row r="105" spans="1:32">
       <c r="A105" t="s">
         <v>18</v>
       </c>
@@ -7458,36 +7539,36 @@
       <c r="D105" t="s">
         <v>74</v>
       </c>
-      <c r="W105">
-        <v>47</v>
-      </c>
       <c r="X105">
         <v>47</v>
       </c>
       <c r="Y105">
+        <v>47</v>
+      </c>
+      <c r="Z105">
         <v>48.25</v>
       </c>
-      <c r="Z105">
+      <c r="AA105">
         <v>53</v>
       </c>
-      <c r="AA105">
+      <c r="AB105">
         <v>67</v>
       </c>
-      <c r="AB105">
+      <c r="AC105">
         <v>77</v>
       </c>
-      <c r="AC105">
+      <c r="AD105">
         <v>6.6</v>
       </c>
-      <c r="AD105">
+      <c r="AE105">
         <v>7.0710678118654655E-2</v>
       </c>
-      <c r="AE105">
-        <f>AC105-1</f>
+      <c r="AF105">
+        <f>AD105-1</f>
         <v>5.6</v>
       </c>
     </row>
-    <row r="106" spans="1:31">
+    <row r="106" spans="1:32">
       <c r="A106" t="s">
         <v>18</v>
       </c>
@@ -7500,36 +7581,36 @@
       <c r="D106" t="s">
         <v>13</v>
       </c>
-      <c r="W106">
-        <v>47</v>
-      </c>
       <c r="X106">
         <v>47</v>
       </c>
       <c r="Y106">
+        <v>47</v>
+      </c>
+      <c r="Z106">
         <v>48.25</v>
       </c>
-      <c r="Z106">
+      <c r="AA106">
         <v>53</v>
       </c>
-      <c r="AA106">
+      <c r="AB106">
         <v>67</v>
       </c>
-      <c r="AB106">
+      <c r="AC106">
         <v>77</v>
       </c>
-      <c r="AC106">
+      <c r="AD106">
         <v>12.95</v>
       </c>
-      <c r="AD106">
+      <c r="AE106">
         <v>1.0280442597476069</v>
       </c>
-      <c r="AE106">
-        <f>AC106-1</f>
+      <c r="AF106">
+        <f>AD106-1</f>
         <v>11.95</v>
       </c>
     </row>
-    <row r="107" spans="1:31">
+    <row r="107" spans="1:32">
       <c r="A107" t="s">
         <v>18</v>
       </c>
@@ -7542,36 +7623,36 @@
       <c r="D107" t="s">
         <v>73</v>
       </c>
-      <c r="W107">
-        <v>47</v>
-      </c>
       <c r="X107">
         <v>47</v>
       </c>
       <c r="Y107">
+        <v>47</v>
+      </c>
+      <c r="Z107">
         <v>48.25</v>
       </c>
-      <c r="Z107">
+      <c r="AA107">
         <v>53</v>
       </c>
-      <c r="AA107">
+      <c r="AB107">
         <v>67</v>
       </c>
-      <c r="AB107">
+      <c r="AC107">
         <v>77</v>
       </c>
-      <c r="AC107">
+      <c r="AD107">
         <v>10.797499999999999</v>
       </c>
-      <c r="AD107">
+      <c r="AE107">
         <v>1.1578664376775096</v>
       </c>
-      <c r="AE107">
-        <f>AC107-1</f>
+      <c r="AF107">
+        <f>AD107-1</f>
         <v>9.7974999999999994</v>
       </c>
     </row>
-    <row r="108" spans="1:31">
+    <row r="108" spans="1:32">
       <c r="A108" t="s">
         <v>18</v>
       </c>
@@ -7584,36 +7665,36 @@
       <c r="D108" t="s">
         <v>74</v>
       </c>
-      <c r="W108">
-        <v>46</v>
-      </c>
       <c r="X108">
         <v>46</v>
       </c>
       <c r="Y108">
+        <v>46</v>
+      </c>
+      <c r="Z108">
         <v>46.75</v>
       </c>
-      <c r="Z108">
+      <c r="AA108">
         <v>50</v>
       </c>
-      <c r="AA108">
+      <c r="AB108">
         <v>63</v>
       </c>
-      <c r="AB108">
+      <c r="AC108">
         <v>74</v>
       </c>
-      <c r="AC108">
+      <c r="AD108">
         <v>6.7</v>
       </c>
-      <c r="AD108">
+      <c r="AE108">
         <v>0.42720018726587772</v>
       </c>
-      <c r="AE108">
-        <f t="shared" ref="AE108:AE148" si="4">AC108-1</f>
+      <c r="AF108">
+        <f t="shared" ref="AF108:AF148" si="4">AD108-1</f>
         <v>5.7</v>
       </c>
     </row>
-    <row r="109" spans="1:31">
+    <row r="109" spans="1:32">
       <c r="A109" t="s">
         <v>18</v>
       </c>
@@ -7626,36 +7707,36 @@
       <c r="D109" t="s">
         <v>73</v>
       </c>
-      <c r="W109">
-        <v>46</v>
-      </c>
       <c r="X109">
         <v>46</v>
       </c>
       <c r="Y109">
+        <v>46</v>
+      </c>
+      <c r="Z109">
         <v>46.75</v>
       </c>
-      <c r="Z109">
+      <c r="AA109">
         <v>50</v>
       </c>
-      <c r="AA109">
+      <c r="AB109">
         <v>63</v>
       </c>
-      <c r="AB109">
+      <c r="AC109">
         <v>74</v>
       </c>
-      <c r="AC109">
+      <c r="AD109">
         <v>10.350000000000001</v>
       </c>
-      <c r="AD109">
+      <c r="AE109">
         <v>1.1453711188955278</v>
       </c>
-      <c r="AE109">
-        <f>AC109-1</f>
+      <c r="AF109">
+        <f>AD109-1</f>
         <v>9.3500000000000014</v>
       </c>
     </row>
-    <row r="110" spans="1:31">
+    <row r="110" spans="1:32">
       <c r="A110" t="s">
         <v>18</v>
       </c>
@@ -7668,36 +7749,36 @@
       <c r="D110" t="s">
         <v>72</v>
       </c>
-      <c r="W110">
-        <v>46</v>
-      </c>
       <c r="X110">
         <v>46</v>
       </c>
       <c r="Y110">
+        <v>46</v>
+      </c>
+      <c r="Z110">
         <v>46.75</v>
       </c>
-      <c r="Z110">
+      <c r="AA110">
         <v>50</v>
       </c>
-      <c r="AA110">
+      <c r="AB110">
         <v>63</v>
       </c>
-      <c r="AB110">
+      <c r="AC110">
         <v>74</v>
       </c>
-      <c r="AC110">
+      <c r="AD110">
         <v>7.8000000000000007</v>
       </c>
-      <c r="AD110">
+      <c r="AE110">
         <v>0.25495097567963915</v>
       </c>
-      <c r="AE110">
-        <f>AC110-1</f>
+      <c r="AF110">
+        <f>AD110-1</f>
         <v>6.8000000000000007</v>
       </c>
     </row>
-    <row r="111" spans="1:31">
+    <row r="111" spans="1:32">
       <c r="A111" t="s">
         <v>18</v>
       </c>
@@ -7710,36 +7791,36 @@
       <c r="D111" t="s">
         <v>13</v>
       </c>
-      <c r="W111">
-        <v>46</v>
-      </c>
       <c r="X111">
         <v>46</v>
       </c>
       <c r="Y111">
+        <v>46</v>
+      </c>
+      <c r="Z111">
         <v>46.75</v>
       </c>
-      <c r="Z111">
+      <c r="AA111">
         <v>50</v>
       </c>
-      <c r="AA111">
+      <c r="AB111">
         <v>63</v>
       </c>
-      <c r="AB111">
+      <c r="AC111">
         <v>74</v>
       </c>
-      <c r="AC111">
+      <c r="AD111">
         <v>14.25</v>
       </c>
-      <c r="AD111">
+      <c r="AE111">
         <v>0.73950997288745202</v>
       </c>
-      <c r="AE111">
+      <c r="AF111">
         <f t="shared" si="4"/>
         <v>13.25</v>
       </c>
     </row>
-    <row r="112" spans="1:31">
+    <row r="112" spans="1:32">
       <c r="A112" t="s">
         <v>18</v>
       </c>
@@ -7752,36 +7833,36 @@
       <c r="D112" t="s">
         <v>72</v>
       </c>
-      <c r="W112">
-        <v>47</v>
-      </c>
       <c r="X112">
         <v>47</v>
       </c>
       <c r="Y112">
+        <v>47</v>
+      </c>
+      <c r="Z112">
         <v>50</v>
       </c>
-      <c r="Z112">
+      <c r="AA112">
         <v>53</v>
       </c>
-      <c r="AA112">
+      <c r="AB112">
         <v>67</v>
       </c>
-      <c r="AB112">
+      <c r="AC112">
         <v>77</v>
       </c>
-      <c r="AC112">
+      <c r="AD112">
         <v>6.85</v>
       </c>
-      <c r="AD112">
+      <c r="AE112">
         <v>0.31917863337009256</v>
       </c>
-      <c r="AE112">
+      <c r="AF112">
         <f t="shared" si="4"/>
         <v>5.85</v>
       </c>
     </row>
-    <row r="113" spans="1:31">
+    <row r="113" spans="1:32">
       <c r="A113" t="s">
         <v>18</v>
       </c>
@@ -7794,36 +7875,36 @@
       <c r="D113" t="s">
         <v>74</v>
       </c>
-      <c r="W113">
-        <v>47</v>
-      </c>
       <c r="X113">
         <v>47</v>
       </c>
       <c r="Y113">
+        <v>47</v>
+      </c>
+      <c r="Z113">
         <v>50</v>
       </c>
-      <c r="Z113">
+      <c r="AA113">
         <v>53</v>
       </c>
-      <c r="AA113">
+      <c r="AB113">
         <v>67</v>
       </c>
-      <c r="AB113">
+      <c r="AC113">
         <v>77</v>
       </c>
-      <c r="AC113">
+      <c r="AD113">
         <v>6.85</v>
       </c>
-      <c r="AD113">
+      <c r="AE113">
         <v>0.42646805273080135</v>
       </c>
-      <c r="AE113">
+      <c r="AF113">
         <f t="shared" si="4"/>
         <v>5.85</v>
       </c>
     </row>
-    <row r="114" spans="1:31">
+    <row r="114" spans="1:32">
       <c r="A114" t="s">
         <v>18</v>
       </c>
@@ -7836,36 +7917,36 @@
       <c r="D114" t="s">
         <v>13</v>
       </c>
-      <c r="W114">
-        <v>47</v>
-      </c>
       <c r="X114">
         <v>47</v>
       </c>
       <c r="Y114">
+        <v>47</v>
+      </c>
+      <c r="Z114">
         <v>50</v>
       </c>
-      <c r="Z114">
+      <c r="AA114">
         <v>53</v>
       </c>
-      <c r="AA114">
+      <c r="AB114">
         <v>67</v>
       </c>
-      <c r="AB114">
+      <c r="AC114">
         <v>77</v>
       </c>
-      <c r="AC114">
+      <c r="AD114">
         <v>11.6</v>
       </c>
-      <c r="AD114">
+      <c r="AE114">
         <v>0.25495097567963931</v>
       </c>
-      <c r="AE114">
-        <f>AC114-1</f>
+      <c r="AF114">
+        <f>AD114-1</f>
         <v>10.6</v>
       </c>
     </row>
-    <row r="115" spans="1:31">
+    <row r="115" spans="1:32">
       <c r="A115" t="s">
         <v>18</v>
       </c>
@@ -7878,36 +7959,36 @@
       <c r="D115" t="s">
         <v>73</v>
       </c>
-      <c r="W115">
-        <v>47</v>
-      </c>
       <c r="X115">
         <v>47</v>
       </c>
       <c r="Y115">
+        <v>47</v>
+      </c>
+      <c r="Z115">
         <v>50</v>
       </c>
-      <c r="Z115">
+      <c r="AA115">
         <v>53</v>
       </c>
-      <c r="AA115">
+      <c r="AB115">
         <v>67</v>
       </c>
-      <c r="AB115">
+      <c r="AC115">
         <v>77</v>
       </c>
-      <c r="AC115">
+      <c r="AD115">
         <v>10.734999999999999</v>
       </c>
-      <c r="AD115">
+      <c r="AE115">
         <v>1.3066392960568749</v>
       </c>
-      <c r="AE115">
-        <f>AC115-1</f>
+      <c r="AF115">
+        <f>AD115-1</f>
         <v>9.7349999999999994</v>
       </c>
     </row>
-    <row r="116" spans="1:31">
+    <row r="116" spans="1:32">
       <c r="A116" t="s">
         <v>18</v>
       </c>
@@ -7920,36 +8001,36 @@
       <c r="D116" t="s">
         <v>74</v>
       </c>
-      <c r="W116">
-        <v>46.5</v>
-      </c>
       <c r="X116">
         <v>46.5</v>
       </c>
       <c r="Y116">
+        <v>46.5</v>
+      </c>
+      <c r="Z116">
         <v>48.5</v>
       </c>
-      <c r="Z116">
+      <c r="AA116">
         <v>53</v>
       </c>
-      <c r="AA116">
+      <c r="AB116">
         <v>67</v>
       </c>
-      <c r="AB116">
+      <c r="AC116">
         <v>77</v>
       </c>
-      <c r="AC116">
+      <c r="AD116">
         <v>6.3666666666666671</v>
       </c>
-      <c r="AD116">
+      <c r="AE116">
         <v>0.26562295750848708</v>
       </c>
-      <c r="AE116">
+      <c r="AF116">
         <f t="shared" si="4"/>
         <v>5.3666666666666671</v>
       </c>
     </row>
-    <row r="117" spans="1:31">
+    <row r="117" spans="1:32">
       <c r="A117" t="s">
         <v>18</v>
       </c>
@@ -7962,36 +8043,36 @@
       <c r="D117" t="s">
         <v>72</v>
       </c>
-      <c r="W117">
-        <v>46.5</v>
-      </c>
       <c r="X117">
         <v>46.5</v>
       </c>
       <c r="Y117">
+        <v>46.5</v>
+      </c>
+      <c r="Z117">
         <v>48.5</v>
       </c>
-      <c r="Z117">
+      <c r="AA117">
         <v>53</v>
       </c>
-      <c r="AA117">
+      <c r="AB117">
         <v>67</v>
       </c>
-      <c r="AB117">
+      <c r="AC117">
         <v>77</v>
       </c>
-      <c r="AC117">
+      <c r="AD117">
         <v>6.5500000000000007</v>
       </c>
-      <c r="AD117">
+      <c r="AE117">
         <v>4.330127018922178E-2</v>
       </c>
-      <c r="AE117">
+      <c r="AF117">
         <f t="shared" si="4"/>
         <v>5.5500000000000007</v>
       </c>
     </row>
-    <row r="118" spans="1:31">
+    <row r="118" spans="1:32">
       <c r="A118" t="s">
         <v>18</v>
       </c>
@@ -8004,36 +8085,36 @@
       <c r="D118" t="s">
         <v>13</v>
       </c>
-      <c r="W118">
-        <v>46.5</v>
-      </c>
       <c r="X118">
         <v>46.5</v>
       </c>
       <c r="Y118">
+        <v>46.5</v>
+      </c>
+      <c r="Z118">
         <v>48.5</v>
       </c>
-      <c r="Z118">
+      <c r="AA118">
         <v>53</v>
       </c>
-      <c r="AA118">
+      <c r="AB118">
         <v>67</v>
       </c>
-      <c r="AB118">
+      <c r="AC118">
         <v>77</v>
       </c>
-      <c r="AC118">
+      <c r="AD118">
         <v>11.25</v>
       </c>
-      <c r="AD118">
+      <c r="AE118">
         <v>1.1233320969330469</v>
       </c>
-      <c r="AE118">
-        <f>AC118-1</f>
+      <c r="AF118">
+        <f>AD118-1</f>
         <v>10.25</v>
       </c>
     </row>
-    <row r="119" spans="1:31">
+    <row r="119" spans="1:32">
       <c r="A119" t="s">
         <v>18</v>
       </c>
@@ -8046,36 +8127,36 @@
       <c r="D119" t="s">
         <v>73</v>
       </c>
-      <c r="W119">
-        <v>46.5</v>
-      </c>
       <c r="X119">
         <v>46.5</v>
       </c>
       <c r="Y119">
+        <v>46.5</v>
+      </c>
+      <c r="Z119">
         <v>48.5</v>
       </c>
-      <c r="Z119">
+      <c r="AA119">
         <v>53</v>
       </c>
-      <c r="AA119">
+      <c r="AB119">
         <v>67</v>
       </c>
-      <c r="AB119">
+      <c r="AC119">
         <v>77</v>
       </c>
-      <c r="AC119">
+      <c r="AD119">
         <v>9.5250000000000004</v>
       </c>
-      <c r="AD119">
+      <c r="AE119">
         <v>1.1822991372744869</v>
       </c>
-      <c r="AE119">
-        <f>AC119-1</f>
+      <c r="AF119">
+        <f>AD119-1</f>
         <v>8.5250000000000004</v>
       </c>
     </row>
-    <row r="120" spans="1:31">
+    <row r="120" spans="1:32">
       <c r="A120" t="s">
         <v>18</v>
       </c>
@@ -8088,36 +8169,36 @@
       <c r="D120" t="s">
         <v>73</v>
       </c>
-      <c r="W120">
-        <v>46</v>
-      </c>
       <c r="X120">
         <v>46</v>
       </c>
       <c r="Y120">
+        <v>46</v>
+      </c>
+      <c r="Z120">
         <v>47</v>
       </c>
-      <c r="Z120">
+      <c r="AA120">
         <v>53</v>
       </c>
-      <c r="AA120">
+      <c r="AB120">
         <v>67</v>
       </c>
-      <c r="AB120">
+      <c r="AC120">
         <v>77</v>
       </c>
-      <c r="AC120">
+      <c r="AD120">
         <v>11.549999999999999</v>
       </c>
-      <c r="AD120">
+      <c r="AE120">
         <v>0.5117372372614678</v>
       </c>
-      <c r="AE120">
-        <f>AC120-1</f>
+      <c r="AF120">
+        <f>AD120-1</f>
         <v>10.549999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:31">
+    <row r="121" spans="1:32">
       <c r="A121" t="s">
         <v>18</v>
       </c>
@@ -8130,36 +8211,36 @@
       <c r="D121" t="s">
         <v>74</v>
       </c>
-      <c r="W121">
-        <v>46</v>
-      </c>
       <c r="X121">
         <v>46</v>
       </c>
       <c r="Y121">
+        <v>46</v>
+      </c>
+      <c r="Z121">
         <v>47</v>
       </c>
-      <c r="Z121">
+      <c r="AA121">
         <v>53</v>
       </c>
-      <c r="AA121">
+      <c r="AB121">
         <v>67</v>
       </c>
-      <c r="AB121">
+      <c r="AC121">
         <v>77</v>
       </c>
-      <c r="AC121">
+      <c r="AD121">
         <v>8.3000000000000007</v>
       </c>
-      <c r="AD121">
+      <c r="AE121">
         <v>0.35000000000000009</v>
       </c>
-      <c r="AE121">
-        <f>AC121-1</f>
+      <c r="AF121">
+        <f>AD121-1</f>
         <v>7.3000000000000007</v>
       </c>
     </row>
-    <row r="122" spans="1:31">
+    <row r="122" spans="1:32">
       <c r="A122" t="s">
         <v>18</v>
       </c>
@@ -8172,36 +8253,36 @@
       <c r="D122" t="s">
         <v>72</v>
       </c>
-      <c r="W122">
-        <v>46</v>
-      </c>
       <c r="X122">
         <v>46</v>
       </c>
       <c r="Y122">
+        <v>46</v>
+      </c>
+      <c r="Z122">
         <v>47</v>
       </c>
-      <c r="Z122">
+      <c r="AA122">
         <v>53</v>
       </c>
-      <c r="AA122">
+      <c r="AB122">
         <v>67</v>
       </c>
-      <c r="AB122">
+      <c r="AC122">
         <v>77</v>
       </c>
-      <c r="AC122">
+      <c r="AD122">
         <v>8.35</v>
       </c>
-      <c r="AD122">
+      <c r="AE122">
         <v>0.47631397208144094</v>
       </c>
-      <c r="AE122">
-        <f>AC122-1</f>
+      <c r="AF122">
+        <f>AD122-1</f>
         <v>7.35</v>
       </c>
     </row>
-    <row r="123" spans="1:31">
+    <row r="123" spans="1:32">
       <c r="A123" t="s">
         <v>18</v>
       </c>
@@ -8214,36 +8295,36 @@
       <c r="D123" t="s">
         <v>13</v>
       </c>
-      <c r="W123">
-        <v>46</v>
-      </c>
       <c r="X123">
         <v>46</v>
       </c>
       <c r="Y123">
+        <v>46</v>
+      </c>
+      <c r="Z123">
         <v>47</v>
       </c>
-      <c r="Z123">
+      <c r="AA123">
         <v>53</v>
       </c>
-      <c r="AA123">
+      <c r="AB123">
         <v>67</v>
       </c>
-      <c r="AB123">
+      <c r="AC123">
         <v>77</v>
       </c>
-      <c r="AC123">
+      <c r="AD123">
         <v>15.59</v>
       </c>
-      <c r="AD123">
+      <c r="AE123">
         <v>2.0425657884141697</v>
       </c>
-      <c r="AE123">
+      <c r="AF123">
         <f t="shared" si="4"/>
         <v>14.59</v>
       </c>
     </row>
-    <row r="124" spans="1:31">
+    <row r="124" spans="1:32">
       <c r="A124" t="s">
         <v>18</v>
       </c>
@@ -8256,9 +8337,6 @@
       <c r="D124" t="s">
         <v>74</v>
       </c>
-      <c r="W124">
-        <v>47</v>
-      </c>
       <c r="X124">
         <v>47</v>
       </c>
@@ -8266,26 +8344,29 @@
         <v>47</v>
       </c>
       <c r="Z124">
+        <v>47</v>
+      </c>
+      <c r="AA124">
         <v>53</v>
       </c>
-      <c r="AA124">
+      <c r="AB124">
         <v>67</v>
       </c>
-      <c r="AB124">
+      <c r="AC124">
         <v>77</v>
       </c>
-      <c r="AC124">
+      <c r="AD124">
         <v>6.4499999999999993</v>
       </c>
-      <c r="AD124">
+      <c r="AE124">
         <v>0.3112474899497184</v>
       </c>
-      <c r="AE124">
+      <c r="AF124">
         <f t="shared" si="4"/>
         <v>5.4499999999999993</v>
       </c>
     </row>
-    <row r="125" spans="1:31">
+    <row r="125" spans="1:32">
       <c r="A125" t="s">
         <v>18</v>
       </c>
@@ -8298,9 +8379,6 @@
       <c r="D125" t="s">
         <v>72</v>
       </c>
-      <c r="W125">
-        <v>47</v>
-      </c>
       <c r="X125">
         <v>47</v>
       </c>
@@ -8308,26 +8386,29 @@
         <v>47</v>
       </c>
       <c r="Z125">
+        <v>47</v>
+      </c>
+      <c r="AA125">
         <v>53</v>
       </c>
-      <c r="AA125">
+      <c r="AB125">
         <v>67</v>
       </c>
-      <c r="AB125">
+      <c r="AC125">
         <v>77</v>
       </c>
-      <c r="AC125">
+      <c r="AD125">
         <v>6.65</v>
       </c>
-      <c r="AD125">
+      <c r="AE125">
         <v>0.2165063509461097</v>
       </c>
-      <c r="AE125">
+      <c r="AF125">
         <f t="shared" si="4"/>
         <v>5.65</v>
       </c>
     </row>
-    <row r="126" spans="1:31">
+    <row r="126" spans="1:32">
       <c r="A126" t="s">
         <v>18</v>
       </c>
@@ -8340,9 +8421,6 @@
       <c r="D126" t="s">
         <v>73</v>
       </c>
-      <c r="W126">
-        <v>47</v>
-      </c>
       <c r="X126">
         <v>47</v>
       </c>
@@ -8350,26 +8428,29 @@
         <v>47</v>
       </c>
       <c r="Z126">
+        <v>47</v>
+      </c>
+      <c r="AA126">
         <v>53</v>
       </c>
-      <c r="AA126">
+      <c r="AB126">
         <v>67</v>
       </c>
-      <c r="AB126">
+      <c r="AC126">
         <v>77</v>
       </c>
-      <c r="AC126">
+      <c r="AD126">
         <v>11.85</v>
       </c>
-      <c r="AD126">
+      <c r="AE126">
         <v>1.2852528934026968</v>
       </c>
-      <c r="AE126">
+      <c r="AF126">
         <f t="shared" si="4"/>
         <v>10.85</v>
       </c>
     </row>
-    <row r="127" spans="1:31">
+    <row r="127" spans="1:32">
       <c r="A127" t="s">
         <v>18</v>
       </c>
@@ -8382,9 +8463,6 @@
       <c r="D127" t="s">
         <v>13</v>
       </c>
-      <c r="W127">
-        <v>47</v>
-      </c>
       <c r="X127">
         <v>47</v>
       </c>
@@ -8392,26 +8470,29 @@
         <v>47</v>
       </c>
       <c r="Z127">
+        <v>47</v>
+      </c>
+      <c r="AA127">
         <v>53</v>
       </c>
-      <c r="AA127">
+      <c r="AB127">
         <v>67</v>
       </c>
-      <c r="AB127">
+      <c r="AC127">
         <v>77</v>
       </c>
-      <c r="AC127">
+      <c r="AD127">
         <v>12.324999999999999</v>
       </c>
-      <c r="AD127">
+      <c r="AE127">
         <v>1.7997829730275812</v>
       </c>
-      <c r="AE127">
+      <c r="AF127">
         <f t="shared" si="4"/>
         <v>11.324999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:31">
+    <row r="128" spans="1:32">
       <c r="A128" t="s">
         <v>18</v>
       </c>
@@ -8424,36 +8505,36 @@
       <c r="D128" t="s">
         <v>74</v>
       </c>
-      <c r="W128">
+      <c r="X128">
         <v>57</v>
       </c>
-      <c r="X128">
+      <c r="Y128">
         <v>61.5</v>
       </c>
-      <c r="Y128">
+      <c r="Z128">
         <v>62</v>
       </c>
-      <c r="Z128">
+      <c r="AA128">
         <v>66</v>
       </c>
-      <c r="AA128">
+      <c r="AB128">
         <v>70.75</v>
       </c>
-      <c r="AB128">
+      <c r="AC128">
         <v>86.75</v>
       </c>
-      <c r="AC128">
+      <c r="AD128">
         <v>4.1500000000000004</v>
       </c>
-      <c r="AD128">
+      <c r="AE128">
         <v>0.4023369234857751</v>
       </c>
-      <c r="AE128">
+      <c r="AF128">
         <f t="shared" si="4"/>
         <v>3.1500000000000004</v>
       </c>
     </row>
-    <row r="129" spans="1:31">
+    <row r="129" spans="1:32">
       <c r="A129" t="s">
         <v>18</v>
       </c>
@@ -8466,36 +8547,36 @@
       <c r="D129" t="s">
         <v>73</v>
       </c>
-      <c r="W129">
+      <c r="X129">
         <v>57</v>
       </c>
-      <c r="X129">
+      <c r="Y129">
         <v>61.5</v>
       </c>
-      <c r="Y129">
+      <c r="Z129">
         <v>62</v>
       </c>
-      <c r="Z129">
+      <c r="AA129">
         <v>66</v>
       </c>
-      <c r="AA129">
+      <c r="AB129">
         <v>70.75</v>
       </c>
-      <c r="AB129">
+      <c r="AC129">
         <v>86.75</v>
       </c>
-      <c r="AC129">
+      <c r="AD129">
         <v>11.35</v>
       </c>
-      <c r="AD129">
+      <c r="AE129">
         <v>0.86998563206526625</v>
       </c>
-      <c r="AE129">
-        <f>AC129-1</f>
+      <c r="AF129">
+        <f>AD129-1</f>
         <v>10.35</v>
       </c>
     </row>
-    <row r="130" spans="1:31">
+    <row r="130" spans="1:32">
       <c r="A130" t="s">
         <v>18</v>
       </c>
@@ -8508,36 +8589,36 @@
       <c r="D130" t="s">
         <v>13</v>
       </c>
-      <c r="W130">
+      <c r="X130">
         <v>57</v>
       </c>
-      <c r="X130">
+      <c r="Y130">
         <v>61.5</v>
       </c>
-      <c r="Y130">
+      <c r="Z130">
         <v>62</v>
       </c>
-      <c r="Z130">
+      <c r="AA130">
         <v>66</v>
       </c>
-      <c r="AA130">
+      <c r="AB130">
         <v>70.75</v>
       </c>
-      <c r="AB130">
+      <c r="AC130">
         <v>86.75</v>
       </c>
-      <c r="AC130">
+      <c r="AD130">
         <v>11.4</v>
       </c>
-      <c r="AD130">
+      <c r="AE130">
         <v>0.59160797830996281</v>
       </c>
-      <c r="AE130">
-        <f>AC130-1</f>
+      <c r="AF130">
+        <f>AD130-1</f>
         <v>10.4</v>
       </c>
     </row>
-    <row r="131" spans="1:31">
+    <row r="131" spans="1:32">
       <c r="A131" t="s">
         <v>18</v>
       </c>
@@ -8550,36 +8631,36 @@
       <c r="D131" t="s">
         <v>72</v>
       </c>
-      <c r="W131">
+      <c r="X131">
         <v>57</v>
       </c>
-      <c r="X131">
+      <c r="Y131">
         <v>61.5</v>
       </c>
-      <c r="Y131">
+      <c r="Z131">
         <v>62</v>
       </c>
-      <c r="Z131">
+      <c r="AA131">
         <v>66</v>
       </c>
-      <c r="AA131">
+      <c r="AB131">
         <v>70.75</v>
       </c>
-      <c r="AB131">
+      <c r="AC131">
         <v>86.75</v>
       </c>
-      <c r="AC131">
+      <c r="AD131">
         <v>11.3</v>
       </c>
-      <c r="AD131">
+      <c r="AE131">
         <v>0.40311288741492768</v>
       </c>
-      <c r="AE131">
-        <f>AC131-1</f>
+      <c r="AF131">
+        <f>AD131-1</f>
         <v>10.3</v>
       </c>
     </row>
-    <row r="132" spans="1:31">
+    <row r="132" spans="1:32">
       <c r="A132" t="s">
         <v>18</v>
       </c>
@@ -8592,36 +8673,36 @@
       <c r="D132" t="s">
         <v>74</v>
       </c>
-      <c r="W132">
+      <c r="X132">
         <v>48</v>
       </c>
-      <c r="X132">
+      <c r="Y132">
         <v>58</v>
       </c>
-      <c r="Y132">
+      <c r="Z132">
         <v>51</v>
       </c>
-      <c r="Z132">
+      <c r="AA132">
         <v>62</v>
       </c>
-      <c r="AA132">
+      <c r="AB132">
         <v>68.25</v>
       </c>
-      <c r="AB132">
+      <c r="AC132">
         <v>86</v>
       </c>
-      <c r="AC132">
+      <c r="AD132">
         <v>4.95</v>
       </c>
-      <c r="AD132">
+      <c r="AE132">
         <v>0.2861380785564886</v>
       </c>
-      <c r="AE132">
+      <c r="AF132">
         <f t="shared" si="4"/>
         <v>3.95</v>
       </c>
     </row>
-    <row r="133" spans="1:31">
+    <row r="133" spans="1:32">
       <c r="A133" t="s">
         <v>18</v>
       </c>
@@ -8634,36 +8715,36 @@
       <c r="D133" t="s">
         <v>13</v>
       </c>
-      <c r="W133">
+      <c r="X133">
         <v>48</v>
       </c>
-      <c r="X133">
+      <c r="Y133">
         <v>58</v>
       </c>
-      <c r="Y133">
+      <c r="Z133">
         <v>51</v>
       </c>
-      <c r="Z133">
+      <c r="AA133">
         <v>62</v>
       </c>
-      <c r="AA133">
+      <c r="AB133">
         <v>68.25</v>
       </c>
-      <c r="AB133">
+      <c r="AC133">
         <v>86</v>
       </c>
-      <c r="AC133">
+      <c r="AD133">
         <v>14.8125</v>
       </c>
-      <c r="AD133">
+      <c r="AE133">
         <v>1.5370807355178191</v>
       </c>
-      <c r="AE133">
-        <f>AC133-1</f>
+      <c r="AF133">
+        <f>AD133-1</f>
         <v>13.8125</v>
       </c>
     </row>
-    <row r="134" spans="1:31">
+    <row r="134" spans="1:32">
       <c r="A134" t="s">
         <v>18</v>
       </c>
@@ -8676,36 +8757,36 @@
       <c r="D134" t="s">
         <v>73</v>
       </c>
-      <c r="W134">
+      <c r="X134">
         <v>48</v>
       </c>
-      <c r="X134">
+      <c r="Y134">
         <v>58</v>
       </c>
-      <c r="Y134">
+      <c r="Z134">
         <v>51</v>
       </c>
-      <c r="Z134">
+      <c r="AA134">
         <v>62</v>
       </c>
-      <c r="AA134">
+      <c r="AB134">
         <v>68.25</v>
       </c>
-      <c r="AB134">
+      <c r="AC134">
         <v>86</v>
       </c>
-      <c r="AC134">
+      <c r="AD134">
         <v>13.1</v>
       </c>
-      <c r="AD134">
+      <c r="AE134">
         <v>1.6023420358962095</v>
       </c>
-      <c r="AE134">
+      <c r="AF134">
         <f t="shared" si="4"/>
         <v>12.1</v>
       </c>
     </row>
-    <row r="135" spans="1:31">
+    <row r="135" spans="1:32">
       <c r="A135" t="s">
         <v>18</v>
       </c>
@@ -8718,36 +8799,36 @@
       <c r="D135" t="s">
         <v>72</v>
       </c>
-      <c r="W135">
+      <c r="X135">
         <v>48</v>
       </c>
-      <c r="X135">
+      <c r="Y135">
         <v>58</v>
       </c>
-      <c r="Y135">
+      <c r="Z135">
         <v>51</v>
       </c>
-      <c r="Z135">
+      <c r="AA135">
         <v>62</v>
       </c>
-      <c r="AA135">
+      <c r="AB135">
         <v>68.25</v>
       </c>
-      <c r="AB135">
+      <c r="AC135">
         <v>86</v>
       </c>
-      <c r="AC135">
+      <c r="AD135">
         <v>6.75</v>
       </c>
-      <c r="AD135">
+      <c r="AE135">
         <v>0.57608593109014572</v>
       </c>
-      <c r="AE135">
-        <f>AC135-1</f>
+      <c r="AF135">
+        <f>AD135-1</f>
         <v>5.75</v>
       </c>
     </row>
-    <row r="136" spans="1:31">
+    <row r="136" spans="1:32">
       <c r="A136" t="s">
         <v>18</v>
       </c>
@@ -8760,36 +8841,36 @@
       <c r="D136" t="s">
         <v>74</v>
       </c>
-      <c r="W136">
+      <c r="X136">
         <v>58</v>
       </c>
-      <c r="X136">
+      <c r="Y136">
         <v>62.5</v>
       </c>
-      <c r="Y136">
+      <c r="Z136">
         <v>61.75</v>
       </c>
-      <c r="Z136">
+      <c r="AA136">
         <v>66.5</v>
       </c>
-      <c r="AA136">
+      <c r="AB136">
         <v>72.5</v>
       </c>
-      <c r="AB136">
+      <c r="AC136">
         <v>89</v>
       </c>
-      <c r="AC136">
+      <c r="AD136">
         <v>3.5</v>
       </c>
-      <c r="AD136">
+      <c r="AE136">
         <v>0.18027756377320001</v>
       </c>
-      <c r="AE136">
+      <c r="AF136">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="137" spans="1:31">
+    <row r="137" spans="1:32">
       <c r="A137" t="s">
         <v>18</v>
       </c>
@@ -8802,36 +8883,36 @@
       <c r="D137" t="s">
         <v>13</v>
       </c>
-      <c r="W137">
+      <c r="X137">
         <v>58</v>
       </c>
-      <c r="X137">
+      <c r="Y137">
         <v>62.5</v>
       </c>
-      <c r="Y137">
+      <c r="Z137">
         <v>61.75</v>
       </c>
-      <c r="Z137">
+      <c r="AA137">
         <v>66.5</v>
       </c>
-      <c r="AA137">
+      <c r="AB137">
         <v>72.5</v>
       </c>
-      <c r="AB137">
+      <c r="AC137">
         <v>89</v>
       </c>
-      <c r="AC137">
+      <c r="AD137">
         <v>12.15</v>
       </c>
-      <c r="AD137">
+      <c r="AE137">
         <v>1.0520812706250384</v>
       </c>
-      <c r="AE137">
-        <f>AC137-1</f>
+      <c r="AF137">
+        <f>AD137-1</f>
         <v>11.15</v>
       </c>
     </row>
-    <row r="138" spans="1:31">
+    <row r="138" spans="1:32">
       <c r="A138" t="s">
         <v>18</v>
       </c>
@@ -8844,36 +8925,36 @@
       <c r="D138" t="s">
         <v>73</v>
       </c>
-      <c r="W138">
+      <c r="X138">
         <v>58</v>
       </c>
-      <c r="X138">
+      <c r="Y138">
         <v>62.5</v>
       </c>
-      <c r="Y138">
+      <c r="Z138">
         <v>61.75</v>
       </c>
-      <c r="Z138">
+      <c r="AA138">
         <v>66.5</v>
       </c>
-      <c r="AA138">
+      <c r="AB138">
         <v>72.5</v>
       </c>
-      <c r="AB138">
+      <c r="AC138">
         <v>89</v>
       </c>
-      <c r="AC138">
+      <c r="AD138">
         <v>10.35</v>
       </c>
-      <c r="AD138">
+      <c r="AE138">
         <v>0.54025456962435869</v>
       </c>
-      <c r="AE138">
-        <f>AC138-1</f>
+      <c r="AF138">
+        <f>AD138-1</f>
         <v>9.35</v>
       </c>
     </row>
-    <row r="139" spans="1:31">
+    <row r="139" spans="1:32">
       <c r="A139" t="s">
         <v>18</v>
       </c>
@@ -8886,36 +8967,36 @@
       <c r="D139" t="s">
         <v>72</v>
       </c>
-      <c r="W139">
+      <c r="X139">
         <v>58</v>
       </c>
-      <c r="X139">
+      <c r="Y139">
         <v>62.5</v>
       </c>
-      <c r="Y139">
+      <c r="Z139">
         <v>61.75</v>
       </c>
-      <c r="Z139">
+      <c r="AA139">
         <v>66.5</v>
       </c>
-      <c r="AA139">
+      <c r="AB139">
         <v>72.5</v>
       </c>
-      <c r="AB139">
+      <c r="AC139">
         <v>89</v>
       </c>
-      <c r="AC139">
+      <c r="AD139">
         <v>8.2000000000000011</v>
       </c>
-      <c r="AD139">
+      <c r="AE139">
         <v>0.25495097567963931</v>
       </c>
-      <c r="AE139">
-        <f>AC139-1</f>
+      <c r="AF139">
+        <f>AD139-1</f>
         <v>7.2000000000000011</v>
       </c>
     </row>
-    <row r="140" spans="1:31">
+    <row r="140" spans="1:32">
       <c r="A140" t="s">
         <v>18</v>
       </c>
@@ -8928,36 +9009,36 @@
       <c r="D140" t="s">
         <v>74</v>
       </c>
-      <c r="W140">
+      <c r="X140">
         <v>50.25</v>
       </c>
-      <c r="X140">
+      <c r="Y140">
         <v>60.75</v>
       </c>
-      <c r="Y140">
+      <c r="Z140">
         <v>59.5</v>
       </c>
-      <c r="Z140">
+      <c r="AA140">
         <v>62</v>
       </c>
-      <c r="AA140">
+      <c r="AB140">
         <v>69.5</v>
       </c>
-      <c r="AB140">
+      <c r="AC140">
         <v>89</v>
       </c>
-      <c r="AC140">
+      <c r="AD140">
         <v>3.7249999999999996</v>
       </c>
-      <c r="AD140">
+      <c r="AE140">
         <v>0.38951091127207282</v>
       </c>
-      <c r="AE140">
+      <c r="AF140">
         <f t="shared" si="4"/>
         <v>2.7249999999999996</v>
       </c>
     </row>
-    <row r="141" spans="1:31">
+    <row r="141" spans="1:32">
       <c r="A141" t="s">
         <v>18</v>
       </c>
@@ -8970,36 +9051,36 @@
       <c r="D141" t="s">
         <v>13</v>
       </c>
-      <c r="W141">
+      <c r="X141">
         <v>50.25</v>
       </c>
-      <c r="X141">
+      <c r="Y141">
         <v>60.75</v>
       </c>
-      <c r="Y141">
+      <c r="Z141">
         <v>59.5</v>
       </c>
-      <c r="Z141">
+      <c r="AA141">
         <v>62</v>
       </c>
-      <c r="AA141">
+      <c r="AB141">
         <v>69.5</v>
       </c>
-      <c r="AB141">
+      <c r="AC141">
         <v>89</v>
       </c>
-      <c r="AC141">
+      <c r="AD141">
         <v>12.55</v>
       </c>
-      <c r="AD141">
+      <c r="AE141">
         <v>1.0825317547305451</v>
       </c>
-      <c r="AE141">
-        <f>AC141-1</f>
+      <c r="AF141">
+        <f>AD141-1</f>
         <v>11.55</v>
       </c>
     </row>
-    <row r="142" spans="1:31">
+    <row r="142" spans="1:32">
       <c r="A142" t="s">
         <v>18</v>
       </c>
@@ -9012,36 +9093,36 @@
       <c r="D142" t="s">
         <v>72</v>
       </c>
-      <c r="W142">
+      <c r="X142">
         <v>50.25</v>
       </c>
-      <c r="X142">
+      <c r="Y142">
         <v>60.75</v>
       </c>
-      <c r="Y142">
+      <c r="Z142">
         <v>59.5</v>
       </c>
-      <c r="Z142">
+      <c r="AA142">
         <v>62</v>
       </c>
-      <c r="AA142">
+      <c r="AB142">
         <v>69.5</v>
       </c>
-      <c r="AB142">
+      <c r="AC142">
         <v>89</v>
       </c>
-      <c r="AC142">
+      <c r="AD142">
         <v>7.7</v>
       </c>
-      <c r="AD142">
+      <c r="AE142">
         <v>0.43874821936960495</v>
       </c>
-      <c r="AE142">
-        <f>AC142-1</f>
+      <c r="AF142">
+        <f>AD142-1</f>
         <v>6.7</v>
       </c>
     </row>
-    <row r="143" spans="1:31">
+    <row r="143" spans="1:32">
       <c r="A143" t="s">
         <v>18</v>
       </c>
@@ -9054,36 +9135,36 @@
       <c r="D143" t="s">
         <v>73</v>
       </c>
-      <c r="W143">
+      <c r="X143">
         <v>50.25</v>
       </c>
-      <c r="X143">
+      <c r="Y143">
         <v>60.75</v>
       </c>
-      <c r="Y143">
+      <c r="Z143">
         <v>59.5</v>
       </c>
-      <c r="Z143">
+      <c r="AA143">
         <v>62</v>
       </c>
-      <c r="AA143">
+      <c r="AB143">
         <v>69.5</v>
       </c>
-      <c r="AB143">
+      <c r="AC143">
         <v>89</v>
       </c>
-      <c r="AC143">
+      <c r="AD143">
         <v>10.6</v>
       </c>
-      <c r="AD143">
+      <c r="AE143">
         <v>0.37416573867739411</v>
       </c>
-      <c r="AE143">
-        <f>AC143-1</f>
+      <c r="AF143">
+        <f>AD143-1</f>
         <v>9.6</v>
       </c>
     </row>
-    <row r="144" spans="1:31">
+    <row r="144" spans="1:32">
       <c r="A144" t="s">
         <v>18</v>
       </c>
@@ -9096,36 +9177,36 @@
       <c r="D144" t="s">
         <v>74</v>
       </c>
-      <c r="W144">
+      <c r="X144">
         <v>48</v>
       </c>
-      <c r="X144">
+      <c r="Y144">
         <v>58</v>
       </c>
-      <c r="Y144">
+      <c r="Z144">
         <v>51</v>
       </c>
-      <c r="Z144">
+      <c r="AA144">
         <v>62.5</v>
       </c>
-      <c r="AA144">
+      <c r="AB144">
         <v>70.25</v>
       </c>
-      <c r="AB144">
+      <c r="AC144">
         <v>86</v>
       </c>
-      <c r="AC144">
+      <c r="AD144">
         <v>5.15</v>
       </c>
-      <c r="AD144">
+      <c r="AE144">
         <v>0.20463381929681126</v>
       </c>
-      <c r="AE144">
+      <c r="AF144">
         <f t="shared" si="4"/>
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="145" spans="1:31">
+    <row r="145" spans="1:32">
       <c r="A145" t="s">
         <v>18</v>
       </c>
@@ -9138,36 +9219,36 @@
       <c r="D145" t="s">
         <v>13</v>
       </c>
-      <c r="W145">
+      <c r="X145">
         <v>48</v>
       </c>
-      <c r="X145">
+      <c r="Y145">
         <v>58</v>
       </c>
-      <c r="Y145">
+      <c r="Z145">
         <v>51</v>
       </c>
-      <c r="Z145">
+      <c r="AA145">
         <v>62.5</v>
       </c>
-      <c r="AA145">
+      <c r="AB145">
         <v>70.25</v>
       </c>
-      <c r="AB145">
+      <c r="AC145">
         <v>86</v>
       </c>
-      <c r="AC145">
+      <c r="AD145">
         <v>14.825000000000001</v>
       </c>
-      <c r="AD145">
+      <c r="AE145">
         <v>0.81729355191387199</v>
       </c>
-      <c r="AE145">
-        <f>AC145-1</f>
+      <c r="AF145">
+        <f>AD145-1</f>
         <v>13.825000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:31">
+    <row r="146" spans="1:32">
       <c r="A146" t="s">
         <v>18</v>
       </c>
@@ -9180,36 +9261,36 @@
       <c r="D146" t="s">
         <v>72</v>
       </c>
-      <c r="W146">
+      <c r="X146">
         <v>48</v>
       </c>
-      <c r="X146">
+      <c r="Y146">
         <v>58</v>
       </c>
-      <c r="Y146">
+      <c r="Z146">
         <v>51</v>
       </c>
-      <c r="Z146">
+      <c r="AA146">
         <v>62.5</v>
       </c>
-      <c r="AA146">
+      <c r="AB146">
         <v>70.25</v>
       </c>
-      <c r="AB146">
+      <c r="AC146">
         <v>86</v>
       </c>
-      <c r="AC146">
+      <c r="AD146">
         <v>8.375</v>
       </c>
-      <c r="AD146">
+      <c r="AE146">
         <v>0.57268555944776545</v>
       </c>
-      <c r="AE146">
-        <f>AC146-1</f>
+      <c r="AF146">
+        <f>AD146-1</f>
         <v>7.375</v>
       </c>
     </row>
-    <row r="147" spans="1:31">
+    <row r="147" spans="1:32">
       <c r="A147" t="s">
         <v>18</v>
       </c>
@@ -9222,36 +9303,36 @@
       <c r="D147" t="s">
         <v>73</v>
       </c>
-      <c r="W147">
+      <c r="X147">
         <v>48</v>
       </c>
-      <c r="X147">
+      <c r="Y147">
         <v>58</v>
       </c>
-      <c r="Y147">
+      <c r="Z147">
         <v>51</v>
       </c>
-      <c r="Z147">
+      <c r="AA147">
         <v>62.5</v>
       </c>
-      <c r="AA147">
+      <c r="AB147">
         <v>70.25</v>
       </c>
-      <c r="AB147">
+      <c r="AC147">
         <v>86</v>
       </c>
-      <c r="AC147">
+      <c r="AD147">
         <v>12.95</v>
       </c>
-      <c r="AD147">
+      <c r="AE147">
         <v>0.80738776309775961</v>
       </c>
-      <c r="AE147">
-        <f>AC147-1</f>
+      <c r="AF147">
+        <f>AD147-1</f>
         <v>11.95</v>
       </c>
     </row>
-    <row r="148" spans="1:31">
+    <row r="148" spans="1:32">
       <c r="A148" t="s">
         <v>18</v>
       </c>
@@ -9264,36 +9345,36 @@
       <c r="D148" t="s">
         <v>74</v>
       </c>
-      <c r="W148">
+      <c r="X148">
         <v>49.5</v>
       </c>
-      <c r="X148">
+      <c r="Y148">
         <v>62</v>
       </c>
-      <c r="Y148">
+      <c r="Z148">
         <v>59.25</v>
       </c>
-      <c r="Z148">
+      <c r="AA148">
         <v>62.5</v>
       </c>
-      <c r="AA148">
+      <c r="AB148">
         <v>70.25</v>
       </c>
-      <c r="AB148">
+      <c r="AC148">
         <v>88.25</v>
       </c>
-      <c r="AC148">
+      <c r="AD148">
         <v>4.2</v>
       </c>
-      <c r="AD148">
+      <c r="AE148">
         <v>0.12247448713915901</v>
       </c>
-      <c r="AE148">
+      <c r="AF148">
         <f t="shared" si="4"/>
         <v>3.2</v>
       </c>
     </row>
-    <row r="149" spans="1:31">
+    <row r="149" spans="1:32">
       <c r="A149" t="s">
         <v>18</v>
       </c>
@@ -9306,36 +9387,36 @@
       <c r="D149" t="s">
         <v>73</v>
       </c>
-      <c r="W149">
+      <c r="X149">
         <v>49.5</v>
       </c>
-      <c r="X149">
+      <c r="Y149">
         <v>62</v>
       </c>
-      <c r="Y149">
+      <c r="Z149">
         <v>59.25</v>
       </c>
-      <c r="Z149">
+      <c r="AA149">
         <v>62.5</v>
       </c>
-      <c r="AA149">
+      <c r="AB149">
         <v>70.25</v>
       </c>
-      <c r="AB149">
+      <c r="AC149">
         <v>88.25</v>
       </c>
-      <c r="AC149">
+      <c r="AD149">
         <v>13.05</v>
       </c>
-      <c r="AD149">
+      <c r="AE149">
         <v>0.36314597615834865</v>
       </c>
-      <c r="AE149">
-        <f>AC149-1</f>
+      <c r="AF149">
+        <f>AD149-1</f>
         <v>12.05</v>
       </c>
     </row>
-    <row r="150" spans="1:31">
+    <row r="150" spans="1:32">
       <c r="A150" t="s">
         <v>18</v>
       </c>
@@ -9348,36 +9429,36 @@
       <c r="D150" t="s">
         <v>13</v>
       </c>
-      <c r="W150">
+      <c r="X150">
         <v>49.5</v>
       </c>
-      <c r="X150">
+      <c r="Y150">
         <v>62</v>
       </c>
-      <c r="Y150">
+      <c r="Z150">
         <v>59.25</v>
       </c>
-      <c r="Z150">
+      <c r="AA150">
         <v>62.5</v>
       </c>
-      <c r="AA150">
+      <c r="AB150">
         <v>70.25</v>
       </c>
-      <c r="AB150">
+      <c r="AC150">
         <v>88.25</v>
       </c>
-      <c r="AC150">
+      <c r="AD150">
         <v>13.75</v>
       </c>
-      <c r="AD150">
+      <c r="AE150">
         <v>1.6618889854620265</v>
       </c>
-      <c r="AE150">
-        <f>AC150-1</f>
+      <c r="AF150">
+        <f>AD150-1</f>
         <v>12.75</v>
       </c>
     </row>
-    <row r="151" spans="1:31">
+    <row r="151" spans="1:32">
       <c r="A151" t="s">
         <v>18</v>
       </c>
@@ -9390,39 +9471,2197 @@
       <c r="D151" t="s">
         <v>72</v>
       </c>
-      <c r="W151">
+      <c r="X151">
         <v>49.5</v>
       </c>
-      <c r="X151">
+      <c r="Y151">
         <v>62</v>
       </c>
-      <c r="Y151">
+      <c r="Z151">
         <v>59.25</v>
       </c>
-      <c r="Z151">
+      <c r="AA151">
         <v>62.5</v>
       </c>
-      <c r="AA151">
+      <c r="AB151">
         <v>70.25</v>
       </c>
-      <c r="AB151">
+      <c r="AC151">
         <v>88.25</v>
       </c>
-      <c r="AC151">
+      <c r="AD151">
         <v>11.8</v>
       </c>
-      <c r="AD151">
+      <c r="AE151">
         <v>1.0606601717798247</v>
       </c>
-      <c r="AE151">
-        <f>AC151-1</f>
+      <c r="AF151">
+        <f>AD151-1</f>
         <v>10.8</v>
       </c>
     </row>
+    <row r="152" spans="1:32">
+      <c r="A152" t="s">
+        <v>18</v>
+      </c>
+      <c r="B152" t="s">
+        <v>33</v>
+      </c>
+      <c r="C152" s="11">
+        <v>43790</v>
+      </c>
+      <c r="V152">
+        <v>5.8575225076934174</v>
+      </c>
+      <c r="W152">
+        <v>1.6346540621764984</v>
+      </c>
+    </row>
+    <row r="153" spans="1:32">
+      <c r="A153" t="s">
+        <v>18</v>
+      </c>
+      <c r="B153" t="s">
+        <v>34</v>
+      </c>
+      <c r="C153" s="11">
+        <v>43790</v>
+      </c>
+      <c r="V153">
+        <v>5.5359669867557244</v>
+      </c>
+      <c r="W153">
+        <v>0.84128488525335965</v>
+      </c>
+    </row>
+    <row r="154" spans="1:32">
+      <c r="A154" t="s">
+        <v>18</v>
+      </c>
+      <c r="B154" t="s">
+        <v>35</v>
+      </c>
+      <c r="C154" s="11">
+        <v>43790</v>
+      </c>
+      <c r="V154">
+        <v>2.0653499591956859</v>
+      </c>
+      <c r="W154">
+        <v>0.74353522578927023</v>
+      </c>
+    </row>
+    <row r="155" spans="1:32">
+      <c r="A155" t="s">
+        <v>18</v>
+      </c>
+      <c r="B155" t="s">
+        <v>33</v>
+      </c>
+      <c r="C155" s="11">
+        <v>43796</v>
+      </c>
+      <c r="V155">
+        <v>9.0178858212876634</v>
+      </c>
+      <c r="W155">
+        <v>1.4736836772398236</v>
+      </c>
+    </row>
+    <row r="156" spans="1:32">
+      <c r="A156" t="s">
+        <v>18</v>
+      </c>
+      <c r="B156" t="s">
+        <v>34</v>
+      </c>
+      <c r="C156" s="11">
+        <v>43796</v>
+      </c>
+      <c r="V156">
+        <v>4.0489855198608637</v>
+      </c>
+      <c r="W156">
+        <v>2.1356954359294411</v>
+      </c>
+    </row>
+    <row r="157" spans="1:32">
+      <c r="A157" t="s">
+        <v>18</v>
+      </c>
+      <c r="B157" t="s">
+        <v>35</v>
+      </c>
+      <c r="C157" s="11">
+        <v>43796</v>
+      </c>
+      <c r="V157">
+        <v>4.7212365956714279</v>
+      </c>
+      <c r="W157">
+        <v>0.74509690370666115</v>
+      </c>
+    </row>
+    <row r="158" spans="1:32">
+      <c r="A158" t="s">
+        <v>18</v>
+      </c>
+      <c r="B158" t="s">
+        <v>33</v>
+      </c>
+      <c r="C158" s="11">
+        <v>43802</v>
+      </c>
+      <c r="V158">
+        <v>11.183885006959713</v>
+      </c>
+      <c r="W158">
+        <v>2.5732585159995178</v>
+      </c>
+    </row>
+    <row r="159" spans="1:32">
+      <c r="A159" t="s">
+        <v>18</v>
+      </c>
+      <c r="B159" t="s">
+        <v>34</v>
+      </c>
+      <c r="C159" s="11">
+        <v>43802</v>
+      </c>
+      <c r="V159">
+        <v>8.4038182717584959</v>
+      </c>
+      <c r="W159">
+        <v>3.9112334520629624</v>
+      </c>
+    </row>
+    <row r="160" spans="1:32">
+      <c r="A160" t="s">
+        <v>18</v>
+      </c>
+      <c r="B160" t="s">
+        <v>35</v>
+      </c>
+      <c r="C160" s="11">
+        <v>43802</v>
+      </c>
+      <c r="V160">
+        <v>5.6059119497439696</v>
+      </c>
+      <c r="W160">
+        <v>2.2365871765787624</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23">
+      <c r="A161" t="s">
+        <v>18</v>
+      </c>
+      <c r="B161" t="s">
+        <v>34</v>
+      </c>
+      <c r="C161" s="11">
+        <v>43808</v>
+      </c>
+      <c r="V161" s="12">
+        <v>33.29855605589735</v>
+      </c>
+      <c r="W161" s="15"/>
+    </row>
+    <row r="162" spans="1:23">
+      <c r="A162" t="s">
+        <v>18</v>
+      </c>
+      <c r="B162" t="s">
+        <v>33</v>
+      </c>
+      <c r="C162" s="11">
+        <v>43809</v>
+      </c>
+      <c r="V162">
+        <v>42.57575871154944</v>
+      </c>
+      <c r="W162">
+        <v>4.4618262568565408</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23">
+      <c r="A163" t="s">
+        <v>18</v>
+      </c>
+      <c r="B163" t="s">
+        <v>34</v>
+      </c>
+      <c r="C163" s="11">
+        <v>43809</v>
+      </c>
+      <c r="V163">
+        <v>32.383304735059042</v>
+      </c>
+      <c r="W163">
+        <v>2.6847889217066414</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23">
+      <c r="A164" t="s">
+        <v>18</v>
+      </c>
+      <c r="B164" t="s">
+        <v>35</v>
+      </c>
+      <c r="C164" s="11">
+        <v>43809</v>
+      </c>
+      <c r="V164">
+        <v>34.634469200189756</v>
+      </c>
+      <c r="W164">
+        <v>2.6256045624529158</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23">
+      <c r="A165" t="s">
+        <v>18</v>
+      </c>
+      <c r="B165" t="s">
+        <v>34</v>
+      </c>
+      <c r="C165" s="11">
+        <v>43810</v>
+      </c>
+      <c r="V165">
+        <v>50.741447658199966</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23">
+      <c r="A166" t="s">
+        <v>18</v>
+      </c>
+      <c r="B166" t="s">
+        <v>33</v>
+      </c>
+      <c r="C166" s="11">
+        <v>43816</v>
+      </c>
+      <c r="V166">
+        <v>13.804713804713813</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23">
+      <c r="A167" t="s">
+        <v>18</v>
+      </c>
+      <c r="B167" t="s">
+        <v>34</v>
+      </c>
+      <c r="C167" s="11">
+        <v>43816</v>
+      </c>
+      <c r="V167">
+        <v>9.1980182995368978</v>
+      </c>
+      <c r="W167">
+        <v>5.4663787711219589</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23">
+      <c r="A168" t="s">
+        <v>18</v>
+      </c>
+      <c r="B168" t="s">
+        <v>35</v>
+      </c>
+      <c r="C168" s="11">
+        <v>43816</v>
+      </c>
+      <c r="V168">
+        <v>2.9392168057843833</v>
+      </c>
+      <c r="W168">
+        <v>1.8841088733970519</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23">
+      <c r="A169" t="s">
+        <v>18</v>
+      </c>
+      <c r="B169" t="s">
+        <v>33</v>
+      </c>
+      <c r="C169" s="11">
+        <v>43832</v>
+      </c>
+      <c r="V169">
+        <v>65.901292027865964</v>
+      </c>
+      <c r="W169">
+        <v>3.2299049259008243</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23">
+      <c r="A170" t="s">
+        <v>18</v>
+      </c>
+      <c r="B170" t="s">
+        <v>34</v>
+      </c>
+      <c r="C170" s="11">
+        <v>43832</v>
+      </c>
+      <c r="V170">
+        <v>76.403387045156506</v>
+      </c>
+      <c r="W170">
+        <v>4.7422054179886226</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23">
+      <c r="A171" t="s">
+        <v>18</v>
+      </c>
+      <c r="B171" t="s">
+        <v>35</v>
+      </c>
+      <c r="C171" s="11">
+        <v>43832</v>
+      </c>
+      <c r="V171">
+        <v>52.324823162706181</v>
+      </c>
+      <c r="W171">
+        <v>7.1589111598088291</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23">
+      <c r="A172" t="s">
+        <v>18</v>
+      </c>
+      <c r="B172" t="s">
+        <v>33</v>
+      </c>
+      <c r="C172" s="11">
+        <v>43838</v>
+      </c>
+      <c r="V172">
+        <v>56.313718261265919</v>
+      </c>
+      <c r="W172">
+        <v>4.6284358100428769</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23">
+      <c r="A173" t="s">
+        <v>18</v>
+      </c>
+      <c r="B173" t="s">
+        <v>34</v>
+      </c>
+      <c r="C173" s="11">
+        <v>43838</v>
+      </c>
+      <c r="V173">
+        <v>64.598790389303701</v>
+      </c>
+      <c r="W173">
+        <v>3.4965156692075374</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23">
+      <c r="A174" t="s">
+        <v>18</v>
+      </c>
+      <c r="B174" t="s">
+        <v>35</v>
+      </c>
+      <c r="C174" s="11">
+        <v>43838</v>
+      </c>
+      <c r="V174">
+        <v>52.366742545550451</v>
+      </c>
+      <c r="W174">
+        <v>1.4286241964891497</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23">
+      <c r="A175" t="s">
+        <v>18</v>
+      </c>
+      <c r="B175" t="s">
+        <v>33</v>
+      </c>
+      <c r="C175" s="11">
+        <v>43851</v>
+      </c>
+      <c r="V175">
+        <v>41.383870865715473</v>
+      </c>
+      <c r="W175">
+        <v>2.0010476690249828</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23">
+      <c r="A176" t="s">
+        <v>18</v>
+      </c>
+      <c r="B176" t="s">
+        <v>34</v>
+      </c>
+      <c r="C176" s="11">
+        <v>43851</v>
+      </c>
+      <c r="V176">
+        <v>69.136396740919082</v>
+      </c>
+      <c r="W176">
+        <v>2.000056003418893</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23">
+      <c r="A177" t="s">
+        <v>18</v>
+      </c>
+      <c r="B177" t="s">
+        <v>35</v>
+      </c>
+      <c r="C177" s="11">
+        <v>43851</v>
+      </c>
+      <c r="V177">
+        <v>57.212488029558614</v>
+      </c>
+      <c r="W177">
+        <v>5.1947128630896646</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23">
+      <c r="A178" t="s">
+        <v>18</v>
+      </c>
+      <c r="B178" t="s">
+        <v>31</v>
+      </c>
+      <c r="C178" s="11">
+        <v>43809</v>
+      </c>
+      <c r="V178">
+        <v>30.224872120066991</v>
+      </c>
+      <c r="W178">
+        <v>1.2918720988872958</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23">
+      <c r="A179" t="s">
+        <v>18</v>
+      </c>
+      <c r="B179" t="s">
+        <v>31</v>
+      </c>
+      <c r="C179" s="11">
+        <v>43816</v>
+      </c>
+      <c r="V179">
+        <v>1.9942853810717764</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23">
+      <c r="A180" t="s">
+        <v>18</v>
+      </c>
+      <c r="B180" t="s">
+        <v>30</v>
+      </c>
+      <c r="C180" s="11">
+        <v>43832</v>
+      </c>
+      <c r="V180">
+        <v>59.510918474220944</v>
+      </c>
+      <c r="W180">
+        <v>8.3177240795154255</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23">
+      <c r="A181" t="s">
+        <v>18</v>
+      </c>
+      <c r="B181" t="s">
+        <v>31</v>
+      </c>
+      <c r="C181" s="11">
+        <v>43832</v>
+      </c>
+      <c r="V181">
+        <v>42.376163853774848</v>
+      </c>
+      <c r="W181">
+        <v>8.943632970503522</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23">
+      <c r="A182" t="s">
+        <v>18</v>
+      </c>
+      <c r="B182" t="s">
+        <v>32</v>
+      </c>
+      <c r="C182" s="11">
+        <v>43832</v>
+      </c>
+      <c r="V182">
+        <v>44.523376001177503</v>
+      </c>
+      <c r="W182">
+        <v>6.4700562743368648</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23">
+      <c r="A183" t="s">
+        <v>18</v>
+      </c>
+      <c r="B183" t="s">
+        <v>30</v>
+      </c>
+      <c r="C183" s="11">
+        <v>43838</v>
+      </c>
+      <c r="V183">
+        <v>55.578332154639725</v>
+      </c>
+      <c r="W183">
+        <v>2.2174056536026931</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23">
+      <c r="A184" t="s">
+        <v>18</v>
+      </c>
+      <c r="B184" t="s">
+        <v>31</v>
+      </c>
+      <c r="C184" s="11">
+        <v>43838</v>
+      </c>
+      <c r="V184">
+        <v>54.848082499198227</v>
+      </c>
+      <c r="W184">
+        <v>1.3264114341405446</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23">
+      <c r="A185" t="s">
+        <v>18</v>
+      </c>
+      <c r="B185" t="s">
+        <v>32</v>
+      </c>
+      <c r="C185" s="11">
+        <v>43838</v>
+      </c>
+      <c r="V185">
+        <v>54.164155506872667</v>
+      </c>
+      <c r="W185">
+        <v>3.9789903949757224</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23">
+      <c r="A186" t="s">
+        <v>18</v>
+      </c>
+      <c r="B186" t="s">
+        <v>31</v>
+      </c>
+      <c r="C186" s="11">
+        <v>43839</v>
+      </c>
+      <c r="V186">
+        <v>52.64872213484513</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23">
+      <c r="A187" t="s">
+        <v>18</v>
+      </c>
+      <c r="B187" t="s">
+        <v>30</v>
+      </c>
+      <c r="C187" s="11">
+        <v>43851</v>
+      </c>
+      <c r="V187">
+        <v>76.544295936317098</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23">
+      <c r="A188" t="s">
+        <v>18</v>
+      </c>
+      <c r="B188" t="s">
+        <v>31</v>
+      </c>
+      <c r="C188" s="11">
+        <v>43851</v>
+      </c>
+      <c r="V188">
+        <v>70.941218291500888</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23">
+      <c r="A189" t="s">
+        <v>18</v>
+      </c>
+      <c r="B189" t="s">
+        <v>32</v>
+      </c>
+      <c r="C189" s="11">
+        <v>43851</v>
+      </c>
+      <c r="V189">
+        <v>68.774326090449534</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23">
+      <c r="A190" t="s">
+        <v>18</v>
+      </c>
+      <c r="B190" t="s">
+        <v>30</v>
+      </c>
+      <c r="C190" s="11">
+        <v>43859</v>
+      </c>
+      <c r="V190">
+        <v>78.395165078782483</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23">
+      <c r="A191" t="s">
+        <v>18</v>
+      </c>
+      <c r="B191" t="s">
+        <v>31</v>
+      </c>
+      <c r="C191" s="11">
+        <v>43859</v>
+      </c>
+      <c r="V191">
+        <v>72.649098815351806</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23">
+      <c r="A192" t="s">
+        <v>18</v>
+      </c>
+      <c r="B192" t="s">
+        <v>32</v>
+      </c>
+      <c r="C192" s="11">
+        <v>43859</v>
+      </c>
+      <c r="V192">
+        <v>78.929015965050638</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23">
+      <c r="A193" t="s">
+        <v>18</v>
+      </c>
+      <c r="B193" t="s">
+        <v>30</v>
+      </c>
+      <c r="C193" s="11">
+        <v>43875</v>
+      </c>
+      <c r="V193">
+        <v>78.90521095393791</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23">
+      <c r="A194" t="s">
+        <v>18</v>
+      </c>
+      <c r="B194" t="s">
+        <v>31</v>
+      </c>
+      <c r="C194" s="11">
+        <v>43875</v>
+      </c>
+      <c r="V194">
+        <v>79.129899772174113</v>
+      </c>
+      <c r="W194">
+        <v>0.76863750101380335</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23">
+      <c r="A195" t="s">
+        <v>18</v>
+      </c>
+      <c r="B195" t="s">
+        <v>32</v>
+      </c>
+      <c r="C195" s="11">
+        <v>43875</v>
+      </c>
+      <c r="V195">
+        <v>81.891815639662582</v>
+      </c>
+      <c r="W195">
+        <v>5.3316111861686615</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23">
+      <c r="A196" t="s">
+        <v>18</v>
+      </c>
+      <c r="B196" t="s">
+        <v>44</v>
+      </c>
+      <c r="C196" s="11">
+        <v>43859</v>
+      </c>
+      <c r="V196">
+        <v>78.395165078782483</v>
+      </c>
+      <c r="W196">
+        <v>1.9550267916612909</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23">
+      <c r="A197" t="s">
+        <v>18</v>
+      </c>
+      <c r="B197" t="s">
+        <v>45</v>
+      </c>
+      <c r="C197" s="11">
+        <v>43859</v>
+      </c>
+      <c r="V197">
+        <v>72.649098815351806</v>
+      </c>
+      <c r="W197">
+        <v>6.9378865308974476</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23">
+      <c r="A198" t="s">
+        <v>18</v>
+      </c>
+      <c r="B198" t="s">
+        <v>42</v>
+      </c>
+      <c r="C198" s="11">
+        <v>43859</v>
+      </c>
+      <c r="V198">
+        <v>78.929015965050638</v>
+      </c>
+      <c r="W198">
+        <v>7.6933309835944632</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23">
+      <c r="A199" t="s">
+        <v>18</v>
+      </c>
+      <c r="B199" t="s">
+        <v>44</v>
+      </c>
+      <c r="C199" s="11">
+        <v>43875</v>
+      </c>
+      <c r="V199">
+        <v>30.58409827830296</v>
+      </c>
+      <c r="W199">
+        <v>7.0887136859119897</v>
+      </c>
+    </row>
+    <row r="200" spans="1:23">
+      <c r="A200" t="s">
+        <v>18</v>
+      </c>
+      <c r="B200" t="s">
+        <v>45</v>
+      </c>
+      <c r="C200" s="11">
+        <v>43875</v>
+      </c>
+      <c r="V200">
+        <v>49.022548183335388</v>
+      </c>
+      <c r="W200">
+        <v>5.7038091949066416</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23">
+      <c r="A201" t="s">
+        <v>18</v>
+      </c>
+      <c r="B201" t="s">
+        <v>42</v>
+      </c>
+      <c r="C201" s="11">
+        <v>43875</v>
+      </c>
+      <c r="V201">
+        <v>59.455616899861965</v>
+      </c>
+      <c r="W201">
+        <v>1.2063290642635434</v>
+      </c>
+    </row>
+    <row r="202" spans="1:23">
+      <c r="A202" t="s">
+        <v>18</v>
+      </c>
+      <c r="B202" t="s">
+        <v>44</v>
+      </c>
+      <c r="C202" s="11">
+        <v>43889</v>
+      </c>
+      <c r="V202">
+        <v>71.611235716973141</v>
+      </c>
+      <c r="W202">
+        <v>6.5364891596497223</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23">
+      <c r="A203" t="s">
+        <v>18</v>
+      </c>
+      <c r="B203" t="s">
+        <v>45</v>
+      </c>
+      <c r="C203" s="11">
+        <v>43889</v>
+      </c>
+      <c r="V203">
+        <v>67.269759148394712</v>
+      </c>
+      <c r="W203">
+        <v>4.1501234511883522</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23">
+      <c r="A204" t="s">
+        <v>18</v>
+      </c>
+      <c r="B204" t="s">
+        <v>42</v>
+      </c>
+      <c r="C204" s="11">
+        <v>43889</v>
+      </c>
+      <c r="V204">
+        <v>69.779893986471066</v>
+      </c>
+      <c r="W204">
+        <v>4.7694179276883206</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23">
+      <c r="A205" t="s">
+        <v>18</v>
+      </c>
+      <c r="B205" t="s">
+        <v>44</v>
+      </c>
+      <c r="C205" s="11">
+        <v>43903</v>
+      </c>
+      <c r="V205">
+        <v>78.664427905902855</v>
+      </c>
+    </row>
+    <row r="206" spans="1:23">
+      <c r="A206" t="s">
+        <v>18</v>
+      </c>
+      <c r="B206" t="s">
+        <v>45</v>
+      </c>
+      <c r="C206" s="11">
+        <v>43903</v>
+      </c>
+      <c r="V206">
+        <v>80.862721056211299</v>
+      </c>
+    </row>
+    <row r="207" spans="1:23">
+      <c r="A207" t="s">
+        <v>18</v>
+      </c>
+      <c r="B207" t="s">
+        <v>42</v>
+      </c>
+      <c r="C207" s="11">
+        <v>43903</v>
+      </c>
+      <c r="V207">
+        <v>95.562706876684871</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23">
+      <c r="A208" t="s">
+        <v>18</v>
+      </c>
+      <c r="B208" t="s">
+        <v>44</v>
+      </c>
+      <c r="C208" s="11">
+        <v>43908</v>
+      </c>
+      <c r="V208">
+        <v>69.378993307278549</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23">
+      <c r="A209" t="s">
+        <v>18</v>
+      </c>
+      <c r="B209" t="s">
+        <v>45</v>
+      </c>
+      <c r="C209" s="11">
+        <v>43908</v>
+      </c>
+      <c r="V209">
+        <v>76.649769492121663</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23">
+      <c r="A210" t="s">
+        <v>18</v>
+      </c>
+      <c r="B210" t="s">
+        <v>42</v>
+      </c>
+      <c r="C210" s="11">
+        <v>43908</v>
+      </c>
+      <c r="V210">
+        <v>85.365260888374024</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23">
+      <c r="A211" t="s">
+        <v>18</v>
+      </c>
+      <c r="B211" t="s">
+        <v>44</v>
+      </c>
+      <c r="C211" s="11">
+        <v>43916</v>
+      </c>
+      <c r="V211">
+        <v>60.228081113641714</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23">
+      <c r="A212" t="s">
+        <v>18</v>
+      </c>
+      <c r="B212" t="s">
+        <v>45</v>
+      </c>
+      <c r="C212" s="11">
+        <v>43916</v>
+      </c>
+      <c r="V212">
+        <v>63.163184444804152</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23">
+      <c r="A213" t="s">
+        <v>18</v>
+      </c>
+      <c r="B213" t="s">
+        <v>42</v>
+      </c>
+      <c r="C213" s="11">
+        <v>43916</v>
+      </c>
+      <c r="V213">
+        <v>78.19911730793919</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23">
+      <c r="A214" t="s">
+        <v>18</v>
+      </c>
+      <c r="B214" t="s">
+        <v>37</v>
+      </c>
+      <c r="C214" s="7">
+        <v>43567</v>
+      </c>
+      <c r="V214" s="13">
+        <v>77.29079180422778</v>
+      </c>
+      <c r="W214" s="16"/>
+    </row>
+    <row r="215" spans="1:23">
+      <c r="A215" t="s">
+        <v>18</v>
+      </c>
+      <c r="B215" t="s">
+        <v>40</v>
+      </c>
+      <c r="C215" s="7">
+        <v>43567</v>
+      </c>
+      <c r="V215" s="14">
+        <v>79.544906206081606</v>
+      </c>
+      <c r="W215" s="16"/>
+    </row>
+    <row r="216" spans="1:23">
+      <c r="A216" t="s">
+        <v>18</v>
+      </c>
+      <c r="B216" t="s">
+        <v>40</v>
+      </c>
+      <c r="C216" s="7">
+        <v>43573</v>
+      </c>
+      <c r="V216" s="14">
+        <v>84.006473366819336</v>
+      </c>
+      <c r="W216" s="16"/>
+    </row>
+    <row r="217" spans="1:23">
+      <c r="A217" t="s">
+        <v>18</v>
+      </c>
+      <c r="B217" t="s">
+        <v>38</v>
+      </c>
+      <c r="C217" s="7">
+        <v>43573</v>
+      </c>
+      <c r="V217" s="14">
+        <v>78.872948565026945</v>
+      </c>
+      <c r="W217" s="16"/>
+    </row>
+    <row r="218" spans="1:23">
+      <c r="A218" t="s">
+        <v>18</v>
+      </c>
+      <c r="B218" t="s">
+        <v>38</v>
+      </c>
+      <c r="C218" s="7">
+        <v>43592</v>
+      </c>
+      <c r="V218" s="14">
+        <v>85.634292553248528</v>
+      </c>
+      <c r="W218" s="16"/>
+    </row>
+    <row r="219" spans="1:23">
+      <c r="A219" t="s">
+        <v>18</v>
+      </c>
+      <c r="B219" t="s">
+        <v>40</v>
+      </c>
+      <c r="C219" s="7">
+        <v>43601</v>
+      </c>
+      <c r="V219" s="14">
+        <v>57.274510083800941</v>
+      </c>
+      <c r="W219" s="16"/>
+    </row>
+    <row r="220" spans="1:23">
+      <c r="A220" t="s">
+        <v>18</v>
+      </c>
+      <c r="B220" t="s">
+        <v>38</v>
+      </c>
+      <c r="C220" s="7">
+        <v>43601</v>
+      </c>
+      <c r="V220" s="14">
+        <v>79.566907810272653</v>
+      </c>
+      <c r="W220" s="16"/>
+    </row>
+    <row r="221" spans="1:23">
+      <c r="A221" t="s">
+        <v>18</v>
+      </c>
+      <c r="B221" t="s">
+        <v>38</v>
+      </c>
+      <c r="C221" s="7">
+        <v>43608</v>
+      </c>
+      <c r="V221" s="14">
+        <v>75.827219120152748</v>
+      </c>
+      <c r="W221" s="16"/>
+    </row>
+    <row r="222" spans="1:23">
+      <c r="A222" t="s">
+        <v>18</v>
+      </c>
+      <c r="B222" t="s">
+        <v>36</v>
+      </c>
+      <c r="C222" s="7">
+        <v>43567</v>
+      </c>
+      <c r="V222" s="13">
+        <v>78.427385437075316</v>
+      </c>
+      <c r="W222" s="16"/>
+    </row>
+    <row r="223" spans="1:23">
+      <c r="A223" t="s">
+        <v>18</v>
+      </c>
+      <c r="B223" t="s">
+        <v>41</v>
+      </c>
+      <c r="C223" s="7">
+        <v>43567</v>
+      </c>
+      <c r="V223" s="14">
+        <v>79.820079411933364</v>
+      </c>
+      <c r="W223" s="16"/>
+    </row>
+    <row r="224" spans="1:23">
+      <c r="A224" t="s">
+        <v>18</v>
+      </c>
+      <c r="B224" t="s">
+        <v>41</v>
+      </c>
+      <c r="C224" s="7">
+        <v>43573</v>
+      </c>
+      <c r="V224" s="14">
+        <v>70.928684484719867</v>
+      </c>
+      <c r="W224" s="16"/>
+    </row>
+    <row r="225" spans="1:23">
+      <c r="A225" t="s">
+        <v>18</v>
+      </c>
+      <c r="B225" t="s">
+        <v>39</v>
+      </c>
+      <c r="C225" s="7">
+        <v>43573</v>
+      </c>
+      <c r="V225" s="14">
+        <v>79.150639200596174</v>
+      </c>
+      <c r="W225" s="16"/>
+    </row>
+    <row r="226" spans="1:23">
+      <c r="A226" t="s">
+        <v>18</v>
+      </c>
+      <c r="B226" t="s">
+        <v>39</v>
+      </c>
+      <c r="C226" s="7">
+        <v>43592</v>
+      </c>
+      <c r="V226" s="14">
+        <v>89.159092796190976</v>
+      </c>
+      <c r="W226" s="16"/>
+    </row>
+    <row r="227" spans="1:23">
+      <c r="A227" t="s">
+        <v>18</v>
+      </c>
+      <c r="B227" t="s">
+        <v>41</v>
+      </c>
+      <c r="C227" s="7">
+        <v>43601</v>
+      </c>
+      <c r="V227" s="14">
+        <v>50.42557078237455</v>
+      </c>
+      <c r="W227" s="16"/>
+    </row>
+    <row r="228" spans="1:23">
+      <c r="A228" t="s">
+        <v>18</v>
+      </c>
+      <c r="B228" t="s">
+        <v>39</v>
+      </c>
+      <c r="C228" s="7">
+        <v>43601</v>
+      </c>
+      <c r="V228" s="14">
+        <v>78.748824694517907</v>
+      </c>
+      <c r="W228" s="16"/>
+    </row>
+    <row r="229" spans="1:23">
+      <c r="A229" t="s">
+        <v>18</v>
+      </c>
+      <c r="B229" t="s">
+        <v>39</v>
+      </c>
+      <c r="C229" s="7">
+        <v>43608</v>
+      </c>
+      <c r="V229" s="14">
+        <v>77.391073784303003</v>
+      </c>
+      <c r="W229" s="16"/>
+    </row>
+    <row r="230" spans="1:23">
+      <c r="A230" t="s">
+        <v>18</v>
+      </c>
+      <c r="B230" t="s">
+        <v>51</v>
+      </c>
+      <c r="C230" s="17">
+        <v>43790</v>
+      </c>
+      <c r="V230">
+        <v>2.945981560688324</v>
+      </c>
+      <c r="W230">
+        <v>0.9394940748123165</v>
+      </c>
+    </row>
+    <row r="231" spans="1:23">
+      <c r="A231" t="s">
+        <v>18</v>
+      </c>
+      <c r="B231" t="s">
+        <v>52</v>
+      </c>
+      <c r="C231" s="17">
+        <v>43790</v>
+      </c>
+      <c r="V231">
+        <v>3.2009100641182329</v>
+      </c>
+      <c r="W231">
+        <v>2.510627081489849</v>
+      </c>
+    </row>
+    <row r="232" spans="1:23">
+      <c r="A232" t="s">
+        <v>18</v>
+      </c>
+      <c r="B232" t="s">
+        <v>53</v>
+      </c>
+      <c r="C232" s="17">
+        <v>43790</v>
+      </c>
+      <c r="V232">
+        <v>5.3294053769717493</v>
+      </c>
+      <c r="W232">
+        <v>1.6851677522614044</v>
+      </c>
+    </row>
+    <row r="233" spans="1:23">
+      <c r="A233" t="s">
+        <v>18</v>
+      </c>
+      <c r="B233" t="s">
+        <v>51</v>
+      </c>
+      <c r="C233" s="17">
+        <v>43796</v>
+      </c>
+      <c r="V233">
+        <v>1.936894720399863</v>
+      </c>
+    </row>
+    <row r="234" spans="1:23">
+      <c r="A234" t="s">
+        <v>18</v>
+      </c>
+      <c r="B234" t="s">
+        <v>52</v>
+      </c>
+      <c r="C234" s="17">
+        <v>43796</v>
+      </c>
+      <c r="V234">
+        <v>1.5370941600878325</v>
+      </c>
+    </row>
+    <row r="235" spans="1:23">
+      <c r="A235" t="s">
+        <v>18</v>
+      </c>
+      <c r="B235" t="s">
+        <v>53</v>
+      </c>
+      <c r="C235" s="17">
+        <v>43796</v>
+      </c>
+      <c r="V235">
+        <v>10.136294720670392</v>
+      </c>
+      <c r="W235">
+        <v>2.1218261966437177</v>
+      </c>
+    </row>
+    <row r="236" spans="1:23">
+      <c r="A236" t="s">
+        <v>18</v>
+      </c>
+      <c r="B236" t="s">
+        <v>51</v>
+      </c>
+      <c r="C236" s="17">
+        <v>43802</v>
+      </c>
+      <c r="V236">
+        <v>11.398596091931253</v>
+      </c>
+      <c r="W236">
+        <v>1.4075989132976168</v>
+      </c>
+    </row>
+    <row r="237" spans="1:23">
+      <c r="A237" t="s">
+        <v>18</v>
+      </c>
+      <c r="B237" t="s">
+        <v>52</v>
+      </c>
+      <c r="C237" s="17">
+        <v>43802</v>
+      </c>
+      <c r="V237">
+        <v>7.9848255562799295</v>
+      </c>
+      <c r="W237">
+        <v>0.59463305412538903</v>
+      </c>
+    </row>
+    <row r="238" spans="1:23">
+      <c r="A238" t="s">
+        <v>18</v>
+      </c>
+      <c r="B238" t="s">
+        <v>53</v>
+      </c>
+      <c r="C238" s="17">
+        <v>43802</v>
+      </c>
+      <c r="V238">
+        <v>12.780908883425823</v>
+      </c>
+      <c r="W238">
+        <v>0.9808917672312738</v>
+      </c>
+    </row>
+    <row r="239" spans="1:23">
+      <c r="A239" t="s">
+        <v>18</v>
+      </c>
+      <c r="B239" t="s">
+        <v>51</v>
+      </c>
+      <c r="C239" s="17">
+        <v>43809</v>
+      </c>
+      <c r="V239">
+        <v>19.153068880741586</v>
+      </c>
+      <c r="W239">
+        <v>4.1724876352853677</v>
+      </c>
+    </row>
+    <row r="240" spans="1:23">
+      <c r="A240" t="s">
+        <v>18</v>
+      </c>
+      <c r="B240" t="s">
+        <v>52</v>
+      </c>
+      <c r="C240" s="17">
+        <v>43809</v>
+      </c>
+      <c r="V240">
+        <v>32.442828671454421</v>
+      </c>
+      <c r="W240">
+        <v>3.7111956028324835</v>
+      </c>
+    </row>
+    <row r="241" spans="1:23">
+      <c r="A241" t="s">
+        <v>18</v>
+      </c>
+      <c r="B241" t="s">
+        <v>53</v>
+      </c>
+      <c r="C241" s="17">
+        <v>43809</v>
+      </c>
+      <c r="V241">
+        <v>21.255648495347089</v>
+      </c>
+      <c r="W241">
+        <v>4.0670957683044096</v>
+      </c>
+    </row>
+    <row r="242" spans="1:23">
+      <c r="A242" t="s">
+        <v>18</v>
+      </c>
+      <c r="B242" t="s">
+        <v>52</v>
+      </c>
+      <c r="C242" s="17">
+        <v>43816</v>
+      </c>
+      <c r="V242">
+        <v>8.1466512702078546</v>
+      </c>
+    </row>
+    <row r="243" spans="1:23">
+      <c r="A243" t="s">
+        <v>18</v>
+      </c>
+      <c r="B243" t="s">
+        <v>51</v>
+      </c>
+      <c r="C243" s="17">
+        <v>43832</v>
+      </c>
+      <c r="V243">
+        <v>40.359219058937768</v>
+      </c>
+      <c r="W243">
+        <v>2.2991176144107279</v>
+      </c>
+    </row>
+    <row r="244" spans="1:23">
+      <c r="A244" t="s">
+        <v>18</v>
+      </c>
+      <c r="B244" t="s">
+        <v>52</v>
+      </c>
+      <c r="C244" s="17">
+        <v>43832</v>
+      </c>
+      <c r="V244">
+        <v>54.718516217799703</v>
+      </c>
+      <c r="W244">
+        <v>3.6048651545304731</v>
+      </c>
+    </row>
+    <row r="245" spans="1:23">
+      <c r="A245" t="s">
+        <v>18</v>
+      </c>
+      <c r="B245" t="s">
+        <v>53</v>
+      </c>
+      <c r="C245" s="17">
+        <v>43832</v>
+      </c>
+      <c r="V245">
+        <v>41.487284244080769</v>
+      </c>
+      <c r="W245">
+        <v>3.6540452544246205</v>
+      </c>
+    </row>
+    <row r="246" spans="1:23">
+      <c r="A246" t="s">
+        <v>18</v>
+      </c>
+      <c r="B246" t="s">
+        <v>51</v>
+      </c>
+      <c r="C246" s="17">
+        <v>43838</v>
+      </c>
+      <c r="V246">
+        <v>38.880049321788206</v>
+      </c>
+      <c r="W246">
+        <v>2.6491308633039106</v>
+      </c>
+    </row>
+    <row r="247" spans="1:23">
+      <c r="A247" t="s">
+        <v>18</v>
+      </c>
+      <c r="B247" t="s">
+        <v>52</v>
+      </c>
+      <c r="C247" s="17">
+        <v>43838</v>
+      </c>
+      <c r="V247">
+        <v>30.830953889180762</v>
+      </c>
+      <c r="W247">
+        <v>2.3095845924176341</v>
+      </c>
+    </row>
+    <row r="248" spans="1:23">
+      <c r="A248" t="s">
+        <v>18</v>
+      </c>
+      <c r="B248" t="s">
+        <v>53</v>
+      </c>
+      <c r="C248" s="17">
+        <v>43838</v>
+      </c>
+      <c r="V248">
+        <v>39.14055843781518</v>
+      </c>
+      <c r="W248">
+        <v>2.6923475326620641</v>
+      </c>
+    </row>
+    <row r="249" spans="1:23">
+      <c r="A249" t="s">
+        <v>18</v>
+      </c>
+      <c r="B249" t="s">
+        <v>51</v>
+      </c>
+      <c r="C249" s="17">
+        <v>43851</v>
+      </c>
+      <c r="V249">
+        <v>38.877764202619154</v>
+      </c>
+      <c r="W249">
+        <v>3.8274828439374287</v>
+      </c>
+    </row>
+    <row r="250" spans="1:23">
+      <c r="A250" t="s">
+        <v>18</v>
+      </c>
+      <c r="B250" t="s">
+        <v>52</v>
+      </c>
+      <c r="C250" s="17">
+        <v>43851</v>
+      </c>
+      <c r="V250">
+        <v>24.357085147670773</v>
+      </c>
+      <c r="W250">
+        <v>4.6688599058321465</v>
+      </c>
+    </row>
+    <row r="251" spans="1:23">
+      <c r="A251" t="s">
+        <v>18</v>
+      </c>
+      <c r="B251" t="s">
+        <v>53</v>
+      </c>
+      <c r="C251" s="17">
+        <v>43851</v>
+      </c>
+      <c r="V251">
+        <v>42.15772056163317</v>
+      </c>
+      <c r="W251">
+        <v>5.429230338369984</v>
+      </c>
+    </row>
+    <row r="252" spans="1:23">
+      <c r="A252" t="s">
+        <v>18</v>
+      </c>
+      <c r="B252" t="s">
+        <v>48</v>
+      </c>
+      <c r="C252" s="17">
+        <v>43832</v>
+      </c>
+      <c r="V252">
+        <v>45.522647624707893</v>
+      </c>
+      <c r="W252">
+        <v>3.6117033768259006</v>
+      </c>
+    </row>
+    <row r="253" spans="1:23">
+      <c r="A253" t="s">
+        <v>18</v>
+      </c>
+      <c r="B253" t="s">
+        <v>49</v>
+      </c>
+      <c r="C253" s="17">
+        <v>43832</v>
+      </c>
+      <c r="V253">
+        <v>45.987789118358663</v>
+      </c>
+      <c r="W253">
+        <v>4.498142685492609</v>
+      </c>
+    </row>
+    <row r="254" spans="1:23">
+      <c r="A254" t="s">
+        <v>18</v>
+      </c>
+      <c r="B254" t="s">
+        <v>50</v>
+      </c>
+      <c r="C254" s="17">
+        <v>43832</v>
+      </c>
+      <c r="V254">
+        <v>47.70660362767876</v>
+      </c>
+      <c r="W254">
+        <v>4.5511836838559532</v>
+      </c>
+    </row>
+    <row r="255" spans="1:23">
+      <c r="A255" t="s">
+        <v>18</v>
+      </c>
+      <c r="B255" t="s">
+        <v>48</v>
+      </c>
+      <c r="C255" s="17">
+        <v>43838</v>
+      </c>
+      <c r="V255">
+        <v>42.034512805059521</v>
+      </c>
+      <c r="W255">
+        <v>2.025194891309293</v>
+      </c>
+    </row>
+    <row r="256" spans="1:23">
+      <c r="A256" t="s">
+        <v>18</v>
+      </c>
+      <c r="B256" t="s">
+        <v>49</v>
+      </c>
+      <c r="C256" s="17">
+        <v>43838</v>
+      </c>
+      <c r="V256">
+        <v>45.293348186622865</v>
+      </c>
+      <c r="W256">
+        <v>3.2760497556779269</v>
+      </c>
+    </row>
+    <row r="257" spans="1:23">
+      <c r="A257" t="s">
+        <v>18</v>
+      </c>
+      <c r="B257" t="s">
+        <v>50</v>
+      </c>
+      <c r="C257" s="17">
+        <v>43838</v>
+      </c>
+      <c r="V257">
+        <v>39.821618366986627</v>
+      </c>
+      <c r="W257">
+        <v>2.9150963623880548</v>
+      </c>
+    </row>
+    <row r="258" spans="1:23">
+      <c r="A258" t="s">
+        <v>18</v>
+      </c>
+      <c r="B258" t="s">
+        <v>48</v>
+      </c>
+      <c r="C258" s="17">
+        <v>43851</v>
+      </c>
+      <c r="V258">
+        <v>66.17014575455795</v>
+      </c>
+      <c r="W258">
+        <v>5.485209168157211</v>
+      </c>
+    </row>
+    <row r="259" spans="1:23">
+      <c r="A259" t="s">
+        <v>18</v>
+      </c>
+      <c r="B259" t="s">
+        <v>49</v>
+      </c>
+      <c r="C259" s="17">
+        <v>43851</v>
+      </c>
+      <c r="V259">
+        <v>77.189848756088963</v>
+      </c>
+      <c r="W259">
+        <v>2.0361737340178747</v>
+      </c>
+    </row>
+    <row r="260" spans="1:23">
+      <c r="A260" t="s">
+        <v>18</v>
+      </c>
+      <c r="B260" t="s">
+        <v>50</v>
+      </c>
+      <c r="C260" s="17">
+        <v>43851</v>
+      </c>
+      <c r="V260">
+        <v>60.864795905166034</v>
+      </c>
+      <c r="W260">
+        <v>2.6783143273519876</v>
+      </c>
+    </row>
+    <row r="261" spans="1:23">
+      <c r="A261" t="s">
+        <v>18</v>
+      </c>
+      <c r="B261" t="s">
+        <v>48</v>
+      </c>
+      <c r="C261" s="17">
+        <v>43864</v>
+      </c>
+      <c r="V261">
+        <v>57.353466227568518</v>
+      </c>
+      <c r="W261">
+        <v>2.9032155393600219</v>
+      </c>
+    </row>
+    <row r="262" spans="1:23">
+      <c r="A262" t="s">
+        <v>18</v>
+      </c>
+      <c r="B262" t="s">
+        <v>49</v>
+      </c>
+      <c r="C262" s="17">
+        <v>43864</v>
+      </c>
+      <c r="V262">
+        <v>64.594415891523255</v>
+      </c>
+      <c r="W262">
+        <v>2.3566347287549427</v>
+      </c>
+    </row>
+    <row r="263" spans="1:23">
+      <c r="A263" t="s">
+        <v>18</v>
+      </c>
+      <c r="B263" t="s">
+        <v>50</v>
+      </c>
+      <c r="C263" s="17">
+        <v>43864</v>
+      </c>
+      <c r="V263">
+        <v>60.610365975169231</v>
+      </c>
+      <c r="W263">
+        <v>3.5724818750005722</v>
+      </c>
+    </row>
+    <row r="264" spans="1:23">
+      <c r="A264" t="s">
+        <v>18</v>
+      </c>
+      <c r="B264" t="s">
+        <v>48</v>
+      </c>
+      <c r="C264" s="17">
+        <v>43875</v>
+      </c>
+      <c r="V264">
+        <v>59.309098137271647</v>
+      </c>
+      <c r="W264">
+        <v>5.8459521714162985</v>
+      </c>
+    </row>
+    <row r="265" spans="1:23">
+      <c r="A265" t="s">
+        <v>18</v>
+      </c>
+      <c r="B265" t="s">
+        <v>49</v>
+      </c>
+      <c r="C265" s="17">
+        <v>43875</v>
+      </c>
+      <c r="V265">
+        <v>75.186243763846335</v>
+      </c>
+      <c r="W265">
+        <v>2.8488164720094478</v>
+      </c>
+    </row>
+    <row r="266" spans="1:23">
+      <c r="A266" t="s">
+        <v>18</v>
+      </c>
+      <c r="B266" t="s">
+        <v>50</v>
+      </c>
+      <c r="C266" s="17">
+        <v>43875</v>
+      </c>
+      <c r="V266">
+        <v>70.293147914765626</v>
+      </c>
+      <c r="W266">
+        <v>0.87832205022106069</v>
+      </c>
+    </row>
+    <row r="267" spans="1:23">
+      <c r="A267" t="s">
+        <v>18</v>
+      </c>
+      <c r="B267" t="s">
+        <v>46</v>
+      </c>
+      <c r="C267" s="17">
+        <v>43859</v>
+      </c>
+      <c r="V267">
+        <v>73.737489275022114</v>
+      </c>
+      <c r="W267">
+        <v>0.88569363214705221</v>
+      </c>
+    </row>
+    <row r="268" spans="1:23">
+      <c r="A268" t="s">
+        <v>18</v>
+      </c>
+      <c r="B268" t="s">
+        <v>79</v>
+      </c>
+      <c r="C268" s="17">
+        <v>43859</v>
+      </c>
+      <c r="V268">
+        <v>70.403679878776316</v>
+      </c>
+      <c r="W268">
+        <v>3.0064167947143599</v>
+      </c>
+    </row>
+    <row r="269" spans="1:23">
+      <c r="A269" t="s">
+        <v>18</v>
+      </c>
+      <c r="B269" t="s">
+        <v>47</v>
+      </c>
+      <c r="C269" s="17">
+        <v>43859</v>
+      </c>
+      <c r="V269">
+        <v>66.356444973752218</v>
+      </c>
+      <c r="W269">
+        <v>6.4887549172994783</v>
+      </c>
+    </row>
+    <row r="270" spans="1:23">
+      <c r="A270" t="s">
+        <v>18</v>
+      </c>
+      <c r="B270" t="s">
+        <v>46</v>
+      </c>
+      <c r="C270" s="17">
+        <v>43875</v>
+      </c>
+      <c r="V270">
+        <v>34.826158320863172</v>
+      </c>
+      <c r="W270">
+        <v>3.7460992507946012</v>
+      </c>
+    </row>
+    <row r="271" spans="1:23">
+      <c r="A271" t="s">
+        <v>18</v>
+      </c>
+      <c r="B271" t="s">
+        <v>79</v>
+      </c>
+      <c r="C271" s="17">
+        <v>43875</v>
+      </c>
+      <c r="V271">
+        <v>39.038863662382049</v>
+      </c>
+      <c r="W271">
+        <v>5.7397344050545707</v>
+      </c>
+    </row>
+    <row r="272" spans="1:23">
+      <c r="A272" t="s">
+        <v>18</v>
+      </c>
+      <c r="B272" t="s">
+        <v>47</v>
+      </c>
+      <c r="C272" s="17">
+        <v>43875</v>
+      </c>
+      <c r="V272">
+        <v>56.197547412021464</v>
+      </c>
+      <c r="W272">
+        <v>6.2852775311886555</v>
+      </c>
+    </row>
+    <row r="273" spans="1:23">
+      <c r="A273" t="s">
+        <v>18</v>
+      </c>
+      <c r="B273" t="s">
+        <v>46</v>
+      </c>
+      <c r="C273" s="17">
+        <v>43889</v>
+      </c>
+      <c r="V273">
+        <v>56.006634824843665</v>
+      </c>
+      <c r="W273">
+        <v>7.2406411781241697</v>
+      </c>
+    </row>
+    <row r="274" spans="1:23">
+      <c r="A274" t="s">
+        <v>18</v>
+      </c>
+      <c r="B274" t="s">
+        <v>79</v>
+      </c>
+      <c r="C274" s="17">
+        <v>43889</v>
+      </c>
+      <c r="V274">
+        <v>54.073516512314377</v>
+      </c>
+      <c r="W274">
+        <v>7.452611027121165</v>
+      </c>
+    </row>
+    <row r="275" spans="1:23">
+      <c r="A275" t="s">
+        <v>18</v>
+      </c>
+      <c r="B275" t="s">
+        <v>47</v>
+      </c>
+      <c r="C275" s="17">
+        <v>43889</v>
+      </c>
+      <c r="V275">
+        <v>70.117759851619823</v>
+      </c>
+      <c r="W275">
+        <v>3.1010758048730089</v>
+      </c>
+    </row>
+    <row r="276" spans="1:23">
+      <c r="A276" t="s">
+        <v>18</v>
+      </c>
+      <c r="B276" t="s">
+        <v>46</v>
+      </c>
+      <c r="C276" s="17">
+        <v>43903</v>
+      </c>
+      <c r="V276">
+        <v>72.846534687190797</v>
+      </c>
+      <c r="W276">
+        <v>5.184676906749023</v>
+      </c>
+    </row>
+    <row r="277" spans="1:23">
+      <c r="A277" t="s">
+        <v>18</v>
+      </c>
+      <c r="B277" t="s">
+        <v>79</v>
+      </c>
+      <c r="C277" s="17">
+        <v>43903</v>
+      </c>
+      <c r="V277">
+        <v>74.028183161520559</v>
+      </c>
+      <c r="W277">
+        <v>4.8461663877908547</v>
+      </c>
+    </row>
+    <row r="278" spans="1:23">
+      <c r="A278" t="s">
+        <v>18</v>
+      </c>
+      <c r="B278" t="s">
+        <v>47</v>
+      </c>
+      <c r="C278" s="17">
+        <v>43903</v>
+      </c>
+      <c r="V278">
+        <v>89.904525791295569</v>
+      </c>
+      <c r="W278">
+        <v>1.5598329392157901</v>
+      </c>
+    </row>
+    <row r="279" spans="1:23">
+      <c r="A279" t="s">
+        <v>18</v>
+      </c>
+      <c r="B279" t="s">
+        <v>46</v>
+      </c>
+      <c r="C279" s="18">
+        <v>43908</v>
+      </c>
+      <c r="V279">
+        <v>50.397161636013237</v>
+      </c>
+      <c r="W279">
+        <v>7.8407817163666476</v>
+      </c>
+    </row>
+    <row r="280" spans="1:23">
+      <c r="A280" t="s">
+        <v>18</v>
+      </c>
+      <c r="B280" t="s">
+        <v>79</v>
+      </c>
+      <c r="C280" s="18">
+        <v>43908</v>
+      </c>
+      <c r="V280">
+        <v>55.342457681576263</v>
+      </c>
+      <c r="W280">
+        <v>4.6436072571595615</v>
+      </c>
+    </row>
+    <row r="281" spans="1:23">
+      <c r="A281" t="s">
+        <v>18</v>
+      </c>
+      <c r="B281" t="s">
+        <v>47</v>
+      </c>
+      <c r="C281" s="18">
+        <v>43908</v>
+      </c>
+      <c r="V281">
+        <v>70.833377498389567</v>
+      </c>
+      <c r="W281">
+        <v>4.4663725803537604</v>
+      </c>
+    </row>
+    <row r="282" spans="1:23">
+      <c r="A282" t="s">
+        <v>18</v>
+      </c>
+      <c r="B282" t="s">
+        <v>46</v>
+      </c>
+      <c r="C282" s="18">
+        <v>43916</v>
+      </c>
+      <c r="V282">
+        <v>56.461331259431773</v>
+      </c>
+      <c r="W282">
+        <v>6.7197832300470814</v>
+      </c>
+    </row>
+    <row r="283" spans="1:23">
+      <c r="A283" t="s">
+        <v>18</v>
+      </c>
+      <c r="B283" t="s">
+        <v>79</v>
+      </c>
+      <c r="C283" s="18">
+        <v>43916</v>
+      </c>
+      <c r="V283">
+        <v>55.636546795814873</v>
+      </c>
+      <c r="W283">
+        <v>5.8083684708497749</v>
+      </c>
+    </row>
+    <row r="284" spans="1:23">
+      <c r="A284" t="s">
+        <v>18</v>
+      </c>
+      <c r="B284" t="s">
+        <v>47</v>
+      </c>
+      <c r="C284" s="18">
+        <v>43916</v>
+      </c>
+      <c r="V284">
+        <v>68.476179958364753</v>
+      </c>
+      <c r="W284">
+        <v>2.1212592634152689</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD151">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE151">
     <sortCondition ref="B2:B151"/>
-    <sortCondition ref="AC2:AC151"/>
+    <sortCondition ref="AD2:AD151"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Prototypes/Mungbean/TOSobserved.xlsx
+++ b/Prototypes/Mungbean/TOSobserved.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F61ED9-C670-4CE1-BBC4-2318C714C053}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F895F6FF-D7A9-4702-8158-00CD08DDA911}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01D3E681-48EE-4304-AF98-4E94EBE61D53}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{01D3E681-48EE-4304-AF98-4E94EBE61D53}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>Soybean.Grain.Nconc</t>
   </si>
   <si>
-    <t>Soybean.Phenology.FloweringDAS</t>
-  </si>
-  <si>
     <t>Soybean.Phenology.MaturityDAS</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
   </si>
   <si>
     <t>HarvestRipe</t>
-  </si>
-  <si>
-    <t>Soybean.Phenology.GrainFillingDAS</t>
   </si>
   <si>
     <t>Soybean.Phenology.EndGrainFillDAS</t>
@@ -279,6 +273,12 @@
   </si>
   <si>
     <t>Soybean.Stem.Wt</t>
+  </si>
+  <si>
+    <t>Soybean.Phenology.StartGrainFillingDAS</t>
+  </si>
+  <si>
+    <t>Soybean.Phenology.StartFloweringDAS</t>
   </si>
 </sst>
 </file>
@@ -767,9 +767,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3519DD51-BED6-4262-8A50-4DB48CCAF26B}">
   <dimension ref="A1:AG284"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomLeft" activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -794,105 +794,105 @@
         <v>5</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="W1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG1" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:33">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="7">
         <v>43494</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E2">
         <v>209.51490000000001</v>
@@ -942,16 +942,16 @@
     </row>
     <row r="3" spans="1:33">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="8">
         <v>43537</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>253.63399999999999</v>
@@ -1026,16 +1026,16 @@
     </row>
     <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="7">
         <v>43494</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E4">
         <v>269.0772</v>
@@ -1085,16 +1085,16 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="8">
         <v>43537</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>156.90600000000001</v>
@@ -1166,16 +1166,16 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="7">
         <v>43585</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E6">
         <v>162.29499999999999</v>
@@ -1222,16 +1222,16 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7">
         <v>43619</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>171.13499999999999</v>
@@ -1307,16 +1307,16 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" s="7">
         <v>43585</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E8">
         <v>173.21999999999997</v>
@@ -1363,16 +1363,16 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="7">
         <v>43619</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>179.47499999999999</v>
@@ -1448,16 +1448,16 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="7">
         <v>43531</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E10">
         <v>153.1</v>
@@ -1507,16 +1507,16 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="7">
         <v>43585</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>218.70249999999999</v>
@@ -1592,16 +1592,16 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="7">
         <v>43531</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E12">
         <v>119.5175</v>
@@ -1651,16 +1651,16 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7">
         <v>43585</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>109.34</v>
@@ -1736,16 +1736,16 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="7">
         <v>43890</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E14">
         <v>227.66250000000002</v>
@@ -1802,16 +1802,16 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="7">
         <v>43886</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E15">
         <v>170.565</v>
@@ -1868,16 +1868,16 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="7">
         <v>43917</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <v>393.68000000000006</v>
@@ -1960,16 +1960,16 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="7">
         <v>43906</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E17">
         <v>264.01750000000004</v>
@@ -2032,16 +2032,16 @@
     </row>
     <row r="18" spans="1:33" s="9" customFormat="1">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="7">
         <v>43886</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E18">
         <v>150.8475</v>
@@ -2110,16 +2110,16 @@
     </row>
     <row r="19" spans="1:33" s="9" customFormat="1">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7">
         <v>43890</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E19">
         <v>212.86</v>
@@ -2188,16 +2188,16 @@
     </row>
     <row r="20" spans="1:33" s="9" customFormat="1">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="7">
         <v>43917</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>260.71500000000003</v>
@@ -2284,16 +2284,16 @@
     </row>
     <row r="21" spans="1:33" s="9" customFormat="1">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" s="7">
         <v>43906</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E21">
         <v>216.23250000000002</v>
@@ -2366,16 +2366,16 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="10">
         <v>43878</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E22">
         <v>35.647500000000001</v>
@@ -2432,16 +2432,16 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" s="10">
         <v>43889</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E23">
         <v>131.80250000000001</v>
@@ -2498,16 +2498,16 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" s="10">
         <v>43902</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E24">
         <v>176.03249999999997</v>
@@ -2570,16 +2570,16 @@
     </row>
     <row r="25" spans="1:33">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="10">
         <v>43913</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25">
         <v>187.66250000000002</v>
@@ -2662,16 +2662,16 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C26" s="7">
         <v>43886</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E26">
         <v>119.9025</v>
@@ -2728,16 +2728,16 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7">
         <v>43890</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E27">
         <v>170.495</v>
@@ -2794,16 +2794,16 @@
     </row>
     <row r="28" spans="1:33">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" s="7">
         <v>43917</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28">
         <v>303.07249999999999</v>
@@ -2886,16 +2886,16 @@
     </row>
     <row r="29" spans="1:33">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C29" s="7">
         <v>43906</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E29">
         <v>206.8</v>
@@ -2958,16 +2958,16 @@
     </row>
     <row r="30" spans="1:33">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C30" s="10">
         <v>43878</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E30">
         <v>51.699999999999996</v>
@@ -3024,16 +3024,16 @@
     </row>
     <row r="31" spans="1:33">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C31" s="10">
         <v>43902</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E31">
         <v>136.70249999999999</v>
@@ -3096,16 +3096,16 @@
     </row>
     <row r="32" spans="1:33">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C32" s="10">
         <v>43889</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>142.57</v>
@@ -3162,16 +3162,16 @@
     </row>
     <row r="33" spans="1:33">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C33" s="10">
         <v>43913</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33">
         <v>195.34250000000003</v>
@@ -3254,16 +3254,16 @@
     </row>
     <row r="34" spans="1:33">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C34" s="10">
         <v>43886</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E34" s="9">
         <v>120.13</v>
@@ -3320,16 +3320,16 @@
     </row>
     <row r="35" spans="1:33">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C35" s="10">
         <v>43890</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E35" s="9">
         <v>142.38749999999999</v>
@@ -3398,16 +3398,16 @@
     </row>
     <row r="36" spans="1:33">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C36" s="10">
         <v>43906</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E36" s="9">
         <v>176.39249999999998</v>
@@ -3468,16 +3468,16 @@
     </row>
     <row r="37" spans="1:33">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C37" s="10">
         <v>43917</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E37" s="9">
         <v>231.6875</v>
@@ -3564,16 +3564,16 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C38" s="7">
         <v>43860</v>
       </c>
       <c r="D38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E38">
         <v>225.2</v>
@@ -3636,16 +3636,16 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C39" s="7">
         <v>43829</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E39">
         <v>45.575000000000003</v>
@@ -3692,16 +3692,16 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C40" s="7">
         <v>43843</v>
       </c>
       <c r="D40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E40">
         <v>141.23500000000001</v>
@@ -3754,16 +3754,16 @@
     </row>
     <row r="41" spans="1:33">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C41" s="7">
         <v>43874</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E41">
         <v>265.4375</v>
@@ -3836,16 +3836,16 @@
     </row>
     <row r="42" spans="1:33">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C42" s="7">
         <v>43838</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E42">
         <v>144.10750000000002</v>
@@ -3902,16 +3902,16 @@
     </row>
     <row r="43" spans="1:33">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C43" s="7">
         <v>43850</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E43">
         <v>226.375</v>
@@ -3974,16 +3974,16 @@
     </row>
     <row r="44" spans="1:33">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C44" s="7">
         <v>43880</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E44">
         <v>301.29000000000002</v>
@@ -4062,16 +4062,16 @@
     </row>
     <row r="45" spans="1:33">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C45" s="7">
         <v>43860</v>
       </c>
       <c r="D45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E45">
         <v>293.29500000000002</v>
@@ -4134,16 +4134,16 @@
     </row>
     <row r="46" spans="1:33">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C46" s="7">
         <v>43838</v>
       </c>
       <c r="D46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E46">
         <v>94.9</v>
@@ -4200,16 +4200,16 @@
     </row>
     <row r="47" spans="1:33">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C47" s="7">
         <v>43850</v>
       </c>
       <c r="D47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E47">
         <v>218.22499999999999</v>
@@ -4272,16 +4272,16 @@
     </row>
     <row r="48" spans="1:33">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C48" s="7">
         <v>43880</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E48">
         <v>429.22249999999997</v>
@@ -4364,16 +4364,16 @@
     </row>
     <row r="49" spans="1:33">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C49" s="7">
         <v>43860</v>
       </c>
       <c r="D49" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E49">
         <v>271.02500000000003</v>
@@ -4436,16 +4436,16 @@
     </row>
     <row r="50" spans="1:33">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C50" s="7">
         <v>43829</v>
       </c>
       <c r="D50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E50">
         <v>56.282499999999999</v>
@@ -4502,16 +4502,16 @@
     </row>
     <row r="51" spans="1:33">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C51" s="7">
         <v>43860</v>
       </c>
       <c r="D51" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E51">
         <v>181.66249999999997</v>
@@ -4574,16 +4574,16 @@
     </row>
     <row r="52" spans="1:33">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C52" s="7">
         <v>43843</v>
       </c>
       <c r="D52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E52">
         <v>124.535</v>
@@ -4636,16 +4636,16 @@
     </row>
     <row r="53" spans="1:33">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C53" s="7">
         <v>43874</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E53">
         <v>149.9425</v>
@@ -4718,16 +4718,16 @@
     </row>
     <row r="54" spans="1:33">
       <c r="A54" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C54" s="7">
         <v>43850</v>
       </c>
       <c r="D54" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E54">
         <v>202.42500000000001</v>
@@ -4790,16 +4790,16 @@
     </row>
     <row r="55" spans="1:33">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C55" s="7">
         <v>43880</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E55">
         <v>270.76749999999998</v>
@@ -4882,16 +4882,16 @@
     </row>
     <row r="56" spans="1:33">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C56" s="7">
         <v>43860</v>
       </c>
       <c r="D56" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E56">
         <v>266.23500000000001</v>
@@ -4954,16 +4954,16 @@
     </row>
     <row r="57" spans="1:33">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C57" s="7">
         <v>43838</v>
       </c>
       <c r="D57" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E57">
         <v>123.60249999999999</v>
@@ -5010,16 +5010,16 @@
     </row>
     <row r="58" spans="1:33">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C58" s="7">
         <v>43838</v>
       </c>
       <c r="D58" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E58">
         <v>135.79250000000002</v>
@@ -5076,16 +5076,16 @@
     </row>
     <row r="59" spans="1:33">
       <c r="A59" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C59" s="7">
         <v>43850</v>
       </c>
       <c r="D59" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E59">
         <v>185.72499999999999</v>
@@ -5148,16 +5148,16 @@
     </row>
     <row r="60" spans="1:33">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C60" s="7">
         <v>43880</v>
       </c>
       <c r="D60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E60">
         <v>341.81</v>
@@ -5240,16 +5240,16 @@
     </row>
     <row r="61" spans="1:33">
       <c r="A61" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C61" s="7">
         <v>43860</v>
       </c>
       <c r="D61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E61">
         <v>228.005</v>
@@ -5312,16 +5312,16 @@
     </row>
     <row r="62" spans="1:33">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C62" s="7">
         <v>43810</v>
       </c>
       <c r="D62" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E62">
         <v>109.97999999999999</v>
@@ -5384,16 +5384,16 @@
     </row>
     <row r="63" spans="1:33">
       <c r="A63" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C63" s="7">
         <v>43817</v>
       </c>
       <c r="D63" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E63">
         <v>214.9425</v>
@@ -5456,16 +5456,16 @@
     </row>
     <row r="64" spans="1:33">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C64" s="7">
         <v>43788</v>
       </c>
       <c r="D64" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E64">
         <v>12.612500000000001</v>
@@ -5512,16 +5512,16 @@
     </row>
     <row r="65" spans="1:33">
       <c r="A65" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C65" s="7">
         <v>43845</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E65">
         <v>222.2525</v>
@@ -5594,16 +5594,16 @@
     </row>
     <row r="66" spans="1:33">
       <c r="A66" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C66" s="7">
         <v>43817</v>
       </c>
       <c r="D66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E66">
         <v>183.26500000000001</v>
@@ -5666,16 +5666,16 @@
     </row>
     <row r="67" spans="1:33">
       <c r="A67" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C67" s="7">
         <v>43852</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E67">
         <v>507.745</v>
@@ -5758,16 +5758,16 @@
     </row>
     <row r="68" spans="1:33">
       <c r="A68" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C68" s="7">
         <v>43795</v>
       </c>
       <c r="D68" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E68">
         <v>34.145000000000003</v>
@@ -5814,16 +5814,16 @@
     </row>
     <row r="69" spans="1:33">
       <c r="A69" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C69" s="7">
         <v>43829</v>
       </c>
       <c r="D69" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E69">
         <v>340.30249999999995</v>
@@ -5876,16 +5876,16 @@
     </row>
     <row r="70" spans="1:33">
       <c r="A70" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C70" s="7">
         <v>43810</v>
       </c>
       <c r="D70" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E70">
         <v>77.259999999999991</v>
@@ -5942,16 +5942,16 @@
     </row>
     <row r="71" spans="1:33">
       <c r="A71" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C71" s="7">
         <v>43852</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E71">
         <v>258.74250000000001</v>
@@ -6034,16 +6034,16 @@
     </row>
     <row r="72" spans="1:33">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C72" s="7">
         <v>43822</v>
       </c>
       <c r="D72" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E72">
         <v>177.88</v>
@@ -6106,16 +6106,16 @@
     </row>
     <row r="73" spans="1:33">
       <c r="A73" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C73" s="7">
         <v>43795</v>
       </c>
       <c r="D73" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E73">
         <v>31.502499999999998</v>
@@ -6162,16 +6162,16 @@
     </row>
     <row r="74" spans="1:33">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C74" s="7">
         <v>43817</v>
       </c>
       <c r="D74" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E74">
         <v>73.78</v>
@@ -6234,16 +6234,16 @@
     </row>
     <row r="75" spans="1:33">
       <c r="A75" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C75" s="7">
         <v>43810</v>
       </c>
       <c r="D75" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E75">
         <v>68.59</v>
@@ -6306,16 +6306,16 @@
     </row>
     <row r="76" spans="1:33">
       <c r="A76" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C76" s="7">
         <v>43788</v>
       </c>
       <c r="D76" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E76">
         <v>15.4725</v>
@@ -6362,16 +6362,16 @@
     </row>
     <row r="77" spans="1:33">
       <c r="A77" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C77" s="7">
         <v>43845</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E77">
         <v>71.25</v>
@@ -6440,16 +6440,16 @@
     </row>
     <row r="78" spans="1:33">
       <c r="A78" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C78" s="7">
         <v>43817</v>
       </c>
       <c r="D78" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E78">
         <v>119.69749999999999</v>
@@ -6512,16 +6512,16 @@
     </row>
     <row r="79" spans="1:33">
       <c r="A79" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C79" s="7">
         <v>43852</v>
       </c>
       <c r="D79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E79">
         <v>143.11250000000001</v>
@@ -6604,16 +6604,16 @@
     </row>
     <row r="80" spans="1:33">
       <c r="A80" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C80" s="7">
         <v>43795</v>
       </c>
       <c r="D80" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E80">
         <v>45.987500000000004</v>
@@ -6660,16 +6660,16 @@
     </row>
     <row r="81" spans="1:33">
       <c r="A81" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C81" s="7">
         <v>43829</v>
       </c>
       <c r="D81" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E81">
         <v>179.43499999999997</v>
@@ -6722,16 +6722,16 @@
     </row>
     <row r="82" spans="1:33">
       <c r="A82" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C82" s="7">
         <v>43810</v>
       </c>
       <c r="D82" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E82">
         <v>67.272500000000008</v>
@@ -6788,16 +6788,16 @@
     </row>
     <row r="83" spans="1:33">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C83" s="7">
         <v>43852</v>
       </c>
       <c r="D83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E83">
         <v>96.884999999999991</v>
@@ -6880,16 +6880,16 @@
     </row>
     <row r="84" spans="1:33">
       <c r="A84" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B84" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C84" s="7">
         <v>43822</v>
       </c>
       <c r="D84" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E84">
         <v>86.777500000000003</v>
@@ -6952,16 +6952,16 @@
     </row>
     <row r="85" spans="1:33">
       <c r="A85" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C85" s="7">
         <v>43795</v>
       </c>
       <c r="D85" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E85">
         <v>30.85</v>
@@ -7008,16 +7008,16 @@
     </row>
     <row r="86" spans="1:33">
       <c r="A86" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B86" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C86" s="7">
         <v>44182</v>
       </c>
       <c r="D86" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S86" s="9"/>
       <c r="T86" s="9"/>
@@ -7035,16 +7035,16 @@
     </row>
     <row r="87" spans="1:33">
       <c r="A87" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B87" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C87" s="7">
         <v>44201</v>
       </c>
       <c r="D87" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y87">
         <v>39.5</v>
@@ -7077,14 +7077,14 @@
     </row>
     <row r="88" spans="1:33">
       <c r="A88" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B88" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y88">
         <v>39.5</v>
@@ -7107,16 +7107,16 @@
     </row>
     <row r="89" spans="1:33">
       <c r="A89" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B89" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C89" s="7">
         <v>44182</v>
       </c>
       <c r="D89" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AE89">
         <v>5.4</v>
@@ -7131,16 +7131,16 @@
     </row>
     <row r="90" spans="1:33">
       <c r="A90" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B90" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C90" s="7">
         <v>44201</v>
       </c>
       <c r="D90" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y90">
         <v>35</v>
@@ -7173,14 +7173,14 @@
     </row>
     <row r="91" spans="1:33">
       <c r="A91" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B91" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y91">
         <v>35</v>
@@ -7203,16 +7203,16 @@
     </row>
     <row r="92" spans="1:33">
       <c r="A92" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B92" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C92" s="7">
         <v>44182</v>
       </c>
       <c r="D92" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AE92">
         <v>5.15</v>
@@ -7227,16 +7227,16 @@
     </row>
     <row r="93" spans="1:33">
       <c r="A93" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B93" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C93" s="7">
         <v>44201</v>
       </c>
       <c r="D93" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y93">
         <v>40</v>
@@ -7269,14 +7269,14 @@
     </row>
     <row r="94" spans="1:33">
       <c r="A94" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B94" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y94">
         <v>40</v>
@@ -7299,16 +7299,16 @@
     </row>
     <row r="95" spans="1:33">
       <c r="A95" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B95" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C95" s="7">
         <v>44182</v>
       </c>
       <c r="D95" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AE95">
         <v>5.335</v>
@@ -7323,16 +7323,16 @@
     </row>
     <row r="96" spans="1:33">
       <c r="A96" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B96" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C96" s="7">
         <v>44201</v>
       </c>
       <c r="D96" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y96">
         <v>39.25</v>
@@ -7365,14 +7365,14 @@
     </row>
     <row r="97" spans="1:33">
       <c r="A97" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B97" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y97">
         <v>39.25</v>
@@ -7395,16 +7395,16 @@
     </row>
     <row r="98" spans="1:33">
       <c r="A98" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B98" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C98" s="7">
         <v>44182</v>
       </c>
       <c r="D98" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AE98">
         <v>5.8666666666666671</v>
@@ -7419,16 +7419,16 @@
     </row>
     <row r="99" spans="1:33">
       <c r="A99" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B99" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C99" s="7">
         <v>44201</v>
       </c>
       <c r="D99" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y99">
         <v>39.25</v>
@@ -7461,14 +7461,14 @@
     </row>
     <row r="100" spans="1:33">
       <c r="A100" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B100" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y100">
         <v>39.25</v>
@@ -7491,16 +7491,16 @@
     </row>
     <row r="101" spans="1:33">
       <c r="A101" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B101" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C101" s="7">
         <v>44182</v>
       </c>
       <c r="D101" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AE101">
         <v>4.8499999999999996</v>
@@ -7515,16 +7515,16 @@
     </row>
     <row r="102" spans="1:33">
       <c r="A102" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B102" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C102" s="7">
         <v>44201</v>
       </c>
       <c r="D102" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y102">
         <v>38.5</v>
@@ -7557,14 +7557,14 @@
     </row>
     <row r="103" spans="1:33">
       <c r="A103" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B103" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y103">
         <v>38.5</v>
@@ -7587,16 +7587,16 @@
     </row>
     <row r="104" spans="1:33">
       <c r="A104" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B104" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C104" s="7">
         <v>44167</v>
       </c>
       <c r="D104" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y104">
         <v>47</v>
@@ -7629,16 +7629,16 @@
     </row>
     <row r="105" spans="1:33">
       <c r="A105" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B105" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C105" s="7">
         <v>44158</v>
       </c>
       <c r="D105" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y105">
         <v>47</v>
@@ -7671,16 +7671,16 @@
     </row>
     <row r="106" spans="1:33">
       <c r="A106" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B106" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C106" s="7">
         <v>44200</v>
       </c>
       <c r="D106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y106">
         <v>47</v>
@@ -7713,16 +7713,16 @@
     </row>
     <row r="107" spans="1:33">
       <c r="A107" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B107" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C107" s="7">
         <v>44182</v>
       </c>
       <c r="D107" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Y107">
         <v>47</v>
@@ -7755,16 +7755,16 @@
     </row>
     <row r="108" spans="1:33">
       <c r="A108" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B108" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C108" s="7">
         <v>44158</v>
       </c>
       <c r="D108" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y108">
         <v>46</v>
@@ -7797,16 +7797,16 @@
     </row>
     <row r="109" spans="1:33">
       <c r="A109" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B109" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C109" s="7">
         <v>44179</v>
       </c>
       <c r="D109" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Y109">
         <v>46</v>
@@ -7839,16 +7839,16 @@
     </row>
     <row r="110" spans="1:33">
       <c r="A110" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B110" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C110" s="7">
         <v>44166</v>
       </c>
       <c r="D110" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y110">
         <v>46</v>
@@ -7881,16 +7881,16 @@
     </row>
     <row r="111" spans="1:33">
       <c r="A111" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B111" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C111" s="7">
         <v>44200</v>
       </c>
       <c r="D111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y111">
         <v>46</v>
@@ -7923,16 +7923,16 @@
     </row>
     <row r="112" spans="1:33">
       <c r="A112" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B112" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C112" s="7">
         <v>44167</v>
       </c>
       <c r="D112" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y112">
         <v>47</v>
@@ -7965,16 +7965,16 @@
     </row>
     <row r="113" spans="1:33">
       <c r="A113" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B113" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C113" s="7">
         <v>44158</v>
       </c>
       <c r="D113" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y113">
         <v>47</v>
@@ -8007,16 +8007,16 @@
     </row>
     <row r="114" spans="1:33">
       <c r="A114" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B114" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C114" s="7">
         <v>44200</v>
       </c>
       <c r="D114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y114">
         <v>47</v>
@@ -8049,16 +8049,16 @@
     </row>
     <row r="115" spans="1:33">
       <c r="A115" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C115" s="7">
         <v>44182</v>
       </c>
       <c r="D115" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Y115">
         <v>47</v>
@@ -8091,16 +8091,16 @@
     </row>
     <row r="116" spans="1:33">
       <c r="A116" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B116" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C116" s="7">
         <v>44158</v>
       </c>
       <c r="D116" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y116">
         <v>46.5</v>
@@ -8133,16 +8133,16 @@
     </row>
     <row r="117" spans="1:33">
       <c r="A117" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B117" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C117" s="7">
         <v>44167</v>
       </c>
       <c r="D117" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y117">
         <v>46.5</v>
@@ -8175,16 +8175,16 @@
     </row>
     <row r="118" spans="1:33">
       <c r="A118" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B118" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C118" s="7">
         <v>44200</v>
       </c>
       <c r="D118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y118">
         <v>46.5</v>
@@ -8217,16 +8217,16 @@
     </row>
     <row r="119" spans="1:33">
       <c r="A119" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B119" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C119" s="7">
         <v>44182</v>
       </c>
       <c r="D119" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Y119">
         <v>46.5</v>
@@ -8259,16 +8259,16 @@
     </row>
     <row r="120" spans="1:33">
       <c r="A120" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B120" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C120" s="7">
         <v>44179</v>
       </c>
       <c r="D120" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Y120">
         <v>46</v>
@@ -8301,16 +8301,16 @@
     </row>
     <row r="121" spans="1:33">
       <c r="A121" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B121" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C121" s="7">
         <v>44158</v>
       </c>
       <c r="D121" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y121">
         <v>46</v>
@@ -8343,16 +8343,16 @@
     </row>
     <row r="122" spans="1:33">
       <c r="A122" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B122" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C122" s="7">
         <v>44166</v>
       </c>
       <c r="D122" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y122">
         <v>46</v>
@@ -8385,16 +8385,16 @@
     </row>
     <row r="123" spans="1:33">
       <c r="A123" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B123" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C123" s="7">
         <v>44200</v>
       </c>
       <c r="D123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y123">
         <v>46</v>
@@ -8427,16 +8427,16 @@
     </row>
     <row r="124" spans="1:33">
       <c r="A124" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B124" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C124" s="7">
         <v>44158</v>
       </c>
       <c r="D124" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y124">
         <v>47</v>
@@ -8469,16 +8469,16 @@
     </row>
     <row r="125" spans="1:33">
       <c r="A125" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B125" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C125" s="7">
         <v>44167</v>
       </c>
       <c r="D125" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y125">
         <v>47</v>
@@ -8511,16 +8511,16 @@
     </row>
     <row r="126" spans="1:33">
       <c r="A126" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B126" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C126" s="7">
         <v>44182</v>
       </c>
       <c r="D126" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Y126">
         <v>47</v>
@@ -8553,16 +8553,16 @@
     </row>
     <row r="127" spans="1:33">
       <c r="A127" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B127" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C127" s="7">
         <v>44200</v>
       </c>
       <c r="D127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y127">
         <v>47</v>
@@ -8595,16 +8595,16 @@
     </row>
     <row r="128" spans="1:33">
       <c r="A128" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B128" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C128" s="7">
         <v>44117</v>
       </c>
       <c r="D128" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y128">
         <v>57</v>
@@ -8637,16 +8637,16 @@
     </row>
     <row r="129" spans="1:33">
       <c r="A129" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B129" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C129" s="7">
         <v>44155</v>
       </c>
       <c r="D129" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Y129">
         <v>57</v>
@@ -8679,16 +8679,16 @@
     </row>
     <row r="130" spans="1:33">
       <c r="A130" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B130" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C130" s="7">
         <v>44173</v>
       </c>
       <c r="D130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y130">
         <v>57</v>
@@ -8721,16 +8721,16 @@
     </row>
     <row r="131" spans="1:33">
       <c r="A131" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B131" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C131" s="7">
         <v>44146</v>
       </c>
       <c r="D131" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y131">
         <v>57</v>
@@ -8763,16 +8763,16 @@
     </row>
     <row r="132" spans="1:33">
       <c r="A132" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B132" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C132" s="7">
         <v>44117</v>
       </c>
       <c r="D132" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y132">
         <v>48</v>
@@ -8805,16 +8805,16 @@
     </row>
     <row r="133" spans="1:33">
       <c r="A133" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B133" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C133" s="7">
         <v>44169</v>
       </c>
       <c r="D133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y133">
         <v>48</v>
@@ -8847,16 +8847,16 @@
     </row>
     <row r="134" spans="1:33">
       <c r="A134" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B134" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C134" s="7">
         <v>44153</v>
       </c>
       <c r="D134" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Y134">
         <v>48</v>
@@ -8889,16 +8889,16 @@
     </row>
     <row r="135" spans="1:33">
       <c r="A135" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B135" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C135" s="7">
         <v>44144</v>
       </c>
       <c r="D135" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y135">
         <v>48</v>
@@ -8931,16 +8931,16 @@
     </row>
     <row r="136" spans="1:33">
       <c r="A136" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B136" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C136" s="7">
         <v>44117</v>
       </c>
       <c r="D136" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y136">
         <v>58</v>
@@ -8973,16 +8973,16 @@
     </row>
     <row r="137" spans="1:33">
       <c r="A137" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B137" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C137" s="7">
         <v>44175</v>
       </c>
       <c r="D137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y137">
         <v>58</v>
@@ -9015,16 +9015,16 @@
     </row>
     <row r="138" spans="1:33">
       <c r="A138" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B138" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C138" s="7">
         <v>44155</v>
       </c>
       <c r="D138" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Y138">
         <v>58</v>
@@ -9057,16 +9057,16 @@
     </row>
     <row r="139" spans="1:33">
       <c r="A139" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B139" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C139" s="7">
         <v>44146</v>
       </c>
       <c r="D139" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y139">
         <v>58</v>
@@ -9099,16 +9099,16 @@
     </row>
     <row r="140" spans="1:33">
       <c r="A140" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B140" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C140" s="7">
         <v>44117</v>
       </c>
       <c r="D140" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y140">
         <v>50.25</v>
@@ -9141,16 +9141,16 @@
     </row>
     <row r="141" spans="1:33">
       <c r="A141" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B141" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C141" s="7">
         <v>44175</v>
       </c>
       <c r="D141" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y141">
         <v>50.25</v>
@@ -9183,16 +9183,16 @@
     </row>
     <row r="142" spans="1:33">
       <c r="A142" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B142" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C142" s="7">
         <v>44146</v>
       </c>
       <c r="D142" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y142">
         <v>50.25</v>
@@ -9225,16 +9225,16 @@
     </row>
     <row r="143" spans="1:33">
       <c r="A143" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B143" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C143" s="7">
         <v>44153</v>
       </c>
       <c r="D143" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Y143">
         <v>50.25</v>
@@ -9267,16 +9267,16 @@
     </row>
     <row r="144" spans="1:33">
       <c r="A144" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C144" s="7">
         <v>44117</v>
       </c>
       <c r="D144" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y144">
         <v>48</v>
@@ -9309,16 +9309,16 @@
     </row>
     <row r="145" spans="1:33">
       <c r="A145" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B145" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C145" s="7">
         <v>44169</v>
       </c>
       <c r="D145" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y145">
         <v>48</v>
@@ -9351,16 +9351,16 @@
     </row>
     <row r="146" spans="1:33">
       <c r="A146" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B146" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C146" s="7">
         <v>44144</v>
       </c>
       <c r="D146" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y146">
         <v>48</v>
@@ -9393,16 +9393,16 @@
     </row>
     <row r="147" spans="1:33">
       <c r="A147" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B147" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C147" s="7">
         <v>44153</v>
       </c>
       <c r="D147" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Y147">
         <v>48</v>
@@ -9435,16 +9435,16 @@
     </row>
     <row r="148" spans="1:33">
       <c r="A148" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B148" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C148" s="7">
         <v>44117</v>
       </c>
       <c r="D148" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y148">
         <v>49.5</v>
@@ -9477,16 +9477,16 @@
     </row>
     <row r="149" spans="1:33">
       <c r="A149" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B149" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C149" s="7">
         <v>44153</v>
       </c>
       <c r="D149" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Y149">
         <v>49.5</v>
@@ -9519,16 +9519,16 @@
     </row>
     <row r="150" spans="1:33">
       <c r="A150" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B150" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C150" s="7">
         <v>44173</v>
       </c>
       <c r="D150" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y150">
         <v>49.5</v>
@@ -9561,16 +9561,16 @@
     </row>
     <row r="151" spans="1:33">
       <c r="A151" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B151" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C151" s="7">
         <v>44146</v>
       </c>
       <c r="D151" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y151">
         <v>49.5</v>
@@ -9603,10 +9603,10 @@
     </row>
     <row r="152" spans="1:33">
       <c r="A152" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B152" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C152" s="11">
         <v>43790</v>
@@ -9620,10 +9620,10 @@
     </row>
     <row r="153" spans="1:33">
       <c r="A153" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B153" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C153" s="11">
         <v>43790</v>
@@ -9637,10 +9637,10 @@
     </row>
     <row r="154" spans="1:33">
       <c r="A154" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B154" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C154" s="11">
         <v>43790</v>
@@ -9654,10 +9654,10 @@
     </row>
     <row r="155" spans="1:33">
       <c r="A155" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B155" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C155" s="11">
         <v>43796</v>
@@ -9671,10 +9671,10 @@
     </row>
     <row r="156" spans="1:33">
       <c r="A156" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B156" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C156" s="11">
         <v>43796</v>
@@ -9688,10 +9688,10 @@
     </row>
     <row r="157" spans="1:33">
       <c r="A157" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B157" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C157" s="11">
         <v>43796</v>
@@ -9705,10 +9705,10 @@
     </row>
     <row r="158" spans="1:33">
       <c r="A158" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B158" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C158" s="11">
         <v>43802</v>
@@ -9722,10 +9722,10 @@
     </row>
     <row r="159" spans="1:33">
       <c r="A159" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B159" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C159" s="11">
         <v>43802</v>
@@ -9739,10 +9739,10 @@
     </row>
     <row r="160" spans="1:33">
       <c r="A160" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B160" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C160" s="11">
         <v>43802</v>
@@ -9756,10 +9756,10 @@
     </row>
     <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B161" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C161" s="11">
         <v>43808</v>
@@ -9771,10 +9771,10 @@
     </row>
     <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B162" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C162" s="11">
         <v>43809</v>
@@ -9788,10 +9788,10 @@
     </row>
     <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B163" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C163" s="11">
         <v>43809</v>
@@ -9805,10 +9805,10 @@
     </row>
     <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B164" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C164" s="11">
         <v>43809</v>
@@ -9822,10 +9822,10 @@
     </row>
     <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B165" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C165" s="11">
         <v>43810</v>
@@ -9836,10 +9836,10 @@
     </row>
     <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B166" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C166" s="11">
         <v>43816</v>
@@ -9850,10 +9850,10 @@
     </row>
     <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B167" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C167" s="11">
         <v>43816</v>
@@ -9867,10 +9867,10 @@
     </row>
     <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B168" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C168" s="11">
         <v>43816</v>
@@ -9884,10 +9884,10 @@
     </row>
     <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B169" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C169" s="11">
         <v>43832</v>
@@ -9901,10 +9901,10 @@
     </row>
     <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B170" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C170" s="11">
         <v>43832</v>
@@ -9918,10 +9918,10 @@
     </row>
     <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B171" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C171" s="11">
         <v>43832</v>
@@ -9935,10 +9935,10 @@
     </row>
     <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B172" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C172" s="11">
         <v>43838</v>
@@ -9952,10 +9952,10 @@
     </row>
     <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B173" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C173" s="11">
         <v>43838</v>
@@ -9969,10 +9969,10 @@
     </row>
     <row r="174" spans="1:24">
       <c r="A174" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B174" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C174" s="11">
         <v>43838</v>
@@ -9986,10 +9986,10 @@
     </row>
     <row r="175" spans="1:24">
       <c r="A175" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B175" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C175" s="11">
         <v>43851</v>
@@ -10003,10 +10003,10 @@
     </row>
     <row r="176" spans="1:24">
       <c r="A176" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B176" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C176" s="11">
         <v>43851</v>
@@ -10020,10 +10020,10 @@
     </row>
     <row r="177" spans="1:24">
       <c r="A177" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B177" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C177" s="11">
         <v>43851</v>
@@ -10037,10 +10037,10 @@
     </row>
     <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B178" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C178" s="11">
         <v>43809</v>
@@ -10054,10 +10054,10 @@
     </row>
     <row r="179" spans="1:24">
       <c r="A179" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B179" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C179" s="11">
         <v>43816</v>
@@ -10068,10 +10068,10 @@
     </row>
     <row r="180" spans="1:24">
       <c r="A180" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B180" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C180" s="11">
         <v>43832</v>
@@ -10085,10 +10085,10 @@
     </row>
     <row r="181" spans="1:24">
       <c r="A181" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B181" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C181" s="11">
         <v>43832</v>
@@ -10102,10 +10102,10 @@
     </row>
     <row r="182" spans="1:24">
       <c r="A182" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B182" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C182" s="11">
         <v>43832</v>
@@ -10119,10 +10119,10 @@
     </row>
     <row r="183" spans="1:24">
       <c r="A183" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B183" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C183" s="11">
         <v>43838</v>
@@ -10136,10 +10136,10 @@
     </row>
     <row r="184" spans="1:24">
       <c r="A184" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B184" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C184" s="11">
         <v>43838</v>
@@ -10153,10 +10153,10 @@
     </row>
     <row r="185" spans="1:24">
       <c r="A185" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B185" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C185" s="11">
         <v>43838</v>
@@ -10170,10 +10170,10 @@
     </row>
     <row r="186" spans="1:24">
       <c r="A186" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B186" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C186" s="11">
         <v>43839</v>
@@ -10184,10 +10184,10 @@
     </row>
     <row r="187" spans="1:24">
       <c r="A187" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B187" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C187" s="11">
         <v>43851</v>
@@ -10198,10 +10198,10 @@
     </row>
     <row r="188" spans="1:24">
       <c r="A188" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B188" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C188" s="11">
         <v>43851</v>
@@ -10212,10 +10212,10 @@
     </row>
     <row r="189" spans="1:24">
       <c r="A189" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B189" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C189" s="11">
         <v>43851</v>
@@ -10226,10 +10226,10 @@
     </row>
     <row r="190" spans="1:24">
       <c r="A190" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B190" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C190" s="11">
         <v>43859</v>
@@ -10240,10 +10240,10 @@
     </row>
     <row r="191" spans="1:24">
       <c r="A191" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B191" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C191" s="11">
         <v>43859</v>
@@ -10254,10 +10254,10 @@
     </row>
     <row r="192" spans="1:24">
       <c r="A192" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B192" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C192" s="11">
         <v>43859</v>
@@ -10268,10 +10268,10 @@
     </row>
     <row r="193" spans="1:24">
       <c r="A193" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B193" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C193" s="11">
         <v>43875</v>
@@ -10282,10 +10282,10 @@
     </row>
     <row r="194" spans="1:24">
       <c r="A194" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B194" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C194" s="11">
         <v>43875</v>
@@ -10299,10 +10299,10 @@
     </row>
     <row r="195" spans="1:24">
       <c r="A195" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B195" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C195" s="11">
         <v>43875</v>
@@ -10316,10 +10316,10 @@
     </row>
     <row r="196" spans="1:24">
       <c r="A196" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B196" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C196" s="11">
         <v>43859</v>
@@ -10333,10 +10333,10 @@
     </row>
     <row r="197" spans="1:24">
       <c r="A197" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B197" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C197" s="11">
         <v>43859</v>
@@ -10350,10 +10350,10 @@
     </row>
     <row r="198" spans="1:24">
       <c r="A198" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B198" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C198" s="11">
         <v>43859</v>
@@ -10367,10 +10367,10 @@
     </row>
     <row r="199" spans="1:24">
       <c r="A199" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B199" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C199" s="11">
         <v>43875</v>
@@ -10384,10 +10384,10 @@
     </row>
     <row r="200" spans="1:24">
       <c r="A200" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B200" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C200" s="11">
         <v>43875</v>
@@ -10401,10 +10401,10 @@
     </row>
     <row r="201" spans="1:24">
       <c r="A201" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B201" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C201" s="11">
         <v>43875</v>
@@ -10418,10 +10418,10 @@
     </row>
     <row r="202" spans="1:24">
       <c r="A202" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B202" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C202" s="11">
         <v>43889</v>
@@ -10435,10 +10435,10 @@
     </row>
     <row r="203" spans="1:24">
       <c r="A203" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B203" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C203" s="11">
         <v>43889</v>
@@ -10452,10 +10452,10 @@
     </row>
     <row r="204" spans="1:24">
       <c r="A204" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B204" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C204" s="11">
         <v>43889</v>
@@ -10469,10 +10469,10 @@
     </row>
     <row r="205" spans="1:24">
       <c r="A205" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B205" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C205" s="11">
         <v>43903</v>
@@ -10483,10 +10483,10 @@
     </row>
     <row r="206" spans="1:24">
       <c r="A206" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B206" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C206" s="11">
         <v>43903</v>
@@ -10497,10 +10497,10 @@
     </row>
     <row r="207" spans="1:24">
       <c r="A207" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B207" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C207" s="11">
         <v>43903</v>
@@ -10511,10 +10511,10 @@
     </row>
     <row r="208" spans="1:24">
       <c r="A208" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C208" s="11">
         <v>43908</v>
@@ -10525,10 +10525,10 @@
     </row>
     <row r="209" spans="1:24">
       <c r="A209" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B209" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C209" s="11">
         <v>43908</v>
@@ -10539,10 +10539,10 @@
     </row>
     <row r="210" spans="1:24">
       <c r="A210" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B210" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C210" s="11">
         <v>43908</v>
@@ -10553,10 +10553,10 @@
     </row>
     <row r="211" spans="1:24">
       <c r="A211" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B211" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C211" s="11">
         <v>43916</v>
@@ -10567,10 +10567,10 @@
     </row>
     <row r="212" spans="1:24">
       <c r="A212" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B212" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C212" s="11">
         <v>43916</v>
@@ -10581,10 +10581,10 @@
     </row>
     <row r="213" spans="1:24">
       <c r="A213" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B213" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C213" s="11">
         <v>43916</v>
@@ -10595,10 +10595,10 @@
     </row>
     <row r="214" spans="1:24">
       <c r="A214" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B214" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C214" s="7">
         <v>43567</v>
@@ -10610,10 +10610,10 @@
     </row>
     <row r="215" spans="1:24">
       <c r="A215" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B215" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C215" s="7">
         <v>43567</v>
@@ -10625,10 +10625,10 @@
     </row>
     <row r="216" spans="1:24">
       <c r="A216" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B216" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C216" s="7">
         <v>43573</v>
@@ -10640,10 +10640,10 @@
     </row>
     <row r="217" spans="1:24">
       <c r="A217" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B217" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C217" s="7">
         <v>43573</v>
@@ -10655,10 +10655,10 @@
     </row>
     <row r="218" spans="1:24">
       <c r="A218" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B218" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C218" s="7">
         <v>43592</v>
@@ -10670,10 +10670,10 @@
     </row>
     <row r="219" spans="1:24">
       <c r="A219" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B219" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C219" s="7">
         <v>43601</v>
@@ -10685,10 +10685,10 @@
     </row>
     <row r="220" spans="1:24">
       <c r="A220" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B220" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C220" s="7">
         <v>43601</v>
@@ -10700,10 +10700,10 @@
     </row>
     <row r="221" spans="1:24">
       <c r="A221" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B221" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C221" s="7">
         <v>43608</v>
@@ -10715,10 +10715,10 @@
     </row>
     <row r="222" spans="1:24">
       <c r="A222" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B222" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C222" s="7">
         <v>43567</v>
@@ -10730,10 +10730,10 @@
     </row>
     <row r="223" spans="1:24">
       <c r="A223" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B223" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C223" s="7">
         <v>43567</v>
@@ -10745,10 +10745,10 @@
     </row>
     <row r="224" spans="1:24">
       <c r="A224" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B224" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C224" s="7">
         <v>43573</v>
@@ -10760,10 +10760,10 @@
     </row>
     <row r="225" spans="1:24">
       <c r="A225" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B225" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C225" s="7">
         <v>43573</v>
@@ -10775,10 +10775,10 @@
     </row>
     <row r="226" spans="1:24">
       <c r="A226" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B226" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C226" s="7">
         <v>43592</v>
@@ -10790,10 +10790,10 @@
     </row>
     <row r="227" spans="1:24">
       <c r="A227" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B227" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C227" s="7">
         <v>43601</v>
@@ -10805,10 +10805,10 @@
     </row>
     <row r="228" spans="1:24">
       <c r="A228" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B228" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C228" s="7">
         <v>43601</v>
@@ -10820,10 +10820,10 @@
     </row>
     <row r="229" spans="1:24">
       <c r="A229" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B229" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C229" s="7">
         <v>43608</v>
@@ -10835,10 +10835,10 @@
     </row>
     <row r="230" spans="1:24">
       <c r="A230" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B230" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C230" s="17">
         <v>43790</v>
@@ -10852,10 +10852,10 @@
     </row>
     <row r="231" spans="1:24">
       <c r="A231" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B231" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C231" s="17">
         <v>43790</v>
@@ -10869,10 +10869,10 @@
     </row>
     <row r="232" spans="1:24">
       <c r="A232" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B232" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C232" s="17">
         <v>43790</v>
@@ -10886,10 +10886,10 @@
     </row>
     <row r="233" spans="1:24">
       <c r="A233" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B233" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C233" s="17">
         <v>43796</v>
@@ -10900,10 +10900,10 @@
     </row>
     <row r="234" spans="1:24">
       <c r="A234" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B234" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C234" s="17">
         <v>43796</v>
@@ -10914,10 +10914,10 @@
     </row>
     <row r="235" spans="1:24">
       <c r="A235" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B235" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C235" s="17">
         <v>43796</v>
@@ -10931,10 +10931,10 @@
     </row>
     <row r="236" spans="1:24">
       <c r="A236" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B236" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C236" s="17">
         <v>43802</v>
@@ -10948,10 +10948,10 @@
     </row>
     <row r="237" spans="1:24">
       <c r="A237" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B237" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C237" s="17">
         <v>43802</v>
@@ -10965,10 +10965,10 @@
     </row>
     <row r="238" spans="1:24">
       <c r="A238" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B238" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C238" s="17">
         <v>43802</v>
@@ -10982,10 +10982,10 @@
     </row>
     <row r="239" spans="1:24">
       <c r="A239" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B239" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C239" s="17">
         <v>43809</v>
@@ -10999,10 +10999,10 @@
     </row>
     <row r="240" spans="1:24">
       <c r="A240" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B240" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C240" s="17">
         <v>43809</v>
@@ -11016,10 +11016,10 @@
     </row>
     <row r="241" spans="1:24">
       <c r="A241" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B241" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C241" s="17">
         <v>43809</v>
@@ -11033,10 +11033,10 @@
     </row>
     <row r="242" spans="1:24">
       <c r="A242" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B242" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C242" s="17">
         <v>43816</v>
@@ -11047,10 +11047,10 @@
     </row>
     <row r="243" spans="1:24">
       <c r="A243" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B243" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C243" s="17">
         <v>43832</v>
@@ -11064,10 +11064,10 @@
     </row>
     <row r="244" spans="1:24">
       <c r="A244" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B244" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C244" s="17">
         <v>43832</v>
@@ -11081,10 +11081,10 @@
     </row>
     <row r="245" spans="1:24">
       <c r="A245" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B245" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C245" s="17">
         <v>43832</v>
@@ -11098,10 +11098,10 @@
     </row>
     <row r="246" spans="1:24">
       <c r="A246" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B246" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C246" s="17">
         <v>43838</v>
@@ -11115,10 +11115,10 @@
     </row>
     <row r="247" spans="1:24">
       <c r="A247" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B247" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C247" s="17">
         <v>43838</v>
@@ -11132,10 +11132,10 @@
     </row>
     <row r="248" spans="1:24">
       <c r="A248" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B248" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C248" s="17">
         <v>43838</v>
@@ -11149,10 +11149,10 @@
     </row>
     <row r="249" spans="1:24">
       <c r="A249" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B249" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C249" s="17">
         <v>43851</v>
@@ -11166,10 +11166,10 @@
     </row>
     <row r="250" spans="1:24">
       <c r="A250" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B250" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C250" s="17">
         <v>43851</v>
@@ -11183,10 +11183,10 @@
     </row>
     <row r="251" spans="1:24">
       <c r="A251" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B251" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C251" s="17">
         <v>43851</v>
@@ -11200,10 +11200,10 @@
     </row>
     <row r="252" spans="1:24">
       <c r="A252" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B252" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C252" s="17">
         <v>43832</v>
@@ -11217,10 +11217,10 @@
     </row>
     <row r="253" spans="1:24">
       <c r="A253" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B253" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C253" s="17">
         <v>43832</v>
@@ -11234,10 +11234,10 @@
     </row>
     <row r="254" spans="1:24">
       <c r="A254" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B254" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C254" s="17">
         <v>43832</v>
@@ -11251,10 +11251,10 @@
     </row>
     <row r="255" spans="1:24">
       <c r="A255" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B255" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C255" s="17">
         <v>43838</v>
@@ -11268,10 +11268,10 @@
     </row>
     <row r="256" spans="1:24">
       <c r="A256" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B256" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C256" s="17">
         <v>43838</v>
@@ -11285,10 +11285,10 @@
     </row>
     <row r="257" spans="1:24">
       <c r="A257" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B257" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C257" s="17">
         <v>43838</v>
@@ -11302,10 +11302,10 @@
     </row>
     <row r="258" spans="1:24">
       <c r="A258" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B258" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C258" s="17">
         <v>43851</v>
@@ -11319,10 +11319,10 @@
     </row>
     <row r="259" spans="1:24">
       <c r="A259" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B259" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C259" s="17">
         <v>43851</v>
@@ -11336,10 +11336,10 @@
     </row>
     <row r="260" spans="1:24">
       <c r="A260" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B260" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C260" s="17">
         <v>43851</v>
@@ -11353,10 +11353,10 @@
     </row>
     <row r="261" spans="1:24">
       <c r="A261" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B261" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C261" s="17">
         <v>43864</v>
@@ -11370,10 +11370,10 @@
     </row>
     <row r="262" spans="1:24">
       <c r="A262" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B262" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C262" s="17">
         <v>43864</v>
@@ -11387,10 +11387,10 @@
     </row>
     <row r="263" spans="1:24">
       <c r="A263" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B263" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C263" s="17">
         <v>43864</v>
@@ -11404,10 +11404,10 @@
     </row>
     <row r="264" spans="1:24">
       <c r="A264" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B264" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C264" s="17">
         <v>43875</v>
@@ -11421,10 +11421,10 @@
     </row>
     <row r="265" spans="1:24">
       <c r="A265" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B265" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C265" s="17">
         <v>43875</v>
@@ -11438,10 +11438,10 @@
     </row>
     <row r="266" spans="1:24">
       <c r="A266" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B266" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C266" s="17">
         <v>43875</v>
@@ -11455,10 +11455,10 @@
     </row>
     <row r="267" spans="1:24">
       <c r="A267" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B267" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C267" s="17">
         <v>43859</v>
@@ -11472,10 +11472,10 @@
     </row>
     <row r="268" spans="1:24">
       <c r="A268" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B268" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C268" s="17">
         <v>43859</v>
@@ -11489,10 +11489,10 @@
     </row>
     <row r="269" spans="1:24">
       <c r="A269" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B269" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C269" s="17">
         <v>43859</v>
@@ -11506,10 +11506,10 @@
     </row>
     <row r="270" spans="1:24">
       <c r="A270" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B270" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C270" s="17">
         <v>43875</v>
@@ -11523,10 +11523,10 @@
     </row>
     <row r="271" spans="1:24">
       <c r="A271" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B271" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C271" s="17">
         <v>43875</v>
@@ -11540,10 +11540,10 @@
     </row>
     <row r="272" spans="1:24">
       <c r="A272" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B272" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C272" s="17">
         <v>43875</v>
@@ -11557,10 +11557,10 @@
     </row>
     <row r="273" spans="1:24">
       <c r="A273" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B273" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C273" s="17">
         <v>43889</v>
@@ -11574,10 +11574,10 @@
     </row>
     <row r="274" spans="1:24">
       <c r="A274" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B274" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C274" s="17">
         <v>43889</v>
@@ -11591,10 +11591,10 @@
     </row>
     <row r="275" spans="1:24">
       <c r="A275" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B275" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C275" s="17">
         <v>43889</v>
@@ -11608,10 +11608,10 @@
     </row>
     <row r="276" spans="1:24">
       <c r="A276" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B276" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C276" s="17">
         <v>43903</v>
@@ -11625,10 +11625,10 @@
     </row>
     <row r="277" spans="1:24">
       <c r="A277" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B277" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C277" s="17">
         <v>43903</v>
@@ -11642,10 +11642,10 @@
     </row>
     <row r="278" spans="1:24">
       <c r="A278" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B278" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C278" s="17">
         <v>43903</v>
@@ -11659,10 +11659,10 @@
     </row>
     <row r="279" spans="1:24">
       <c r="A279" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B279" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C279" s="18">
         <v>43908</v>
@@ -11676,10 +11676,10 @@
     </row>
     <row r="280" spans="1:24">
       <c r="A280" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B280" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C280" s="18">
         <v>43908</v>
@@ -11693,10 +11693,10 @@
     </row>
     <row r="281" spans="1:24">
       <c r="A281" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B281" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C281" s="18">
         <v>43908</v>
@@ -11710,10 +11710,10 @@
     </row>
     <row r="282" spans="1:24">
       <c r="A282" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B282" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C282" s="18">
         <v>43916</v>
@@ -11727,10 +11727,10 @@
     </row>
     <row r="283" spans="1:24">
       <c r="A283" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B283" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C283" s="18">
         <v>43916</v>
@@ -11744,10 +11744,10 @@
     </row>
     <row r="284" spans="1:24">
       <c r="A284" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B284" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C284" s="18">
         <v>43916</v>

--- a/Prototypes/Mungbean/TOSobserved.xlsx
+++ b/Prototypes/Mungbean/TOSobserved.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C31BBD-FE5D-47AB-A5C7-2E0829F6297A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD3CC35-374F-4161-9E36-CC23DBAE45EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{01D3E681-48EE-4304-AF98-4E94EBE61D53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01D3E681-48EE-4304-AF98-4E94EBE61D53}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -537,6 +537,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -856,20 +859,18 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AL338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F226" sqref="F226"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V298" sqref="V298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="43.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" hidden="1" customWidth="1"/>
-    <col min="4" max="5" width="15.42578125" style="24" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="7" customWidth="1"/>
+    <col min="4" max="5" width="15.42578125" style="24" customWidth="1"/>
     <col min="6" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="24" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="25" max="36" width="9.140625" customWidth="1"/>
+    <col min="10" max="36" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="1" customFormat="1" ht="45">
@@ -879,7 +880,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="23" t="s">
@@ -10875,7 +10876,7 @@
         <v>6.8000000000000007</v>
       </c>
     </row>
-    <row r="219" spans="1:38">
+    <row r="219" spans="1:38" hidden="1">
       <c r="A219" t="s">
         <v>14</v>
       </c>
@@ -10940,7 +10941,7 @@
         <v>4.5500000000000007</v>
       </c>
     </row>
-    <row r="220" spans="1:38">
+    <row r="220" spans="1:38" hidden="1">
       <c r="A220" t="s">
         <v>14</v>
       </c>
@@ -11023,14 +11024,16 @@
         <v>6.35</v>
       </c>
     </row>
-    <row r="221" spans="1:38">
+    <row r="221" spans="1:38" hidden="1">
       <c r="A221" t="s">
         <v>14</v>
       </c>
       <c r="B221" t="s">
         <v>48</v>
       </c>
-      <c r="C221" s="7"/>
+      <c r="C221" s="7">
+        <v>44214</v>
+      </c>
       <c r="E221" s="31"/>
       <c r="F221" t="s">
         <v>67</v>
@@ -11078,7 +11081,9 @@
       <c r="B222" t="s">
         <v>48</v>
       </c>
-      <c r="C222" s="7"/>
+      <c r="C222" s="7">
+        <v>44225</v>
+      </c>
       <c r="E222" s="31"/>
       <c r="F222" t="s">
         <v>12</v>
@@ -11110,6 +11115,13 @@
       <c r="Q222">
         <v>0.37140519622151713</v>
       </c>
+      <c r="V222">
+        <v>1411.2125000000001</v>
+      </c>
+      <c r="W222">
+        <f>310/2</f>
+        <v>155</v>
+      </c>
       <c r="Y222">
         <v>238.18625</v>
       </c>
@@ -11136,7 +11148,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="223" spans="1:38">
+    <row r="223" spans="1:38" hidden="1">
       <c r="A223" t="s">
         <v>14</v>
       </c>
@@ -11200,7 +11212,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="224" spans="1:38">
+    <row r="224" spans="1:38" hidden="1">
       <c r="A224" t="s">
         <v>14</v>
       </c>
@@ -11282,14 +11294,16 @@
         <v>12.049999999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:38">
+    <row r="225" spans="1:38" hidden="1">
       <c r="A225" t="s">
         <v>14</v>
       </c>
       <c r="B225" t="s">
         <v>49</v>
       </c>
-      <c r="C225" s="7"/>
+      <c r="C225" s="7">
+        <v>44210</v>
+      </c>
       <c r="E225" s="31"/>
       <c r="F225" t="s">
         <v>67</v>
@@ -11336,7 +11350,9 @@
       <c r="B226" t="s">
         <v>49</v>
       </c>
-      <c r="C226" s="7"/>
+      <c r="C226" s="7">
+        <v>44225</v>
+      </c>
       <c r="E226" s="31"/>
       <c r="F226" t="s">
         <v>12</v>
@@ -11368,6 +11384,13 @@
       <c r="Q226">
         <v>0.15691388191552219</v>
       </c>
+      <c r="V226">
+        <v>1122.5</v>
+      </c>
+      <c r="W226">
+        <f>167/2</f>
+        <v>83.5</v>
+      </c>
       <c r="Y226">
         <v>208.48166666666668</v>
       </c>
@@ -11394,7 +11417,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="227" spans="1:38">
+    <row r="227" spans="1:38" hidden="1">
       <c r="A227" t="s">
         <v>14</v>
       </c>
@@ -11458,7 +11481,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="228" spans="1:38">
+    <row r="228" spans="1:38" hidden="1">
       <c r="A228" t="s">
         <v>14</v>
       </c>
@@ -11540,14 +11563,16 @@
         <v>5.9249999999999998</v>
       </c>
     </row>
-    <row r="229" spans="1:38">
+    <row r="229" spans="1:38" hidden="1">
       <c r="A229" t="s">
         <v>14</v>
       </c>
       <c r="B229" t="s">
         <v>50</v>
       </c>
-      <c r="C229" s="7"/>
+      <c r="C229" s="7">
+        <v>44214</v>
+      </c>
       <c r="E229" s="31"/>
       <c r="F229" t="s">
         <v>67</v>
@@ -11594,7 +11619,9 @@
       <c r="B230" t="s">
         <v>50</v>
       </c>
-      <c r="C230" s="7"/>
+      <c r="C230" s="7">
+        <v>44232</v>
+      </c>
       <c r="E230" s="31"/>
       <c r="F230" t="s">
         <v>12</v>
@@ -11626,6 +11653,13 @@
       <c r="Q230">
         <v>0.19158441531463238</v>
       </c>
+      <c r="V230">
+        <v>1422.3</v>
+      </c>
+      <c r="W230">
+        <f>261.9/2</f>
+        <v>130.94999999999999</v>
+      </c>
       <c r="Y230">
         <v>211.34375</v>
       </c>
@@ -11652,7 +11686,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="231" spans="1:38">
+    <row r="231" spans="1:38" hidden="1">
       <c r="A231" t="s">
         <v>14</v>
       </c>
@@ -11716,7 +11750,7 @@
         <v>4.335</v>
       </c>
     </row>
-    <row r="232" spans="1:38">
+    <row r="232" spans="1:38" hidden="1">
       <c r="A232" t="s">
         <v>14</v>
       </c>
@@ -11798,14 +11832,16 @@
         <v>6.9249999999999989</v>
       </c>
     </row>
-    <row r="233" spans="1:38">
+    <row r="233" spans="1:38" hidden="1">
       <c r="A233" t="s">
         <v>14</v>
       </c>
       <c r="B233" t="s">
         <v>51</v>
       </c>
-      <c r="C233" s="7"/>
+      <c r="C233" s="7">
+        <v>44214</v>
+      </c>
       <c r="E233" s="31"/>
       <c r="F233" t="s">
         <v>67</v>
@@ -11852,7 +11888,9 @@
       <c r="B234" t="s">
         <v>51</v>
       </c>
-      <c r="C234" s="19"/>
+      <c r="C234" s="7">
+        <v>44232</v>
+      </c>
       <c r="D234" s="30"/>
       <c r="E234" s="37"/>
       <c r="F234" t="s">
@@ -11885,6 +11923,13 @@
       <c r="Q234">
         <v>7.0819146580885062E-2</v>
       </c>
+      <c r="V234">
+        <v>1061.54</v>
+      </c>
+      <c r="W234">
+        <f>297.7/2</f>
+        <v>148.85</v>
+      </c>
       <c r="Y234">
         <v>197.26374999999999</v>
       </c>
@@ -11910,7 +11955,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="235" spans="1:38">
+    <row r="235" spans="1:38" hidden="1">
       <c r="A235" t="s">
         <v>14</v>
       </c>
@@ -11973,7 +12018,7 @@
         <v>4.8666666666666671</v>
       </c>
     </row>
-    <row r="236" spans="1:38">
+    <row r="236" spans="1:38" hidden="1">
       <c r="A236" t="s">
         <v>14</v>
       </c>
@@ -12054,14 +12099,16 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="237" spans="1:38">
+    <row r="237" spans="1:38" hidden="1">
       <c r="A237" t="s">
         <v>14</v>
       </c>
       <c r="B237" t="s">
         <v>52</v>
       </c>
-      <c r="C237" s="19"/>
+      <c r="C237" s="7">
+        <v>44216</v>
+      </c>
       <c r="D237" s="30"/>
       <c r="E237" s="37"/>
       <c r="F237" t="s">
@@ -12108,7 +12155,9 @@
       <c r="B238" t="s">
         <v>52</v>
       </c>
-      <c r="C238" s="19"/>
+      <c r="C238" s="7">
+        <v>44235</v>
+      </c>
       <c r="D238" s="30"/>
       <c r="E238" s="37"/>
       <c r="F238" t="s">
@@ -12141,6 +12190,13 @@
       <c r="Q238">
         <v>0.18331549480837259</v>
       </c>
+      <c r="V238">
+        <v>595</v>
+      </c>
+      <c r="W238">
+        <f>224/2</f>
+        <v>112</v>
+      </c>
       <c r="Y238">
         <v>173.05916666666667</v>
       </c>
@@ -12166,7 +12222,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="239" spans="1:38">
+    <row r="239" spans="1:38" hidden="1">
       <c r="A239" t="s">
         <v>14</v>
       </c>
@@ -12229,7 +12285,7 @@
         <v>3.8499999999999996</v>
       </c>
     </row>
-    <row r="240" spans="1:38">
+    <row r="240" spans="1:38" hidden="1">
       <c r="A240" t="s">
         <v>14</v>
       </c>
@@ -12310,14 +12366,16 @@
         <v>6.0749999999999993</v>
       </c>
     </row>
-    <row r="241" spans="1:38">
+    <row r="241" spans="1:38" hidden="1">
       <c r="A241" t="s">
         <v>14</v>
       </c>
       <c r="B241" t="s">
         <v>53</v>
       </c>
-      <c r="C241" s="19"/>
+      <c r="C241" s="7">
+        <v>44214</v>
+      </c>
       <c r="D241" s="30"/>
       <c r="E241" s="37"/>
       <c r="F241" t="s">
@@ -12364,7 +12422,9 @@
       <c r="B242" t="s">
         <v>53</v>
       </c>
-      <c r="C242" s="19"/>
+      <c r="C242" s="7">
+        <v>44229</v>
+      </c>
       <c r="D242" s="30"/>
       <c r="E242" s="37"/>
       <c r="F242" t="s">
@@ -12397,6 +12457,13 @@
       <c r="Q242">
         <v>0.37906990625783948</v>
       </c>
+      <c r="V242">
+        <v>1155</v>
+      </c>
+      <c r="W242">
+        <f>188.8/2</f>
+        <v>94.4</v>
+      </c>
       <c r="Y242">
         <v>214.46666666666664</v>
       </c>
@@ -12422,7 +12489,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="243" spans="1:38">
+    <row r="243" spans="1:38" hidden="1">
       <c r="A243" t="s">
         <v>14</v>
       </c>
@@ -12503,7 +12570,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="244" spans="1:38">
+    <row r="244" spans="1:38" hidden="1">
       <c r="A244" t="s">
         <v>14</v>
       </c>
@@ -12592,7 +12659,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="245" spans="1:38">
+    <row r="245" spans="1:38" hidden="1">
       <c r="A245" t="s">
         <v>14</v>
       </c>
@@ -12719,6 +12786,13 @@
       <c r="Q246">
         <v>0.26160615917091551</v>
       </c>
+      <c r="V246">
+        <v>924.65</v>
+      </c>
+      <c r="W246">
+        <f>333.8/2</f>
+        <v>166.9</v>
+      </c>
       <c r="Y246">
         <v>228.15583333333333</v>
       </c>
@@ -12754,7 +12828,7 @@
         <v>11.95</v>
       </c>
     </row>
-    <row r="247" spans="1:38">
+    <row r="247" spans="1:38" hidden="1">
       <c r="A247" t="s">
         <v>14</v>
       </c>
@@ -12835,7 +12909,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="248" spans="1:38">
+    <row r="248" spans="1:38" hidden="1">
       <c r="A248" t="s">
         <v>14</v>
       </c>
@@ -12924,7 +12998,7 @@
         <v>6.8000000000000007</v>
       </c>
     </row>
-    <row r="249" spans="1:38">
+    <row r="249" spans="1:38" hidden="1">
       <c r="A249" t="s">
         <v>14</v>
       </c>
@@ -13051,6 +13125,13 @@
       <c r="Q250">
         <v>0.24229176713436737</v>
       </c>
+      <c r="V250">
+        <v>623.48</v>
+      </c>
+      <c r="W250">
+        <f>136.3/2</f>
+        <v>68.150000000000006</v>
+      </c>
       <c r="Y250">
         <v>252.66833333333332</v>
       </c>
@@ -13086,7 +13167,7 @@
         <v>13.25</v>
       </c>
     </row>
-    <row r="251" spans="1:38">
+    <row r="251" spans="1:38" hidden="1">
       <c r="A251" t="s">
         <v>14</v>
       </c>
@@ -13167,7 +13248,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="252" spans="1:38">
+    <row r="252" spans="1:38" hidden="1">
       <c r="A252" t="s">
         <v>14</v>
       </c>
@@ -13256,7 +13337,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="253" spans="1:38">
+    <row r="253" spans="1:38" hidden="1">
       <c r="A253" t="s">
         <v>14</v>
       </c>
@@ -13383,6 +13464,13 @@
       <c r="Q254">
         <v>0.26204290201678598</v>
       </c>
+      <c r="V254">
+        <v>857.1</v>
+      </c>
+      <c r="W254">
+        <f>330.6/2</f>
+        <v>165.3</v>
+      </c>
       <c r="Y254">
         <v>184.96333333333334</v>
       </c>
@@ -13418,7 +13506,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="255" spans="1:38">
+    <row r="255" spans="1:38" hidden="1">
       <c r="A255" t="s">
         <v>14</v>
       </c>
@@ -13499,7 +13587,7 @@
         <v>5.3666666666666671</v>
       </c>
     </row>
-    <row r="256" spans="1:38">
+    <row r="256" spans="1:38" hidden="1">
       <c r="A256" t="s">
         <v>14</v>
       </c>
@@ -13588,7 +13676,7 @@
         <v>5.5500000000000007</v>
       </c>
     </row>
-    <row r="257" spans="1:38">
+    <row r="257" spans="1:38" hidden="1">
       <c r="A257" t="s">
         <v>14</v>
       </c>
@@ -13715,6 +13803,13 @@
       <c r="Q258">
         <v>0.23887717611423617</v>
       </c>
+      <c r="V258">
+        <v>792.7</v>
+      </c>
+      <c r="W258">
+        <f>51/2</f>
+        <v>25.5</v>
+      </c>
       <c r="Y258">
         <v>226.27875000000003</v>
       </c>
@@ -13750,7 +13845,7 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="259" spans="1:38">
+    <row r="259" spans="1:38" hidden="1">
       <c r="A259" t="s">
         <v>14</v>
       </c>
@@ -13831,7 +13926,7 @@
         <v>7.3000000000000007</v>
       </c>
     </row>
-    <row r="260" spans="1:38">
+    <row r="260" spans="1:38" hidden="1">
       <c r="A260" t="s">
         <v>14</v>
       </c>
@@ -13920,7 +14015,7 @@
         <v>7.35</v>
       </c>
     </row>
-    <row r="261" spans="1:38">
+    <row r="261" spans="1:38" hidden="1">
       <c r="A261" t="s">
         <v>14</v>
       </c>
@@ -14047,6 +14142,13 @@
       <c r="Q262">
         <v>0.30976277716391826</v>
       </c>
+      <c r="V262">
+        <v>595</v>
+      </c>
+      <c r="W262">
+        <f>224/2</f>
+        <v>112</v>
+      </c>
       <c r="Y262">
         <v>181.26958333333334</v>
       </c>
@@ -14082,7 +14184,7 @@
         <v>14.59</v>
       </c>
     </row>
-    <row r="263" spans="1:38">
+    <row r="263" spans="1:38" hidden="1">
       <c r="A263" t="s">
         <v>14</v>
       </c>
@@ -14163,7 +14265,7 @@
         <v>5.4499999999999993</v>
       </c>
     </row>
-    <row r="264" spans="1:38">
+    <row r="264" spans="1:38" hidden="1">
       <c r="A264" t="s">
         <v>14</v>
       </c>
@@ -14252,7 +14354,7 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="265" spans="1:38">
+    <row r="265" spans="1:38" hidden="1">
       <c r="A265" t="s">
         <v>14</v>
       </c>
@@ -14379,6 +14481,13 @@
       <c r="Q266">
         <v>0.339017721945647</v>
       </c>
+      <c r="V266">
+        <v>642.5</v>
+      </c>
+      <c r="W266">
+        <f>305/2</f>
+        <v>152.5</v>
+      </c>
       <c r="Y266">
         <v>209.36958333333334</v>
       </c>
@@ -14414,7 +14523,7 @@
         <v>11.324999999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:38">
+    <row r="267" spans="1:38" hidden="1">
       <c r="A267" t="s">
         <v>14</v>
       </c>
@@ -14495,7 +14604,7 @@
         <v>3.1500000000000004</v>
       </c>
     </row>
-    <row r="268" spans="1:38">
+    <row r="268" spans="1:38" hidden="1">
       <c r="A268" t="s">
         <v>14</v>
       </c>
@@ -14584,7 +14693,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="269" spans="1:38">
+    <row r="269" spans="1:38" hidden="1">
       <c r="A269" t="s">
         <v>14</v>
       </c>
@@ -14711,6 +14820,13 @@
       <c r="Q270">
         <v>0.18292425517668898</v>
       </c>
+      <c r="V270">
+        <v>863.1</v>
+      </c>
+      <c r="W270">
+        <f>412/2</f>
+        <v>206</v>
+      </c>
       <c r="Y270">
         <v>114.59750000000001</v>
       </c>
@@ -14746,7 +14862,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="271" spans="1:38">
+    <row r="271" spans="1:38" hidden="1">
       <c r="A271" t="s">
         <v>14</v>
       </c>
@@ -14827,7 +14943,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="272" spans="1:38">
+    <row r="272" spans="1:38" hidden="1">
       <c r="A272" t="s">
         <v>14</v>
       </c>
@@ -14916,7 +15032,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="273" spans="1:38">
+    <row r="273" spans="1:38" hidden="1">
       <c r="A273" t="s">
         <v>14</v>
       </c>
@@ -15043,6 +15159,13 @@
       <c r="Q274">
         <v>0.15193507160190126</v>
       </c>
+      <c r="V274">
+        <v>534.9</v>
+      </c>
+      <c r="W274">
+        <f>202/2</f>
+        <v>101</v>
+      </c>
       <c r="Y274">
         <v>123.38000000000001</v>
       </c>
@@ -15078,7 +15201,7 @@
         <v>13.8125</v>
       </c>
     </row>
-    <row r="275" spans="1:38">
+    <row r="275" spans="1:38" hidden="1">
       <c r="A275" t="s">
         <v>14</v>
       </c>
@@ -15159,7 +15282,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="276" spans="1:38">
+    <row r="276" spans="1:38" hidden="1">
       <c r="A276" t="s">
         <v>14</v>
       </c>
@@ -15248,7 +15371,7 @@
         <v>7.2000000000000011</v>
       </c>
     </row>
-    <row r="277" spans="1:38">
+    <row r="277" spans="1:38" hidden="1">
       <c r="A277" t="s">
         <v>14</v>
       </c>
@@ -15375,6 +15498,13 @@
       <c r="Q278">
         <v>0.25443084816614792</v>
       </c>
+      <c r="V278">
+        <v>839.6</v>
+      </c>
+      <c r="W278">
+        <f>410.4/2</f>
+        <v>205.2</v>
+      </c>
       <c r="Y278">
         <v>118.7325</v>
       </c>
@@ -15410,7 +15540,7 @@
         <v>11.15</v>
       </c>
     </row>
-    <row r="279" spans="1:38">
+    <row r="279" spans="1:38" hidden="1">
       <c r="A279" t="s">
         <v>14</v>
       </c>
@@ -15491,7 +15621,7 @@
         <v>2.7249999999999996</v>
       </c>
     </row>
-    <row r="280" spans="1:38">
+    <row r="280" spans="1:38" hidden="1">
       <c r="A280" t="s">
         <v>14</v>
       </c>
@@ -15580,7 +15710,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="281" spans="1:38">
+    <row r="281" spans="1:38" hidden="1">
       <c r="A281" t="s">
         <v>14</v>
       </c>
@@ -15707,6 +15837,13 @@
       <c r="Q282">
         <v>0.35198847194728033</v>
       </c>
+      <c r="V282">
+        <v>764.3</v>
+      </c>
+      <c r="W282">
+        <f>384.4/2</f>
+        <v>192.2</v>
+      </c>
       <c r="Y282">
         <v>101.39500000000001</v>
       </c>
@@ -15742,7 +15879,7 @@
         <v>11.55</v>
       </c>
     </row>
-    <row r="283" spans="1:38">
+    <row r="283" spans="1:38" hidden="1">
       <c r="A283" t="s">
         <v>14</v>
       </c>
@@ -15823,7 +15960,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="284" spans="1:38">
+    <row r="284" spans="1:38" hidden="1">
       <c r="A284" t="s">
         <v>14</v>
       </c>
@@ -15912,7 +16049,7 @@
         <v>7.375</v>
       </c>
     </row>
-    <row r="285" spans="1:38">
+    <row r="285" spans="1:38" hidden="1">
       <c r="A285" t="s">
         <v>14</v>
       </c>
@@ -16039,6 +16176,13 @@
       <c r="Q286">
         <v>0.21940645519328292</v>
       </c>
+      <c r="V286">
+        <v>626.5</v>
+      </c>
+      <c r="W286">
+        <f>213.5/2</f>
+        <v>106.75</v>
+      </c>
       <c r="Y286">
         <v>92.972499999999997</v>
       </c>
@@ -16074,7 +16218,7 @@
         <v>13.825000000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:38">
+    <row r="287" spans="1:38" hidden="1">
       <c r="A287" t="s">
         <v>14</v>
       </c>
@@ -16155,7 +16299,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="288" spans="1:38">
+    <row r="288" spans="1:38" hidden="1">
       <c r="A288" t="s">
         <v>14</v>
       </c>
@@ -16244,7 +16388,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="289" spans="1:38">
+    <row r="289" spans="1:38" hidden="1">
       <c r="A289" t="s">
         <v>14</v>
       </c>
@@ -16371,6 +16515,13 @@
       <c r="Q290">
         <v>0.12858285098420077</v>
       </c>
+      <c r="V290">
+        <v>877.6</v>
+      </c>
+      <c r="W290">
+        <f>111.5/2</f>
+        <v>55.75</v>
+      </c>
       <c r="Y290">
         <v>152.08999999999997</v>
       </c>
@@ -16406,13 +16557,16 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="291" spans="1:38">
+    <row r="291" spans="1:38" hidden="1">
       <c r="A291" t="s">
         <v>14</v>
       </c>
       <c r="B291" t="s">
         <v>86</v>
       </c>
+      <c r="C291" s="7">
+        <v>44280</v>
+      </c>
       <c r="F291" t="s">
         <v>68</v>
       </c>
@@ -16450,13 +16604,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:38">
+    <row r="292" spans="1:38" hidden="1">
       <c r="A292" t="s">
         <v>14</v>
       </c>
       <c r="B292" t="s">
         <v>86</v>
       </c>
+      <c r="C292" s="7">
+        <v>44292</v>
+      </c>
       <c r="F292" t="s">
         <v>66</v>
       </c>
@@ -16494,13 +16651,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:38">
+    <row r="293" spans="1:38" hidden="1">
       <c r="A293" t="s">
         <v>14</v>
       </c>
       <c r="B293" t="s">
         <v>86</v>
       </c>
+      <c r="C293" s="7">
+        <v>44307</v>
+      </c>
       <c r="F293" t="s">
         <v>67</v>
       </c>
@@ -16538,13 +16698,16 @@
         <v>1.1159030349153662</v>
       </c>
     </row>
-    <row r="294" spans="1:38">
+    <row r="294" spans="1:38" hidden="1">
       <c r="A294" t="s">
         <v>14</v>
       </c>
       <c r="B294" t="s">
         <v>86</v>
       </c>
+      <c r="C294" s="7">
+        <v>44333</v>
+      </c>
       <c r="F294" t="s">
         <v>12</v>
       </c>
@@ -16575,6 +16738,13 @@
       <c r="Q294">
         <v>0.28430733360165567</v>
       </c>
+      <c r="V294">
+        <v>1819</v>
+      </c>
+      <c r="W294">
+        <f>87.4/2</f>
+        <v>43.7</v>
+      </c>
       <c r="Y294">
         <v>305.72749999999996</v>
       </c>
@@ -16582,13 +16752,16 @@
         <v>19.981315178185927</v>
       </c>
     </row>
-    <row r="295" spans="1:38">
+    <row r="295" spans="1:38" hidden="1">
       <c r="A295" t="s">
         <v>14</v>
       </c>
       <c r="B295" t="s">
         <v>87</v>
       </c>
+      <c r="C295" s="7">
+        <v>44280</v>
+      </c>
       <c r="F295" t="s">
         <v>68</v>
       </c>
@@ -16626,13 +16799,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:38">
+    <row r="296" spans="1:38" hidden="1">
       <c r="A296" t="s">
         <v>14</v>
       </c>
       <c r="B296" t="s">
         <v>87</v>
       </c>
+      <c r="C296" s="7">
+        <v>44292</v>
+      </c>
       <c r="F296" t="s">
         <v>66</v>
       </c>
@@ -16670,13 +16846,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:38">
+    <row r="297" spans="1:38" hidden="1">
       <c r="A297" t="s">
         <v>14</v>
       </c>
       <c r="B297" t="s">
         <v>87</v>
       </c>
+      <c r="C297" s="7">
+        <v>44307</v>
+      </c>
       <c r="F297" t="s">
         <v>67</v>
       </c>
@@ -16721,6 +16900,9 @@
       <c r="B298" t="s">
         <v>87</v>
       </c>
+      <c r="C298" s="7">
+        <v>44336</v>
+      </c>
       <c r="F298" t="s">
         <v>12</v>
       </c>
@@ -16751,6 +16933,13 @@
       <c r="Q298">
         <v>0.13443861621855505</v>
       </c>
+      <c r="V298">
+        <v>1488</v>
+      </c>
+      <c r="W298">
+        <f>275/2</f>
+        <v>137.5</v>
+      </c>
       <c r="Y298">
         <v>238.78749999999999</v>
       </c>
@@ -16758,13 +16947,16 @@
         <v>25.523318908438497</v>
       </c>
     </row>
-    <row r="299" spans="1:38">
+    <row r="299" spans="1:38" hidden="1">
       <c r="A299" t="s">
         <v>14</v>
       </c>
       <c r="B299" t="s">
         <v>88</v>
       </c>
+      <c r="C299" s="7">
+        <v>44280</v>
+      </c>
       <c r="F299" t="s">
         <v>68</v>
       </c>
@@ -16802,13 +16994,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:38">
+    <row r="300" spans="1:38" hidden="1">
       <c r="A300" t="s">
         <v>14</v>
       </c>
       <c r="B300" t="s">
         <v>88</v>
       </c>
+      <c r="C300" s="7">
+        <v>44292</v>
+      </c>
       <c r="F300" t="s">
         <v>66</v>
       </c>
@@ -16846,13 +17041,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:38">
+    <row r="301" spans="1:38" hidden="1">
       <c r="A301" t="s">
         <v>14</v>
       </c>
       <c r="B301" t="s">
         <v>88</v>
       </c>
+      <c r="C301" s="7">
+        <v>44309</v>
+      </c>
       <c r="F301" t="s">
         <v>67</v>
       </c>
@@ -16897,6 +17095,9 @@
       <c r="B302" t="s">
         <v>88</v>
       </c>
+      <c r="C302" s="7">
+        <v>44340</v>
+      </c>
       <c r="F302" t="s">
         <v>12</v>
       </c>
@@ -16927,6 +17128,13 @@
       <c r="Q302">
         <v>0.21671755749592439</v>
       </c>
+      <c r="V302">
+        <v>1678</v>
+      </c>
+      <c r="W302">
+        <f>287.6/2</f>
+        <v>143.80000000000001</v>
+      </c>
       <c r="Y302">
         <v>247.53625</v>
       </c>
@@ -16934,13 +17142,16 @@
         <v>5.2749446361410799</v>
       </c>
     </row>
-    <row r="303" spans="1:38">
+    <row r="303" spans="1:38" hidden="1">
       <c r="A303" t="s">
         <v>14</v>
       </c>
       <c r="B303" t="s">
         <v>89</v>
       </c>
+      <c r="C303" s="7">
+        <v>44280</v>
+      </c>
       <c r="F303" t="s">
         <v>68</v>
       </c>
@@ -16978,13 +17189,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:38">
+    <row r="304" spans="1:38" hidden="1">
       <c r="A304" t="s">
         <v>14</v>
       </c>
       <c r="B304" t="s">
         <v>89</v>
       </c>
+      <c r="C304" s="7">
+        <v>44292</v>
+      </c>
       <c r="F304" t="s">
         <v>66</v>
       </c>
@@ -17022,13 +17236,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:26">
+    <row r="305" spans="1:26" hidden="1">
       <c r="A305" t="s">
         <v>14</v>
       </c>
       <c r="B305" t="s">
         <v>89</v>
       </c>
+      <c r="C305" s="7">
+        <v>44309</v>
+      </c>
       <c r="F305" t="s">
         <v>67</v>
       </c>
@@ -17073,6 +17290,9 @@
       <c r="B306" t="s">
         <v>89</v>
       </c>
+      <c r="C306" s="7">
+        <v>44336</v>
+      </c>
       <c r="F306" t="s">
         <v>12</v>
       </c>
@@ -17103,6 +17323,13 @@
       <c r="Q306">
         <v>0.25217879221598083</v>
       </c>
+      <c r="V306">
+        <v>1347</v>
+      </c>
+      <c r="W306">
+        <f>289/2</f>
+        <v>144.5</v>
+      </c>
       <c r="Y306">
         <v>251.11666666666662</v>
       </c>
@@ -17110,13 +17337,16 @@
         <v>30.747951121142297</v>
       </c>
     </row>
-    <row r="307" spans="1:26">
+    <row r="307" spans="1:26" hidden="1">
       <c r="A307" t="s">
         <v>14</v>
       </c>
       <c r="B307" t="s">
         <v>90</v>
       </c>
+      <c r="C307" s="7">
+        <v>44280</v>
+      </c>
       <c r="F307" t="s">
         <v>68</v>
       </c>
@@ -17154,13 +17384,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:26">
+    <row r="308" spans="1:26" hidden="1">
       <c r="A308" t="s">
         <v>14</v>
       </c>
       <c r="B308" t="s">
         <v>90</v>
       </c>
+      <c r="C308" s="7">
+        <v>44292</v>
+      </c>
       <c r="F308" t="s">
         <v>66</v>
       </c>
@@ -17198,13 +17431,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:26">
+    <row r="309" spans="1:26" hidden="1">
       <c r="A309" t="s">
         <v>14</v>
       </c>
       <c r="B309" t="s">
         <v>90</v>
       </c>
+      <c r="C309" s="7">
+        <v>44316</v>
+      </c>
       <c r="F309" t="s">
         <v>67</v>
       </c>
@@ -17249,6 +17485,9 @@
       <c r="B310" t="s">
         <v>90</v>
       </c>
+      <c r="C310" s="7">
+        <v>44340</v>
+      </c>
       <c r="F310" t="s">
         <v>12</v>
       </c>
@@ -17279,6 +17518,13 @@
       <c r="Q310">
         <v>0.46930046610728415</v>
       </c>
+      <c r="V310">
+        <v>1111</v>
+      </c>
+      <c r="W310">
+        <f>307.2/2</f>
+        <v>153.6</v>
+      </c>
       <c r="Y310">
         <v>193.07416666666668</v>
       </c>
@@ -17286,13 +17532,16 @@
         <v>25.765741920483489</v>
       </c>
     </row>
-    <row r="311" spans="1:26">
+    <row r="311" spans="1:26" hidden="1">
       <c r="A311" t="s">
         <v>14</v>
       </c>
       <c r="B311" t="s">
         <v>91</v>
       </c>
+      <c r="C311" s="7">
+        <v>44280</v>
+      </c>
       <c r="F311" t="s">
         <v>68</v>
       </c>
@@ -17330,13 +17579,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:26">
+    <row r="312" spans="1:26" hidden="1">
       <c r="A312" t="s">
         <v>14</v>
       </c>
       <c r="B312" t="s">
         <v>91</v>
       </c>
+      <c r="C312" s="7">
+        <v>44292</v>
+      </c>
       <c r="F312" t="s">
         <v>66</v>
       </c>
@@ -17374,13 +17626,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:26">
+    <row r="313" spans="1:26" hidden="1">
       <c r="A313" t="s">
         <v>14</v>
       </c>
       <c r="B313" t="s">
         <v>91</v>
       </c>
+      <c r="C313" s="7">
+        <v>44309</v>
+      </c>
       <c r="F313" t="s">
         <v>67</v>
       </c>
@@ -17425,6 +17680,9 @@
       <c r="B314" t="s">
         <v>91</v>
       </c>
+      <c r="C314" s="7">
+        <v>44340</v>
+      </c>
       <c r="F314" t="s">
         <v>12</v>
       </c>
@@ -17455,6 +17713,13 @@
       <c r="Q314">
         <v>0.37863698360559983</v>
       </c>
+      <c r="V314">
+        <v>1157</v>
+      </c>
+      <c r="W314">
+        <f>255.3/2</f>
+        <v>127.65</v>
+      </c>
       <c r="Y314">
         <v>181.91583333333332</v>
       </c>
@@ -17462,13 +17727,16 @@
         <v>21.196272061510136</v>
       </c>
     </row>
-    <row r="315" spans="1:26">
+    <row r="315" spans="1:26" hidden="1">
       <c r="A315" t="s">
         <v>14</v>
       </c>
       <c r="B315" t="s">
         <v>92</v>
       </c>
+      <c r="C315" s="7">
+        <v>44242</v>
+      </c>
       <c r="F315" t="s">
         <v>68</v>
       </c>
@@ -17506,13 +17774,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:26">
+    <row r="316" spans="1:26" hidden="1">
       <c r="A316" t="s">
         <v>14</v>
       </c>
       <c r="B316" t="s">
         <v>92</v>
       </c>
+      <c r="C316" s="7">
+        <v>44250</v>
+      </c>
       <c r="F316" t="s">
         <v>66</v>
       </c>
@@ -17550,13 +17821,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:26">
+    <row r="317" spans="1:26" hidden="1">
       <c r="A317" t="s">
         <v>14</v>
       </c>
       <c r="B317" t="s">
         <v>92</v>
       </c>
+      <c r="C317" s="7">
+        <v>44263</v>
+      </c>
       <c r="F317" t="s">
         <v>67</v>
       </c>
@@ -17601,6 +17875,9 @@
       <c r="B318" t="s">
         <v>92</v>
       </c>
+      <c r="C318" s="7">
+        <v>44281</v>
+      </c>
       <c r="F318" t="s">
         <v>12</v>
       </c>
@@ -17631,6 +17908,13 @@
       <c r="Q318">
         <v>0.20885329505485128</v>
       </c>
+      <c r="V318">
+        <v>1503</v>
+      </c>
+      <c r="W318">
+        <f>383/2</f>
+        <v>191.5</v>
+      </c>
       <c r="Y318">
         <v>168.46416666666667</v>
       </c>
@@ -17638,13 +17922,16 @@
         <v>15.757838400771089</v>
       </c>
     </row>
-    <row r="319" spans="1:26">
+    <row r="319" spans="1:26" hidden="1">
       <c r="A319" t="s">
         <v>14</v>
       </c>
       <c r="B319" t="s">
         <v>93</v>
       </c>
+      <c r="C319" s="7">
+        <v>44242</v>
+      </c>
       <c r="F319" t="s">
         <v>68</v>
       </c>
@@ -17682,13 +17969,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:26">
+    <row r="320" spans="1:26" hidden="1">
       <c r="A320" t="s">
         <v>14</v>
       </c>
       <c r="B320" t="s">
         <v>93</v>
       </c>
+      <c r="C320" s="7">
+        <v>44250</v>
+      </c>
       <c r="F320" t="s">
         <v>66</v>
       </c>
@@ -17726,13 +18016,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:26">
+    <row r="321" spans="1:26" hidden="1">
       <c r="A321" t="s">
         <v>14</v>
       </c>
       <c r="B321" t="s">
         <v>93</v>
       </c>
+      <c r="C321" s="7">
+        <v>44259</v>
+      </c>
       <c r="F321" t="s">
         <v>67</v>
       </c>
@@ -17777,6 +18070,9 @@
       <c r="B322" t="s">
         <v>93</v>
       </c>
+      <c r="C322" s="7">
+        <v>44281</v>
+      </c>
       <c r="F322" t="s">
         <v>12</v>
       </c>
@@ -17807,6 +18103,13 @@
       <c r="Q322">
         <v>0.285520293521349</v>
       </c>
+      <c r="V322">
+        <v>1575</v>
+      </c>
+      <c r="W322">
+        <f>366/2</f>
+        <v>183</v>
+      </c>
       <c r="Y322">
         <v>156.185</v>
       </c>
@@ -17814,13 +18117,16 @@
         <v>29.401922981328966</v>
       </c>
     </row>
-    <row r="323" spans="1:26">
+    <row r="323" spans="1:26" hidden="1">
       <c r="A323" t="s">
         <v>14</v>
       </c>
       <c r="B323" t="s">
         <v>94</v>
       </c>
+      <c r="C323" s="7">
+        <v>44242</v>
+      </c>
       <c r="F323" t="s">
         <v>68</v>
       </c>
@@ -17858,13 +18164,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:26">
+    <row r="324" spans="1:26" hidden="1">
       <c r="A324" t="s">
         <v>14</v>
       </c>
       <c r="B324" t="s">
         <v>94</v>
       </c>
+      <c r="C324" s="7">
+        <v>44250</v>
+      </c>
       <c r="F324" t="s">
         <v>66</v>
       </c>
@@ -17902,13 +18211,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:26">
+    <row r="325" spans="1:26" hidden="1">
       <c r="A325" t="s">
         <v>14</v>
       </c>
       <c r="B325" t="s">
         <v>94</v>
       </c>
+      <c r="C325" s="7">
+        <v>44264</v>
+      </c>
       <c r="F325" t="s">
         <v>67</v>
       </c>
@@ -17953,6 +18265,9 @@
       <c r="B326" t="s">
         <v>94</v>
       </c>
+      <c r="C326" s="7">
+        <v>44286</v>
+      </c>
       <c r="F326" t="s">
         <v>12</v>
       </c>
@@ -17983,6 +18298,13 @@
       <c r="Q326">
         <v>0.34833275077169285</v>
       </c>
+      <c r="V326">
+        <v>1597</v>
+      </c>
+      <c r="W326">
+        <f>362/2</f>
+        <v>181</v>
+      </c>
       <c r="Y326">
         <v>192.4375</v>
       </c>
@@ -17990,13 +18312,16 @@
         <v>50.899819059836311</v>
       </c>
     </row>
-    <row r="327" spans="1:26">
+    <row r="327" spans="1:26" hidden="1">
       <c r="A327" t="s">
         <v>14</v>
       </c>
       <c r="B327" t="s">
         <v>95</v>
       </c>
+      <c r="C327" s="7">
+        <v>44242</v>
+      </c>
       <c r="F327" t="s">
         <v>68</v>
       </c>
@@ -18034,13 +18359,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:26">
+    <row r="328" spans="1:26" hidden="1">
       <c r="A328" t="s">
         <v>14</v>
       </c>
       <c r="B328" t="s">
         <v>95</v>
       </c>
+      <c r="C328" s="7">
+        <v>44250</v>
+      </c>
       <c r="F328" t="s">
         <v>66</v>
       </c>
@@ -18078,13 +18406,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:26">
+    <row r="329" spans="1:26" hidden="1">
       <c r="A329" t="s">
         <v>14</v>
       </c>
       <c r="B329" t="s">
         <v>95</v>
       </c>
+      <c r="C329" s="7">
+        <v>44264</v>
+      </c>
       <c r="F329" t="s">
         <v>67</v>
       </c>
@@ -18129,6 +18460,9 @@
       <c r="B330" t="s">
         <v>95</v>
       </c>
+      <c r="C330" s="7">
+        <v>44286</v>
+      </c>
       <c r="F330" t="s">
         <v>12</v>
       </c>
@@ -18159,6 +18493,13 @@
       <c r="Q330">
         <v>0.76296336507168472</v>
       </c>
+      <c r="V330">
+        <v>1534</v>
+      </c>
+      <c r="W330">
+        <f>442.4/2</f>
+        <v>221.2</v>
+      </c>
       <c r="Y330">
         <v>203.17</v>
       </c>
@@ -18166,13 +18507,16 @@
         <v>24.558059135821743</v>
       </c>
     </row>
-    <row r="331" spans="1:26">
+    <row r="331" spans="1:26" hidden="1">
       <c r="A331" t="s">
         <v>14</v>
       </c>
       <c r="B331" t="s">
         <v>96</v>
       </c>
+      <c r="C331" s="7">
+        <v>44242</v>
+      </c>
       <c r="F331" t="s">
         <v>68</v>
       </c>
@@ -18210,13 +18554,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:26">
+    <row r="332" spans="1:26" hidden="1">
       <c r="A332" t="s">
         <v>14</v>
       </c>
       <c r="B332" t="s">
         <v>96</v>
       </c>
+      <c r="C332" s="7">
+        <v>44250</v>
+      </c>
       <c r="F332" t="s">
         <v>66</v>
       </c>
@@ -18254,13 +18601,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:26">
+    <row r="333" spans="1:26" hidden="1">
       <c r="A333" t="s">
         <v>14</v>
       </c>
       <c r="B333" t="s">
         <v>96</v>
       </c>
+      <c r="C333" s="7">
+        <v>44263</v>
+      </c>
       <c r="F333" t="s">
         <v>67</v>
       </c>
@@ -18305,6 +18655,9 @@
       <c r="B334" t="s">
         <v>96</v>
       </c>
+      <c r="C334" s="7">
+        <v>44286</v>
+      </c>
       <c r="F334" t="s">
         <v>12</v>
       </c>
@@ -18335,6 +18688,13 @@
       <c r="Q334">
         <v>0.10615321442144372</v>
       </c>
+      <c r="V334">
+        <v>781</v>
+      </c>
+      <c r="W334">
+        <f>244/2</f>
+        <v>122</v>
+      </c>
       <c r="Y334">
         <v>191.30291666666665</v>
       </c>
@@ -18342,13 +18702,16 @@
         <v>42.470371984124505</v>
       </c>
     </row>
-    <row r="335" spans="1:26">
+    <row r="335" spans="1:26" hidden="1">
       <c r="A335" t="s">
         <v>14</v>
       </c>
       <c r="B335" t="s">
         <v>97</v>
       </c>
+      <c r="C335" s="7">
+        <v>44242</v>
+      </c>
       <c r="F335" t="s">
         <v>68</v>
       </c>
@@ -18386,13 +18749,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:26">
+    <row r="336" spans="1:26" hidden="1">
       <c r="A336" t="s">
         <v>14</v>
       </c>
       <c r="B336" t="s">
         <v>97</v>
       </c>
+      <c r="C336" s="7">
+        <v>44250</v>
+      </c>
       <c r="F336" t="s">
         <v>66</v>
       </c>
@@ -18430,13 +18796,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:26">
+    <row r="337" spans="1:26" hidden="1">
       <c r="A337" t="s">
         <v>14</v>
       </c>
       <c r="B337" t="s">
         <v>97</v>
       </c>
+      <c r="C337" s="7">
+        <v>44263</v>
+      </c>
       <c r="F337" t="s">
         <v>67</v>
       </c>
@@ -18481,6 +18850,9 @@
       <c r="B338" t="s">
         <v>97</v>
       </c>
+      <c r="C338" s="7">
+        <v>44286</v>
+      </c>
       <c r="F338" t="s">
         <v>12</v>
       </c>
@@ -18511,6 +18883,13 @@
       <c r="Q338">
         <v>0.43671030023484692</v>
       </c>
+      <c r="V338">
+        <v>1665</v>
+      </c>
+      <c r="W338">
+        <f>464.4/2</f>
+        <v>232.2</v>
+      </c>
       <c r="Y338">
         <v>195.16291666666669</v>
       </c>
@@ -18519,10 +18898,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL338" xr:uid="{82E1BEE1-02EA-47DB-B89F-8184F465ECFF}">
+  <autoFilter ref="A1:AL338" xr:uid="{D9F824F1-C9CA-4B4A-8D6A-E1D6F0626745}">
     <filterColumn colId="1">
       <filters>
-        <filter val="TOSyear3SowFeb21CvBerken"/>
         <filter val="TOSyear3SowFeb21CvCeleraII"/>
         <filter val="TOSyear3SowFeb21CvCrystal"/>
         <filter val="TOSyear3SowFeb21CvJade"/>
@@ -18554,6 +18932,11 @@
         <filter val="TOSyear3SowSept20CvOpal"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="HarvestRipe"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL290">
     <sortCondition ref="B2:B290"/>

--- a/Prototypes/Mungbean/TOSobserved.xlsx
+++ b/Prototypes/Mungbean/TOSobserved.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD3CC35-374F-4161-9E36-CC23DBAE45EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70466632-B26E-47B2-8937-BC43C3E10725}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01D3E681-48EE-4304-AF98-4E94EBE61D53}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01D3E681-48EE-4304-AF98-4E94EBE61D53}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -856,12 +856,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3519DD51-BED6-4262-8A50-4DB48CCAF26B}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AL338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V298" sqref="V298"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -989,7 +988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:38" hidden="1">
+    <row r="2" spans="1:38">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1065,7 +1064,7 @@
         <v>57.25</v>
       </c>
     </row>
-    <row r="3" spans="1:38" hidden="1">
+    <row r="3" spans="1:38">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1158,7 +1157,7 @@
         <v>57.25</v>
       </c>
     </row>
-    <row r="4" spans="1:38" hidden="1">
+    <row r="4" spans="1:38">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1179,7 +1178,7 @@
       </c>
       <c r="AC4" s="15"/>
     </row>
-    <row r="5" spans="1:38" hidden="1">
+    <row r="5" spans="1:38">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1255,7 +1254,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:38" hidden="1">
+    <row r="6" spans="1:38">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1345,7 +1344,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:38" hidden="1">
+    <row r="7" spans="1:38">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1366,7 +1365,7 @@
       </c>
       <c r="AC7" s="15"/>
     </row>
-    <row r="8" spans="1:38" hidden="1">
+    <row r="8" spans="1:38">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1387,7 +1386,7 @@
       </c>
       <c r="AC8" s="15"/>
     </row>
-    <row r="9" spans="1:38" hidden="1">
+    <row r="9" spans="1:38">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1460,7 +1459,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:38" hidden="1">
+    <row r="10" spans="1:38">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1481,7 +1480,7 @@
       </c>
       <c r="AC10" s="15"/>
     </row>
-    <row r="11" spans="1:38" hidden="1">
+    <row r="11" spans="1:38">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1502,7 +1501,7 @@
       </c>
       <c r="AC11" s="15"/>
     </row>
-    <row r="12" spans="1:38" hidden="1">
+    <row r="12" spans="1:38">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1523,7 +1522,7 @@
       </c>
       <c r="AC12" s="15"/>
     </row>
-    <row r="13" spans="1:38" hidden="1">
+    <row r="13" spans="1:38">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1617,7 +1616,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:38" hidden="1">
+    <row r="14" spans="1:38">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1638,7 +1637,7 @@
       </c>
       <c r="AC14" s="15"/>
     </row>
-    <row r="15" spans="1:38" hidden="1">
+    <row r="15" spans="1:38">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1709,7 +1708,7 @@
         <v>76.25</v>
       </c>
     </row>
-    <row r="16" spans="1:38" hidden="1">
+    <row r="16" spans="1:38">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1730,7 +1729,7 @@
       </c>
       <c r="AC16" s="15"/>
     </row>
-    <row r="17" spans="1:38" hidden="1">
+    <row r="17" spans="1:38">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1751,7 +1750,7 @@
       </c>
       <c r="AC17" s="15"/>
     </row>
-    <row r="18" spans="1:38" s="9" customFormat="1" hidden="1">
+    <row r="18" spans="1:38" s="9" customFormat="1">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1803,7 +1802,7 @@
       <c r="AK18"/>
       <c r="AL18"/>
     </row>
-    <row r="19" spans="1:38" s="9" customFormat="1" hidden="1">
+    <row r="19" spans="1:38" s="9" customFormat="1">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1903,7 +1902,7 @@
       <c r="AK19"/>
       <c r="AL19"/>
     </row>
-    <row r="20" spans="1:38" s="9" customFormat="1" hidden="1">
+    <row r="20" spans="1:38" s="9" customFormat="1">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1993,7 +1992,7 @@
       <c r="AK20"/>
       <c r="AL20"/>
     </row>
-    <row r="21" spans="1:38" s="9" customFormat="1" hidden="1">
+    <row r="21" spans="1:38" s="9" customFormat="1">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -2044,7 +2043,7 @@
       <c r="AK21"/>
       <c r="AL21"/>
     </row>
-    <row r="22" spans="1:38" hidden="1">
+    <row r="22" spans="1:38">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -2065,7 +2064,7 @@
       </c>
       <c r="AC22" s="15"/>
     </row>
-    <row r="23" spans="1:38" hidden="1">
+    <row r="23" spans="1:38">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -2159,7 +2158,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="24" spans="1:38" hidden="1">
+    <row r="24" spans="1:38">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -2180,7 +2179,7 @@
       </c>
       <c r="AC24" s="15"/>
     </row>
-    <row r="25" spans="1:38" hidden="1">
+    <row r="25" spans="1:38">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -2256,7 +2255,7 @@
         <v>55.75</v>
       </c>
     </row>
-    <row r="26" spans="1:38" hidden="1">
+    <row r="26" spans="1:38">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -2277,7 +2276,7 @@
       </c>
       <c r="AC26" s="15"/>
     </row>
-    <row r="27" spans="1:38" hidden="1">
+    <row r="27" spans="1:38">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -2298,7 +2297,7 @@
       </c>
       <c r="AC27" s="15"/>
     </row>
-    <row r="28" spans="1:38" hidden="1">
+    <row r="28" spans="1:38">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -2392,7 +2391,7 @@
         <v>55.75</v>
       </c>
     </row>
-    <row r="29" spans="1:38" hidden="1">
+    <row r="29" spans="1:38">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -2413,7 +2412,7 @@
       </c>
       <c r="AC29" s="15"/>
     </row>
-    <row r="30" spans="1:38" hidden="1">
+    <row r="30" spans="1:38">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -2436,7 +2435,7 @@
         <v>7.6933309835944632</v>
       </c>
     </row>
-    <row r="31" spans="1:38" hidden="1">
+    <row r="31" spans="1:38">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -2459,7 +2458,7 @@
         <v>1.2063290642635434</v>
       </c>
     </row>
-    <row r="32" spans="1:38" hidden="1">
+    <row r="32" spans="1:38">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -2536,7 +2535,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="33" spans="1:38" hidden="1">
+    <row r="33" spans="1:38">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -2559,7 +2558,7 @@
         <v>4.7694179276883206</v>
       </c>
     </row>
-    <row r="34" spans="1:38" hidden="1">
+    <row r="34" spans="1:38">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -2642,7 +2641,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="35" spans="1:38" hidden="1">
+    <row r="35" spans="1:38">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -2662,7 +2661,7 @@
         <v>95.562706876684871</v>
       </c>
     </row>
-    <row r="36" spans="1:38" hidden="1">
+    <row r="36" spans="1:38">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -2745,7 +2744,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="37" spans="1:38" hidden="1">
+    <row r="37" spans="1:38">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -2765,7 +2764,7 @@
         <v>85.365260888374024</v>
       </c>
     </row>
-    <row r="38" spans="1:38" hidden="1">
+    <row r="38" spans="1:38">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -2785,7 +2784,7 @@
         <v>78.19911730793919</v>
       </c>
     </row>
-    <row r="39" spans="1:38" hidden="1">
+    <row r="39" spans="1:38">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -2820,7 +2819,7 @@
         <v>51.166571443993753</v>
       </c>
       <c r="N39">
-        <v>709.34</v>
+        <v>704.08749999999986</v>
       </c>
       <c r="O39">
         <v>40.440228527214089</v>
@@ -2886,7 +2885,7 @@
         <v>11.049999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:38" hidden="1">
+    <row r="40" spans="1:38">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -2963,7 +2962,7 @@
         <v>5.7499999999999991</v>
       </c>
     </row>
-    <row r="41" spans="1:38" hidden="1">
+    <row r="41" spans="1:38">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -3046,7 +3045,7 @@
         <v>7.0500000000000007</v>
       </c>
     </row>
-    <row r="42" spans="1:38" hidden="1">
+    <row r="42" spans="1:38">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -3129,7 +3128,7 @@
         <v>9.35</v>
       </c>
     </row>
-    <row r="43" spans="1:38" hidden="1">
+    <row r="43" spans="1:38">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -3164,7 +3163,7 @@
         <v>26.413876403638049</v>
       </c>
       <c r="N43">
-        <v>472.48</v>
+        <v>460.1875</v>
       </c>
       <c r="O43">
         <v>45.603571314828621</v>
@@ -3230,7 +3229,7 @@
         <v>10.100000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:38" hidden="1">
+    <row r="44" spans="1:38">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -3253,7 +3252,7 @@
         <v>1.9550267916612909</v>
       </c>
     </row>
-    <row r="45" spans="1:38" hidden="1">
+    <row r="45" spans="1:38">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -3276,7 +3275,7 @@
         <v>7.0887136859119897</v>
       </c>
     </row>
-    <row r="46" spans="1:38" hidden="1">
+    <row r="46" spans="1:38">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -3353,7 +3352,7 @@
         <v>3.4499999999999993</v>
       </c>
     </row>
-    <row r="47" spans="1:38" hidden="1">
+    <row r="47" spans="1:38">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -3436,7 +3435,7 @@
         <v>9.35</v>
       </c>
     </row>
-    <row r="48" spans="1:38" hidden="1">
+    <row r="48" spans="1:38">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -3459,7 +3458,7 @@
         <v>6.5364891596497223</v>
       </c>
     </row>
-    <row r="49" spans="1:38" hidden="1">
+    <row r="49" spans="1:38">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -3542,7 +3541,7 @@
         <v>10.95</v>
       </c>
     </row>
-    <row r="50" spans="1:38" hidden="1">
+    <row r="50" spans="1:38">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -3562,7 +3561,7 @@
         <v>78.664427905902855</v>
       </c>
     </row>
-    <row r="51" spans="1:38" hidden="1">
+    <row r="51" spans="1:38">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -3582,7 +3581,7 @@
         <v>69.378993307278549</v>
       </c>
     </row>
-    <row r="52" spans="1:38" hidden="1">
+    <row r="52" spans="1:38">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -3683,7 +3682,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="53" spans="1:38" hidden="1">
+    <row r="53" spans="1:38">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -3703,7 +3702,7 @@
         <v>60.228081113641714</v>
       </c>
     </row>
-    <row r="54" spans="1:38" hidden="1">
+    <row r="54" spans="1:38">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -3726,7 +3725,7 @@
         <v>6.9378865308974476</v>
       </c>
     </row>
-    <row r="55" spans="1:38" hidden="1">
+    <row r="55" spans="1:38">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -3749,7 +3748,7 @@
         <v>5.7038091949066416</v>
       </c>
     </row>
-    <row r="56" spans="1:38" hidden="1">
+    <row r="56" spans="1:38">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -3826,7 +3825,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="57" spans="1:38" hidden="1">
+    <row r="57" spans="1:38">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -3849,7 +3848,7 @@
         <v>4.1501234511883522</v>
       </c>
     </row>
-    <row r="58" spans="1:38" hidden="1">
+    <row r="58" spans="1:38">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -3926,7 +3925,7 @@
         <v>7.15</v>
       </c>
     </row>
-    <row r="59" spans="1:38" hidden="1">
+    <row r="59" spans="1:38">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -3946,7 +3945,7 @@
         <v>80.862721056211299</v>
       </c>
     </row>
-    <row r="60" spans="1:38" hidden="1">
+    <row r="60" spans="1:38">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -4029,7 +4028,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="61" spans="1:38" hidden="1">
+    <row r="61" spans="1:38">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -4049,7 +4048,7 @@
         <v>76.649769492121663</v>
       </c>
     </row>
-    <row r="62" spans="1:38" hidden="1">
+    <row r="62" spans="1:38">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -4069,7 +4068,7 @@
         <v>63.163184444804152</v>
       </c>
     </row>
-    <row r="63" spans="1:38" hidden="1">
+    <row r="63" spans="1:38">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -4098,7 +4097,7 @@
         <v>25.863853275372517</v>
       </c>
       <c r="N63">
-        <v>650.82749999999999</v>
+        <v>644.96499999999992</v>
       </c>
       <c r="O63">
         <v>93.626634509541802</v>
@@ -4164,7 +4163,7 @@
         <v>10.15</v>
       </c>
     </row>
-    <row r="64" spans="1:38" hidden="1">
+    <row r="64" spans="1:38">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -4187,7 +4186,7 @@
         <v>0.88569363214705221</v>
       </c>
     </row>
-    <row r="65" spans="1:38" hidden="1">
+    <row r="65" spans="1:38">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -4210,7 +4209,7 @@
         <v>3.7460992507946012</v>
       </c>
     </row>
-    <row r="66" spans="1:38" hidden="1">
+    <row r="66" spans="1:38">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -4287,7 +4286,7 @@
         <v>5.1999999999999993</v>
       </c>
     </row>
-    <row r="67" spans="1:38" hidden="1">
+    <row r="67" spans="1:38">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -4370,7 +4369,7 @@
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="68" spans="1:38" hidden="1">
+    <row r="68" spans="1:38">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -4393,7 +4392,7 @@
         <v>7.2406411781241697</v>
       </c>
     </row>
-    <row r="69" spans="1:38" hidden="1">
+    <row r="69" spans="1:38">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -4470,7 +4469,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="70" spans="1:38" hidden="1">
+    <row r="70" spans="1:38">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -4493,7 +4492,7 @@
         <v>5.184676906749023</v>
       </c>
     </row>
-    <row r="71" spans="1:38" hidden="1">
+    <row r="71" spans="1:38">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -4516,7 +4515,7 @@
         <v>7.8407817163666476</v>
       </c>
     </row>
-    <row r="72" spans="1:38" hidden="1">
+    <row r="72" spans="1:38">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -4551,7 +4550,7 @@
         <v>8.2773526363607672</v>
       </c>
       <c r="N72">
-        <v>391.90250000000003</v>
+        <v>383.88</v>
       </c>
       <c r="O72">
         <v>48.786462325628719</v>
@@ -4617,7 +4616,7 @@
         <v>10.050000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:38" hidden="1">
+    <row r="73" spans="1:38">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -4640,7 +4639,7 @@
         <v>6.7197832300470814</v>
       </c>
     </row>
-    <row r="74" spans="1:38" hidden="1">
+    <row r="74" spans="1:38">
       <c r="A74" t="s">
         <v>14</v>
       </c>
@@ -4663,7 +4662,7 @@
         <v>3.0064167947143599</v>
       </c>
     </row>
-    <row r="75" spans="1:38" hidden="1">
+    <row r="75" spans="1:38">
       <c r="A75" t="s">
         <v>14</v>
       </c>
@@ -4686,7 +4685,7 @@
         <v>5.7397344050545707</v>
       </c>
     </row>
-    <row r="76" spans="1:38" hidden="1">
+    <row r="76" spans="1:38">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -4709,7 +4708,7 @@
         <v>7.452611027121165</v>
       </c>
     </row>
-    <row r="77" spans="1:38" hidden="1">
+    <row r="77" spans="1:38">
       <c r="A77" t="s">
         <v>14</v>
       </c>
@@ -4732,7 +4731,7 @@
         <v>4.8461663877908547</v>
       </c>
     </row>
-    <row r="78" spans="1:38" hidden="1">
+    <row r="78" spans="1:38">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -4755,7 +4754,7 @@
         <v>4.6436072571595615</v>
       </c>
     </row>
-    <row r="79" spans="1:38" hidden="1">
+    <row r="79" spans="1:38">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -4778,7 +4777,7 @@
         <v>5.8083684708497749</v>
       </c>
     </row>
-    <row r="80" spans="1:38" hidden="1">
+    <row r="80" spans="1:38">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -4801,7 +4800,7 @@
         <v>6.4887549172994783</v>
       </c>
     </row>
-    <row r="81" spans="1:38" hidden="1">
+    <row r="81" spans="1:38">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -4824,7 +4823,7 @@
         <v>6.2852775311886555</v>
       </c>
     </row>
-    <row r="82" spans="1:38" hidden="1">
+    <row r="82" spans="1:38">
       <c r="A82" t="s">
         <v>14</v>
       </c>
@@ -4901,7 +4900,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="83" spans="1:38" hidden="1">
+    <row r="83" spans="1:38">
       <c r="A83" t="s">
         <v>14</v>
       </c>
@@ -4924,7 +4923,7 @@
         <v>3.1010758048730089</v>
       </c>
     </row>
-    <row r="84" spans="1:38" hidden="1">
+    <row r="84" spans="1:38">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -5013,7 +5012,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="85" spans="1:38" hidden="1">
+    <row r="85" spans="1:38">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -5036,7 +5035,7 @@
         <v>1.5598329392157901</v>
       </c>
     </row>
-    <row r="86" spans="1:38" hidden="1">
+    <row r="86" spans="1:38">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -5117,7 +5116,7 @@
         <v>8.85</v>
       </c>
     </row>
-    <row r="87" spans="1:38" hidden="1">
+    <row r="87" spans="1:38">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -5140,7 +5139,7 @@
         <v>4.4663725803537604</v>
       </c>
     </row>
-    <row r="88" spans="1:38" hidden="1">
+    <row r="88" spans="1:38">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -5163,7 +5162,7 @@
         <v>2.1212592634152689</v>
       </c>
     </row>
-    <row r="89" spans="1:38" hidden="1">
+    <row r="89" spans="1:38">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -5192,7 +5191,7 @@
         <v>14.720511412651387</v>
       </c>
       <c r="N89">
-        <v>439.23750000000001</v>
+        <v>429.61250000000001</v>
       </c>
       <c r="O89">
         <v>32.153378872470945</v>
@@ -5262,7 +5261,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="90" spans="1:38" hidden="1">
+    <row r="90" spans="1:38">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -5297,7 +5296,7 @@
         <v>6.9759324346881195</v>
       </c>
       <c r="N90">
-        <v>77.09</v>
+        <v>45.574999999999996</v>
       </c>
       <c r="O90">
         <v>9.3602332592017259</v>
@@ -5327,7 +5326,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="1:38" hidden="1">
+    <row r="91" spans="1:38">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -5350,7 +5349,7 @@
         <v>8.3177240795154255</v>
       </c>
     </row>
-    <row r="92" spans="1:38" hidden="1">
+    <row r="92" spans="1:38">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -5373,7 +5372,7 @@
         <v>2.2174056536026931</v>
       </c>
     </row>
-    <row r="93" spans="1:38" hidden="1">
+    <row r="93" spans="1:38">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -5446,7 +5445,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="94" spans="1:38" hidden="1">
+    <row r="94" spans="1:38">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -5466,7 +5465,7 @@
         <v>76.544295936317098</v>
       </c>
     </row>
-    <row r="95" spans="1:38" hidden="1">
+    <row r="95" spans="1:38">
       <c r="A95" t="s">
         <v>14</v>
       </c>
@@ -5486,7 +5485,7 @@
         <v>78.395165078782483</v>
       </c>
     </row>
-    <row r="96" spans="1:38" hidden="1">
+    <row r="96" spans="1:38">
       <c r="A96" t="s">
         <v>14</v>
       </c>
@@ -5561,7 +5560,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="97" spans="1:38" hidden="1">
+    <row r="97" spans="1:38">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -5596,7 +5595,7 @@
         <v>16.063897410030918</v>
       </c>
       <c r="N97">
-        <v>471.85749999999996</v>
+        <v>459.22249999999997</v>
       </c>
       <c r="O97">
         <v>27.694723136065807</v>
@@ -5652,7 +5651,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="98" spans="1:38" hidden="1">
+    <row r="98" spans="1:38">
       <c r="A98" t="s">
         <v>14</v>
       </c>
@@ -5672,7 +5671,7 @@
         <v>78.90521095393791</v>
       </c>
     </row>
-    <row r="99" spans="1:38" hidden="1">
+    <row r="99" spans="1:38">
       <c r="A99" t="s">
         <v>14</v>
       </c>
@@ -5695,7 +5694,7 @@
         <v>1.2918720988872958</v>
       </c>
     </row>
-    <row r="100" spans="1:38" hidden="1">
+    <row r="100" spans="1:38">
       <c r="A100" t="s">
         <v>14</v>
       </c>
@@ -5715,7 +5714,7 @@
         <v>1.9942853810717764</v>
       </c>
     </row>
-    <row r="101" spans="1:38" hidden="1">
+    <row r="101" spans="1:38">
       <c r="A101" t="s">
         <v>14</v>
       </c>
@@ -5738,7 +5737,7 @@
         <v>8.943632970503522</v>
       </c>
     </row>
-    <row r="102" spans="1:38" hidden="1">
+    <row r="102" spans="1:38">
       <c r="A102" t="s">
         <v>14</v>
       </c>
@@ -5773,7 +5772,7 @@
         <v>12.746311884881264</v>
       </c>
       <c r="N102">
-        <v>238.96750000000003</v>
+        <v>144.10750000000002</v>
       </c>
       <c r="O102">
         <v>18.699014401388443</v>
@@ -5813,7 +5812,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="103" spans="1:38" hidden="1">
+    <row r="103" spans="1:38">
       <c r="A103" t="s">
         <v>14</v>
       </c>
@@ -5836,7 +5835,7 @@
         <v>1.3264114341405446</v>
       </c>
     </row>
-    <row r="104" spans="1:38" hidden="1">
+    <row r="104" spans="1:38">
       <c r="A104" t="s">
         <v>14</v>
       </c>
@@ -5856,7 +5855,7 @@
         <v>52.64872213484513</v>
       </c>
     </row>
-    <row r="105" spans="1:38" hidden="1">
+    <row r="105" spans="1:38">
       <c r="A105" t="s">
         <v>14</v>
       </c>
@@ -5939,7 +5938,7 @@
         <v>6.8999999999999995</v>
       </c>
     </row>
-    <row r="106" spans="1:38" hidden="1">
+    <row r="106" spans="1:38">
       <c r="A106" t="s">
         <v>14</v>
       </c>
@@ -5959,7 +5958,7 @@
         <v>70.941218291500888</v>
       </c>
     </row>
-    <row r="107" spans="1:38" hidden="1">
+    <row r="107" spans="1:38">
       <c r="A107" t="s">
         <v>14</v>
       </c>
@@ -5979,7 +5978,7 @@
         <v>72.649098815351806</v>
       </c>
     </row>
-    <row r="108" spans="1:38" hidden="1">
+    <row r="108" spans="1:38">
       <c r="A108" t="s">
         <v>14</v>
       </c>
@@ -6054,7 +6053,7 @@
         <v>10.875</v>
       </c>
     </row>
-    <row r="109" spans="1:38" hidden="1">
+    <row r="109" spans="1:38">
       <c r="A109" t="s">
         <v>14</v>
       </c>
@@ -6077,7 +6076,7 @@
         <v>0.76863750101380335</v>
       </c>
     </row>
-    <row r="110" spans="1:38" hidden="1">
+    <row r="110" spans="1:38">
       <c r="A110" t="s">
         <v>14</v>
       </c>
@@ -6112,7 +6111,7 @@
         <v>15.437913287315187</v>
       </c>
       <c r="N110">
-        <v>406.185</v>
+        <v>398.56</v>
       </c>
       <c r="O110">
         <v>20.54026837701975</v>
@@ -6174,7 +6173,7 @@
         <v>13.85</v>
       </c>
     </row>
-    <row r="111" spans="1:38" hidden="1">
+    <row r="111" spans="1:38">
       <c r="A111" t="s">
         <v>14</v>
       </c>
@@ -6197,7 +6196,7 @@
         <v>6.4700562743368648</v>
       </c>
     </row>
-    <row r="112" spans="1:38" hidden="1">
+    <row r="112" spans="1:38">
       <c r="A112" t="s">
         <v>14</v>
       </c>
@@ -6232,7 +6231,7 @@
         <v>4.1803907313390392</v>
       </c>
       <c r="N112">
-        <v>163.48999999999998</v>
+        <v>94.9</v>
       </c>
       <c r="O112">
         <v>8.9326162647532428</v>
@@ -6272,7 +6271,7 @@
         <v>4.2750000000000004</v>
       </c>
     </row>
-    <row r="113" spans="1:38" hidden="1">
+    <row r="113" spans="1:38">
       <c r="A113" t="s">
         <v>14</v>
       </c>
@@ -6295,7 +6294,7 @@
         <v>3.9789903949757224</v>
       </c>
     </row>
-    <row r="114" spans="1:38" hidden="1">
+    <row r="114" spans="1:38">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -6378,7 +6377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:38" hidden="1">
+    <row r="115" spans="1:38">
       <c r="A115" t="s">
         <v>14</v>
       </c>
@@ -6398,7 +6397,7 @@
         <v>68.774326090449534</v>
       </c>
     </row>
-    <row r="116" spans="1:38" hidden="1">
+    <row r="116" spans="1:38">
       <c r="A116" t="s">
         <v>14</v>
       </c>
@@ -6418,7 +6417,7 @@
         <v>78.929015965050638</v>
       </c>
     </row>
-    <row r="117" spans="1:38" hidden="1">
+    <row r="117" spans="1:38">
       <c r="A117" t="s">
         <v>14</v>
       </c>
@@ -6499,7 +6498,7 @@
         <v>10.433333333333332</v>
       </c>
     </row>
-    <row r="118" spans="1:38" hidden="1">
+    <row r="118" spans="1:38">
       <c r="A118" t="s">
         <v>14</v>
       </c>
@@ -6522,7 +6521,7 @@
         <v>5.3316111861686615</v>
       </c>
     </row>
-    <row r="119" spans="1:38" hidden="1">
+    <row r="119" spans="1:38">
       <c r="A119" t="s">
         <v>14</v>
       </c>
@@ -6551,7 +6550,7 @@
         <v>19.93952711742854</v>
       </c>
       <c r="N119">
-        <v>660.83249999999998</v>
+        <v>630.0575</v>
       </c>
       <c r="O119">
         <v>57.167892850066451</v>
@@ -6617,7 +6616,7 @@
         <v>12.15</v>
       </c>
     </row>
-    <row r="120" spans="1:38" hidden="1">
+    <row r="120" spans="1:38">
       <c r="A120" t="s">
         <v>14</v>
       </c>
@@ -6692,7 +6691,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="121" spans="1:38" hidden="1">
+    <row r="121" spans="1:38">
       <c r="A121" t="s">
         <v>14</v>
       </c>
@@ -6715,7 +6714,7 @@
         <v>3.6117033768259006</v>
       </c>
     </row>
-    <row r="122" spans="1:38" hidden="1">
+    <row r="122" spans="1:38">
       <c r="A122" t="s">
         <v>14</v>
       </c>
@@ -6738,7 +6737,7 @@
         <v>2.025194891309293</v>
       </c>
     </row>
-    <row r="123" spans="1:38" hidden="1">
+    <row r="123" spans="1:38">
       <c r="A123" t="s">
         <v>14</v>
       </c>
@@ -6811,7 +6810,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="124" spans="1:38" hidden="1">
+    <row r="124" spans="1:38">
       <c r="A124" t="s">
         <v>14</v>
       </c>
@@ -6834,7 +6833,7 @@
         <v>5.485209168157211</v>
       </c>
     </row>
-    <row r="125" spans="1:38" hidden="1">
+    <row r="125" spans="1:38">
       <c r="A125" t="s">
         <v>14</v>
       </c>
@@ -6909,7 +6908,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="126" spans="1:38" hidden="1">
+    <row r="126" spans="1:38">
       <c r="A126" t="s">
         <v>14</v>
       </c>
@@ -6932,7 +6931,7 @@
         <v>2.9032155393600219</v>
       </c>
     </row>
-    <row r="127" spans="1:38" hidden="1">
+    <row r="127" spans="1:38">
       <c r="A127" t="s">
         <v>14</v>
       </c>
@@ -6967,7 +6966,7 @@
         <v>5.1936523757370905</v>
       </c>
       <c r="N127">
-        <v>360.4325</v>
+        <v>355.54500000000007</v>
       </c>
       <c r="O127">
         <v>117.66625729685637</v>
@@ -7023,7 +7022,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="128" spans="1:38" hidden="1">
+    <row r="128" spans="1:38">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -7046,7 +7045,7 @@
         <v>5.8459521714162985</v>
       </c>
     </row>
-    <row r="129" spans="1:38" hidden="1">
+    <row r="129" spans="1:38">
       <c r="A129" t="s">
         <v>14</v>
       </c>
@@ -7069,7 +7068,7 @@
         <v>4.498142685492609</v>
       </c>
     </row>
-    <row r="130" spans="1:38" hidden="1">
+    <row r="130" spans="1:38">
       <c r="A130" t="s">
         <v>14</v>
       </c>
@@ -7134,7 +7133,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="131" spans="1:38" hidden="1">
+    <row r="131" spans="1:38">
       <c r="A131" t="s">
         <v>14</v>
       </c>
@@ -7157,7 +7156,7 @@
         <v>3.2760497556779269</v>
       </c>
     </row>
-    <row r="132" spans="1:38" hidden="1">
+    <row r="132" spans="1:38">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -7240,7 +7239,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="133" spans="1:38" hidden="1">
+    <row r="133" spans="1:38">
       <c r="A133" t="s">
         <v>14</v>
       </c>
@@ -7263,7 +7262,7 @@
         <v>2.0361737340178747</v>
       </c>
     </row>
-    <row r="134" spans="1:38" hidden="1">
+    <row r="134" spans="1:38">
       <c r="A134" t="s">
         <v>14</v>
       </c>
@@ -7344,7 +7343,7 @@
         <v>11.475</v>
       </c>
     </row>
-    <row r="135" spans="1:38" hidden="1">
+    <row r="135" spans="1:38">
       <c r="A135" t="s">
         <v>14</v>
       </c>
@@ -7367,7 +7366,7 @@
         <v>2.3566347287549427</v>
       </c>
     </row>
-    <row r="136" spans="1:38" hidden="1">
+    <row r="136" spans="1:38">
       <c r="A136" t="s">
         <v>14</v>
       </c>
@@ -7390,7 +7389,7 @@
         <v>2.8488164720094478</v>
       </c>
     </row>
-    <row r="137" spans="1:38" hidden="1">
+    <row r="137" spans="1:38">
       <c r="A137" t="s">
         <v>14</v>
       </c>
@@ -7419,7 +7418,7 @@
         <v>25.013407238252576</v>
       </c>
       <c r="N137">
-        <v>406.20499999999993</v>
+        <v>400.0625</v>
       </c>
       <c r="O137">
         <v>77.037978675023339</v>
@@ -7485,7 +7484,7 @@
         <v>12.525</v>
       </c>
     </row>
-    <row r="138" spans="1:38" hidden="1">
+    <row r="138" spans="1:38">
       <c r="A138" t="s">
         <v>14</v>
       </c>
@@ -7508,7 +7507,7 @@
         <v>4.5511836838559532</v>
       </c>
     </row>
-    <row r="139" spans="1:38" hidden="1">
+    <row r="139" spans="1:38">
       <c r="A139" t="s">
         <v>14</v>
       </c>
@@ -7583,7 +7582,7 @@
         <v>4.4499999999999993</v>
       </c>
     </row>
-    <row r="140" spans="1:38" hidden="1">
+    <row r="140" spans="1:38">
       <c r="A140" t="s">
         <v>14</v>
       </c>
@@ -7606,7 +7605,7 @@
         <v>2.9150963623880548</v>
       </c>
     </row>
-    <row r="141" spans="1:38" hidden="1">
+    <row r="141" spans="1:38">
       <c r="A141" t="s">
         <v>14</v>
       </c>
@@ -7689,7 +7688,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="142" spans="1:38" hidden="1">
+    <row r="142" spans="1:38">
       <c r="A142" t="s">
         <v>14</v>
       </c>
@@ -7712,7 +7711,7 @@
         <v>2.6783143273519876</v>
       </c>
     </row>
-    <row r="143" spans="1:38" hidden="1">
+    <row r="143" spans="1:38">
       <c r="A143" t="s">
         <v>14</v>
       </c>
@@ -7793,7 +7792,7 @@
         <v>10.899999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:38" hidden="1">
+    <row r="144" spans="1:38">
       <c r="A144" t="s">
         <v>14</v>
       </c>
@@ -7816,7 +7815,7 @@
         <v>3.5724818750005722</v>
       </c>
     </row>
-    <row r="145" spans="1:38" hidden="1">
+    <row r="145" spans="1:38">
       <c r="A145" t="s">
         <v>14</v>
       </c>
@@ -7839,7 +7838,7 @@
         <v>0.87832205022106069</v>
       </c>
     </row>
-    <row r="146" spans="1:38" hidden="1">
+    <row r="146" spans="1:38">
       <c r="A146" t="s">
         <v>14</v>
       </c>
@@ -7868,7 +7867,7 @@
         <v>25.62977707504826</v>
       </c>
       <c r="N146">
-        <v>506.52250000000004</v>
+        <v>492.4975</v>
       </c>
       <c r="O146">
         <v>52.237185569764321</v>
@@ -7934,7 +7933,7 @@
         <v>13.65</v>
       </c>
     </row>
-    <row r="147" spans="1:38" hidden="1">
+    <row r="147" spans="1:38">
       <c r="A147" t="s">
         <v>14</v>
       </c>
@@ -7999,7 +7998,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="148" spans="1:38" hidden="1">
+    <row r="148" spans="1:38">
       <c r="A148" t="s">
         <v>14</v>
       </c>
@@ -8022,7 +8021,7 @@
         <v>1.6346540621764984</v>
       </c>
     </row>
-    <row r="149" spans="1:38" hidden="1">
+    <row r="149" spans="1:38">
       <c r="A149" t="s">
         <v>14</v>
       </c>
@@ -8045,7 +8044,7 @@
         <v>1.4736836772398236</v>
       </c>
     </row>
-    <row r="150" spans="1:38" hidden="1">
+    <row r="150" spans="1:38">
       <c r="A150" t="s">
         <v>14</v>
       </c>
@@ -8068,7 +8067,7 @@
         <v>2.5732585159995178</v>
       </c>
     </row>
-    <row r="151" spans="1:38" hidden="1">
+    <row r="151" spans="1:38">
       <c r="A151" t="s">
         <v>14</v>
       </c>
@@ -8091,7 +8090,7 @@
         <v>4.4618262568565408</v>
       </c>
     </row>
-    <row r="152" spans="1:38" hidden="1">
+    <row r="152" spans="1:38">
       <c r="A152" t="s">
         <v>14</v>
       </c>
@@ -8174,7 +8173,7 @@
         <v>7.1749999999999989</v>
       </c>
     </row>
-    <row r="153" spans="1:38" hidden="1">
+    <row r="153" spans="1:38">
       <c r="A153" t="s">
         <v>14</v>
       </c>
@@ -8194,7 +8193,7 @@
         <v>13.804713804713813</v>
       </c>
     </row>
-    <row r="154" spans="1:38" hidden="1">
+    <row r="154" spans="1:38">
       <c r="A154" t="s">
         <v>14</v>
       </c>
@@ -8269,7 +8268,7 @@
         <v>12.400000000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:38" hidden="1">
+    <row r="155" spans="1:38">
       <c r="A155" t="s">
         <v>14</v>
       </c>
@@ -8292,7 +8291,7 @@
         <v>3.2299049259008243</v>
       </c>
     </row>
-    <row r="156" spans="1:38" hidden="1">
+    <row r="156" spans="1:38">
       <c r="A156" t="s">
         <v>14</v>
       </c>
@@ -8315,7 +8314,7 @@
         <v>4.6284358100428769</v>
       </c>
     </row>
-    <row r="157" spans="1:38" hidden="1">
+    <row r="157" spans="1:38">
       <c r="A157" t="s">
         <v>14</v>
       </c>
@@ -8400,7 +8399,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="158" spans="1:38" hidden="1">
+    <row r="158" spans="1:38">
       <c r="A158" t="s">
         <v>14</v>
       </c>
@@ -8423,7 +8422,7 @@
         <v>2.0010476690249828</v>
       </c>
     </row>
-    <row r="159" spans="1:38" hidden="1">
+    <row r="159" spans="1:38">
       <c r="A159" t="s">
         <v>14</v>
       </c>
@@ -8446,7 +8445,7 @@
         <v>0.84128488525335965</v>
       </c>
     </row>
-    <row r="160" spans="1:38" hidden="1">
+    <row r="160" spans="1:38">
       <c r="A160" t="s">
         <v>14</v>
       </c>
@@ -8511,7 +8510,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="161" spans="1:38" hidden="1">
+    <row r="161" spans="1:38">
       <c r="A161" t="s">
         <v>14</v>
       </c>
@@ -8534,7 +8533,7 @@
         <v>2.1356954359294411</v>
       </c>
     </row>
-    <row r="162" spans="1:38" hidden="1">
+    <row r="162" spans="1:38">
       <c r="A162" t="s">
         <v>14</v>
       </c>
@@ -8557,7 +8556,7 @@
         <v>3.9112334520629624</v>
       </c>
     </row>
-    <row r="163" spans="1:38" hidden="1">
+    <row r="163" spans="1:38">
       <c r="A163" t="s">
         <v>14</v>
       </c>
@@ -8578,7 +8577,7 @@
       </c>
       <c r="AC163" s="14"/>
     </row>
-    <row r="164" spans="1:38" hidden="1">
+    <row r="164" spans="1:38">
       <c r="A164" t="s">
         <v>14</v>
       </c>
@@ -8601,7 +8600,7 @@
         <v>2.6847889217066414</v>
       </c>
     </row>
-    <row r="165" spans="1:38" hidden="1">
+    <row r="165" spans="1:38">
       <c r="A165" t="s">
         <v>14</v>
       </c>
@@ -8621,7 +8620,7 @@
         <v>50.741447658199966</v>
       </c>
     </row>
-    <row r="166" spans="1:38" hidden="1">
+    <row r="166" spans="1:38">
       <c r="A166" t="s">
         <v>14</v>
       </c>
@@ -8644,7 +8643,7 @@
         <v>5.4663787711219589</v>
       </c>
     </row>
-    <row r="167" spans="1:38" hidden="1">
+    <row r="167" spans="1:38">
       <c r="A167" t="s">
         <v>14</v>
       </c>
@@ -8727,7 +8726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:38" hidden="1">
+    <row r="168" spans="1:38">
       <c r="A168" t="s">
         <v>14</v>
       </c>
@@ -8792,7 +8791,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="169" spans="1:38" hidden="1">
+    <row r="169" spans="1:38">
       <c r="A169" t="s">
         <v>14</v>
       </c>
@@ -8815,7 +8814,7 @@
         <v>4.7422054179886226</v>
       </c>
     </row>
-    <row r="170" spans="1:38" hidden="1">
+    <row r="170" spans="1:38">
       <c r="A170" t="s">
         <v>14</v>
       </c>
@@ -8838,7 +8837,7 @@
         <v>3.4965156692075374</v>
       </c>
     </row>
-    <row r="171" spans="1:38" hidden="1">
+    <row r="171" spans="1:38">
       <c r="A171" t="s">
         <v>14</v>
       </c>
@@ -8861,7 +8860,7 @@
         <v>2.000056003418893</v>
       </c>
     </row>
-    <row r="172" spans="1:38" hidden="1">
+    <row r="172" spans="1:38">
       <c r="A172" t="s">
         <v>14</v>
       </c>
@@ -8890,7 +8889,7 @@
         <v>11.175157344156974</v>
       </c>
       <c r="N172">
-        <v>782.49499999999989</v>
+        <v>751.48249999999996</v>
       </c>
       <c r="O172">
         <v>203.9830383675729</v>
@@ -8956,7 +8955,7 @@
         <v>7.3500000000000014</v>
       </c>
     </row>
-    <row r="173" spans="1:38" hidden="1">
+    <row r="173" spans="1:38">
       <c r="A173" t="s">
         <v>14</v>
       </c>
@@ -8979,7 +8978,7 @@
         <v>0.74353522578927023</v>
       </c>
     </row>
-    <row r="174" spans="1:38" hidden="1">
+    <row r="174" spans="1:38">
       <c r="A174" t="s">
         <v>14</v>
       </c>
@@ -9044,7 +9043,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="175" spans="1:38" hidden="1">
+    <row r="175" spans="1:38">
       <c r="A175" t="s">
         <v>14</v>
       </c>
@@ -9067,7 +9066,7 @@
         <v>0.74509690370666115</v>
       </c>
     </row>
-    <row r="176" spans="1:38" hidden="1">
+    <row r="176" spans="1:38">
       <c r="A176" t="s">
         <v>14</v>
       </c>
@@ -9090,7 +9089,7 @@
         <v>2.2365871765787624</v>
       </c>
     </row>
-    <row r="177" spans="1:38" hidden="1">
+    <row r="177" spans="1:38">
       <c r="A177" t="s">
         <v>14</v>
       </c>
@@ -9113,7 +9112,7 @@
         <v>2.6256045624529158</v>
       </c>
     </row>
-    <row r="178" spans="1:38" hidden="1">
+    <row r="178" spans="1:38">
       <c r="A178" t="s">
         <v>14</v>
       </c>
@@ -9190,7 +9189,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="179" spans="1:38" hidden="1">
+    <row r="179" spans="1:38">
       <c r="A179" t="s">
         <v>14</v>
       </c>
@@ -9213,7 +9212,7 @@
         <v>1.8841088733970519</v>
       </c>
     </row>
-    <row r="180" spans="1:38" hidden="1">
+    <row r="180" spans="1:38">
       <c r="A180" t="s">
         <v>14</v>
       </c>
@@ -9288,7 +9287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:38" hidden="1">
+    <row r="181" spans="1:38">
       <c r="A181" t="s">
         <v>14</v>
       </c>
@@ -9311,7 +9310,7 @@
         <v>7.1589111598088291</v>
       </c>
     </row>
-    <row r="182" spans="1:38" hidden="1">
+    <row r="182" spans="1:38">
       <c r="A182" t="s">
         <v>14</v>
       </c>
@@ -9334,7 +9333,7 @@
         <v>1.4286241964891497</v>
       </c>
     </row>
-    <row r="183" spans="1:38" hidden="1">
+    <row r="183" spans="1:38">
       <c r="A183" t="s">
         <v>14</v>
       </c>
@@ -9357,7 +9356,7 @@
         <v>5.1947128630896646</v>
       </c>
     </row>
-    <row r="184" spans="1:38" hidden="1">
+    <row r="184" spans="1:38">
       <c r="A184" t="s">
         <v>14</v>
       </c>
@@ -9386,7 +9385,7 @@
         <v>27.729138817917406</v>
       </c>
       <c r="N184">
-        <v>507.55</v>
+        <v>485.6</v>
       </c>
       <c r="O184">
         <v>110.958464526146</v>
@@ -9452,7 +9451,7 @@
         <v>11.05</v>
       </c>
     </row>
-    <row r="185" spans="1:38" hidden="1">
+    <row r="185" spans="1:38">
       <c r="A185" t="s">
         <v>14</v>
       </c>
@@ -9517,7 +9516,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="186" spans="1:38" hidden="1">
+    <row r="186" spans="1:38">
       <c r="A186" t="s">
         <v>14</v>
       </c>
@@ -9540,7 +9539,7 @@
         <v>0.9394940748123165</v>
       </c>
     </row>
-    <row r="187" spans="1:38" hidden="1">
+    <row r="187" spans="1:38">
       <c r="A187" t="s">
         <v>14</v>
       </c>
@@ -9560,7 +9559,7 @@
         <v>1.936894720399863</v>
       </c>
     </row>
-    <row r="188" spans="1:38" hidden="1">
+    <row r="188" spans="1:38">
       <c r="A188" t="s">
         <v>14</v>
       </c>
@@ -9583,7 +9582,7 @@
         <v>1.4075989132976168</v>
       </c>
     </row>
-    <row r="189" spans="1:38" hidden="1">
+    <row r="189" spans="1:38">
       <c r="A189" t="s">
         <v>14</v>
       </c>
@@ -9606,7 +9605,7 @@
         <v>4.1724876352853677</v>
       </c>
     </row>
-    <row r="190" spans="1:38" hidden="1">
+    <row r="190" spans="1:38">
       <c r="A190" t="s">
         <v>14</v>
       </c>
@@ -9689,7 +9688,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="191" spans="1:38" hidden="1">
+    <row r="191" spans="1:38">
       <c r="A191" t="s">
         <v>14</v>
       </c>
@@ -9764,7 +9763,7 @@
         <v>5.3250000000000002</v>
       </c>
     </row>
-    <row r="192" spans="1:38" hidden="1">
+    <row r="192" spans="1:38">
       <c r="A192" t="s">
         <v>14</v>
       </c>
@@ -9787,7 +9786,7 @@
         <v>2.2991176144107279</v>
       </c>
     </row>
-    <row r="193" spans="1:38" hidden="1">
+    <row r="193" spans="1:38">
       <c r="A193" t="s">
         <v>14</v>
       </c>
@@ -9810,7 +9809,7 @@
         <v>2.6491308633039106</v>
       </c>
     </row>
-    <row r="194" spans="1:38" hidden="1">
+    <row r="194" spans="1:38">
       <c r="A194" t="s">
         <v>14</v>
       </c>
@@ -9891,7 +9890,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="195" spans="1:38" hidden="1">
+    <row r="195" spans="1:38">
       <c r="A195" t="s">
         <v>14</v>
       </c>
@@ -9914,7 +9913,7 @@
         <v>3.8274828439374287</v>
       </c>
     </row>
-    <row r="196" spans="1:38" hidden="1">
+    <row r="196" spans="1:38">
       <c r="A196" t="s">
         <v>14</v>
       </c>
@@ -9937,7 +9936,7 @@
         <v>2.510627081489849</v>
       </c>
     </row>
-    <row r="197" spans="1:38" hidden="1">
+    <row r="197" spans="1:38">
       <c r="A197" t="s">
         <v>14</v>
       </c>
@@ -10002,7 +10001,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="198" spans="1:38" hidden="1">
+    <row r="198" spans="1:38">
       <c r="A198" t="s">
         <v>14</v>
       </c>
@@ -10022,7 +10021,7 @@
         <v>1.5370941600878325</v>
       </c>
     </row>
-    <row r="199" spans="1:38" hidden="1">
+    <row r="199" spans="1:38">
       <c r="A199" t="s">
         <v>14</v>
       </c>
@@ -10045,7 +10044,7 @@
         <v>0.59463305412538903</v>
       </c>
     </row>
-    <row r="200" spans="1:38" hidden="1">
+    <row r="200" spans="1:38">
       <c r="A200" t="s">
         <v>14</v>
       </c>
@@ -10068,7 +10067,7 @@
         <v>3.7111956028324835</v>
       </c>
     </row>
-    <row r="201" spans="1:38" hidden="1">
+    <row r="201" spans="1:38">
       <c r="A201" t="s">
         <v>14</v>
       </c>
@@ -10088,7 +10087,7 @@
         <v>8.1466512702078546</v>
       </c>
     </row>
-    <row r="202" spans="1:38" hidden="1">
+    <row r="202" spans="1:38">
       <c r="A202" t="s">
         <v>14</v>
       </c>
@@ -10171,7 +10170,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="203" spans="1:38" hidden="1">
+    <row r="203" spans="1:38">
       <c r="A203" t="s">
         <v>14</v>
       </c>
@@ -10236,7 +10235,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="204" spans="1:38" hidden="1">
+    <row r="204" spans="1:38">
       <c r="A204" t="s">
         <v>14</v>
       </c>
@@ -10259,7 +10258,7 @@
         <v>3.6048651545304731</v>
       </c>
     </row>
-    <row r="205" spans="1:38" hidden="1">
+    <row r="205" spans="1:38">
       <c r="A205" t="s">
         <v>14</v>
       </c>
@@ -10282,7 +10281,7 @@
         <v>2.3095845924176341</v>
       </c>
     </row>
-    <row r="206" spans="1:38" hidden="1">
+    <row r="206" spans="1:38">
       <c r="A206" t="s">
         <v>14</v>
       </c>
@@ -10305,7 +10304,7 @@
         <v>4.6688599058321465</v>
       </c>
     </row>
-    <row r="207" spans="1:38" hidden="1">
+    <row r="207" spans="1:38">
       <c r="A207" t="s">
         <v>14</v>
       </c>
@@ -10334,7 +10333,7 @@
         <v>7.9324285636031213</v>
       </c>
       <c r="N207">
-        <v>239.03000000000003</v>
+        <v>215.01249999999999</v>
       </c>
       <c r="O207">
         <v>10.67973548361539</v>
@@ -10400,7 +10399,7 @@
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="208" spans="1:38" hidden="1">
+    <row r="208" spans="1:38">
       <c r="A208" t="s">
         <v>14</v>
       </c>
@@ -10423,7 +10422,7 @@
         <v>1.6851677522614044</v>
       </c>
     </row>
-    <row r="209" spans="1:38" hidden="1">
+    <row r="209" spans="1:38">
       <c r="A209" t="s">
         <v>14</v>
       </c>
@@ -10459,7 +10458,7 @@
         <v>3.2088107869842566</v>
       </c>
       <c r="N209">
-        <v>31.502499999999998</v>
+        <v>30.85</v>
       </c>
       <c r="O209">
         <v>2.5524269496566032</v>
@@ -10489,7 +10488,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="210" spans="1:38" hidden="1">
+    <row r="210" spans="1:38">
       <c r="A210" t="s">
         <v>14</v>
       </c>
@@ -10512,7 +10511,7 @@
         <v>2.1218261966437177</v>
       </c>
     </row>
-    <row r="211" spans="1:38" hidden="1">
+    <row r="211" spans="1:38">
       <c r="A211" t="s">
         <v>14</v>
       </c>
@@ -10535,7 +10534,7 @@
         <v>0.9808917672312738</v>
       </c>
     </row>
-    <row r="212" spans="1:38" hidden="1">
+    <row r="212" spans="1:38">
       <c r="A212" t="s">
         <v>14</v>
       </c>
@@ -10558,7 +10557,7 @@
         <v>4.0670957683044096</v>
       </c>
     </row>
-    <row r="213" spans="1:38" hidden="1">
+    <row r="213" spans="1:38">
       <c r="A213" t="s">
         <v>14</v>
       </c>
@@ -10595,7 +10594,7 @@
         <v>1.1832934265571331</v>
       </c>
       <c r="N213">
-        <v>77.259999999999991</v>
+        <v>67.27</v>
       </c>
       <c r="O213">
         <v>3.0600282542268089</v>
@@ -10635,7 +10634,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="214" spans="1:38" hidden="1">
+    <row r="214" spans="1:38">
       <c r="A214" t="s">
         <v>14</v>
       </c>
@@ -10664,7 +10663,7 @@
         <v>6.1684011637268403</v>
       </c>
       <c r="N214">
-        <v>210.45500000000001</v>
+        <v>87.94</v>
       </c>
       <c r="O214">
         <v>14.298896519195681</v>
@@ -10711,7 +10710,7 @@
         <v>6.15</v>
       </c>
     </row>
-    <row r="215" spans="1:38" hidden="1">
+    <row r="215" spans="1:38">
       <c r="A215" t="s">
         <v>14</v>
       </c>
@@ -10734,7 +10733,7 @@
         <v>3.6540452544246205</v>
       </c>
     </row>
-    <row r="216" spans="1:38" hidden="1">
+    <row r="216" spans="1:38">
       <c r="A216" t="s">
         <v>14</v>
       </c>
@@ -10757,7 +10756,7 @@
         <v>2.6923475326620641</v>
       </c>
     </row>
-    <row r="217" spans="1:38" hidden="1">
+    <row r="217" spans="1:38">
       <c r="A217" t="s">
         <v>14</v>
       </c>
@@ -10780,7 +10779,7 @@
         <v>5.429230338369984</v>
       </c>
     </row>
-    <row r="218" spans="1:38" hidden="1">
+    <row r="218" spans="1:38">
       <c r="A218" t="s">
         <v>14</v>
       </c>
@@ -10809,7 +10808,7 @@
         <v>5.4850377923340945</v>
       </c>
       <c r="N218">
-        <v>507.55</v>
+        <v>150.84</v>
       </c>
       <c r="O218">
         <v>23.831171114040238</v>
@@ -10876,7 +10875,7 @@
         <v>6.8000000000000007</v>
       </c>
     </row>
-    <row r="219" spans="1:38" hidden="1">
+    <row r="219" spans="1:38">
       <c r="A219" t="s">
         <v>14</v>
       </c>
@@ -10941,7 +10940,7 @@
         <v>4.5500000000000007</v>
       </c>
     </row>
-    <row r="220" spans="1:38" hidden="1">
+    <row r="220" spans="1:38">
       <c r="A220" t="s">
         <v>14</v>
       </c>
@@ -11024,7 +11023,7 @@
         <v>6.35</v>
       </c>
     </row>
-    <row r="221" spans="1:38" hidden="1">
+    <row r="221" spans="1:38">
       <c r="A221" t="s">
         <v>14</v>
       </c>
@@ -11148,7 +11147,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="223" spans="1:38" hidden="1">
+    <row r="223" spans="1:38">
       <c r="A223" t="s">
         <v>14</v>
       </c>
@@ -11212,7 +11211,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="224" spans="1:38" hidden="1">
+    <row r="224" spans="1:38">
       <c r="A224" t="s">
         <v>14</v>
       </c>
@@ -11294,7 +11293,7 @@
         <v>12.049999999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:38" hidden="1">
+    <row r="225" spans="1:38">
       <c r="A225" t="s">
         <v>14</v>
       </c>
@@ -11417,7 +11416,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="227" spans="1:38" hidden="1">
+    <row r="227" spans="1:38">
       <c r="A227" t="s">
         <v>14</v>
       </c>
@@ -11481,7 +11480,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="228" spans="1:38" hidden="1">
+    <row r="228" spans="1:38">
       <c r="A228" t="s">
         <v>14</v>
       </c>
@@ -11563,7 +11562,7 @@
         <v>5.9249999999999998</v>
       </c>
     </row>
-    <row r="229" spans="1:38" hidden="1">
+    <row r="229" spans="1:38">
       <c r="A229" t="s">
         <v>14</v>
       </c>
@@ -11686,7 +11685,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="231" spans="1:38" hidden="1">
+    <row r="231" spans="1:38">
       <c r="A231" t="s">
         <v>14</v>
       </c>
@@ -11750,7 +11749,7 @@
         <v>4.335</v>
       </c>
     </row>
-    <row r="232" spans="1:38" hidden="1">
+    <row r="232" spans="1:38">
       <c r="A232" t="s">
         <v>14</v>
       </c>
@@ -11832,7 +11831,7 @@
         <v>6.9249999999999989</v>
       </c>
     </row>
-    <row r="233" spans="1:38" hidden="1">
+    <row r="233" spans="1:38">
       <c r="A233" t="s">
         <v>14</v>
       </c>
@@ -11955,7 +11954,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="235" spans="1:38" hidden="1">
+    <row r="235" spans="1:38">
       <c r="A235" t="s">
         <v>14</v>
       </c>
@@ -12018,7 +12017,7 @@
         <v>4.8666666666666671</v>
       </c>
     </row>
-    <row r="236" spans="1:38" hidden="1">
+    <row r="236" spans="1:38">
       <c r="A236" t="s">
         <v>14</v>
       </c>
@@ -12099,7 +12098,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="237" spans="1:38" hidden="1">
+    <row r="237" spans="1:38">
       <c r="A237" t="s">
         <v>14</v>
       </c>
@@ -12222,7 +12221,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="239" spans="1:38" hidden="1">
+    <row r="239" spans="1:38">
       <c r="A239" t="s">
         <v>14</v>
       </c>
@@ -12285,7 +12284,7 @@
         <v>3.8499999999999996</v>
       </c>
     </row>
-    <row r="240" spans="1:38" hidden="1">
+    <row r="240" spans="1:38">
       <c r="A240" t="s">
         <v>14</v>
       </c>
@@ -12366,7 +12365,7 @@
         <v>6.0749999999999993</v>
       </c>
     </row>
-    <row r="241" spans="1:38" hidden="1">
+    <row r="241" spans="1:38">
       <c r="A241" t="s">
         <v>14</v>
       </c>
@@ -12489,7 +12488,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="243" spans="1:38" hidden="1">
+    <row r="243" spans="1:38">
       <c r="A243" t="s">
         <v>14</v>
       </c>
@@ -12570,7 +12569,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="244" spans="1:38" hidden="1">
+    <row r="244" spans="1:38">
       <c r="A244" t="s">
         <v>14</v>
       </c>
@@ -12659,7 +12658,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="245" spans="1:38" hidden="1">
+    <row r="245" spans="1:38">
       <c r="A245" t="s">
         <v>14</v>
       </c>
@@ -12828,7 +12827,7 @@
         <v>11.95</v>
       </c>
     </row>
-    <row r="247" spans="1:38" hidden="1">
+    <row r="247" spans="1:38">
       <c r="A247" t="s">
         <v>14</v>
       </c>
@@ -12909,7 +12908,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="248" spans="1:38" hidden="1">
+    <row r="248" spans="1:38">
       <c r="A248" t="s">
         <v>14</v>
       </c>
@@ -12998,7 +12997,7 @@
         <v>6.8000000000000007</v>
       </c>
     </row>
-    <row r="249" spans="1:38" hidden="1">
+    <row r="249" spans="1:38">
       <c r="A249" t="s">
         <v>14</v>
       </c>
@@ -13167,7 +13166,7 @@
         <v>13.25</v>
       </c>
     </row>
-    <row r="251" spans="1:38" hidden="1">
+    <row r="251" spans="1:38">
       <c r="A251" t="s">
         <v>14</v>
       </c>
@@ -13248,7 +13247,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="252" spans="1:38" hidden="1">
+    <row r="252" spans="1:38">
       <c r="A252" t="s">
         <v>14</v>
       </c>
@@ -13337,7 +13336,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="253" spans="1:38" hidden="1">
+    <row r="253" spans="1:38">
       <c r="A253" t="s">
         <v>14</v>
       </c>
@@ -13506,7 +13505,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="255" spans="1:38" hidden="1">
+    <row r="255" spans="1:38">
       <c r="A255" t="s">
         <v>14</v>
       </c>
@@ -13587,7 +13586,7 @@
         <v>5.3666666666666671</v>
       </c>
     </row>
-    <row r="256" spans="1:38" hidden="1">
+    <row r="256" spans="1:38">
       <c r="A256" t="s">
         <v>14</v>
       </c>
@@ -13676,7 +13675,7 @@
         <v>5.5500000000000007</v>
       </c>
     </row>
-    <row r="257" spans="1:38" hidden="1">
+    <row r="257" spans="1:38">
       <c r="A257" t="s">
         <v>14</v>
       </c>
@@ -13845,7 +13844,7 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="259" spans="1:38" hidden="1">
+    <row r="259" spans="1:38">
       <c r="A259" t="s">
         <v>14</v>
       </c>
@@ -13926,7 +13925,7 @@
         <v>7.3000000000000007</v>
       </c>
     </row>
-    <row r="260" spans="1:38" hidden="1">
+    <row r="260" spans="1:38">
       <c r="A260" t="s">
         <v>14</v>
       </c>
@@ -14015,7 +14014,7 @@
         <v>7.35</v>
       </c>
     </row>
-    <row r="261" spans="1:38" hidden="1">
+    <row r="261" spans="1:38">
       <c r="A261" t="s">
         <v>14</v>
       </c>
@@ -14184,7 +14183,7 @@
         <v>14.59</v>
       </c>
     </row>
-    <row r="263" spans="1:38" hidden="1">
+    <row r="263" spans="1:38">
       <c r="A263" t="s">
         <v>14</v>
       </c>
@@ -14265,7 +14264,7 @@
         <v>5.4499999999999993</v>
       </c>
     </row>
-    <row r="264" spans="1:38" hidden="1">
+    <row r="264" spans="1:38">
       <c r="A264" t="s">
         <v>14</v>
       </c>
@@ -14354,7 +14353,7 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="265" spans="1:38" hidden="1">
+    <row r="265" spans="1:38">
       <c r="A265" t="s">
         <v>14</v>
       </c>
@@ -14523,7 +14522,7 @@
         <v>11.324999999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:38" hidden="1">
+    <row r="267" spans="1:38">
       <c r="A267" t="s">
         <v>14</v>
       </c>
@@ -14604,7 +14603,7 @@
         <v>3.1500000000000004</v>
       </c>
     </row>
-    <row r="268" spans="1:38" hidden="1">
+    <row r="268" spans="1:38">
       <c r="A268" t="s">
         <v>14</v>
       </c>
@@ -14693,7 +14692,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="269" spans="1:38" hidden="1">
+    <row r="269" spans="1:38">
       <c r="A269" t="s">
         <v>14</v>
       </c>
@@ -14862,7 +14861,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="271" spans="1:38" hidden="1">
+    <row r="271" spans="1:38">
       <c r="A271" t="s">
         <v>14</v>
       </c>
@@ -14943,7 +14942,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="272" spans="1:38" hidden="1">
+    <row r="272" spans="1:38">
       <c r="A272" t="s">
         <v>14</v>
       </c>
@@ -15032,7 +15031,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="273" spans="1:38" hidden="1">
+    <row r="273" spans="1:38">
       <c r="A273" t="s">
         <v>14</v>
       </c>
@@ -15201,7 +15200,7 @@
         <v>13.8125</v>
       </c>
     </row>
-    <row r="275" spans="1:38" hidden="1">
+    <row r="275" spans="1:38">
       <c r="A275" t="s">
         <v>14</v>
       </c>
@@ -15282,7 +15281,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="276" spans="1:38" hidden="1">
+    <row r="276" spans="1:38">
       <c r="A276" t="s">
         <v>14</v>
       </c>
@@ -15371,7 +15370,7 @@
         <v>7.2000000000000011</v>
       </c>
     </row>
-    <row r="277" spans="1:38" hidden="1">
+    <row r="277" spans="1:38">
       <c r="A277" t="s">
         <v>14</v>
       </c>
@@ -15540,7 +15539,7 @@
         <v>11.15</v>
       </c>
     </row>
-    <row r="279" spans="1:38" hidden="1">
+    <row r="279" spans="1:38">
       <c r="A279" t="s">
         <v>14</v>
       </c>
@@ -15621,7 +15620,7 @@
         <v>2.7249999999999996</v>
       </c>
     </row>
-    <row r="280" spans="1:38" hidden="1">
+    <row r="280" spans="1:38">
       <c r="A280" t="s">
         <v>14</v>
       </c>
@@ -15710,7 +15709,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="281" spans="1:38" hidden="1">
+    <row r="281" spans="1:38">
       <c r="A281" t="s">
         <v>14</v>
       </c>
@@ -15879,7 +15878,7 @@
         <v>11.55</v>
       </c>
     </row>
-    <row r="283" spans="1:38" hidden="1">
+    <row r="283" spans="1:38">
       <c r="A283" t="s">
         <v>14</v>
       </c>
@@ -15960,7 +15959,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="284" spans="1:38" hidden="1">
+    <row r="284" spans="1:38">
       <c r="A284" t="s">
         <v>14</v>
       </c>
@@ -16049,7 +16048,7 @@
         <v>7.375</v>
       </c>
     </row>
-    <row r="285" spans="1:38" hidden="1">
+    <row r="285" spans="1:38">
       <c r="A285" t="s">
         <v>14</v>
       </c>
@@ -16218,7 +16217,7 @@
         <v>13.825000000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:38" hidden="1">
+    <row r="287" spans="1:38">
       <c r="A287" t="s">
         <v>14</v>
       </c>
@@ -16299,7 +16298,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="288" spans="1:38" hidden="1">
+    <row r="288" spans="1:38">
       <c r="A288" t="s">
         <v>14</v>
       </c>
@@ -16388,7 +16387,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="289" spans="1:38" hidden="1">
+    <row r="289" spans="1:38">
       <c r="A289" t="s">
         <v>14</v>
       </c>
@@ -16557,7 +16556,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="291" spans="1:38" hidden="1">
+    <row r="291" spans="1:38">
       <c r="A291" t="s">
         <v>14</v>
       </c>
@@ -16604,7 +16603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:38" hidden="1">
+    <row r="292" spans="1:38">
       <c r="A292" t="s">
         <v>14</v>
       </c>
@@ -16651,7 +16650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:38" hidden="1">
+    <row r="293" spans="1:38">
       <c r="A293" t="s">
         <v>14</v>
       </c>
@@ -16698,7 +16697,7 @@
         <v>1.1159030349153662</v>
       </c>
     </row>
-    <row r="294" spans="1:38" hidden="1">
+    <row r="294" spans="1:38">
       <c r="A294" t="s">
         <v>14</v>
       </c>
@@ -16752,7 +16751,7 @@
         <v>19.981315178185927</v>
       </c>
     </row>
-    <row r="295" spans="1:38" hidden="1">
+    <row r="295" spans="1:38">
       <c r="A295" t="s">
         <v>14</v>
       </c>
@@ -16799,7 +16798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:38" hidden="1">
+    <row r="296" spans="1:38">
       <c r="A296" t="s">
         <v>14</v>
       </c>
@@ -16846,7 +16845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:38" hidden="1">
+    <row r="297" spans="1:38">
       <c r="A297" t="s">
         <v>14</v>
       </c>
@@ -16947,7 +16946,7 @@
         <v>25.523318908438497</v>
       </c>
     </row>
-    <row r="299" spans="1:38" hidden="1">
+    <row r="299" spans="1:38">
       <c r="A299" t="s">
         <v>14</v>
       </c>
@@ -16994,7 +16993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:38" hidden="1">
+    <row r="300" spans="1:38">
       <c r="A300" t="s">
         <v>14</v>
       </c>
@@ -17041,7 +17040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:38" hidden="1">
+    <row r="301" spans="1:38">
       <c r="A301" t="s">
         <v>14</v>
       </c>
@@ -17142,7 +17141,7 @@
         <v>5.2749446361410799</v>
       </c>
     </row>
-    <row r="303" spans="1:38" hidden="1">
+    <row r="303" spans="1:38">
       <c r="A303" t="s">
         <v>14</v>
       </c>
@@ -17189,7 +17188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:38" hidden="1">
+    <row r="304" spans="1:38">
       <c r="A304" t="s">
         <v>14</v>
       </c>
@@ -17236,7 +17235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:26" hidden="1">
+    <row r="305" spans="1:26">
       <c r="A305" t="s">
         <v>14</v>
       </c>
@@ -17337,7 +17336,7 @@
         <v>30.747951121142297</v>
       </c>
     </row>
-    <row r="307" spans="1:26" hidden="1">
+    <row r="307" spans="1:26">
       <c r="A307" t="s">
         <v>14</v>
       </c>
@@ -17384,7 +17383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:26" hidden="1">
+    <row r="308" spans="1:26">
       <c r="A308" t="s">
         <v>14</v>
       </c>
@@ -17431,7 +17430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:26" hidden="1">
+    <row r="309" spans="1:26">
       <c r="A309" t="s">
         <v>14</v>
       </c>
@@ -17532,7 +17531,7 @@
         <v>25.765741920483489</v>
       </c>
     </row>
-    <row r="311" spans="1:26" hidden="1">
+    <row r="311" spans="1:26">
       <c r="A311" t="s">
         <v>14</v>
       </c>
@@ -17579,7 +17578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:26" hidden="1">
+    <row r="312" spans="1:26">
       <c r="A312" t="s">
         <v>14</v>
       </c>
@@ -17626,7 +17625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:26" hidden="1">
+    <row r="313" spans="1:26">
       <c r="A313" t="s">
         <v>14</v>
       </c>
@@ -17727,7 +17726,7 @@
         <v>21.196272061510136</v>
       </c>
     </row>
-    <row r="315" spans="1:26" hidden="1">
+    <row r="315" spans="1:26">
       <c r="A315" t="s">
         <v>14</v>
       </c>
@@ -17774,7 +17773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:26" hidden="1">
+    <row r="316" spans="1:26">
       <c r="A316" t="s">
         <v>14</v>
       </c>
@@ -17821,7 +17820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:26" hidden="1">
+    <row r="317" spans="1:26">
       <c r="A317" t="s">
         <v>14</v>
       </c>
@@ -17922,7 +17921,7 @@
         <v>15.757838400771089</v>
       </c>
     </row>
-    <row r="319" spans="1:26" hidden="1">
+    <row r="319" spans="1:26">
       <c r="A319" t="s">
         <v>14</v>
       </c>
@@ -17969,7 +17968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:26" hidden="1">
+    <row r="320" spans="1:26">
       <c r="A320" t="s">
         <v>14</v>
       </c>
@@ -18016,7 +18015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:26" hidden="1">
+    <row r="321" spans="1:26">
       <c r="A321" t="s">
         <v>14</v>
       </c>
@@ -18117,7 +18116,7 @@
         <v>29.401922981328966</v>
       </c>
     </row>
-    <row r="323" spans="1:26" hidden="1">
+    <row r="323" spans="1:26">
       <c r="A323" t="s">
         <v>14</v>
       </c>
@@ -18164,7 +18163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:26" hidden="1">
+    <row r="324" spans="1:26">
       <c r="A324" t="s">
         <v>14</v>
       </c>
@@ -18211,7 +18210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:26" hidden="1">
+    <row r="325" spans="1:26">
       <c r="A325" t="s">
         <v>14</v>
       </c>
@@ -18312,7 +18311,7 @@
         <v>50.899819059836311</v>
       </c>
     </row>
-    <row r="327" spans="1:26" hidden="1">
+    <row r="327" spans="1:26">
       <c r="A327" t="s">
         <v>14</v>
       </c>
@@ -18359,7 +18358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:26" hidden="1">
+    <row r="328" spans="1:26">
       <c r="A328" t="s">
         <v>14</v>
       </c>
@@ -18406,7 +18405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:26" hidden="1">
+    <row r="329" spans="1:26">
       <c r="A329" t="s">
         <v>14</v>
       </c>
@@ -18507,7 +18506,7 @@
         <v>24.558059135821743</v>
       </c>
     </row>
-    <row r="331" spans="1:26" hidden="1">
+    <row r="331" spans="1:26">
       <c r="A331" t="s">
         <v>14</v>
       </c>
@@ -18554,7 +18553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:26" hidden="1">
+    <row r="332" spans="1:26">
       <c r="A332" t="s">
         <v>14</v>
       </c>
@@ -18601,7 +18600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:26" hidden="1">
+    <row r="333" spans="1:26">
       <c r="A333" t="s">
         <v>14</v>
       </c>
@@ -18702,7 +18701,7 @@
         <v>42.470371984124505</v>
       </c>
     </row>
-    <row r="335" spans="1:26" hidden="1">
+    <row r="335" spans="1:26">
       <c r="A335" t="s">
         <v>14</v>
       </c>
@@ -18749,7 +18748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:26" hidden="1">
+    <row r="336" spans="1:26">
       <c r="A336" t="s">
         <v>14</v>
       </c>
@@ -18796,7 +18795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:26" hidden="1">
+    <row r="337" spans="1:26">
       <c r="A337" t="s">
         <v>14</v>
       </c>
@@ -18898,46 +18897,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL338" xr:uid="{D9F824F1-C9CA-4B4A-8D6A-E1D6F0626745}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="TOSyear3SowFeb21CvCeleraII"/>
-        <filter val="TOSyear3SowFeb21CvCrystal"/>
-        <filter val="TOSyear3SowFeb21CvJade"/>
-        <filter val="TOSyear3SowFeb21CvOnyx"/>
-        <filter val="TOSyear3SowFeb21CvOpal"/>
-        <filter val="TOSyear3SowJan21CvBerken"/>
-        <filter val="TOSyear3SowJan21CvCeleraII"/>
-        <filter val="TOSyear3SowJan21CvCrystal"/>
-        <filter val="TOSyear3SowJan21CvJade"/>
-        <filter val="TOSyear3SowJan21CvOnyx"/>
-        <filter val="TOSyear3SowJan21CvOpal"/>
-        <filter val="TOSyear3SowNov20CvBerken"/>
-        <filter val="TOSyear3SowNov20CvCeleraII"/>
-        <filter val="TOSyear3SowNov20CvCrystal"/>
-        <filter val="TOSyear3SowNov20CvJade"/>
-        <filter val="TOSyear3SowNov20CvOnyx"/>
-        <filter val="TOSyear3SowNov20CvOpal"/>
-        <filter val="TOSyear3SowOct20CvBerken"/>
-        <filter val="TOSyear3SowOct20CvCeleraII"/>
-        <filter val="TOSyear3SowOct20CvCrystal"/>
-        <filter val="TOSyear3SowOct20CvJade"/>
-        <filter val="TOSyear3SowOct20CvOnyx"/>
-        <filter val="TOSyear3SowOct20CvOpal"/>
-        <filter val="TOSyear3SowSept20CvBerken"/>
-        <filter val="TOSyear3SowSept20CvCeleraII"/>
-        <filter val="TOSyear3SowSept20CvCrystal"/>
-        <filter val="TOSyear3SowSept20CvJade"/>
-        <filter val="TOSyear3SowSept20CvOnyx"/>
-        <filter val="TOSyear3SowSept20CvOpal"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="HarvestRipe"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL290">
     <sortCondition ref="B2:B290"/>
     <sortCondition ref="C2:C290"/>

--- a/Prototypes/Mungbean/TOSobserved.xlsx
+++ b/Prototypes/Mungbean/TOSobserved.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70466632-B26E-47B2-8937-BC43C3E10725}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B1C8FA-0DF0-483C-A2C3-B401AA4BC758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01D3E681-48EE-4304-AF98-4E94EBE61D53}"/>
+    <workbookView xWindow="34710" yWindow="8385" windowWidth="20775" windowHeight="11835" xr2:uid="{01D3E681-48EE-4304-AF98-4E94EBE61D53}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -47,67 +47,19 @@
     <t>Clock.Today</t>
   </si>
   <si>
-    <t>Soybean.Grain.Wt</t>
-  </si>
-  <si>
     <t>Yield</t>
-  </si>
-  <si>
-    <t>Soybean.Phenology.CurrentStageName</t>
-  </si>
-  <si>
-    <t>Soybean.Leaf.LAI</t>
   </si>
   <si>
     <t>RadiationIntercepted</t>
   </si>
   <si>
-    <t>Soybean.Grain.HarvestIndex</t>
-  </si>
-  <si>
-    <t>Soybean.Grain.Nconc</t>
-  </si>
-  <si>
-    <t>Soybean.Phenology.MaturityDAS</t>
-  </si>
-  <si>
-    <t>Soybean.Phenology.FlowerinitDAS</t>
-  </si>
-  <si>
     <t>HarvestRipe</t>
-  </si>
-  <si>
-    <t>Soybean.Phenology.EndGrainFillDAS</t>
   </si>
   <si>
     <t>Gatton</t>
   </si>
   <si>
-    <t>Soybean.Pod.Wt</t>
-  </si>
-  <si>
-    <t>Soybean.Pod.WtError</t>
-  </si>
-  <si>
     <t>YieldError</t>
-  </si>
-  <si>
-    <t>Soybean.Leaf.LAIError</t>
-  </si>
-  <si>
-    <t>Soybean.Grain.HarvestIndexError</t>
-  </si>
-  <si>
-    <t>Soybean.Grain.NconcError</t>
-  </si>
-  <si>
-    <t>Soybean.Phenology.FirstPodDevDAS</t>
-  </si>
-  <si>
-    <t>Soybean.Node.NumberError</t>
-  </si>
-  <si>
-    <t>Soybean.Leaf.NodeNumber</t>
   </si>
   <si>
     <t>TOSyear2SowNov19CvCeleraII</t>
@@ -245,55 +197,16 @@
     <t>Vegetative</t>
   </si>
   <si>
-    <t>Soybean.Leaf.BranchNumber</t>
-  </si>
-  <si>
-    <t>Soybean.AboveGround.Wt</t>
-  </si>
-  <si>
-    <t>Soybean.AboveGround.WtError</t>
-  </si>
-  <si>
     <t>RadiationInterceptedError</t>
   </si>
   <si>
     <t>TOSyear2SowJan20RFCvCrystal</t>
   </si>
   <si>
-    <t>Soybean.Shell.Wt</t>
-  </si>
-  <si>
-    <t>Soybean.Leaf.Wt</t>
-  </si>
-  <si>
-    <t>Soybean.Leaf.WtError</t>
-  </si>
-  <si>
-    <t>Soybean.Stem.WtError</t>
-  </si>
-  <si>
-    <t>Soybean.Stem.Wt</t>
-  </si>
-  <si>
-    <t>Soybean.Phenology.StartGrainFillingDAS</t>
-  </si>
-  <si>
-    <t>Soybean.Phenology.StartFloweringDAS</t>
-  </si>
-  <si>
-    <t>Soybean.Phenology.AccumulatedTT</t>
-  </si>
-  <si>
-    <t>Soybean.Phenology.Photoperiod.DayLength</t>
-  </si>
-  <si>
     <t>TTReproductive</t>
   </si>
   <si>
     <t>TTVegetative</t>
-  </si>
-  <si>
-    <t>Soybean.Leaf.Area</t>
   </si>
   <si>
     <t>TOSyear3SowFeb21CvBerken</t>
@@ -330,6 +243,93 @@
   </si>
   <si>
     <t>TOSyear3SowJan21CvOpal</t>
+  </si>
+  <si>
+    <t>Mungbean.Phenology.AccumulatedTT</t>
+  </si>
+  <si>
+    <t>Mungbean.Phenology.Photoperiod.DayLength</t>
+  </si>
+  <si>
+    <t>Mungbean.Phenology.CurrentStageName</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.Area</t>
+  </si>
+  <si>
+    <t>Mungbean.Stem.Wt</t>
+  </si>
+  <si>
+    <t>Mungbean.Stem.WtError</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.Wt</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.WtError</t>
+  </si>
+  <si>
+    <t>Mungbean.AboveGround.Wt</t>
+  </si>
+  <si>
+    <t>Mungbean.AboveGround.WtError</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.LAI</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.LAIError</t>
+  </si>
+  <si>
+    <t>Mungbean.Grain.HarvestIndex</t>
+  </si>
+  <si>
+    <t>Mungbean.Grain.HarvestIndexError</t>
+  </si>
+  <si>
+    <t>Mungbean.Grain.Nconc</t>
+  </si>
+  <si>
+    <t>Mungbean.Grain.NconcError</t>
+  </si>
+  <si>
+    <t>Mungbean.Grain.Wt</t>
+  </si>
+  <si>
+    <t>Mungbean.Pod.Wt</t>
+  </si>
+  <si>
+    <t>Mungbean.Shell.Wt</t>
+  </si>
+  <si>
+    <t>Mungbean.Pod.WtError</t>
+  </si>
+  <si>
+    <t>Mungbean.Phenology.FlowerinitDAS</t>
+  </si>
+  <si>
+    <t>Mungbean.Phenology.StartFloweringDAS</t>
+  </si>
+  <si>
+    <t>Mungbean.Phenology.FirstPodDevDAS</t>
+  </si>
+  <si>
+    <t>Mungbean.Phenology.StartGrainFillingDAS</t>
+  </si>
+  <si>
+    <t>Mungbean.Phenology.EndGrainFillDAS</t>
+  </si>
+  <si>
+    <t>Mungbean.Phenology.MaturityDAS</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.BranchNumber</t>
+  </si>
+  <si>
+    <t>Mungbean.Node.NumberError</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.NodeNumber</t>
   </si>
 </sst>
 </file>
@@ -860,7 +860,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -883,28 +883,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>75</v>
@@ -913,87 +913,87 @@
         <v>76</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="AC1" s="5" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:38">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7">
         <v>43494</v>
@@ -1005,7 +1005,7 @@
         <v>13.2883460463198</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G2" s="24">
         <f>D2</f>
@@ -1066,10 +1066,10 @@
     </row>
     <row r="3" spans="1:38">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C3" s="8">
         <v>43537</v>
@@ -1081,7 +1081,7 @@
         <v>12.2030551633529</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I3">
         <v>6.0692437500000009E-2</v>
@@ -1159,10 +1159,10 @@
     </row>
     <row r="4" spans="1:38">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C4" s="7">
         <v>43567</v>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="5" spans="1:38">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
       </c>
       <c r="C5" s="7">
         <v>43494</v>
@@ -1195,7 +1195,7 @@
         <v>13.2883460463198</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G5" s="24">
         <f>D5</f>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="6" spans="1:38">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
       </c>
       <c r="C6" s="8">
         <v>43537</v>
@@ -1271,7 +1271,7 @@
         <v>12.2030551633529</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I6">
         <v>3.4567021518987343E-2</v>
@@ -1346,10 +1346,10 @@
     </row>
     <row r="7" spans="1:38">
       <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
       </c>
       <c r="C7" s="7">
         <v>43567</v>
@@ -1367,10 +1367,10 @@
     </row>
     <row r="8" spans="1:38">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>43573</v>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="9" spans="1:38">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
         <v>43585</v>
@@ -1403,7 +1403,7 @@
         <v>10.9194658383445</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G9" s="24">
         <f>D9</f>
@@ -1461,10 +1461,10 @@
     </row>
     <row r="10" spans="1:38">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7">
         <v>43592</v>
@@ -1482,10 +1482,10 @@
     </row>
     <row r="11" spans="1:38">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>43601</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="12" spans="1:38">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C12" s="7">
         <v>43608</v>
@@ -1524,10 +1524,10 @@
     </row>
     <row r="13" spans="1:38">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
         <v>43619</v>
@@ -1539,7 +1539,7 @@
         <v>10.4565069617157</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I13">
         <v>4.0206006451612902E-2</v>
@@ -1618,10 +1618,10 @@
     </row>
     <row r="14" spans="1:38">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C14" s="7">
         <v>43573</v>
@@ -1639,10 +1639,10 @@
     </row>
     <row r="15" spans="1:38">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C15" s="7">
         <v>43585</v>
@@ -1654,7 +1654,7 @@
         <v>10.9194658383445</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G15" s="24">
         <f>D15</f>
@@ -1710,10 +1710,10 @@
     </row>
     <row r="16" spans="1:38">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C16" s="7">
         <v>43592</v>
@@ -1731,10 +1731,10 @@
     </row>
     <row r="17" spans="1:38">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C17" s="7">
         <v>43601</v>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="18" spans="1:38" s="9" customFormat="1">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
         <v>43608</v>
@@ -1804,10 +1804,10 @@
     </row>
     <row r="19" spans="1:38" s="9" customFormat="1">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C19" s="7">
         <v>43619</v>
@@ -1819,7 +1819,7 @@
         <v>10.4565069617157</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
@@ -1904,10 +1904,10 @@
     </row>
     <row r="20" spans="1:38" s="9" customFormat="1">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>43531</v>
@@ -1919,7 +1919,7 @@
         <v>12.3696876909069</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G20" s="24">
         <f>D20</f>
@@ -1994,10 +1994,10 @@
     </row>
     <row r="21" spans="1:38" s="9" customFormat="1">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C21" s="7">
         <v>43567</v>
@@ -2045,10 +2045,10 @@
     </row>
     <row r="22" spans="1:38">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7">
         <v>43573</v>
@@ -2066,10 +2066,10 @@
     </row>
     <row r="23" spans="1:38">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7">
         <v>43585</v>
@@ -2081,7 +2081,7 @@
         <v>10.9194658383445</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I23">
         <v>6.0162357142857149E-2</v>
@@ -2160,10 +2160,10 @@
     </row>
     <row r="24" spans="1:38">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C24" s="7">
         <v>43601</v>
@@ -2181,10 +2181,10 @@
     </row>
     <row r="25" spans="1:38">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C25" s="7">
         <v>43531</v>
@@ -2196,7 +2196,7 @@
         <v>12.3696876909069</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G25" s="24">
         <f>G20</f>
@@ -2257,10 +2257,10 @@
     </row>
     <row r="26" spans="1:38">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7">
         <v>43567</v>
@@ -2278,10 +2278,10 @@
     </row>
     <row r="27" spans="1:38">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C27" s="7">
         <v>43573</v>
@@ -2299,10 +2299,10 @@
     </row>
     <row r="28" spans="1:38">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C28" s="7">
         <v>43585</v>
@@ -2314,7 +2314,7 @@
         <v>10.9194658383445</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I28">
         <v>3.7830162464985995E-2</v>
@@ -2393,10 +2393,10 @@
     </row>
     <row r="29" spans="1:38">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>43601</v>
@@ -2414,10 +2414,10 @@
     </row>
     <row r="30" spans="1:38">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C30" s="16">
         <v>43859</v>
@@ -2437,10 +2437,10 @@
     </row>
     <row r="31" spans="1:38">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C31" s="16">
         <v>43875</v>
@@ -2460,10 +2460,10 @@
     </row>
     <row r="32" spans="1:38">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C32" s="7">
         <v>43886</v>
@@ -2475,7 +2475,7 @@
         <v>12.641160346819699</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
@@ -2537,10 +2537,10 @@
     </row>
     <row r="33" spans="1:38">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C33" s="16">
         <v>43889</v>
@@ -2560,10 +2560,10 @@
     </row>
     <row r="34" spans="1:38">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C34" s="7">
         <v>43890</v>
@@ -2575,7 +2575,7 @@
         <v>12.533786706005699</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G34" s="27">
         <f>D34</f>
@@ -2643,10 +2643,10 @@
     </row>
     <row r="35" spans="1:38">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C35" s="16">
         <v>43903</v>
@@ -2663,10 +2663,10 @@
     </row>
     <row r="36" spans="1:38">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C36" s="7">
         <v>43906</v>
@@ -2678,7 +2678,7 @@
         <v>12.0911420882111</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -2746,10 +2746,10 @@
     </row>
     <row r="37" spans="1:38">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C37" s="16">
         <v>43908</v>
@@ -2766,10 +2766,10 @@
     </row>
     <row r="38" spans="1:38">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C38" s="16">
         <v>43916</v>
@@ -2786,10 +2786,10 @@
     </row>
     <row r="39" spans="1:38">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C39" s="7">
         <v>43917</v>
@@ -2801,7 +2801,7 @@
         <v>11.7829911349372</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I39">
         <v>9.6778283970688633E-2</v>
@@ -2887,10 +2887,10 @@
     </row>
     <row r="40" spans="1:38">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C40" s="7">
         <v>43886</v>
@@ -2902,7 +2902,7 @@
         <v>12.641160346819699</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
@@ -2964,10 +2964,10 @@
     </row>
     <row r="41" spans="1:38">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C41" s="7">
         <v>43890</v>
@@ -2979,7 +2979,7 @@
         <v>12.533786706005699</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G41" s="27">
         <f>D41</f>
@@ -3047,10 +3047,10 @@
     </row>
     <row r="42" spans="1:38">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C42" s="7">
         <v>43906</v>
@@ -3062,7 +3062,7 @@
         <v>12.0911420882111</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
@@ -3130,10 +3130,10 @@
     </row>
     <row r="43" spans="1:38">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C43" s="7">
         <v>43917</v>
@@ -3145,7 +3145,7 @@
         <v>11.7829911349372</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I43">
         <v>6.6162723961270736E-2</v>
@@ -3231,10 +3231,10 @@
     </row>
     <row r="44" spans="1:38">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C44" s="16">
         <v>43859</v>
@@ -3254,10 +3254,10 @@
     </row>
     <row r="45" spans="1:38">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C45" s="16">
         <v>43875</v>
@@ -3277,10 +3277,10 @@
     </row>
     <row r="46" spans="1:38">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C46" s="10">
         <v>43878</v>
@@ -3292,7 +3292,7 @@
         <v>12.849224748536701</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
@@ -3354,10 +3354,10 @@
     </row>
     <row r="47" spans="1:38">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C47" s="10">
         <v>43889</v>
@@ -3369,7 +3369,7 @@
         <v>12.5608032464926</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G47" s="27">
         <f>D47</f>
@@ -3437,10 +3437,10 @@
     </row>
     <row r="48" spans="1:38">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C48" s="16">
         <v>43889</v>
@@ -3460,10 +3460,10 @@
     </row>
     <row r="49" spans="1:38">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C49" s="10">
         <v>43902</v>
@@ -3475,7 +3475,7 @@
         <v>12.2030551633529</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
@@ -3543,10 +3543,10 @@
     </row>
     <row r="50" spans="1:38">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C50" s="16">
         <v>43903</v>
@@ -3563,10 +3563,10 @@
     </row>
     <row r="51" spans="1:38">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C51" s="16">
         <v>43908</v>
@@ -3583,10 +3583,10 @@
     </row>
     <row r="52" spans="1:38">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C52" s="10">
         <v>43913</v>
@@ -3598,7 +3598,7 @@
         <v>11.8948473141288</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I52">
         <v>7.602947429931696E-2</v>
@@ -3684,10 +3684,10 @@
     </row>
     <row r="53" spans="1:38">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C53" s="16">
         <v>43916</v>
@@ -3704,10 +3704,10 @@
     </row>
     <row r="54" spans="1:38">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C54" s="16">
         <v>43859</v>
@@ -3727,10 +3727,10 @@
     </row>
     <row r="55" spans="1:38">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C55" s="16">
         <v>43875</v>
@@ -3750,10 +3750,10 @@
     </row>
     <row r="56" spans="1:38">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C56" s="7">
         <v>43886</v>
@@ -3765,7 +3765,7 @@
         <v>12.641160346819699</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
@@ -3827,10 +3827,10 @@
     </row>
     <row r="57" spans="1:38">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C57" s="16">
         <v>43889</v>
@@ -3850,10 +3850,10 @@
     </row>
     <row r="58" spans="1:38">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C58" s="7">
         <v>43890</v>
@@ -3865,7 +3865,7 @@
         <v>12.533786706005699</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G58" s="27">
         <f>D58</f>
@@ -3927,10 +3927,10 @@
     </row>
     <row r="59" spans="1:38">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C59" s="16">
         <v>43903</v>
@@ -3947,10 +3947,10 @@
     </row>
     <row r="60" spans="1:38">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C60" s="7">
         <v>43906</v>
@@ -3962,7 +3962,7 @@
         <v>12.0911420882111</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
@@ -4030,10 +4030,10 @@
     </row>
     <row r="61" spans="1:38">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C61" s="16">
         <v>43908</v>
@@ -4050,10 +4050,10 @@
     </row>
     <row r="62" spans="1:38">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C62" s="16">
         <v>43916</v>
@@ -4070,10 +4070,10 @@
     </row>
     <row r="63" spans="1:38">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C63" s="7">
         <v>43917</v>
@@ -4085,7 +4085,7 @@
         <v>11.7829911349372</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I63">
         <v>6.3069898374574232E-2</v>
@@ -4165,10 +4165,10 @@
     </row>
     <row r="64" spans="1:38">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C64" s="21">
         <v>43859</v>
@@ -4188,10 +4188,10 @@
     </row>
     <row r="65" spans="1:38">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C65" s="21">
         <v>43875</v>
@@ -4211,10 +4211,10 @@
     </row>
     <row r="66" spans="1:38">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C66" s="10">
         <v>43878</v>
@@ -4226,7 +4226,7 @@
         <v>12.849224748536701</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
@@ -4288,10 +4288,10 @@
     </row>
     <row r="67" spans="1:38">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C67" s="10">
         <v>43889</v>
@@ -4303,7 +4303,7 @@
         <v>12.5608032464926</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G67" s="27">
         <f>D67</f>
@@ -4371,10 +4371,10 @@
     </row>
     <row r="68" spans="1:38">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C68" s="21">
         <v>43889</v>
@@ -4394,10 +4394,10 @@
     </row>
     <row r="69" spans="1:38">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C69" s="10">
         <v>43902</v>
@@ -4409,7 +4409,7 @@
         <v>12.2030551633529</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
@@ -4471,10 +4471,10 @@
     </row>
     <row r="70" spans="1:38">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C70" s="21">
         <v>43903</v>
@@ -4494,10 +4494,10 @@
     </row>
     <row r="71" spans="1:38">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C71" s="18">
         <v>43908</v>
@@ -4517,10 +4517,10 @@
     </row>
     <row r="72" spans="1:38">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C72" s="10">
         <v>43913</v>
@@ -4532,7 +4532,7 @@
         <v>11.8948473141288</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I72">
         <v>5.1706689853700923E-2</v>
@@ -4618,10 +4618,10 @@
     </row>
     <row r="73" spans="1:38">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C73" s="18">
         <v>43916</v>
@@ -4641,10 +4641,10 @@
     </row>
     <row r="74" spans="1:38">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C74" s="21">
         <v>43859</v>
@@ -4664,10 +4664,10 @@
     </row>
     <row r="75" spans="1:38">
       <c r="A75" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C75" s="21">
         <v>43875</v>
@@ -4687,10 +4687,10 @@
     </row>
     <row r="76" spans="1:38">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C76" s="21">
         <v>43889</v>
@@ -4710,10 +4710,10 @@
     </row>
     <row r="77" spans="1:38">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C77" s="21">
         <v>43903</v>
@@ -4733,10 +4733,10 @@
     </row>
     <row r="78" spans="1:38">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C78" s="18">
         <v>43908</v>
@@ -4756,10 +4756,10 @@
     </row>
     <row r="79" spans="1:38">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C79" s="18">
         <v>43916</v>
@@ -4779,10 +4779,10 @@
     </row>
     <row r="80" spans="1:38">
       <c r="A80" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C80" s="21">
         <v>43859</v>
@@ -4802,10 +4802,10 @@
     </row>
     <row r="81" spans="1:38">
       <c r="A81" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C81" s="21">
         <v>43875</v>
@@ -4825,10 +4825,10 @@
     </row>
     <row r="82" spans="1:38">
       <c r="A82" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C82" s="10">
         <v>43886</v>
@@ -4840,7 +4840,7 @@
         <v>12.641160346819699</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
@@ -4902,10 +4902,10 @@
     </row>
     <row r="83" spans="1:38">
       <c r="A83" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C83" s="21">
         <v>43889</v>
@@ -4925,10 +4925,10 @@
     </row>
     <row r="84" spans="1:38">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C84" s="10">
         <v>43890</v>
@@ -4940,7 +4940,7 @@
         <v>12.533786706005699</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G84" s="27">
         <f>D84</f>
@@ -5014,10 +5014,10 @@
     </row>
     <row r="85" spans="1:38">
       <c r="A85" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C85" s="21">
         <v>43903</v>
@@ -5037,10 +5037,10 @@
     </row>
     <row r="86" spans="1:38">
       <c r="A86" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C86" s="10">
         <v>43906</v>
@@ -5052,7 +5052,7 @@
         <v>12.0911420882111</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
@@ -5118,10 +5118,10 @@
     </row>
     <row r="87" spans="1:38">
       <c r="A87" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C87" s="18">
         <v>43908</v>
@@ -5141,10 +5141,10 @@
     </row>
     <row r="88" spans="1:38">
       <c r="A88" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C88" s="18">
         <v>43916</v>
@@ -5164,10 +5164,10 @@
     </row>
     <row r="89" spans="1:38">
       <c r="A89" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C89" s="10">
         <v>43917</v>
@@ -5179,7 +5179,7 @@
         <v>11.7829911349372</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I89">
         <v>4.6293830910901279E-2</v>
@@ -5263,10 +5263,10 @@
     </row>
     <row r="90" spans="1:38">
       <c r="A90" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C90" s="7">
         <v>43829</v>
@@ -5278,7 +5278,7 @@
         <v>13.7092620831716</v>
       </c>
       <c r="F90" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I90">
         <v>1.5205772817792567E-2</v>
@@ -5328,10 +5328,10 @@
     </row>
     <row r="91" spans="1:38">
       <c r="A91" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C91" s="16">
         <v>43832</v>
@@ -5351,10 +5351,10 @@
     </row>
     <row r="92" spans="1:38">
       <c r="A92" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C92" s="16">
         <v>43838</v>
@@ -5374,10 +5374,10 @@
     </row>
     <row r="93" spans="1:38">
       <c r="A93" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C93" s="7">
         <v>43843</v>
@@ -5389,7 +5389,7 @@
         <v>13.5647195885462</v>
       </c>
       <c r="F93" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G93" s="24">
         <f>D93</f>
@@ -5447,10 +5447,10 @@
     </row>
     <row r="94" spans="1:38">
       <c r="A94" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C94" s="16">
         <v>43851</v>
@@ -5467,10 +5467,10 @@
     </row>
     <row r="95" spans="1:38">
       <c r="A95" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C95" s="16">
         <v>43859</v>
@@ -5487,10 +5487,10 @@
     </row>
     <row r="96" spans="1:38">
       <c r="A96" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C96" s="7">
         <v>43860</v>
@@ -5502,7 +5502,7 @@
         <v>13.267793033733801</v>
       </c>
       <c r="F96" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I96">
         <v>0.10940183503935125</v>
@@ -5562,10 +5562,10 @@
     </row>
     <row r="97" spans="1:38">
       <c r="A97" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C97" s="7">
         <v>43874</v>
@@ -5577,7 +5577,7 @@
         <v>12.949033555628599</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I97">
         <v>8.9252610196266055E-2</v>
@@ -5653,10 +5653,10 @@
     </row>
     <row r="98" spans="1:38">
       <c r="A98" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C98" s="16">
         <v>43875</v>
@@ -5673,10 +5673,10 @@
     </row>
     <row r="99" spans="1:38">
       <c r="A99" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C99" s="16">
         <v>43809</v>
@@ -5696,10 +5696,10 @@
     </row>
     <row r="100" spans="1:38">
       <c r="A100" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C100" s="16">
         <v>43816</v>
@@ -5716,10 +5716,10 @@
     </row>
     <row r="101" spans="1:38">
       <c r="A101" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C101" s="16">
         <v>43832</v>
@@ -5739,10 +5739,10 @@
     </row>
     <row r="102" spans="1:38">
       <c r="A102" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C102" s="7">
         <v>43838</v>
@@ -5754,7 +5754,7 @@
         <v>13.6275476884779</v>
       </c>
       <c r="F102" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I102">
         <v>4.3259611031246793E-2</v>
@@ -5814,10 +5814,10 @@
     </row>
     <row r="103" spans="1:38">
       <c r="A103" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C103" s="16">
         <v>43838</v>
@@ -5837,10 +5837,10 @@
     </row>
     <row r="104" spans="1:38">
       <c r="A104" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C104" s="16">
         <v>43839</v>
@@ -5857,10 +5857,10 @@
     </row>
     <row r="105" spans="1:38">
       <c r="A105" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C105" s="7">
         <v>43850</v>
@@ -5872,7 +5872,7 @@
         <v>13.456880064924199</v>
       </c>
       <c r="F105" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G105" s="24">
         <f>D105</f>
@@ -5940,10 +5940,10 @@
     </row>
     <row r="106" spans="1:38">
       <c r="A106" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C106" s="16">
         <v>43851</v>
@@ -5960,10 +5960,10 @@
     </row>
     <row r="107" spans="1:38">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C107" s="16">
         <v>43859</v>
@@ -5980,10 +5980,10 @@
     </row>
     <row r="108" spans="1:38">
       <c r="A108" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C108" s="7">
         <v>43860</v>
@@ -5995,7 +5995,7 @@
         <v>13.267793033733801</v>
       </c>
       <c r="F108" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I108">
         <v>0.12441048892984666</v>
@@ -6055,10 +6055,10 @@
     </row>
     <row r="109" spans="1:38">
       <c r="A109" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C109" s="16">
         <v>43875</v>
@@ -6078,10 +6078,10 @@
     </row>
     <row r="110" spans="1:38">
       <c r="A110" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C110" s="7">
         <v>43880</v>
@@ -6093,7 +6093,7 @@
         <v>12.798178559888299</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I110">
         <v>8.1550399174161875E-2</v>
@@ -6175,10 +6175,10 @@
     </row>
     <row r="111" spans="1:38">
       <c r="A111" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C111" s="16">
         <v>43832</v>
@@ -6198,10 +6198,10 @@
     </row>
     <row r="112" spans="1:38">
       <c r="A112" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C112" s="7">
         <v>43838</v>
@@ -6213,7 +6213,7 @@
         <v>13.6275476884779</v>
       </c>
       <c r="F112" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I112">
         <v>2.8109203395425077E-2</v>
@@ -6273,10 +6273,10 @@
     </row>
     <row r="113" spans="1:38">
       <c r="A113" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C113" s="16">
         <v>43838</v>
@@ -6296,10 +6296,10 @@
     </row>
     <row r="114" spans="1:38">
       <c r="A114" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B114" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C114" s="7">
         <v>43850</v>
@@ -6311,7 +6311,7 @@
         <v>13.456880064924199</v>
       </c>
       <c r="F114" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G114" s="24">
         <f>D114</f>
@@ -6379,10 +6379,10 @@
     </row>
     <row r="115" spans="1:38">
       <c r="A115" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C115" s="16">
         <v>43851</v>
@@ -6399,10 +6399,10 @@
     </row>
     <row r="116" spans="1:38">
       <c r="A116" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C116" s="16">
         <v>43859</v>
@@ -6419,10 +6419,10 @@
     </row>
     <row r="117" spans="1:38">
       <c r="A117" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C117" s="7">
         <v>43860</v>
@@ -6434,7 +6434,7 @@
         <v>13.267793033733801</v>
       </c>
       <c r="F117" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I117">
         <v>0.10920368823704496</v>
@@ -6500,10 +6500,10 @@
     </row>
     <row r="118" spans="1:38">
       <c r="A118" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C118" s="16">
         <v>43875</v>
@@ -6523,10 +6523,10 @@
     </row>
     <row r="119" spans="1:38">
       <c r="A119" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C119" s="7">
         <v>43880</v>
@@ -6538,7 +6538,7 @@
         <v>12.798178559888299</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I119">
         <v>9.4132743693996601E-2</v>
@@ -6618,10 +6618,10 @@
     </row>
     <row r="120" spans="1:38">
       <c r="A120" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C120" s="7">
         <v>43829</v>
@@ -6633,7 +6633,7 @@
         <v>13.7092620831716</v>
       </c>
       <c r="F120" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I120">
         <v>2.067191021879438E-2</v>
@@ -6693,10 +6693,10 @@
     </row>
     <row r="121" spans="1:38">
       <c r="A121" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C121" s="21">
         <v>43832</v>
@@ -6716,10 +6716,10 @@
     </row>
     <row r="122" spans="1:38">
       <c r="A122" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C122" s="21">
         <v>43838</v>
@@ -6739,10 +6739,10 @@
     </row>
     <row r="123" spans="1:38">
       <c r="A123" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C123" s="7">
         <v>43843</v>
@@ -6754,7 +6754,7 @@
         <v>13.5647195885462</v>
       </c>
       <c r="F123" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G123" s="24">
         <f>D123</f>
@@ -6812,10 +6812,10 @@
     </row>
     <row r="124" spans="1:38">
       <c r="A124" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B124" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C124" s="21">
         <v>43851</v>
@@ -6835,10 +6835,10 @@
     </row>
     <row r="125" spans="1:38">
       <c r="A125" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B125" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C125" s="7">
         <v>43860</v>
@@ -6850,7 +6850,7 @@
         <v>13.267793033733801</v>
       </c>
       <c r="F125" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I125">
         <v>7.2285543584819131E-2</v>
@@ -6910,10 +6910,10 @@
     </row>
     <row r="126" spans="1:38">
       <c r="A126" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B126" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C126" s="21">
         <v>43864</v>
@@ -6933,10 +6933,10 @@
     </row>
     <row r="127" spans="1:38">
       <c r="A127" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C127" s="7">
         <v>43874</v>
@@ -6948,7 +6948,7 @@
         <v>12.949033555628599</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I127">
         <v>4.9985326473510353E-2</v>
@@ -7024,10 +7024,10 @@
     </row>
     <row r="128" spans="1:38">
       <c r="A128" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C128" s="21">
         <v>43875</v>
@@ -7047,10 +7047,10 @@
     </row>
     <row r="129" spans="1:38">
       <c r="A129" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C129" s="21">
         <v>43832</v>
@@ -7070,10 +7070,10 @@
     </row>
     <row r="130" spans="1:38">
       <c r="A130" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B130" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C130" s="7">
         <v>43838</v>
@@ -7085,7 +7085,7 @@
         <v>13.6275476884779</v>
       </c>
       <c r="F130" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I130">
         <v>3.3568028704327034E-2</v>
@@ -7135,10 +7135,10 @@
     </row>
     <row r="131" spans="1:38">
       <c r="A131" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B131" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C131" s="21">
         <v>43838</v>
@@ -7158,10 +7158,10 @@
     </row>
     <row r="132" spans="1:38">
       <c r="A132" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B132" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C132" s="7">
         <v>43850</v>
@@ -7173,7 +7173,7 @@
         <v>13.456880064924199</v>
       </c>
       <c r="F132" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G132" s="24">
         <f>D132</f>
@@ -7241,10 +7241,10 @@
     </row>
     <row r="133" spans="1:38">
       <c r="A133" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B133" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C133" s="21">
         <v>43851</v>
@@ -7264,10 +7264,10 @@
     </row>
     <row r="134" spans="1:38">
       <c r="A134" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B134" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C134" s="7">
         <v>43860</v>
@@ -7279,7 +7279,7 @@
         <v>13.267793033733801</v>
       </c>
       <c r="F134" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I134">
         <v>8.5076995121753984E-2</v>
@@ -7345,10 +7345,10 @@
     </row>
     <row r="135" spans="1:38">
       <c r="A135" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C135" s="21">
         <v>43864</v>
@@ -7368,10 +7368,10 @@
     </row>
     <row r="136" spans="1:38">
       <c r="A136" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C136" s="21">
         <v>43875</v>
@@ -7391,10 +7391,10 @@
     </row>
     <row r="137" spans="1:38">
       <c r="A137" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C137" s="7">
         <v>43880</v>
@@ -7406,7 +7406,7 @@
         <v>12.798178559888299</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I137">
         <v>7.1058702302722515E-2</v>
@@ -7486,10 +7486,10 @@
     </row>
     <row r="138" spans="1:38">
       <c r="A138" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C138" s="21">
         <v>43832</v>
@@ -7509,10 +7509,10 @@
     </row>
     <row r="139" spans="1:38">
       <c r="A139" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B139" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C139" s="7">
         <v>43838</v>
@@ -7524,7 +7524,7 @@
         <v>13.6275476884779</v>
       </c>
       <c r="F139" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I139">
         <v>3.7063851414675351E-2</v>
@@ -7584,10 +7584,10 @@
     </row>
     <row r="140" spans="1:38">
       <c r="A140" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B140" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C140" s="21">
         <v>43838</v>
@@ -7607,10 +7607,10 @@
     </row>
     <row r="141" spans="1:38">
       <c r="A141" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B141" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C141" s="7">
         <v>43850</v>
@@ -7622,7 +7622,7 @@
         <v>13.456880064924199</v>
       </c>
       <c r="F141" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G141" s="24">
         <f>D141</f>
@@ -7690,10 +7690,10 @@
     </row>
     <row r="142" spans="1:38">
       <c r="A142" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B142" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C142" s="21">
         <v>43851</v>
@@ -7713,10 +7713,10 @@
     </row>
     <row r="143" spans="1:38">
       <c r="A143" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C143" s="7">
         <v>43860</v>
@@ -7728,7 +7728,7 @@
         <v>13.267793033733801</v>
       </c>
       <c r="F143" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I143">
         <v>6.6262687838193654E-2</v>
@@ -7794,10 +7794,10 @@
     </row>
     <row r="144" spans="1:38">
       <c r="A144" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B144" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C144" s="21">
         <v>43864</v>
@@ -7817,10 +7817,10 @@
     </row>
     <row r="145" spans="1:38">
       <c r="A145" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B145" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C145" s="21">
         <v>43875</v>
@@ -7840,10 +7840,10 @@
     </row>
     <row r="146" spans="1:38">
       <c r="A146" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C146" s="7">
         <v>43880</v>
@@ -7855,7 +7855,7 @@
         <v>12.798178559888299</v>
       </c>
       <c r="F146" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I146">
         <v>7.0523385601598668E-2</v>
@@ -7935,10 +7935,10 @@
     </row>
     <row r="147" spans="1:38">
       <c r="A147" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C147" s="7">
         <v>43788</v>
@@ -7950,7 +7950,7 @@
         <v>13.487909641145899</v>
       </c>
       <c r="F147" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I147">
         <v>3.9179484848484844E-3</v>
@@ -8000,10 +8000,10 @@
     </row>
     <row r="148" spans="1:38">
       <c r="A148" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B148" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C148" s="16">
         <v>43790</v>
@@ -8023,10 +8023,10 @@
     </row>
     <row r="149" spans="1:38">
       <c r="A149" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B149" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C149" s="16">
         <v>43796</v>
@@ -8046,10 +8046,10 @@
     </row>
     <row r="150" spans="1:38">
       <c r="A150" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B150" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C150" s="16">
         <v>43802</v>
@@ -8069,10 +8069,10 @@
     </row>
     <row r="151" spans="1:38">
       <c r="A151" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B151" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C151" s="16">
         <v>43809</v>
@@ -8092,10 +8092,10 @@
     </row>
     <row r="152" spans="1:38">
       <c r="A152" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B152" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C152" s="17">
         <v>43810</v>
@@ -8107,7 +8107,7 @@
         <v>13.7237935348096</v>
       </c>
       <c r="F152" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G152" s="24">
         <f>D152</f>
@@ -8175,10 +8175,10 @@
     </row>
     <row r="153" spans="1:38">
       <c r="A153" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B153" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C153" s="11">
         <v>43816</v>
@@ -8195,10 +8195,10 @@
     </row>
     <row r="154" spans="1:38">
       <c r="A154" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B154" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C154" s="17">
         <v>43817</v>
@@ -8210,7 +8210,7 @@
         <v>13.743035755563101</v>
       </c>
       <c r="F154" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I154">
         <v>4.509301252281997E-2</v>
@@ -8270,10 +8270,10 @@
     </row>
     <row r="155" spans="1:38">
       <c r="A155" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B155" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C155" s="11">
         <v>43832</v>
@@ -8293,10 +8293,10 @@
     </row>
     <row r="156" spans="1:38">
       <c r="A156" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B156" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C156" s="11">
         <v>43838</v>
@@ -8316,10 +8316,10 @@
     </row>
     <row r="157" spans="1:38">
       <c r="A157" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B157" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C157" s="17">
         <v>43845</v>
@@ -8331,7 +8331,7 @@
         <v>13.5361826009201</v>
       </c>
       <c r="F157" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I157">
         <v>4.1048318165796079E-2</v>
@@ -8401,10 +8401,10 @@
     </row>
     <row r="158" spans="1:38">
       <c r="A158" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B158" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C158" s="11">
         <v>43851</v>
@@ -8424,10 +8424,10 @@
     </row>
     <row r="159" spans="1:38">
       <c r="A159" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B159" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C159" s="11">
         <v>43790</v>
@@ -8447,10 +8447,10 @@
     </row>
     <row r="160" spans="1:38">
       <c r="A160" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B160" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C160" s="17">
         <v>43795</v>
@@ -8462,7 +8462,7 @@
         <v>13.589734106581201</v>
       </c>
       <c r="F160" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I160">
         <v>1.5169972222222222E-2</v>
@@ -8512,10 +8512,10 @@
     </row>
     <row r="161" spans="1:38">
       <c r="A161" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B161" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C161" s="11">
         <v>43796</v>
@@ -8535,10 +8535,10 @@
     </row>
     <row r="162" spans="1:38">
       <c r="A162" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B162" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C162" s="11">
         <v>43802</v>
@@ -8558,10 +8558,10 @@
     </row>
     <row r="163" spans="1:38">
       <c r="A163" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B163" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C163" s="11">
         <v>43808</v>
@@ -8579,10 +8579,10 @@
     </row>
     <row r="164" spans="1:38">
       <c r="A164" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B164" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C164" s="11">
         <v>43809</v>
@@ -8602,10 +8602,10 @@
     </row>
     <row r="165" spans="1:38">
       <c r="A165" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B165" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C165" s="11">
         <v>43810</v>
@@ -8622,10 +8622,10 @@
     </row>
     <row r="166" spans="1:38">
       <c r="A166" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B166" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C166" s="11">
         <v>43816</v>
@@ -8645,10 +8645,10 @@
     </row>
     <row r="167" spans="1:38">
       <c r="A167" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B167" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C167" s="17">
         <v>43817</v>
@@ -8660,7 +8660,7 @@
         <v>13.743035755563101</v>
       </c>
       <c r="F167" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G167" s="24">
         <f>D167</f>
@@ -8728,10 +8728,10 @@
     </row>
     <row r="168" spans="1:38">
       <c r="A168" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B168" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C168" s="17">
         <v>43829</v>
@@ -8743,7 +8743,7 @@
         <v>13.7092620831716</v>
       </c>
       <c r="F168" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I168">
         <v>7.3548770617147208E-2</v>
@@ -8793,10 +8793,10 @@
     </row>
     <row r="169" spans="1:38">
       <c r="A169" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B169" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C169" s="11">
         <v>43832</v>
@@ -8816,10 +8816,10 @@
     </row>
     <row r="170" spans="1:38">
       <c r="A170" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B170" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C170" s="11">
         <v>43838</v>
@@ -8839,10 +8839,10 @@
     </row>
     <row r="171" spans="1:38">
       <c r="A171" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B171" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C171" s="11">
         <v>43851</v>
@@ -8862,10 +8862,10 @@
     </row>
     <row r="172" spans="1:38">
       <c r="A172" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B172" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C172" s="17">
         <v>43852</v>
@@ -8877,7 +8877,7 @@
         <v>13.4221512467888</v>
       </c>
       <c r="F172" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I172">
         <v>6.7084921282069665E-2</v>
@@ -8957,10 +8957,10 @@
     </row>
     <row r="173" spans="1:38">
       <c r="A173" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B173" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C173" s="11">
         <v>43790</v>
@@ -8980,10 +8980,10 @@
     </row>
     <row r="174" spans="1:38">
       <c r="A174" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C174" s="17">
         <v>43795</v>
@@ -8995,7 +8995,7 @@
         <v>13.589734106581201</v>
       </c>
       <c r="F174" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I174">
         <v>1.4529772277227722E-2</v>
@@ -9045,10 +9045,10 @@
     </row>
     <row r="175" spans="1:38">
       <c r="A175" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B175" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C175" s="11">
         <v>43796</v>
@@ -9068,10 +9068,10 @@
     </row>
     <row r="176" spans="1:38">
       <c r="A176" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B176" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C176" s="11">
         <v>43802</v>
@@ -9091,10 +9091,10 @@
     </row>
     <row r="177" spans="1:38">
       <c r="A177" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B177" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C177" s="11">
         <v>43809</v>
@@ -9114,10 +9114,10 @@
     </row>
     <row r="178" spans="1:38">
       <c r="A178" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B178" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C178" s="17">
         <v>43810</v>
@@ -9129,7 +9129,7 @@
         <v>13.7237935348096</v>
       </c>
       <c r="F178" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G178" s="24">
         <f>D178</f>
@@ -9191,10 +9191,10 @@
     </row>
     <row r="179" spans="1:38">
       <c r="A179" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B179" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C179" s="11">
         <v>43816</v>
@@ -9214,10 +9214,10 @@
     </row>
     <row r="180" spans="1:38">
       <c r="A180" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B180" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C180" s="17">
         <v>43822</v>
@@ -9229,7 +9229,7 @@
         <v>13.739176144857</v>
       </c>
       <c r="F180" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I180">
         <v>6.5553849344934495E-2</v>
@@ -9289,10 +9289,10 @@
     </row>
     <row r="181" spans="1:38">
       <c r="A181" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B181" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C181" s="11">
         <v>43832</v>
@@ -9312,10 +9312,10 @@
     </row>
     <row r="182" spans="1:38">
       <c r="A182" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B182" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C182" s="11">
         <v>43838</v>
@@ -9335,10 +9335,10 @@
     </row>
     <row r="183" spans="1:38">
       <c r="A183" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B183" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C183" s="11">
         <v>43851</v>
@@ -9358,10 +9358,10 @@
     </row>
     <row r="184" spans="1:38">
       <c r="A184" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B184" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C184" s="17">
         <v>43852</v>
@@ -9373,7 +9373,7 @@
         <v>13.4221512467888</v>
       </c>
       <c r="F184" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I184">
         <v>4.2700299270817137E-2</v>
@@ -9453,10 +9453,10 @@
     </row>
     <row r="185" spans="1:38">
       <c r="A185" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B185" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C185" s="17">
         <v>43788</v>
@@ -9468,7 +9468,7 @@
         <v>13.487909641145899</v>
       </c>
       <c r="F185" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I185">
         <v>4.2571561728395055E-3</v>
@@ -9518,10 +9518,10 @@
     </row>
     <row r="186" spans="1:38">
       <c r="A186" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B186" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C186" s="20">
         <v>43790</v>
@@ -9541,10 +9541,10 @@
     </row>
     <row r="187" spans="1:38">
       <c r="A187" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B187" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C187" s="20">
         <v>43796</v>
@@ -9561,10 +9561,10 @@
     </row>
     <row r="188" spans="1:38">
       <c r="A188" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B188" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C188" s="20">
         <v>43802</v>
@@ -9584,10 +9584,10 @@
     </row>
     <row r="189" spans="1:38">
       <c r="A189" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B189" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C189" s="20">
         <v>43809</v>
@@ -9607,10 +9607,10 @@
     </row>
     <row r="190" spans="1:38">
       <c r="A190" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B190" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C190" s="17">
         <v>43810</v>
@@ -9622,7 +9622,7 @@
         <v>13.7237935348096</v>
       </c>
       <c r="F190" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G190" s="24">
         <f>D190</f>
@@ -9690,10 +9690,10 @@
     </row>
     <row r="191" spans="1:38">
       <c r="A191" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B191" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C191" s="17">
         <v>43817</v>
@@ -9705,7 +9705,7 @@
         <v>13.743035755563101</v>
       </c>
       <c r="F191" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I191">
         <v>1.2050089021969631E-2</v>
@@ -9765,10 +9765,10 @@
     </row>
     <row r="192" spans="1:38">
       <c r="A192" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B192" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C192" s="20">
         <v>43832</v>
@@ -9788,10 +9788,10 @@
     </row>
     <row r="193" spans="1:38">
       <c r="A193" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B193" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C193" s="20">
         <v>43838</v>
@@ -9811,10 +9811,10 @@
     </row>
     <row r="194" spans="1:38">
       <c r="A194" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B194" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C194" s="17">
         <v>43845</v>
@@ -9826,7 +9826,7 @@
         <v>13.5361826009201</v>
       </c>
       <c r="F194" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I194">
         <v>1.022419234799566E-2</v>
@@ -9892,10 +9892,10 @@
     </row>
     <row r="195" spans="1:38">
       <c r="A195" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B195" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C195" s="20">
         <v>43851</v>
@@ -9915,10 +9915,10 @@
     </row>
     <row r="196" spans="1:38">
       <c r="A196" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B196" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C196" s="20">
         <v>43790</v>
@@ -9938,10 +9938,10 @@
     </row>
     <row r="197" spans="1:38">
       <c r="A197" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B197" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C197" s="17">
         <v>43795</v>
@@ -9953,7 +9953,7 @@
         <v>13.589734106581201</v>
       </c>
       <c r="F197" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I197">
         <v>1.5747008928571428E-2</v>
@@ -10003,10 +10003,10 @@
     </row>
     <row r="198" spans="1:38">
       <c r="A198" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B198" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C198" s="20">
         <v>43796</v>
@@ -10023,10 +10023,10 @@
     </row>
     <row r="199" spans="1:38">
       <c r="A199" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B199" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C199" s="20">
         <v>43802</v>
@@ -10046,10 +10046,10 @@
     </row>
     <row r="200" spans="1:38">
       <c r="A200" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C200" s="20">
         <v>43809</v>
@@ -10069,10 +10069,10 @@
     </row>
     <row r="201" spans="1:38">
       <c r="A201" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B201" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C201" s="20">
         <v>43816</v>
@@ -10089,10 +10089,10 @@
     </row>
     <row r="202" spans="1:38">
       <c r="A202" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B202" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C202" s="17">
         <v>43817</v>
@@ -10104,7 +10104,7 @@
         <v>13.743035755563101</v>
       </c>
       <c r="F202" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G202" s="24">
         <f>D202</f>
@@ -10172,10 +10172,10 @@
     </row>
     <row r="203" spans="1:38">
       <c r="A203" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B203" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C203" s="17">
         <v>43829</v>
@@ -10187,7 +10187,7 @@
         <v>13.7092620831716</v>
       </c>
       <c r="F203" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I203">
         <v>3.6989511765168751E-2</v>
@@ -10237,10 +10237,10 @@
     </row>
     <row r="204" spans="1:38">
       <c r="A204" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B204" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C204" s="20">
         <v>43832</v>
@@ -10260,10 +10260,10 @@
     </row>
     <row r="205" spans="1:38">
       <c r="A205" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B205" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C205" s="20">
         <v>43838</v>
@@ -10283,10 +10283,10 @@
     </row>
     <row r="206" spans="1:38">
       <c r="A206" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B206" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C206" s="20">
         <v>43851</v>
@@ -10306,10 +10306,10 @@
     </row>
     <row r="207" spans="1:38">
       <c r="A207" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B207" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C207" s="17">
         <v>43852</v>
@@ -10321,7 +10321,7 @@
         <v>13.4221512467888</v>
       </c>
       <c r="F207" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I207">
         <v>2.1126646780374854E-2</v>
@@ -10401,10 +10401,10 @@
     </row>
     <row r="208" spans="1:38">
       <c r="A208" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B208" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C208" s="20">
         <v>43790</v>
@@ -10424,10 +10424,10 @@
     </row>
     <row r="209" spans="1:38">
       <c r="A209" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B209" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C209" s="17">
         <v>43795</v>
@@ -10439,7 +10439,7 @@
         <v>13.589734106581201</v>
       </c>
       <c r="F209" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="G209" s="24"/>
       <c r="I209">
@@ -10490,10 +10490,10 @@
     </row>
     <row r="210" spans="1:38">
       <c r="A210" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B210" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C210" s="20">
         <v>43796</v>
@@ -10513,10 +10513,10 @@
     </row>
     <row r="211" spans="1:38">
       <c r="A211" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B211" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C211" s="20">
         <v>43802</v>
@@ -10536,10 +10536,10 @@
     </row>
     <row r="212" spans="1:38">
       <c r="A212" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B212" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C212" s="20">
         <v>43809</v>
@@ -10559,10 +10559,10 @@
     </row>
     <row r="213" spans="1:38">
       <c r="A213" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B213" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C213" s="17">
         <v>43810</v>
@@ -10574,7 +10574,7 @@
         <v>13.7237935348096</v>
       </c>
       <c r="F213" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G213" s="24">
         <f>D213</f>
@@ -10636,10 +10636,10 @@
     </row>
     <row r="214" spans="1:38">
       <c r="A214" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B214" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C214" s="7">
         <v>43822</v>
@@ -10651,7 +10651,7 @@
         <v>13.739176144857</v>
       </c>
       <c r="F214" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I214">
         <v>2.7425822326083284E-2</v>
@@ -10712,10 +10712,10 @@
     </row>
     <row r="215" spans="1:38">
       <c r="A215" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B215" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C215" s="21">
         <v>43832</v>
@@ -10735,10 +10735,10 @@
     </row>
     <row r="216" spans="1:38">
       <c r="A216" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B216" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C216" s="21">
         <v>43838</v>
@@ -10758,10 +10758,10 @@
     </row>
     <row r="217" spans="1:38">
       <c r="A217" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B217" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C217" s="21">
         <v>43851</v>
@@ -10781,10 +10781,10 @@
     </row>
     <row r="218" spans="1:38">
       <c r="A218" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B218" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C218" s="7">
         <v>43852</v>
@@ -10796,7 +10796,7 @@
         <v>13.4221512467888</v>
       </c>
       <c r="F218" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I218">
         <v>4.2798878895054772E-2</v>
@@ -10877,10 +10877,10 @@
     </row>
     <row r="219" spans="1:38">
       <c r="A219" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B219" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C219" s="7">
         <v>44182</v>
@@ -10892,7 +10892,7 @@
         <v>13.743035755563101</v>
       </c>
       <c r="F219" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I219">
         <v>2.905951286673859E-2</v>
@@ -10942,10 +10942,10 @@
     </row>
     <row r="220" spans="1:38">
       <c r="A220" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B220" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C220" s="7">
         <v>44201</v>
@@ -10957,7 +10957,7 @@
         <v>13.6591165518069</v>
       </c>
       <c r="F220" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G220" s="24"/>
       <c r="I220">
@@ -11025,17 +11025,17 @@
     </row>
     <row r="221" spans="1:38">
       <c r="A221" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B221" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C221" s="7">
         <v>44214</v>
       </c>
       <c r="E221" s="31"/>
       <c r="F221" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G221" s="24"/>
       <c r="I221">
@@ -11075,17 +11075,17 @@
     </row>
     <row r="222" spans="1:38">
       <c r="A222" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B222" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C222" s="7">
         <v>44225</v>
       </c>
       <c r="E222" s="31"/>
       <c r="F222" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I222">
         <v>2.9471969950830356E-2</v>
@@ -11149,10 +11149,10 @@
     </row>
     <row r="223" spans="1:38">
       <c r="A223" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B223" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C223" s="7">
         <v>44182</v>
@@ -11164,7 +11164,7 @@
         <v>13.743035755563101</v>
       </c>
       <c r="F223" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I223">
         <v>2.904402958301551E-2</v>
@@ -11213,10 +11213,10 @@
     </row>
     <row r="224" spans="1:38">
       <c r="A224" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B224" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C224" s="7">
         <v>44201</v>
@@ -11228,7 +11228,7 @@
         <v>13.6591165518069</v>
       </c>
       <c r="F224" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I224">
         <v>5.2666934122357442E-2</v>
@@ -11295,17 +11295,17 @@
     </row>
     <row r="225" spans="1:38">
       <c r="A225" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B225" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C225" s="7">
         <v>44210</v>
       </c>
       <c r="E225" s="31"/>
       <c r="F225" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I225">
         <v>8.0666952308618964E-2</v>
@@ -11344,17 +11344,17 @@
     </row>
     <row r="226" spans="1:38">
       <c r="A226" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B226" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C226" s="7">
         <v>44225</v>
       </c>
       <c r="E226" s="31"/>
       <c r="F226" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I226">
         <v>5.7229821625506612E-2</v>
@@ -11418,10 +11418,10 @@
     </row>
     <row r="227" spans="1:38">
       <c r="A227" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B227" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C227" s="7">
         <v>44182</v>
@@ -11433,7 +11433,7 @@
         <v>13.743035755563101</v>
       </c>
       <c r="F227" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I227">
         <v>3.3897370639590169E-2</v>
@@ -11482,10 +11482,10 @@
     </row>
     <row r="228" spans="1:38">
       <c r="A228" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B228" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C228" s="7">
         <v>44201</v>
@@ -11497,7 +11497,7 @@
         <v>13.6591165518069</v>
       </c>
       <c r="F228" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I228">
         <v>5.887328350409185E-2</v>
@@ -11564,17 +11564,17 @@
     </row>
     <row r="229" spans="1:38">
       <c r="A229" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B229" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C229" s="7">
         <v>44214</v>
       </c>
       <c r="E229" s="31"/>
       <c r="F229" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I229">
         <v>7.4961473292668404E-2</v>
@@ -11613,17 +11613,17 @@
     </row>
     <row r="230" spans="1:38">
       <c r="A230" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B230" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C230" s="7">
         <v>44232</v>
       </c>
       <c r="E230" s="31"/>
       <c r="F230" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I230">
         <v>2.85799375464874E-2</v>
@@ -11687,10 +11687,10 @@
     </row>
     <row r="231" spans="1:38">
       <c r="A231" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B231" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C231" s="7">
         <v>44182</v>
@@ -11702,7 +11702,7 @@
         <v>13.743035755563101</v>
       </c>
       <c r="F231" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I231">
         <v>2.3093168769686586E-2</v>
@@ -11751,10 +11751,10 @@
     </row>
     <row r="232" spans="1:38">
       <c r="A232" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B232" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C232" s="7">
         <v>44201</v>
@@ -11766,7 +11766,7 @@
         <v>13.6591165518069</v>
       </c>
       <c r="F232" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I232">
         <v>4.1970318572017176E-2</v>
@@ -11833,17 +11833,17 @@
     </row>
     <row r="233" spans="1:38">
       <c r="A233" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B233" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C233" s="7">
         <v>44214</v>
       </c>
       <c r="E233" s="31"/>
       <c r="F233" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I233">
         <v>6.0336492426024207E-2</v>
@@ -11882,10 +11882,10 @@
     </row>
     <row r="234" spans="1:38">
       <c r="A234" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B234" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C234" s="7">
         <v>44232</v>
@@ -11893,7 +11893,7 @@
       <c r="D234" s="30"/>
       <c r="E234" s="37"/>
       <c r="F234" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I234">
         <v>4.5276746648964097E-2</v>
@@ -11956,10 +11956,10 @@
     </row>
     <row r="235" spans="1:38">
       <c r="A235" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B235" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C235" s="19">
         <v>44182</v>
@@ -11971,7 +11971,7 @@
         <v>13.743035755563101</v>
       </c>
       <c r="F235" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I235">
         <v>3.0883902017818644E-2</v>
@@ -12019,10 +12019,10 @@
     </row>
     <row r="236" spans="1:38">
       <c r="A236" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B236" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C236" s="19">
         <v>44201</v>
@@ -12034,7 +12034,7 @@
         <v>13.6591165518069</v>
       </c>
       <c r="F236" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I236">
         <v>4.8142117073822689E-2</v>
@@ -12100,10 +12100,10 @@
     </row>
     <row r="237" spans="1:38">
       <c r="A237" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B237" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C237" s="7">
         <v>44216</v>
@@ -12111,7 +12111,7 @@
       <c r="D237" s="30"/>
       <c r="E237" s="37"/>
       <c r="F237" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I237">
         <v>7.7882070218881272E-2</v>
@@ -12149,10 +12149,10 @@
     </row>
     <row r="238" spans="1:38">
       <c r="A238" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B238" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C238" s="7">
         <v>44235</v>
@@ -12160,7 +12160,7 @@
       <c r="D238" s="30"/>
       <c r="E238" s="37"/>
       <c r="F238" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I238">
         <v>3.6947001539712442E-2</v>
@@ -12223,10 +12223,10 @@
     </row>
     <row r="239" spans="1:38">
       <c r="A239" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B239" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C239" s="19">
         <v>44182</v>
@@ -12238,7 +12238,7 @@
         <v>13.743035755563101</v>
       </c>
       <c r="F239" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I239">
         <v>3.0843716834471083E-2</v>
@@ -12286,10 +12286,10 @@
     </row>
     <row r="240" spans="1:38">
       <c r="A240" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B240" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C240" s="19">
         <v>44201</v>
@@ -12301,7 +12301,7 @@
         <v>13.6591165518069</v>
       </c>
       <c r="F240" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I240">
         <v>4.6258916485415504E-2</v>
@@ -12367,10 +12367,10 @@
     </row>
     <row r="241" spans="1:38">
       <c r="A241" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B241" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C241" s="7">
         <v>44214</v>
@@ -12378,7 +12378,7 @@
       <c r="D241" s="30"/>
       <c r="E241" s="37"/>
       <c r="F241" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I241">
         <v>8.2853491549026201E-2</v>
@@ -12416,10 +12416,10 @@
     </row>
     <row r="242" spans="1:38">
       <c r="A242" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B242" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C242" s="7">
         <v>44229</v>
@@ -12427,7 +12427,7 @@
       <c r="D242" s="30"/>
       <c r="E242" s="37"/>
       <c r="F242" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I242">
         <v>7.1048219786922662E-2</v>
@@ -12490,10 +12490,10 @@
     </row>
     <row r="243" spans="1:38">
       <c r="A243" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B243" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C243" s="19">
         <v>44158</v>
@@ -12505,7 +12505,7 @@
         <v>13.5629915121579</v>
       </c>
       <c r="F243" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I243">
         <v>2.0135433965453267E-2</v>
@@ -12571,10 +12571,10 @@
     </row>
     <row r="244" spans="1:38">
       <c r="A244" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B244" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C244" s="19">
         <v>44167</v>
@@ -12586,7 +12586,7 @@
         <v>13.667425142411201</v>
       </c>
       <c r="F244" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G244" s="24">
         <f>D244</f>
@@ -12660,10 +12660,10 @@
     </row>
     <row r="245" spans="1:38">
       <c r="A245" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B245" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C245" s="19">
         <v>44182</v>
@@ -12675,7 +12675,7 @@
         <v>13.743035755563101</v>
       </c>
       <c r="F245" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I245">
         <v>5.2509146405824027E-2</v>
@@ -12741,10 +12741,10 @@
     </row>
     <row r="246" spans="1:38">
       <c r="A246" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B246" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C246" s="19">
         <v>44200</v>
@@ -12756,7 +12756,7 @@
         <v>13.6685784360476</v>
       </c>
       <c r="F246" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I246">
         <v>4.3702063440111072E-2</v>
@@ -12829,10 +12829,10 @@
     </row>
     <row r="247" spans="1:38">
       <c r="A247" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B247" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C247" s="19">
         <v>44158</v>
@@ -12844,7 +12844,7 @@
         <v>13.5629915121579</v>
       </c>
       <c r="F247" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I247">
         <v>1.897398151190843E-2</v>
@@ -12910,10 +12910,10 @@
     </row>
     <row r="248" spans="1:38">
       <c r="A248" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B248" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C248" s="19">
         <v>44166</v>
@@ -12925,7 +12925,7 @@
         <v>13.6578960999193</v>
       </c>
       <c r="F248" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G248" s="24">
         <f>D248</f>
@@ -12999,10 +12999,10 @@
     </row>
     <row r="249" spans="1:38">
       <c r="A249" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B249" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C249" s="19">
         <v>44179</v>
@@ -13014,7 +13014,7 @@
         <v>13.738294734994099</v>
       </c>
       <c r="F249" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I249">
         <v>5.3837566096694413E-2</v>
@@ -13080,10 +13080,10 @@
     </row>
     <row r="250" spans="1:38">
       <c r="A250" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B250" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C250" s="19">
         <v>44200</v>
@@ -13095,7 +13095,7 @@
         <v>13.6685784360476</v>
       </c>
       <c r="F250" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I250">
         <v>6.1752792365377514E-2</v>
@@ -13168,10 +13168,10 @@
     </row>
     <row r="251" spans="1:38">
       <c r="A251" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B251" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C251" s="19">
         <v>44158</v>
@@ -13183,7 +13183,7 @@
         <v>13.5629915121579</v>
       </c>
       <c r="F251" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I251">
         <v>1.9019565014652181E-2</v>
@@ -13249,10 +13249,10 @@
     </row>
     <row r="252" spans="1:38">
       <c r="A252" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B252" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C252" s="19">
         <v>44167</v>
@@ -13264,7 +13264,7 @@
         <v>13.667425142411201</v>
       </c>
       <c r="F252" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G252" s="24">
         <f>D252</f>
@@ -13338,10 +13338,10 @@
     </row>
     <row r="253" spans="1:38">
       <c r="A253" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B253" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C253" s="19">
         <v>44182</v>
@@ -13353,7 +13353,7 @@
         <v>13.743035755563101</v>
       </c>
       <c r="F253" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I253">
         <v>5.9435961339840221E-2</v>
@@ -13419,10 +13419,10 @@
     </row>
     <row r="254" spans="1:38">
       <c r="A254" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B254" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C254" s="19">
         <v>44200</v>
@@ -13434,7 +13434,7 @@
         <v>13.6685784360476</v>
       </c>
       <c r="F254" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I254">
         <v>4.7403590363177144E-2</v>
@@ -13507,10 +13507,10 @@
     </row>
     <row r="255" spans="1:38">
       <c r="A255" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B255" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C255" s="19">
         <v>44158</v>
@@ -13522,7 +13522,7 @@
         <v>13.5629915121579</v>
       </c>
       <c r="F255" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I255">
         <v>2.4195547080149742E-2</v>
@@ -13588,10 +13588,10 @@
     </row>
     <row r="256" spans="1:38">
       <c r="A256" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B256" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C256" s="19">
         <v>44167</v>
@@ -13603,7 +13603,7 @@
         <v>13.667425142411201</v>
       </c>
       <c r="F256" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G256" s="24">
         <f>D256</f>
@@ -13677,10 +13677,10 @@
     </row>
     <row r="257" spans="1:38">
       <c r="A257" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B257" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C257" s="19">
         <v>44182</v>
@@ -13692,7 +13692,7 @@
         <v>13.743035755563101</v>
       </c>
       <c r="F257" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I257">
         <v>6.3203066734306701E-2</v>
@@ -13758,10 +13758,10 @@
     </row>
     <row r="258" spans="1:38">
       <c r="A258" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B258" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C258" s="19">
         <v>44200</v>
@@ -13773,7 +13773,7 @@
         <v>13.6685784360476</v>
       </c>
       <c r="F258" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I258">
         <v>4.2744795154689673E-2</v>
@@ -13846,10 +13846,10 @@
     </row>
     <row r="259" spans="1:38">
       <c r="A259" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B259" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C259" s="19">
         <v>44158</v>
@@ -13861,7 +13861,7 @@
         <v>13.5629915121579</v>
       </c>
       <c r="F259" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I259">
         <v>1.7804751782459327E-2</v>
@@ -13927,10 +13927,10 @@
     </row>
     <row r="260" spans="1:38">
       <c r="A260" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B260" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C260" s="19">
         <v>44166</v>
@@ -13942,7 +13942,7 @@
         <v>13.6578960999193</v>
       </c>
       <c r="F260" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G260" s="24">
         <f>D260</f>
@@ -14016,10 +14016,10 @@
     </row>
     <row r="261" spans="1:38">
       <c r="A261" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B261" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C261" s="19">
         <v>44179</v>
@@ -14031,7 +14031,7 @@
         <v>13.738294734994099</v>
       </c>
       <c r="F261" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I261">
         <v>6.0317881625652103E-2</v>
@@ -14097,10 +14097,10 @@
     </row>
     <row r="262" spans="1:38">
       <c r="A262" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B262" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C262" s="19">
         <v>44200</v>
@@ -14112,7 +14112,7 @@
         <v>13.6685784360476</v>
       </c>
       <c r="F262" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I262">
         <v>6.1696557297973957E-2</v>
@@ -14185,10 +14185,10 @@
     </row>
     <row r="263" spans="1:38">
       <c r="A263" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B263" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C263" s="19">
         <v>44158</v>
@@ -14200,7 +14200,7 @@
         <v>13.5629915121579</v>
       </c>
       <c r="F263" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I263">
         <v>2.3200770857488784E-2</v>
@@ -14266,10 +14266,10 @@
     </row>
     <row r="264" spans="1:38">
       <c r="A264" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B264" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C264" s="19">
         <v>44167</v>
@@ -14281,7 +14281,7 @@
         <v>13.667425142411201</v>
       </c>
       <c r="F264" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G264" s="24">
         <f>D264</f>
@@ -14355,10 +14355,10 @@
     </row>
     <row r="265" spans="1:38">
       <c r="A265" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B265" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C265" s="19">
         <v>44182</v>
@@ -14370,7 +14370,7 @@
         <v>13.743035755563101</v>
       </c>
       <c r="F265" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I265">
         <v>7.6166115064574033E-2</v>
@@ -14436,10 +14436,10 @@
     </row>
     <row r="266" spans="1:38">
       <c r="A266" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B266" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C266" s="19">
         <v>44200</v>
@@ -14451,7 +14451,7 @@
         <v>13.6685784360476</v>
       </c>
       <c r="F266" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I266">
         <v>6.7720293940190357E-2</v>
@@ -14524,10 +14524,10 @@
     </row>
     <row r="267" spans="1:38">
       <c r="A267" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B267" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C267" s="19">
         <v>44117</v>
@@ -14539,7 +14539,7 @@
         <v>12.6907993270279</v>
       </c>
       <c r="F267" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I267">
         <v>9.73292872130079E-3</v>
@@ -14605,10 +14605,10 @@
     </row>
     <row r="268" spans="1:38">
       <c r="A268" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B268" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C268" s="19">
         <v>44146</v>
@@ -14620,7 +14620,7 @@
         <v>13.364680781529101</v>
       </c>
       <c r="F268" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G268" s="24">
         <f>D268</f>
@@ -14694,10 +14694,10 @@
     </row>
     <row r="269" spans="1:38">
       <c r="A269" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B269" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C269" s="19">
         <v>44155</v>
@@ -14709,7 +14709,7 @@
         <v>13.519312309725301</v>
       </c>
       <c r="F269" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I269">
         <v>4.340517846280454E-2</v>
@@ -14775,10 +14775,10 @@
     </row>
     <row r="270" spans="1:38">
       <c r="A270" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B270" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C270" s="19">
         <v>44173</v>
@@ -14790,7 +14790,7 @@
         <v>13.713078452315299</v>
       </c>
       <c r="F270" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I270">
         <v>3.3327254597577897E-2</v>
@@ -14863,10 +14863,10 @@
     </row>
     <row r="271" spans="1:38">
       <c r="A271" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B271" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C271" s="19">
         <v>44117</v>
@@ -14878,7 +14878,7 @@
         <v>12.6907993270279</v>
       </c>
       <c r="F271" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I271">
         <v>6.6992080310221578E-3</v>
@@ -14944,10 +14944,10 @@
     </row>
     <row r="272" spans="1:38">
       <c r="A272" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B272" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C272" s="19">
         <v>44144</v>
@@ -14959,7 +14959,7 @@
         <v>13.3259548773134</v>
       </c>
       <c r="F272" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G272" s="24">
         <f>D272</f>
@@ -15033,10 +15033,10 @@
     </row>
     <row r="273" spans="1:38">
       <c r="A273" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B273" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C273" s="19">
         <v>44153</v>
@@ -15048,7 +15048,7 @@
         <v>13.487909641145899</v>
       </c>
       <c r="F273" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I273">
         <v>4.7267403876445957E-2</v>
@@ -15114,10 +15114,10 @@
     </row>
     <row r="274" spans="1:38">
       <c r="A274" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B274" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C274" s="19">
         <v>44169</v>
@@ -15129,7 +15129,7 @@
         <v>13.6848582481993</v>
       </c>
       <c r="F274" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I274">
         <v>6.0071937338595276E-2</v>
@@ -15202,10 +15202,10 @@
     </row>
     <row r="275" spans="1:38">
       <c r="A275" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B275" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C275" s="19">
         <v>44117</v>
@@ -15217,7 +15217,7 @@
         <v>12.6907993270279</v>
       </c>
       <c r="F275" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I275">
         <v>9.2246191274188288E-3</v>
@@ -15283,10 +15283,10 @@
     </row>
     <row r="276" spans="1:38">
       <c r="A276" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B276" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C276" s="19">
         <v>44146</v>
@@ -15298,7 +15298,7 @@
         <v>13.364680781529101</v>
       </c>
       <c r="F276" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G276" s="24">
         <f>D276</f>
@@ -15372,10 +15372,10 @@
     </row>
     <row r="277" spans="1:38">
       <c r="A277" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B277" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C277" s="19">
         <v>44155</v>
@@ -15387,7 +15387,7 @@
         <v>13.519312309725301</v>
       </c>
       <c r="F277" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I277">
         <v>4.2383570882351396E-2</v>
@@ -15453,10 +15453,10 @@
     </row>
     <row r="278" spans="1:38">
       <c r="A278" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B278" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C278" s="19">
         <v>44175</v>
@@ -15468,7 +15468,7 @@
         <v>13.7237935348096</v>
       </c>
       <c r="F278" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I278">
         <v>5.8827550040510143E-2</v>
@@ -15541,10 +15541,10 @@
     </row>
     <row r="279" spans="1:38">
       <c r="A279" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B279" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C279" s="19">
         <v>44117</v>
@@ -15556,7 +15556,7 @@
         <v>12.6907993270279</v>
       </c>
       <c r="F279" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I279">
         <v>7.1709399932295926E-3</v>
@@ -15622,10 +15622,10 @@
     </row>
     <row r="280" spans="1:38">
       <c r="A280" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B280" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C280" s="19">
         <v>44146</v>
@@ -15637,7 +15637,7 @@
         <v>13.364680781529101</v>
       </c>
       <c r="F280" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G280" s="24">
         <f>D280</f>
@@ -15711,10 +15711,10 @@
     </row>
     <row r="281" spans="1:38">
       <c r="A281" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B281" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C281" s="19">
         <v>44153</v>
@@ -15726,7 +15726,7 @@
         <v>13.487909641145899</v>
       </c>
       <c r="F281" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I281">
         <v>4.2317693393510825E-2</v>
@@ -15792,10 +15792,10 @@
     </row>
     <row r="282" spans="1:38">
       <c r="A282" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B282" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C282" s="19">
         <v>44175</v>
@@ -15807,7 +15807,7 @@
         <v>13.7237935348096</v>
       </c>
       <c r="F282" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I282">
         <v>5.5441391455030978E-2</v>
@@ -15880,10 +15880,10 @@
     </row>
     <row r="283" spans="1:38">
       <c r="A283" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B283" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C283" s="19">
         <v>44117</v>
@@ -15895,7 +15895,7 @@
         <v>12.6907993270279</v>
       </c>
       <c r="F283" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I283">
         <v>4.7487722925789152E-3</v>
@@ -15961,10 +15961,10 @@
     </row>
     <row r="284" spans="1:38">
       <c r="A284" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B284" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C284" s="19">
         <v>44144</v>
@@ -15976,7 +15976,7 @@
         <v>13.3259548773134</v>
       </c>
       <c r="F284" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G284" s="24">
         <f>D284</f>
@@ -16050,10 +16050,10 @@
     </row>
     <row r="285" spans="1:38">
       <c r="A285" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B285" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C285" s="19">
         <v>44153</v>
@@ -16065,7 +16065,7 @@
         <v>13.487909641145899</v>
       </c>
       <c r="F285" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I285">
         <v>3.6830388914440071E-2</v>
@@ -16131,10 +16131,10 @@
     </row>
     <row r="286" spans="1:38">
       <c r="A286" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B286" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C286" s="19">
         <v>44169</v>
@@ -16146,7 +16146,7 @@
         <v>13.6848582481993</v>
       </c>
       <c r="F286" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I286">
         <v>5.3044710612388905E-2</v>
@@ -16219,10 +16219,10 @@
     </row>
     <row r="287" spans="1:38">
       <c r="A287" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B287" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C287" s="19">
         <v>44117</v>
@@ -16234,7 +16234,7 @@
         <v>12.6907993270279</v>
       </c>
       <c r="F287" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I287">
         <v>8.7862056283720819E-3</v>
@@ -16300,10 +16300,10 @@
     </row>
     <row r="288" spans="1:38">
       <c r="A288" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B288" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C288" s="19">
         <v>44146</v>
@@ -16315,7 +16315,7 @@
         <v>13.364680781529101</v>
       </c>
       <c r="F288" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G288" s="24">
         <f>D288</f>
@@ -16389,10 +16389,10 @@
     </row>
     <row r="289" spans="1:38">
       <c r="A289" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B289" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C289" s="19">
         <v>44153</v>
@@ -16404,7 +16404,7 @@
         <v>13.487909641145899</v>
       </c>
       <c r="F289" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I289">
         <v>4.6615753328964789E-2</v>
@@ -16470,10 +16470,10 @@
     </row>
     <row r="290" spans="1:38">
       <c r="A290" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B290" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C290" s="19">
         <v>44173</v>
@@ -16485,7 +16485,7 @@
         <v>13.713078452315299</v>
       </c>
       <c r="F290" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I290">
         <v>6.6863916959017292E-2</v>
@@ -16558,16 +16558,16 @@
     </row>
     <row r="291" spans="1:38">
       <c r="A291" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B291" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="C291" s="7">
         <v>44280</v>
       </c>
       <c r="F291" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I291">
         <v>4.8601409730674935E-2</v>
@@ -16605,16 +16605,16 @@
     </row>
     <row r="292" spans="1:38">
       <c r="A292" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B292" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="C292" s="7">
         <v>44292</v>
       </c>
       <c r="F292" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I292">
         <v>6.4234253567972507E-2</v>
@@ -16652,16 +16652,16 @@
     </row>
     <row r="293" spans="1:38">
       <c r="A293" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B293" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="C293" s="7">
         <v>44307</v>
       </c>
       <c r="F293" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I293">
         <v>7.0321574564967418E-2</v>
@@ -16699,16 +16699,16 @@
     </row>
     <row r="294" spans="1:38">
       <c r="A294" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B294" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="C294" s="7">
         <v>44333</v>
       </c>
       <c r="F294" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I294">
         <v>3.0163990646035473E-2</v>
@@ -16753,16 +16753,16 @@
     </row>
     <row r="295" spans="1:38">
       <c r="A295" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B295" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C295" s="7">
         <v>44280</v>
       </c>
       <c r="F295" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I295">
         <v>3.9160078315183269E-2</v>
@@ -16800,16 +16800,16 @@
     </row>
     <row r="296" spans="1:38">
       <c r="A296" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B296" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C296" s="7">
         <v>44292</v>
       </c>
       <c r="F296" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I296">
         <v>8.3331212581298247E-2</v>
@@ -16847,16 +16847,16 @@
     </row>
     <row r="297" spans="1:38">
       <c r="A297" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B297" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C297" s="7">
         <v>44307</v>
       </c>
       <c r="F297" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I297">
         <v>7.9327241401989254E-2</v>
@@ -16894,16 +16894,16 @@
     </row>
     <row r="298" spans="1:38">
       <c r="A298" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B298" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C298" s="7">
         <v>44336</v>
       </c>
       <c r="F298" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I298">
         <v>6.9021116640038294E-2</v>
@@ -16948,16 +16948,16 @@
     </row>
     <row r="299" spans="1:38">
       <c r="A299" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B299" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C299" s="7">
         <v>44280</v>
       </c>
       <c r="F299" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I299">
         <v>4.2945056663222292E-2</v>
@@ -16995,16 +16995,16 @@
     </row>
     <row r="300" spans="1:38">
       <c r="A300" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B300" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C300" s="7">
         <v>44292</v>
       </c>
       <c r="F300" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I300">
         <v>6.4122671423200397E-2</v>
@@ -17042,16 +17042,16 @@
     </row>
     <row r="301" spans="1:38">
       <c r="A301" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B301" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C301" s="7">
         <v>44309</v>
       </c>
       <c r="F301" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I301">
         <v>6.5289683938906648E-2</v>
@@ -17089,16 +17089,16 @@
     </row>
     <row r="302" spans="1:38">
       <c r="A302" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B302" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C302" s="7">
         <v>44340</v>
       </c>
       <c r="F302" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I302">
         <v>3.9591265959682126E-2</v>
@@ -17143,16 +17143,16 @@
     </row>
     <row r="303" spans="1:38">
       <c r="A303" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B303" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="C303" s="7">
         <v>44280</v>
       </c>
       <c r="F303" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I303">
         <v>4.3964538491130953E-2</v>
@@ -17190,16 +17190,16 @@
     </row>
     <row r="304" spans="1:38">
       <c r="A304" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B304" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="C304" s="7">
         <v>44292</v>
       </c>
       <c r="F304" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I304">
         <v>5.7152217972772791E-2</v>
@@ -17237,16 +17237,16 @@
     </row>
     <row r="305" spans="1:26">
       <c r="A305" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B305" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="C305" s="7">
         <v>44309</v>
       </c>
       <c r="F305" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I305">
         <v>7.1303454320256074E-2</v>
@@ -17284,16 +17284,16 @@
     </row>
     <row r="306" spans="1:26">
       <c r="A306" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B306" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="C306" s="7">
         <v>44336</v>
       </c>
       <c r="F306" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I306">
         <v>4.642097793193968E-2</v>
@@ -17338,16 +17338,16 @@
     </row>
     <row r="307" spans="1:26">
       <c r="A307" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B307" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C307" s="7">
         <v>44280</v>
       </c>
       <c r="F307" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I307">
         <v>4.3406669868623619E-2</v>
@@ -17385,16 +17385,16 @@
     </row>
     <row r="308" spans="1:26">
       <c r="A308" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B308" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C308" s="7">
         <v>44292</v>
       </c>
       <c r="F308" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I308">
         <v>8.0610122846445781E-2</v>
@@ -17432,16 +17432,16 @@
     </row>
     <row r="309" spans="1:26">
       <c r="A309" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B309" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C309" s="7">
         <v>44316</v>
       </c>
       <c r="F309" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I309">
         <v>4.7637809504848971E-2</v>
@@ -17479,16 +17479,16 @@
     </row>
     <row r="310" spans="1:26">
       <c r="A310" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B310" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C310" s="7">
         <v>44340</v>
       </c>
       <c r="F310" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I310">
         <v>6.5317266200621213E-2</v>
@@ -17533,16 +17533,16 @@
     </row>
     <row r="311" spans="1:26">
       <c r="A311" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B311" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C311" s="7">
         <v>44280</v>
       </c>
       <c r="F311" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I311">
         <v>4.7766136746920387E-2</v>
@@ -17580,16 +17580,16 @@
     </row>
     <row r="312" spans="1:26">
       <c r="A312" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B312" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C312" s="7">
         <v>44292</v>
       </c>
       <c r="F312" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I312">
         <v>8.3231458420505389E-2</v>
@@ -17627,16 +17627,16 @@
     </row>
     <row r="313" spans="1:26">
       <c r="A313" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B313" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C313" s="7">
         <v>44309</v>
       </c>
       <c r="F313" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I313">
         <v>7.0354370888204634E-2</v>
@@ -17674,16 +17674,16 @@
     </row>
     <row r="314" spans="1:26">
       <c r="A314" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B314" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C314" s="7">
         <v>44340</v>
       </c>
       <c r="F314" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I314">
         <v>6.277040912363209E-2</v>
@@ -17728,16 +17728,16 @@
     </row>
     <row r="315" spans="1:26">
       <c r="A315" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B315" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="C315" s="7">
         <v>44242</v>
       </c>
       <c r="F315" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I315">
         <v>3.3094801220817233E-2</v>
@@ -17775,16 +17775,16 @@
     </row>
     <row r="316" spans="1:26">
       <c r="A316" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B316" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="C316" s="7">
         <v>44250</v>
       </c>
       <c r="F316" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I316">
         <v>4.8989603407311441E-2</v>
@@ -17822,16 +17822,16 @@
     </row>
     <row r="317" spans="1:26">
       <c r="A317" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B317" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="C317" s="7">
         <v>44263</v>
       </c>
       <c r="F317" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I317">
         <v>7.4393397831584662E-2</v>
@@ -17869,16 +17869,16 @@
     </row>
     <row r="318" spans="1:26">
       <c r="A318" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B318" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="C318" s="7">
         <v>44281</v>
       </c>
       <c r="F318" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I318">
         <v>7.4736236468808642E-2</v>
@@ -17923,16 +17923,16 @@
     </row>
     <row r="319" spans="1:26">
       <c r="A319" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B319" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C319" s="7">
         <v>44242</v>
       </c>
       <c r="F319" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I319">
         <v>2.5192927824129508E-2</v>
@@ -17970,16 +17970,16 @@
     </row>
     <row r="320" spans="1:26">
       <c r="A320" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B320" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C320" s="7">
         <v>44250</v>
       </c>
       <c r="F320" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I320">
         <v>4.4339226218948154E-2</v>
@@ -18017,16 +18017,16 @@
     </row>
     <row r="321" spans="1:26">
       <c r="A321" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B321" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C321" s="7">
         <v>44259</v>
       </c>
       <c r="F321" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I321">
         <v>6.4974886638652293E-2</v>
@@ -18064,16 +18064,16 @@
     </row>
     <row r="322" spans="1:26">
       <c r="A322" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B322" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C322" s="7">
         <v>44281</v>
       </c>
       <c r="F322" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I322">
         <v>7.098288703074257E-2</v>
@@ -18118,16 +18118,16 @@
     </row>
     <row r="323" spans="1:26">
       <c r="A323" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B323" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="C323" s="7">
         <v>44242</v>
       </c>
       <c r="F323" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I323">
         <v>3.0114498590429337E-2</v>
@@ -18165,16 +18165,16 @@
     </row>
     <row r="324" spans="1:26">
       <c r="A324" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B324" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="C324" s="7">
         <v>44250</v>
       </c>
       <c r="F324" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I324">
         <v>4.8502537734127278E-2</v>
@@ -18212,16 +18212,16 @@
     </row>
     <row r="325" spans="1:26">
       <c r="A325" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B325" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="C325" s="7">
         <v>44264</v>
       </c>
       <c r="F325" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I325">
         <v>7.1986530410804911E-2</v>
@@ -18259,16 +18259,16 @@
     </row>
     <row r="326" spans="1:26">
       <c r="A326" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B326" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="C326" s="7">
         <v>44286</v>
       </c>
       <c r="F326" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I326">
         <v>8.858103679882405E-2</v>
@@ -18313,16 +18313,16 @@
     </row>
     <row r="327" spans="1:26">
       <c r="A327" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B327" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="C327" s="7">
         <v>44242</v>
       </c>
       <c r="F327" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I327">
         <v>3.7733151815424769E-2</v>
@@ -18360,16 +18360,16 @@
     </row>
     <row r="328" spans="1:26">
       <c r="A328" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B328" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="C328" s="7">
         <v>44250</v>
       </c>
       <c r="F328" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I328">
         <v>5.1438891706819971E-2</v>
@@ -18407,16 +18407,16 @@
     </row>
     <row r="329" spans="1:26">
       <c r="A329" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B329" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="C329" s="7">
         <v>44264</v>
       </c>
       <c r="F329" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I329">
         <v>7.480728695698087E-2</v>
@@ -18454,16 +18454,16 @@
     </row>
     <row r="330" spans="1:26">
       <c r="A330" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B330" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="C330" s="7">
         <v>44286</v>
       </c>
       <c r="F330" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I330">
         <v>9.202794926088069E-2</v>
@@ -18508,16 +18508,16 @@
     </row>
     <row r="331" spans="1:26">
       <c r="A331" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B331" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="C331" s="7">
         <v>44242</v>
       </c>
       <c r="F331" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I331">
         <v>3.0295825138507176E-2</v>
@@ -18555,16 +18555,16 @@
     </row>
     <row r="332" spans="1:26">
       <c r="A332" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B332" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="C332" s="7">
         <v>44250</v>
       </c>
       <c r="F332" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I332">
         <v>5.499425625308637E-2</v>
@@ -18602,16 +18602,16 @@
     </row>
     <row r="333" spans="1:26">
       <c r="A333" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B333" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="C333" s="7">
         <v>44263</v>
       </c>
       <c r="F333" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I333">
         <v>7.2738227965562882E-2</v>
@@ -18649,16 +18649,16 @@
     </row>
     <row r="334" spans="1:26">
       <c r="A334" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B334" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="C334" s="7">
         <v>44286</v>
       </c>
       <c r="F334" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I334">
         <v>7.3043634030084889E-2</v>
@@ -18703,16 +18703,16 @@
     </row>
     <row r="335" spans="1:26">
       <c r="A335" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B335" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C335" s="7">
         <v>44242</v>
       </c>
       <c r="F335" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I335">
         <v>3.2120225581820649E-2</v>
@@ -18750,16 +18750,16 @@
     </row>
     <row r="336" spans="1:26">
       <c r="A336" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B336" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C336" s="7">
         <v>44250</v>
       </c>
       <c r="F336" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I336">
         <v>5.8086324299112813E-2</v>
@@ -18797,16 +18797,16 @@
     </row>
     <row r="337" spans="1:26">
       <c r="A337" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B337" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C337" s="7">
         <v>44263</v>
       </c>
       <c r="F337" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I337">
         <v>9.0414716315453059E-2</v>
@@ -18844,16 +18844,16 @@
     </row>
     <row r="338" spans="1:26">
       <c r="A338" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B338" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C338" s="7">
         <v>44286</v>
       </c>
       <c r="F338" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I338">
         <v>8.7536777071303556E-2</v>

--- a/Prototypes/Mungbean/TOSobserved.xlsx
+++ b/Prototypes/Mungbean/TOSobserved.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B1C8FA-0DF0-483C-A2C3-B401AA4BC758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D2D18F-06DE-4538-A29A-931410741FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34710" yWindow="8385" windowWidth="20775" windowHeight="11835" xr2:uid="{01D3E681-48EE-4304-AF98-4E94EBE61D53}"/>
+    <workbookView xWindow="28680" yWindow="5505" windowWidth="29040" windowHeight="15840" xr2:uid="{01D3E681-48EE-4304-AF98-4E94EBE61D53}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -856,11 +856,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3519DD51-BED6-4262-8A50-4DB48CCAF26B}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AL338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="AI327" sqref="AI327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -868,8 +869,10 @@
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="7" customWidth="1"/>
     <col min="4" max="5" width="15.42578125" style="24" customWidth="1"/>
-    <col min="6" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="36" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="28" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="29" max="36" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="1" customFormat="1" ht="45">
@@ -988,7 +991,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" hidden="1">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1064,7 +1067,7 @@
         <v>57.25</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" hidden="1">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1157,7 +1160,7 @@
         <v>57.25</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" hidden="1">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1178,7 +1181,7 @@
       </c>
       <c r="AC4" s="15"/>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" hidden="1">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1254,7 +1257,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" hidden="1">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1344,7 +1347,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" hidden="1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1365,7 +1368,7 @@
       </c>
       <c r="AC7" s="15"/>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" hidden="1">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1386,7 +1389,7 @@
       </c>
       <c r="AC8" s="15"/>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" hidden="1">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1459,7 +1462,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" hidden="1">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1480,7 +1483,7 @@
       </c>
       <c r="AC10" s="15"/>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" hidden="1">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1501,7 +1504,7 @@
       </c>
       <c r="AC11" s="15"/>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" hidden="1">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1522,7 +1525,7 @@
       </c>
       <c r="AC12" s="15"/>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" hidden="1">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1616,7 +1619,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" hidden="1">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1637,7 +1640,7 @@
       </c>
       <c r="AC14" s="15"/>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" hidden="1">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1708,7 +1711,7 @@
         <v>76.25</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" hidden="1">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1729,7 +1732,7 @@
       </c>
       <c r="AC16" s="15"/>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" hidden="1">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1750,7 +1753,7 @@
       </c>
       <c r="AC17" s="15"/>
     </row>
-    <row r="18" spans="1:38" s="9" customFormat="1">
+    <row r="18" spans="1:38" s="9" customFormat="1" hidden="1">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1802,7 +1805,7 @@
       <c r="AK18"/>
       <c r="AL18"/>
     </row>
-    <row r="19" spans="1:38" s="9" customFormat="1">
+    <row r="19" spans="1:38" s="9" customFormat="1" hidden="1">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1902,7 +1905,7 @@
       <c r="AK19"/>
       <c r="AL19"/>
     </row>
-    <row r="20" spans="1:38" s="9" customFormat="1">
+    <row r="20" spans="1:38" s="9" customFormat="1" hidden="1">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1992,7 +1995,7 @@
       <c r="AK20"/>
       <c r="AL20"/>
     </row>
-    <row r="21" spans="1:38" s="9" customFormat="1">
+    <row r="21" spans="1:38" s="9" customFormat="1" hidden="1">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -2043,7 +2046,7 @@
       <c r="AK21"/>
       <c r="AL21"/>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:38" hidden="1">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2064,7 +2067,7 @@
       </c>
       <c r="AC22" s="15"/>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" hidden="1">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -2158,7 +2161,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:38" hidden="1">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -2179,7 +2182,7 @@
       </c>
       <c r="AC24" s="15"/>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:38" hidden="1">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2255,7 +2258,7 @@
         <v>55.75</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:38" hidden="1">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -2276,7 +2279,7 @@
       </c>
       <c r="AC26" s="15"/>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:38" hidden="1">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -2297,7 +2300,7 @@
       </c>
       <c r="AC27" s="15"/>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:38" hidden="1">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -2391,7 +2394,7 @@
         <v>55.75</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:38" hidden="1">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2412,7 +2415,7 @@
       </c>
       <c r="AC29" s="15"/>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:38" hidden="1">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -2435,7 +2438,7 @@
         <v>7.6933309835944632</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:38" hidden="1">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -2458,7 +2461,7 @@
         <v>1.2063290642635434</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:38" hidden="1">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -2535,7 +2538,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:38" hidden="1">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -2558,7 +2561,7 @@
         <v>4.7694179276883206</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:38" hidden="1">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -2641,7 +2644,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:38" hidden="1">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -2661,7 +2664,7 @@
         <v>95.562706876684871</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:38" hidden="1">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -2744,7 +2747,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:38" hidden="1">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -2764,7 +2767,7 @@
         <v>85.365260888374024</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:38" hidden="1">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -2784,7 +2787,7 @@
         <v>78.19911730793919</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:38" hidden="1">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -2885,7 +2888,7 @@
         <v>11.049999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:38" hidden="1">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -2962,7 +2965,7 @@
         <v>5.7499999999999991</v>
       </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:38" hidden="1">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -3045,7 +3048,7 @@
         <v>7.0500000000000007</v>
       </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:38" hidden="1">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -3128,7 +3131,7 @@
         <v>9.35</v>
       </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:38" hidden="1">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -3229,7 +3232,7 @@
         <v>10.100000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:38" hidden="1">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -3252,7 +3255,7 @@
         <v>1.9550267916612909</v>
       </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:38" hidden="1">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -3275,7 +3278,7 @@
         <v>7.0887136859119897</v>
       </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:38" hidden="1">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -3352,7 +3355,7 @@
         <v>3.4499999999999993</v>
       </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:38" hidden="1">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -3435,7 +3438,7 @@
         <v>9.35</v>
       </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:38" hidden="1">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -3458,7 +3461,7 @@
         <v>6.5364891596497223</v>
       </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:38" hidden="1">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -3541,7 +3544,7 @@
         <v>10.95</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:38" hidden="1">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -3561,7 +3564,7 @@
         <v>78.664427905902855</v>
       </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:38" hidden="1">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -3581,7 +3584,7 @@
         <v>69.378993307278549</v>
       </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:38" hidden="1">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -3682,7 +3685,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:38" hidden="1">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -3702,7 +3705,7 @@
         <v>60.228081113641714</v>
       </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:38" hidden="1">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -3725,7 +3728,7 @@
         <v>6.9378865308974476</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:38" hidden="1">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -3748,7 +3751,7 @@
         <v>5.7038091949066416</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:38" hidden="1">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -3825,7 +3828,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:38" hidden="1">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -3848,7 +3851,7 @@
         <v>4.1501234511883522</v>
       </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:38" hidden="1">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -3925,7 +3928,7 @@
         <v>7.15</v>
       </c>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:38" hidden="1">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -3945,7 +3948,7 @@
         <v>80.862721056211299</v>
       </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:38" hidden="1">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -4028,7 +4031,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:38" hidden="1">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -4048,7 +4051,7 @@
         <v>76.649769492121663</v>
       </c>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:38" hidden="1">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -4068,7 +4071,7 @@
         <v>63.163184444804152</v>
       </c>
     </row>
-    <row r="63" spans="1:38">
+    <row r="63" spans="1:38" hidden="1">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -4163,7 +4166,7 @@
         <v>10.15</v>
       </c>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:38" hidden="1">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -4186,7 +4189,7 @@
         <v>0.88569363214705221</v>
       </c>
     </row>
-    <row r="65" spans="1:38">
+    <row r="65" spans="1:38" hidden="1">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -4209,7 +4212,7 @@
         <v>3.7460992507946012</v>
       </c>
     </row>
-    <row r="66" spans="1:38">
+    <row r="66" spans="1:38" hidden="1">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -4286,7 +4289,7 @@
         <v>5.1999999999999993</v>
       </c>
     </row>
-    <row r="67" spans="1:38">
+    <row r="67" spans="1:38" hidden="1">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -4369,7 +4372,7 @@
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="68" spans="1:38">
+    <row r="68" spans="1:38" hidden="1">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -4392,7 +4395,7 @@
         <v>7.2406411781241697</v>
       </c>
     </row>
-    <row r="69" spans="1:38">
+    <row r="69" spans="1:38" hidden="1">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -4469,7 +4472,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="70" spans="1:38">
+    <row r="70" spans="1:38" hidden="1">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -4492,7 +4495,7 @@
         <v>5.184676906749023</v>
       </c>
     </row>
-    <row r="71" spans="1:38">
+    <row r="71" spans="1:38" hidden="1">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -4515,7 +4518,7 @@
         <v>7.8407817163666476</v>
       </c>
     </row>
-    <row r="72" spans="1:38">
+    <row r="72" spans="1:38" hidden="1">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -4616,7 +4619,7 @@
         <v>10.050000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:38">
+    <row r="73" spans="1:38" hidden="1">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -4639,7 +4642,7 @@
         <v>6.7197832300470814</v>
       </c>
     </row>
-    <row r="74" spans="1:38">
+    <row r="74" spans="1:38" hidden="1">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -4662,7 +4665,7 @@
         <v>3.0064167947143599</v>
       </c>
     </row>
-    <row r="75" spans="1:38">
+    <row r="75" spans="1:38" hidden="1">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -4685,7 +4688,7 @@
         <v>5.7397344050545707</v>
       </c>
     </row>
-    <row r="76" spans="1:38">
+    <row r="76" spans="1:38" hidden="1">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -4708,7 +4711,7 @@
         <v>7.452611027121165</v>
       </c>
     </row>
-    <row r="77" spans="1:38">
+    <row r="77" spans="1:38" hidden="1">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -4731,7 +4734,7 @@
         <v>4.8461663877908547</v>
       </c>
     </row>
-    <row r="78" spans="1:38">
+    <row r="78" spans="1:38" hidden="1">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -4754,7 +4757,7 @@
         <v>4.6436072571595615</v>
       </c>
     </row>
-    <row r="79" spans="1:38">
+    <row r="79" spans="1:38" hidden="1">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -4777,7 +4780,7 @@
         <v>5.8083684708497749</v>
       </c>
     </row>
-    <row r="80" spans="1:38">
+    <row r="80" spans="1:38" hidden="1">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -4800,7 +4803,7 @@
         <v>6.4887549172994783</v>
       </c>
     </row>
-    <row r="81" spans="1:38">
+    <row r="81" spans="1:38" hidden="1">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -4823,7 +4826,7 @@
         <v>6.2852775311886555</v>
       </c>
     </row>
-    <row r="82" spans="1:38">
+    <row r="82" spans="1:38" hidden="1">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -4900,7 +4903,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="83" spans="1:38">
+    <row r="83" spans="1:38" hidden="1">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -4923,7 +4926,7 @@
         <v>3.1010758048730089</v>
       </c>
     </row>
-    <row r="84" spans="1:38">
+    <row r="84" spans="1:38" hidden="1">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -5012,7 +5015,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="85" spans="1:38">
+    <row r="85" spans="1:38" hidden="1">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -5035,7 +5038,7 @@
         <v>1.5598329392157901</v>
       </c>
     </row>
-    <row r="86" spans="1:38">
+    <row r="86" spans="1:38" hidden="1">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -5116,7 +5119,7 @@
         <v>8.85</v>
       </c>
     </row>
-    <row r="87" spans="1:38">
+    <row r="87" spans="1:38" hidden="1">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -5139,7 +5142,7 @@
         <v>4.4663725803537604</v>
       </c>
     </row>
-    <row r="88" spans="1:38">
+    <row r="88" spans="1:38" hidden="1">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -5162,7 +5165,7 @@
         <v>2.1212592634152689</v>
       </c>
     </row>
-    <row r="89" spans="1:38">
+    <row r="89" spans="1:38" hidden="1">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -5261,7 +5264,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="90" spans="1:38">
+    <row r="90" spans="1:38" hidden="1">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -5326,7 +5329,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="1:38">
+    <row r="91" spans="1:38" hidden="1">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -5349,7 +5352,7 @@
         <v>8.3177240795154255</v>
       </c>
     </row>
-    <row r="92" spans="1:38">
+    <row r="92" spans="1:38" hidden="1">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -5372,7 +5375,7 @@
         <v>2.2174056536026931</v>
       </c>
     </row>
-    <row r="93" spans="1:38">
+    <row r="93" spans="1:38" hidden="1">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -5445,7 +5448,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="94" spans="1:38">
+    <row r="94" spans="1:38" hidden="1">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -5465,7 +5468,7 @@
         <v>76.544295936317098</v>
       </c>
     </row>
-    <row r="95" spans="1:38">
+    <row r="95" spans="1:38" hidden="1">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -5485,7 +5488,7 @@
         <v>78.395165078782483</v>
       </c>
     </row>
-    <row r="96" spans="1:38">
+    <row r="96" spans="1:38" hidden="1">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -5560,7 +5563,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="97" spans="1:38">
+    <row r="97" spans="1:38" hidden="1">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -5651,7 +5654,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="98" spans="1:38">
+    <row r="98" spans="1:38" hidden="1">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -5671,7 +5674,7 @@
         <v>78.90521095393791</v>
       </c>
     </row>
-    <row r="99" spans="1:38">
+    <row r="99" spans="1:38" hidden="1">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -5694,7 +5697,7 @@
         <v>1.2918720988872958</v>
       </c>
     </row>
-    <row r="100" spans="1:38">
+    <row r="100" spans="1:38" hidden="1">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -5714,7 +5717,7 @@
         <v>1.9942853810717764</v>
       </c>
     </row>
-    <row r="101" spans="1:38">
+    <row r="101" spans="1:38" hidden="1">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -5737,7 +5740,7 @@
         <v>8.943632970503522</v>
       </c>
     </row>
-    <row r="102" spans="1:38">
+    <row r="102" spans="1:38" hidden="1">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -5812,7 +5815,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="103" spans="1:38">
+    <row r="103" spans="1:38" hidden="1">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -5835,7 +5838,7 @@
         <v>1.3264114341405446</v>
       </c>
     </row>
-    <row r="104" spans="1:38">
+    <row r="104" spans="1:38" hidden="1">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -5855,7 +5858,7 @@
         <v>52.64872213484513</v>
       </c>
     </row>
-    <row r="105" spans="1:38">
+    <row r="105" spans="1:38" hidden="1">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -5938,7 +5941,7 @@
         <v>6.8999999999999995</v>
       </c>
     </row>
-    <row r="106" spans="1:38">
+    <row r="106" spans="1:38" hidden="1">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -5958,7 +5961,7 @@
         <v>70.941218291500888</v>
       </c>
     </row>
-    <row r="107" spans="1:38">
+    <row r="107" spans="1:38" hidden="1">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -5978,7 +5981,7 @@
         <v>72.649098815351806</v>
       </c>
     </row>
-    <row r="108" spans="1:38">
+    <row r="108" spans="1:38" hidden="1">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -6053,7 +6056,7 @@
         <v>10.875</v>
       </c>
     </row>
-    <row r="109" spans="1:38">
+    <row r="109" spans="1:38" hidden="1">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -6076,7 +6079,7 @@
         <v>0.76863750101380335</v>
       </c>
     </row>
-    <row r="110" spans="1:38">
+    <row r="110" spans="1:38" hidden="1">
       <c r="A110" t="s">
         <v>6</v>
       </c>
@@ -6173,7 +6176,7 @@
         <v>13.85</v>
       </c>
     </row>
-    <row r="111" spans="1:38">
+    <row r="111" spans="1:38" hidden="1">
       <c r="A111" t="s">
         <v>6</v>
       </c>
@@ -6196,7 +6199,7 @@
         <v>6.4700562743368648</v>
       </c>
     </row>
-    <row r="112" spans="1:38">
+    <row r="112" spans="1:38" hidden="1">
       <c r="A112" t="s">
         <v>6</v>
       </c>
@@ -6271,7 +6274,7 @@
         <v>4.2750000000000004</v>
       </c>
     </row>
-    <row r="113" spans="1:38">
+    <row r="113" spans="1:38" hidden="1">
       <c r="A113" t="s">
         <v>6</v>
       </c>
@@ -6294,7 +6297,7 @@
         <v>3.9789903949757224</v>
       </c>
     </row>
-    <row r="114" spans="1:38">
+    <row r="114" spans="1:38" hidden="1">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -6377,7 +6380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:38">
+    <row r="115" spans="1:38" hidden="1">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -6397,7 +6400,7 @@
         <v>68.774326090449534</v>
       </c>
     </row>
-    <row r="116" spans="1:38">
+    <row r="116" spans="1:38" hidden="1">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -6417,7 +6420,7 @@
         <v>78.929015965050638</v>
       </c>
     </row>
-    <row r="117" spans="1:38">
+    <row r="117" spans="1:38" hidden="1">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -6498,7 +6501,7 @@
         <v>10.433333333333332</v>
       </c>
     </row>
-    <row r="118" spans="1:38">
+    <row r="118" spans="1:38" hidden="1">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -6521,7 +6524,7 @@
         <v>5.3316111861686615</v>
       </c>
     </row>
-    <row r="119" spans="1:38">
+    <row r="119" spans="1:38" hidden="1">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -6616,7 +6619,7 @@
         <v>12.15</v>
       </c>
     </row>
-    <row r="120" spans="1:38">
+    <row r="120" spans="1:38" hidden="1">
       <c r="A120" t="s">
         <v>6</v>
       </c>
@@ -6691,7 +6694,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="121" spans="1:38">
+    <row r="121" spans="1:38" hidden="1">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -6714,7 +6717,7 @@
         <v>3.6117033768259006</v>
       </c>
     </row>
-    <row r="122" spans="1:38">
+    <row r="122" spans="1:38" hidden="1">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -6737,7 +6740,7 @@
         <v>2.025194891309293</v>
       </c>
     </row>
-    <row r="123" spans="1:38">
+    <row r="123" spans="1:38" hidden="1">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -6810,7 +6813,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="124" spans="1:38">
+    <row r="124" spans="1:38" hidden="1">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -6833,7 +6836,7 @@
         <v>5.485209168157211</v>
       </c>
     </row>
-    <row r="125" spans="1:38">
+    <row r="125" spans="1:38" hidden="1">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -6908,7 +6911,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="126" spans="1:38">
+    <row r="126" spans="1:38" hidden="1">
       <c r="A126" t="s">
         <v>6</v>
       </c>
@@ -6931,7 +6934,7 @@
         <v>2.9032155393600219</v>
       </c>
     </row>
-    <row r="127" spans="1:38">
+    <row r="127" spans="1:38" hidden="1">
       <c r="A127" t="s">
         <v>6</v>
       </c>
@@ -7022,7 +7025,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="128" spans="1:38">
+    <row r="128" spans="1:38" hidden="1">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -7045,7 +7048,7 @@
         <v>5.8459521714162985</v>
       </c>
     </row>
-    <row r="129" spans="1:38">
+    <row r="129" spans="1:38" hidden="1">
       <c r="A129" t="s">
         <v>6</v>
       </c>
@@ -7068,7 +7071,7 @@
         <v>4.498142685492609</v>
       </c>
     </row>
-    <row r="130" spans="1:38">
+    <row r="130" spans="1:38" hidden="1">
       <c r="A130" t="s">
         <v>6</v>
       </c>
@@ -7133,7 +7136,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="131" spans="1:38">
+    <row r="131" spans="1:38" hidden="1">
       <c r="A131" t="s">
         <v>6</v>
       </c>
@@ -7156,7 +7159,7 @@
         <v>3.2760497556779269</v>
       </c>
     </row>
-    <row r="132" spans="1:38">
+    <row r="132" spans="1:38" hidden="1">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -7239,7 +7242,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="133" spans="1:38">
+    <row r="133" spans="1:38" hidden="1">
       <c r="A133" t="s">
         <v>6</v>
       </c>
@@ -7262,7 +7265,7 @@
         <v>2.0361737340178747</v>
       </c>
     </row>
-    <row r="134" spans="1:38">
+    <row r="134" spans="1:38" hidden="1">
       <c r="A134" t="s">
         <v>6</v>
       </c>
@@ -7343,7 +7346,7 @@
         <v>11.475</v>
       </c>
     </row>
-    <row r="135" spans="1:38">
+    <row r="135" spans="1:38" hidden="1">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -7366,7 +7369,7 @@
         <v>2.3566347287549427</v>
       </c>
     </row>
-    <row r="136" spans="1:38">
+    <row r="136" spans="1:38" hidden="1">
       <c r="A136" t="s">
         <v>6</v>
       </c>
@@ -7389,7 +7392,7 @@
         <v>2.8488164720094478</v>
       </c>
     </row>
-    <row r="137" spans="1:38">
+    <row r="137" spans="1:38" hidden="1">
       <c r="A137" t="s">
         <v>6</v>
       </c>
@@ -7484,7 +7487,7 @@
         <v>12.525</v>
       </c>
     </row>
-    <row r="138" spans="1:38">
+    <row r="138" spans="1:38" hidden="1">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -7507,7 +7510,7 @@
         <v>4.5511836838559532</v>
       </c>
     </row>
-    <row r="139" spans="1:38">
+    <row r="139" spans="1:38" hidden="1">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -7582,7 +7585,7 @@
         <v>4.4499999999999993</v>
       </c>
     </row>
-    <row r="140" spans="1:38">
+    <row r="140" spans="1:38" hidden="1">
       <c r="A140" t="s">
         <v>6</v>
       </c>
@@ -7605,7 +7608,7 @@
         <v>2.9150963623880548</v>
       </c>
     </row>
-    <row r="141" spans="1:38">
+    <row r="141" spans="1:38" hidden="1">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -7688,7 +7691,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="142" spans="1:38">
+    <row r="142" spans="1:38" hidden="1">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -7711,7 +7714,7 @@
         <v>2.6783143273519876</v>
       </c>
     </row>
-    <row r="143" spans="1:38">
+    <row r="143" spans="1:38" hidden="1">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -7792,7 +7795,7 @@
         <v>10.899999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:38">
+    <row r="144" spans="1:38" hidden="1">
       <c r="A144" t="s">
         <v>6</v>
       </c>
@@ -7815,7 +7818,7 @@
         <v>3.5724818750005722</v>
       </c>
     </row>
-    <row r="145" spans="1:38">
+    <row r="145" spans="1:38" hidden="1">
       <c r="A145" t="s">
         <v>6</v>
       </c>
@@ -7838,7 +7841,7 @@
         <v>0.87832205022106069</v>
       </c>
     </row>
-    <row r="146" spans="1:38">
+    <row r="146" spans="1:38" hidden="1">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -7933,7 +7936,7 @@
         <v>13.65</v>
       </c>
     </row>
-    <row r="147" spans="1:38">
+    <row r="147" spans="1:38" hidden="1">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -7998,7 +8001,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="148" spans="1:38">
+    <row r="148" spans="1:38" hidden="1">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -8021,7 +8024,7 @@
         <v>1.6346540621764984</v>
       </c>
     </row>
-    <row r="149" spans="1:38">
+    <row r="149" spans="1:38" hidden="1">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -8044,7 +8047,7 @@
         <v>1.4736836772398236</v>
       </c>
     </row>
-    <row r="150" spans="1:38">
+    <row r="150" spans="1:38" hidden="1">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -8067,7 +8070,7 @@
         <v>2.5732585159995178</v>
       </c>
     </row>
-    <row r="151" spans="1:38">
+    <row r="151" spans="1:38" hidden="1">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -8090,7 +8093,7 @@
         <v>4.4618262568565408</v>
       </c>
     </row>
-    <row r="152" spans="1:38">
+    <row r="152" spans="1:38" hidden="1">
       <c r="A152" t="s">
         <v>6</v>
       </c>
@@ -8173,7 +8176,7 @@
         <v>7.1749999999999989</v>
       </c>
     </row>
-    <row r="153" spans="1:38">
+    <row r="153" spans="1:38" hidden="1">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -8193,7 +8196,7 @@
         <v>13.804713804713813</v>
       </c>
     </row>
-    <row r="154" spans="1:38">
+    <row r="154" spans="1:38" hidden="1">
       <c r="A154" t="s">
         <v>6</v>
       </c>
@@ -8268,7 +8271,7 @@
         <v>12.400000000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:38">
+    <row r="155" spans="1:38" hidden="1">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -8291,7 +8294,7 @@
         <v>3.2299049259008243</v>
       </c>
     </row>
-    <row r="156" spans="1:38">
+    <row r="156" spans="1:38" hidden="1">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -8314,7 +8317,7 @@
         <v>4.6284358100428769</v>
       </c>
     </row>
-    <row r="157" spans="1:38">
+    <row r="157" spans="1:38" hidden="1">
       <c r="A157" t="s">
         <v>6</v>
       </c>
@@ -8399,7 +8402,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="158" spans="1:38">
+    <row r="158" spans="1:38" hidden="1">
       <c r="A158" t="s">
         <v>6</v>
       </c>
@@ -8422,7 +8425,7 @@
         <v>2.0010476690249828</v>
       </c>
     </row>
-    <row r="159" spans="1:38">
+    <row r="159" spans="1:38" hidden="1">
       <c r="A159" t="s">
         <v>6</v>
       </c>
@@ -8445,7 +8448,7 @@
         <v>0.84128488525335965</v>
       </c>
     </row>
-    <row r="160" spans="1:38">
+    <row r="160" spans="1:38" hidden="1">
       <c r="A160" t="s">
         <v>6</v>
       </c>
@@ -8510,7 +8513,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="161" spans="1:38">
+    <row r="161" spans="1:38" hidden="1">
       <c r="A161" t="s">
         <v>6</v>
       </c>
@@ -8533,7 +8536,7 @@
         <v>2.1356954359294411</v>
       </c>
     </row>
-    <row r="162" spans="1:38">
+    <row r="162" spans="1:38" hidden="1">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -8556,7 +8559,7 @@
         <v>3.9112334520629624</v>
       </c>
     </row>
-    <row r="163" spans="1:38">
+    <row r="163" spans="1:38" hidden="1">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -8577,7 +8580,7 @@
       </c>
       <c r="AC163" s="14"/>
     </row>
-    <row r="164" spans="1:38">
+    <row r="164" spans="1:38" hidden="1">
       <c r="A164" t="s">
         <v>6</v>
       </c>
@@ -8600,7 +8603,7 @@
         <v>2.6847889217066414</v>
       </c>
     </row>
-    <row r="165" spans="1:38">
+    <row r="165" spans="1:38" hidden="1">
       <c r="A165" t="s">
         <v>6</v>
       </c>
@@ -8620,7 +8623,7 @@
         <v>50.741447658199966</v>
       </c>
     </row>
-    <row r="166" spans="1:38">
+    <row r="166" spans="1:38" hidden="1">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -8643,7 +8646,7 @@
         <v>5.4663787711219589</v>
       </c>
     </row>
-    <row r="167" spans="1:38">
+    <row r="167" spans="1:38" hidden="1">
       <c r="A167" t="s">
         <v>6</v>
       </c>
@@ -8726,7 +8729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:38">
+    <row r="168" spans="1:38" hidden="1">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -8791,7 +8794,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="169" spans="1:38">
+    <row r="169" spans="1:38" hidden="1">
       <c r="A169" t="s">
         <v>6</v>
       </c>
@@ -8814,7 +8817,7 @@
         <v>4.7422054179886226</v>
       </c>
     </row>
-    <row r="170" spans="1:38">
+    <row r="170" spans="1:38" hidden="1">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -8837,7 +8840,7 @@
         <v>3.4965156692075374</v>
       </c>
     </row>
-    <row r="171" spans="1:38">
+    <row r="171" spans="1:38" hidden="1">
       <c r="A171" t="s">
         <v>6</v>
       </c>
@@ -8860,7 +8863,7 @@
         <v>2.000056003418893</v>
       </c>
     </row>
-    <row r="172" spans="1:38">
+    <row r="172" spans="1:38" hidden="1">
       <c r="A172" t="s">
         <v>6</v>
       </c>
@@ -8955,7 +8958,7 @@
         <v>7.3500000000000014</v>
       </c>
     </row>
-    <row r="173" spans="1:38">
+    <row r="173" spans="1:38" hidden="1">
       <c r="A173" t="s">
         <v>6</v>
       </c>
@@ -8978,7 +8981,7 @@
         <v>0.74353522578927023</v>
       </c>
     </row>
-    <row r="174" spans="1:38">
+    <row r="174" spans="1:38" hidden="1">
       <c r="A174" t="s">
         <v>6</v>
       </c>
@@ -9043,7 +9046,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="175" spans="1:38">
+    <row r="175" spans="1:38" hidden="1">
       <c r="A175" t="s">
         <v>6</v>
       </c>
@@ -9066,7 +9069,7 @@
         <v>0.74509690370666115</v>
       </c>
     </row>
-    <row r="176" spans="1:38">
+    <row r="176" spans="1:38" hidden="1">
       <c r="A176" t="s">
         <v>6</v>
       </c>
@@ -9089,7 +9092,7 @@
         <v>2.2365871765787624</v>
       </c>
     </row>
-    <row r="177" spans="1:38">
+    <row r="177" spans="1:38" hidden="1">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -9112,7 +9115,7 @@
         <v>2.6256045624529158</v>
       </c>
     </row>
-    <row r="178" spans="1:38">
+    <row r="178" spans="1:38" hidden="1">
       <c r="A178" t="s">
         <v>6</v>
       </c>
@@ -9189,7 +9192,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="179" spans="1:38">
+    <row r="179" spans="1:38" hidden="1">
       <c r="A179" t="s">
         <v>6</v>
       </c>
@@ -9212,7 +9215,7 @@
         <v>1.8841088733970519</v>
       </c>
     </row>
-    <row r="180" spans="1:38">
+    <row r="180" spans="1:38" hidden="1">
       <c r="A180" t="s">
         <v>6</v>
       </c>
@@ -9287,7 +9290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:38">
+    <row r="181" spans="1:38" hidden="1">
       <c r="A181" t="s">
         <v>6</v>
       </c>
@@ -9310,7 +9313,7 @@
         <v>7.1589111598088291</v>
       </c>
     </row>
-    <row r="182" spans="1:38">
+    <row r="182" spans="1:38" hidden="1">
       <c r="A182" t="s">
         <v>6</v>
       </c>
@@ -9333,7 +9336,7 @@
         <v>1.4286241964891497</v>
       </c>
     </row>
-    <row r="183" spans="1:38">
+    <row r="183" spans="1:38" hidden="1">
       <c r="A183" t="s">
         <v>6</v>
       </c>
@@ -9356,7 +9359,7 @@
         <v>5.1947128630896646</v>
       </c>
     </row>
-    <row r="184" spans="1:38">
+    <row r="184" spans="1:38" hidden="1">
       <c r="A184" t="s">
         <v>6</v>
       </c>
@@ -9451,7 +9454,7 @@
         <v>11.05</v>
       </c>
     </row>
-    <row r="185" spans="1:38">
+    <row r="185" spans="1:38" hidden="1">
       <c r="A185" t="s">
         <v>6</v>
       </c>
@@ -9516,7 +9519,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="186" spans="1:38">
+    <row r="186" spans="1:38" hidden="1">
       <c r="A186" t="s">
         <v>6</v>
       </c>
@@ -9539,7 +9542,7 @@
         <v>0.9394940748123165</v>
       </c>
     </row>
-    <row r="187" spans="1:38">
+    <row r="187" spans="1:38" hidden="1">
       <c r="A187" t="s">
         <v>6</v>
       </c>
@@ -9559,7 +9562,7 @@
         <v>1.936894720399863</v>
       </c>
     </row>
-    <row r="188" spans="1:38">
+    <row r="188" spans="1:38" hidden="1">
       <c r="A188" t="s">
         <v>6</v>
       </c>
@@ -9582,7 +9585,7 @@
         <v>1.4075989132976168</v>
       </c>
     </row>
-    <row r="189" spans="1:38">
+    <row r="189" spans="1:38" hidden="1">
       <c r="A189" t="s">
         <v>6</v>
       </c>
@@ -9605,7 +9608,7 @@
         <v>4.1724876352853677</v>
       </c>
     </row>
-    <row r="190" spans="1:38">
+    <row r="190" spans="1:38" hidden="1">
       <c r="A190" t="s">
         <v>6</v>
       </c>
@@ -9688,7 +9691,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="191" spans="1:38">
+    <row r="191" spans="1:38" hidden="1">
       <c r="A191" t="s">
         <v>6</v>
       </c>
@@ -9763,7 +9766,7 @@
         <v>5.3250000000000002</v>
       </c>
     </row>
-    <row r="192" spans="1:38">
+    <row r="192" spans="1:38" hidden="1">
       <c r="A192" t="s">
         <v>6</v>
       </c>
@@ -9786,7 +9789,7 @@
         <v>2.2991176144107279</v>
       </c>
     </row>
-    <row r="193" spans="1:38">
+    <row r="193" spans="1:38" hidden="1">
       <c r="A193" t="s">
         <v>6</v>
       </c>
@@ -9809,7 +9812,7 @@
         <v>2.6491308633039106</v>
       </c>
     </row>
-    <row r="194" spans="1:38">
+    <row r="194" spans="1:38" hidden="1">
       <c r="A194" t="s">
         <v>6</v>
       </c>
@@ -9890,7 +9893,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="195" spans="1:38">
+    <row r="195" spans="1:38" hidden="1">
       <c r="A195" t="s">
         <v>6</v>
       </c>
@@ -9913,7 +9916,7 @@
         <v>3.8274828439374287</v>
       </c>
     </row>
-    <row r="196" spans="1:38">
+    <row r="196" spans="1:38" hidden="1">
       <c r="A196" t="s">
         <v>6</v>
       </c>
@@ -9936,7 +9939,7 @@
         <v>2.510627081489849</v>
       </c>
     </row>
-    <row r="197" spans="1:38">
+    <row r="197" spans="1:38" hidden="1">
       <c r="A197" t="s">
         <v>6</v>
       </c>
@@ -10001,7 +10004,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="198" spans="1:38">
+    <row r="198" spans="1:38" hidden="1">
       <c r="A198" t="s">
         <v>6</v>
       </c>
@@ -10021,7 +10024,7 @@
         <v>1.5370941600878325</v>
       </c>
     </row>
-    <row r="199" spans="1:38">
+    <row r="199" spans="1:38" hidden="1">
       <c r="A199" t="s">
         <v>6</v>
       </c>
@@ -10044,7 +10047,7 @@
         <v>0.59463305412538903</v>
       </c>
     </row>
-    <row r="200" spans="1:38">
+    <row r="200" spans="1:38" hidden="1">
       <c r="A200" t="s">
         <v>6</v>
       </c>
@@ -10067,7 +10070,7 @@
         <v>3.7111956028324835</v>
       </c>
     </row>
-    <row r="201" spans="1:38">
+    <row r="201" spans="1:38" hidden="1">
       <c r="A201" t="s">
         <v>6</v>
       </c>
@@ -10087,7 +10090,7 @@
         <v>8.1466512702078546</v>
       </c>
     </row>
-    <row r="202" spans="1:38">
+    <row r="202" spans="1:38" hidden="1">
       <c r="A202" t="s">
         <v>6</v>
       </c>
@@ -10170,7 +10173,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="203" spans="1:38">
+    <row r="203" spans="1:38" hidden="1">
       <c r="A203" t="s">
         <v>6</v>
       </c>
@@ -10235,7 +10238,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="204" spans="1:38">
+    <row r="204" spans="1:38" hidden="1">
       <c r="A204" t="s">
         <v>6</v>
       </c>
@@ -10258,7 +10261,7 @@
         <v>3.6048651545304731</v>
       </c>
     </row>
-    <row r="205" spans="1:38">
+    <row r="205" spans="1:38" hidden="1">
       <c r="A205" t="s">
         <v>6</v>
       </c>
@@ -10281,7 +10284,7 @@
         <v>2.3095845924176341</v>
       </c>
     </row>
-    <row r="206" spans="1:38">
+    <row r="206" spans="1:38" hidden="1">
       <c r="A206" t="s">
         <v>6</v>
       </c>
@@ -10304,7 +10307,7 @@
         <v>4.6688599058321465</v>
       </c>
     </row>
-    <row r="207" spans="1:38">
+    <row r="207" spans="1:38" hidden="1">
       <c r="A207" t="s">
         <v>6</v>
       </c>
@@ -10399,7 +10402,7 @@
         <v>5.0250000000000004</v>
       </c>
     </row>
-    <row r="208" spans="1:38">
+    <row r="208" spans="1:38" hidden="1">
       <c r="A208" t="s">
         <v>6</v>
       </c>
@@ -10422,7 +10425,7 @@
         <v>1.6851677522614044</v>
       </c>
     </row>
-    <row r="209" spans="1:38">
+    <row r="209" spans="1:38" hidden="1">
       <c r="A209" t="s">
         <v>6</v>
       </c>
@@ -10488,7 +10491,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="210" spans="1:38">
+    <row r="210" spans="1:38" hidden="1">
       <c r="A210" t="s">
         <v>6</v>
       </c>
@@ -10511,7 +10514,7 @@
         <v>2.1218261966437177</v>
       </c>
     </row>
-    <row r="211" spans="1:38">
+    <row r="211" spans="1:38" hidden="1">
       <c r="A211" t="s">
         <v>6</v>
       </c>
@@ -10534,7 +10537,7 @@
         <v>0.9808917672312738</v>
       </c>
     </row>
-    <row r="212" spans="1:38">
+    <row r="212" spans="1:38" hidden="1">
       <c r="A212" t="s">
         <v>6</v>
       </c>
@@ -10557,7 +10560,7 @@
         <v>4.0670957683044096</v>
       </c>
     </row>
-    <row r="213" spans="1:38">
+    <row r="213" spans="1:38" hidden="1">
       <c r="A213" t="s">
         <v>6</v>
       </c>
@@ -10634,7 +10637,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="214" spans="1:38">
+    <row r="214" spans="1:38" hidden="1">
       <c r="A214" t="s">
         <v>6</v>
       </c>
@@ -10710,7 +10713,7 @@
         <v>6.15</v>
       </c>
     </row>
-    <row r="215" spans="1:38">
+    <row r="215" spans="1:38" hidden="1">
       <c r="A215" t="s">
         <v>6</v>
       </c>
@@ -10733,7 +10736,7 @@
         <v>3.6540452544246205</v>
       </c>
     </row>
-    <row r="216" spans="1:38">
+    <row r="216" spans="1:38" hidden="1">
       <c r="A216" t="s">
         <v>6</v>
       </c>
@@ -10756,7 +10759,7 @@
         <v>2.6923475326620641</v>
       </c>
     </row>
-    <row r="217" spans="1:38">
+    <row r="217" spans="1:38" hidden="1">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -10779,7 +10782,7 @@
         <v>5.429230338369984</v>
       </c>
     </row>
-    <row r="218" spans="1:38">
+    <row r="218" spans="1:38" hidden="1">
       <c r="A218" t="s">
         <v>6</v>
       </c>
@@ -10875,7 +10878,7 @@
         <v>6.8000000000000007</v>
       </c>
     </row>
-    <row r="219" spans="1:38">
+    <row r="219" spans="1:38" hidden="1">
       <c r="A219" t="s">
         <v>6</v>
       </c>
@@ -10940,7 +10943,7 @@
         <v>4.5500000000000007</v>
       </c>
     </row>
-    <row r="220" spans="1:38">
+    <row r="220" spans="1:38" hidden="1">
       <c r="A220" t="s">
         <v>6</v>
       </c>
@@ -11023,7 +11026,7 @@
         <v>6.35</v>
       </c>
     </row>
-    <row r="221" spans="1:38">
+    <row r="221" spans="1:38" hidden="1">
       <c r="A221" t="s">
         <v>6</v>
       </c>
@@ -11073,7 +11076,7 @@
       </c>
       <c r="AB221" s="13"/>
     </row>
-    <row r="222" spans="1:38">
+    <row r="222" spans="1:38" hidden="1">
       <c r="A222" t="s">
         <v>6</v>
       </c>
@@ -11147,7 +11150,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="223" spans="1:38">
+    <row r="223" spans="1:38" hidden="1">
       <c r="A223" t="s">
         <v>6</v>
       </c>
@@ -11211,7 +11214,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="224" spans="1:38">
+    <row r="224" spans="1:38" hidden="1">
       <c r="A224" t="s">
         <v>6</v>
       </c>
@@ -11293,7 +11296,7 @@
         <v>12.049999999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:38">
+    <row r="225" spans="1:38" hidden="1">
       <c r="A225" t="s">
         <v>6</v>
       </c>
@@ -11342,7 +11345,7 @@
       </c>
       <c r="AB225" s="13"/>
     </row>
-    <row r="226" spans="1:38">
+    <row r="226" spans="1:38" hidden="1">
       <c r="A226" t="s">
         <v>6</v>
       </c>
@@ -11416,7 +11419,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="227" spans="1:38">
+    <row r="227" spans="1:38" hidden="1">
       <c r="A227" t="s">
         <v>6</v>
       </c>
@@ -11480,7 +11483,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="228" spans="1:38">
+    <row r="228" spans="1:38" hidden="1">
       <c r="A228" t="s">
         <v>6</v>
       </c>
@@ -11562,7 +11565,7 @@
         <v>5.9249999999999998</v>
       </c>
     </row>
-    <row r="229" spans="1:38">
+    <row r="229" spans="1:38" hidden="1">
       <c r="A229" t="s">
         <v>6</v>
       </c>
@@ -11611,7 +11614,7 @@
       </c>
       <c r="AB229" s="13"/>
     </row>
-    <row r="230" spans="1:38">
+    <row r="230" spans="1:38" hidden="1">
       <c r="A230" t="s">
         <v>6</v>
       </c>
@@ -11738,6 +11741,21 @@
         <v>0</v>
       </c>
       <c r="AB231" s="13"/>
+      <c r="AE231">
+        <v>42</v>
+      </c>
+      <c r="AF231">
+        <v>45</v>
+      </c>
+      <c r="AG231">
+        <v>55</v>
+      </c>
+      <c r="AH231">
+        <v>60</v>
+      </c>
+      <c r="AI231">
+        <v>73</v>
+      </c>
       <c r="AJ231">
         <v>5.335</v>
       </c>
@@ -11806,13 +11824,13 @@
         <v>39.25</v>
       </c>
       <c r="AE232">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF232">
         <v>45</v>
       </c>
       <c r="AG232">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="AH232">
         <v>60</v>
@@ -11879,6 +11897,21 @@
         <v>14.501629129026615</v>
       </c>
       <c r="AB233" s="15"/>
+      <c r="AE233">
+        <v>42</v>
+      </c>
+      <c r="AF233">
+        <v>45</v>
+      </c>
+      <c r="AG233">
+        <v>55</v>
+      </c>
+      <c r="AH233">
+        <v>60</v>
+      </c>
+      <c r="AI233">
+        <v>73</v>
+      </c>
     </row>
     <row r="234" spans="1:38">
       <c r="A234" t="s">
@@ -11939,13 +11972,13 @@
         <v>39.25</v>
       </c>
       <c r="AE234">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF234">
         <v>45</v>
       </c>
       <c r="AG234">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="AH234">
         <v>60</v>
@@ -11954,7 +11987,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="235" spans="1:38">
+    <row r="235" spans="1:38" hidden="1">
       <c r="A235" t="s">
         <v>6</v>
       </c>
@@ -12017,7 +12050,7 @@
         <v>4.8666666666666671</v>
       </c>
     </row>
-    <row r="236" spans="1:38">
+    <row r="236" spans="1:38" hidden="1">
       <c r="A236" t="s">
         <v>6</v>
       </c>
@@ -12098,7 +12131,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="237" spans="1:38">
+    <row r="237" spans="1:38" hidden="1">
       <c r="A237" t="s">
         <v>6</v>
       </c>
@@ -12147,7 +12180,7 @@
         <v>4.2803465794580102</v>
       </c>
     </row>
-    <row r="238" spans="1:38">
+    <row r="238" spans="1:38" hidden="1">
       <c r="A238" t="s">
         <v>6</v>
       </c>
@@ -12221,7 +12254,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="239" spans="1:38">
+    <row r="239" spans="1:38" hidden="1">
       <c r="A239" t="s">
         <v>6</v>
       </c>
@@ -12284,7 +12317,7 @@
         <v>3.8499999999999996</v>
       </c>
     </row>
-    <row r="240" spans="1:38">
+    <row r="240" spans="1:38" hidden="1">
       <c r="A240" t="s">
         <v>6</v>
       </c>
@@ -12365,7 +12398,7 @@
         <v>6.0749999999999993</v>
       </c>
     </row>
-    <row r="241" spans="1:38">
+    <row r="241" spans="1:38" hidden="1">
       <c r="A241" t="s">
         <v>6</v>
       </c>
@@ -12414,7 +12447,7 @@
         <v>12.917845705597021</v>
       </c>
     </row>
-    <row r="242" spans="1:38">
+    <row r="242" spans="1:38" hidden="1">
       <c r="A242" t="s">
         <v>6</v>
       </c>
@@ -12488,7 +12521,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="243" spans="1:38">
+    <row r="243" spans="1:38" hidden="1">
       <c r="A243" t="s">
         <v>6</v>
       </c>
@@ -12569,7 +12602,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="244" spans="1:38">
+    <row r="244" spans="1:38" hidden="1">
       <c r="A244" t="s">
         <v>6</v>
       </c>
@@ -12658,7 +12691,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="245" spans="1:38">
+    <row r="245" spans="1:38" hidden="1">
       <c r="A245" t="s">
         <v>6</v>
       </c>
@@ -12739,7 +12772,7 @@
         <v>9.7974999999999994</v>
       </c>
     </row>
-    <row r="246" spans="1:38">
+    <row r="246" spans="1:38" hidden="1">
       <c r="A246" t="s">
         <v>6</v>
       </c>
@@ -12827,7 +12860,7 @@
         <v>11.95</v>
       </c>
     </row>
-    <row r="247" spans="1:38">
+    <row r="247" spans="1:38" hidden="1">
       <c r="A247" t="s">
         <v>6</v>
       </c>
@@ -12908,7 +12941,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="248" spans="1:38">
+    <row r="248" spans="1:38" hidden="1">
       <c r="A248" t="s">
         <v>6</v>
       </c>
@@ -12997,7 +13030,7 @@
         <v>6.8000000000000007</v>
       </c>
     </row>
-    <row r="249" spans="1:38">
+    <row r="249" spans="1:38" hidden="1">
       <c r="A249" t="s">
         <v>6</v>
       </c>
@@ -13078,7 +13111,7 @@
         <v>9.3500000000000014</v>
       </c>
     </row>
-    <row r="250" spans="1:38">
+    <row r="250" spans="1:38" hidden="1">
       <c r="A250" t="s">
         <v>6</v>
       </c>
@@ -13166,7 +13199,7 @@
         <v>13.25</v>
       </c>
     </row>
-    <row r="251" spans="1:38">
+    <row r="251" spans="1:38" hidden="1">
       <c r="A251" t="s">
         <v>6</v>
       </c>
@@ -13247,7 +13280,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="252" spans="1:38">
+    <row r="252" spans="1:38" hidden="1">
       <c r="A252" t="s">
         <v>6</v>
       </c>
@@ -13336,7 +13369,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="253" spans="1:38">
+    <row r="253" spans="1:38" hidden="1">
       <c r="A253" t="s">
         <v>6</v>
       </c>
@@ -13417,7 +13450,7 @@
         <v>9.7349999999999994</v>
       </c>
     </row>
-    <row r="254" spans="1:38">
+    <row r="254" spans="1:38" hidden="1">
       <c r="A254" t="s">
         <v>6</v>
       </c>
@@ -13844,7 +13877,7 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="259" spans="1:38">
+    <row r="259" spans="1:38" hidden="1">
       <c r="A259" t="s">
         <v>6</v>
       </c>
@@ -13925,7 +13958,7 @@
         <v>7.3000000000000007</v>
       </c>
     </row>
-    <row r="260" spans="1:38">
+    <row r="260" spans="1:38" hidden="1">
       <c r="A260" t="s">
         <v>6</v>
       </c>
@@ -14014,7 +14047,7 @@
         <v>7.35</v>
       </c>
     </row>
-    <row r="261" spans="1:38">
+    <row r="261" spans="1:38" hidden="1">
       <c r="A261" t="s">
         <v>6</v>
       </c>
@@ -14095,7 +14128,7 @@
         <v>10.549999999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:38">
+    <row r="262" spans="1:38" hidden="1">
       <c r="A262" t="s">
         <v>6</v>
       </c>
@@ -14183,7 +14216,7 @@
         <v>14.59</v>
       </c>
     </row>
-    <row r="263" spans="1:38">
+    <row r="263" spans="1:38" hidden="1">
       <c r="A263" t="s">
         <v>6</v>
       </c>
@@ -14264,7 +14297,7 @@
         <v>5.4499999999999993</v>
       </c>
     </row>
-    <row r="264" spans="1:38">
+    <row r="264" spans="1:38" hidden="1">
       <c r="A264" t="s">
         <v>6</v>
       </c>
@@ -14353,7 +14386,7 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="265" spans="1:38">
+    <row r="265" spans="1:38" hidden="1">
       <c r="A265" t="s">
         <v>6</v>
       </c>
@@ -14434,7 +14467,7 @@
         <v>10.85</v>
       </c>
     </row>
-    <row r="266" spans="1:38">
+    <row r="266" spans="1:38" hidden="1">
       <c r="A266" t="s">
         <v>6</v>
       </c>
@@ -14522,7 +14555,7 @@
         <v>11.324999999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:38">
+    <row r="267" spans="1:38" hidden="1">
       <c r="A267" t="s">
         <v>6</v>
       </c>
@@ -14603,7 +14636,7 @@
         <v>3.1500000000000004</v>
       </c>
     </row>
-    <row r="268" spans="1:38">
+    <row r="268" spans="1:38" hidden="1">
       <c r="A268" t="s">
         <v>6</v>
       </c>
@@ -14692,7 +14725,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="269" spans="1:38">
+    <row r="269" spans="1:38" hidden="1">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -14773,7 +14806,7 @@
         <v>10.35</v>
       </c>
     </row>
-    <row r="270" spans="1:38">
+    <row r="270" spans="1:38" hidden="1">
       <c r="A270" t="s">
         <v>6</v>
       </c>
@@ -14861,7 +14894,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="271" spans="1:38">
+    <row r="271" spans="1:38" hidden="1">
       <c r="A271" t="s">
         <v>6</v>
       </c>
@@ -14942,7 +14975,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="272" spans="1:38">
+    <row r="272" spans="1:38" hidden="1">
       <c r="A272" t="s">
         <v>6</v>
       </c>
@@ -15031,7 +15064,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="273" spans="1:38">
+    <row r="273" spans="1:38" hidden="1">
       <c r="A273" t="s">
         <v>6</v>
       </c>
@@ -15112,7 +15145,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="274" spans="1:38">
+    <row r="274" spans="1:38" hidden="1">
       <c r="A274" t="s">
         <v>6</v>
       </c>
@@ -15200,7 +15233,7 @@
         <v>13.8125</v>
       </c>
     </row>
-    <row r="275" spans="1:38">
+    <row r="275" spans="1:38" hidden="1">
       <c r="A275" t="s">
         <v>6</v>
       </c>
@@ -15281,7 +15314,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="276" spans="1:38">
+    <row r="276" spans="1:38" hidden="1">
       <c r="A276" t="s">
         <v>6</v>
       </c>
@@ -15370,7 +15403,7 @@
         <v>7.2000000000000011</v>
       </c>
     </row>
-    <row r="277" spans="1:38">
+    <row r="277" spans="1:38" hidden="1">
       <c r="A277" t="s">
         <v>6</v>
       </c>
@@ -15451,7 +15484,7 @@
         <v>9.35</v>
       </c>
     </row>
-    <row r="278" spans="1:38">
+    <row r="278" spans="1:38" hidden="1">
       <c r="A278" t="s">
         <v>6</v>
       </c>
@@ -15878,7 +15911,7 @@
         <v>11.55</v>
       </c>
     </row>
-    <row r="283" spans="1:38">
+    <row r="283" spans="1:38" hidden="1">
       <c r="A283" t="s">
         <v>6</v>
       </c>
@@ -15959,7 +15992,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="284" spans="1:38">
+    <row r="284" spans="1:38" hidden="1">
       <c r="A284" t="s">
         <v>6</v>
       </c>
@@ -16048,7 +16081,7 @@
         <v>7.375</v>
       </c>
     </row>
-    <row r="285" spans="1:38">
+    <row r="285" spans="1:38" hidden="1">
       <c r="A285" t="s">
         <v>6</v>
       </c>
@@ -16129,7 +16162,7 @@
         <v>11.95</v>
       </c>
     </row>
-    <row r="286" spans="1:38">
+    <row r="286" spans="1:38" hidden="1">
       <c r="A286" t="s">
         <v>6</v>
       </c>
@@ -16217,7 +16250,7 @@
         <v>13.825000000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:38">
+    <row r="287" spans="1:38" hidden="1">
       <c r="A287" t="s">
         <v>6</v>
       </c>
@@ -16298,7 +16331,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="288" spans="1:38">
+    <row r="288" spans="1:38" hidden="1">
       <c r="A288" t="s">
         <v>6</v>
       </c>
@@ -16387,7 +16420,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="289" spans="1:38">
+    <row r="289" spans="1:38" hidden="1">
       <c r="A289" t="s">
         <v>6</v>
       </c>
@@ -16468,7 +16501,7 @@
         <v>12.05</v>
       </c>
     </row>
-    <row r="290" spans="1:38">
+    <row r="290" spans="1:38" hidden="1">
       <c r="A290" t="s">
         <v>6</v>
       </c>
@@ -16556,7 +16589,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="291" spans="1:38">
+    <row r="291" spans="1:38" hidden="1">
       <c r="A291" t="s">
         <v>6</v>
       </c>
@@ -16602,8 +16635,17 @@
       <c r="Z291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:38">
+      <c r="AE291">
+        <v>43</v>
+      </c>
+      <c r="AG291">
+        <v>58</v>
+      </c>
+      <c r="AI291">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="292" spans="1:38" hidden="1">
       <c r="A292" t="s">
         <v>6</v>
       </c>
@@ -16649,8 +16691,17 @@
       <c r="Z292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:38">
+      <c r="AE292">
+        <v>43</v>
+      </c>
+      <c r="AG292">
+        <v>58</v>
+      </c>
+      <c r="AI292">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="293" spans="1:38" hidden="1">
       <c r="A293" t="s">
         <v>6</v>
       </c>
@@ -16696,8 +16747,17 @@
       <c r="Z293">
         <v>1.1159030349153662</v>
       </c>
-    </row>
-    <row r="294" spans="1:38">
+      <c r="AE293">
+        <v>43</v>
+      </c>
+      <c r="AG293">
+        <v>58</v>
+      </c>
+      <c r="AI293">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="294" spans="1:38" hidden="1">
       <c r="A294" t="s">
         <v>6</v>
       </c>
@@ -16750,6 +16810,15 @@
       <c r="Z294">
         <v>19.981315178185927</v>
       </c>
+      <c r="AE294">
+        <v>43</v>
+      </c>
+      <c r="AG294">
+        <v>58</v>
+      </c>
+      <c r="AI294">
+        <v>84</v>
+      </c>
     </row>
     <row r="295" spans="1:38">
       <c r="A295" t="s">
@@ -16797,6 +16866,15 @@
       <c r="Z295">
         <v>0</v>
       </c>
+      <c r="AE295">
+        <v>43</v>
+      </c>
+      <c r="AG295">
+        <v>58</v>
+      </c>
+      <c r="AI295">
+        <v>87</v>
+      </c>
     </row>
     <row r="296" spans="1:38">
       <c r="A296" t="s">
@@ -16844,6 +16922,15 @@
       <c r="Z296">
         <v>0</v>
       </c>
+      <c r="AE296">
+        <v>43</v>
+      </c>
+      <c r="AG296">
+        <v>58</v>
+      </c>
+      <c r="AI296">
+        <v>87</v>
+      </c>
     </row>
     <row r="297" spans="1:38">
       <c r="A297" t="s">
@@ -16890,6 +16977,15 @@
       </c>
       <c r="Z297">
         <v>0.75333148967326058</v>
+      </c>
+      <c r="AE297">
+        <v>43</v>
+      </c>
+      <c r="AG297">
+        <v>58</v>
+      </c>
+      <c r="AI297">
+        <v>87</v>
       </c>
     </row>
     <row r="298" spans="1:38">
@@ -16945,8 +17041,17 @@
       <c r="Z298">
         <v>25.523318908438497</v>
       </c>
-    </row>
-    <row r="299" spans="1:38">
+      <c r="AE298">
+        <v>43</v>
+      </c>
+      <c r="AG298">
+        <v>58</v>
+      </c>
+      <c r="AI298">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="299" spans="1:38" hidden="1">
       <c r="A299" t="s">
         <v>6</v>
       </c>
@@ -16992,8 +17097,17 @@
       <c r="Z299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:38">
+      <c r="AE299">
+        <v>43</v>
+      </c>
+      <c r="AG299">
+        <v>60</v>
+      </c>
+      <c r="AI299">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="300" spans="1:38" hidden="1">
       <c r="A300" t="s">
         <v>6</v>
       </c>
@@ -17039,8 +17153,17 @@
       <c r="Z300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:38">
+      <c r="AE300">
+        <v>43</v>
+      </c>
+      <c r="AG300">
+        <v>60</v>
+      </c>
+      <c r="AI300">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="301" spans="1:38" hidden="1">
       <c r="A301" t="s">
         <v>6</v>
       </c>
@@ -17086,8 +17209,17 @@
       <c r="Z301">
         <v>1.5425378169324309</v>
       </c>
-    </row>
-    <row r="302" spans="1:38">
+      <c r="AE301">
+        <v>43</v>
+      </c>
+      <c r="AG301">
+        <v>60</v>
+      </c>
+      <c r="AI301">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="302" spans="1:38" hidden="1">
       <c r="A302" t="s">
         <v>6</v>
       </c>
@@ -17140,8 +17272,17 @@
       <c r="Z302">
         <v>5.2749446361410799</v>
       </c>
-    </row>
-    <row r="303" spans="1:38">
+      <c r="AE302">
+        <v>43</v>
+      </c>
+      <c r="AG302">
+        <v>60</v>
+      </c>
+      <c r="AI302">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="303" spans="1:38" hidden="1">
       <c r="A303" t="s">
         <v>6</v>
       </c>
@@ -17176,7 +17317,7 @@
         <v>9.6718529550098715</v>
       </c>
       <c r="P303">
-        <v>1.5827233856807144</v>
+        <v>1.41</v>
       </c>
       <c r="Q303">
         <v>0.18148913769789657</v>
@@ -17187,8 +17328,17 @@
       <c r="Z303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:38">
+      <c r="AE303">
+        <v>43</v>
+      </c>
+      <c r="AG303">
+        <v>60</v>
+      </c>
+      <c r="AI303">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="304" spans="1:38" hidden="1">
       <c r="A304" t="s">
         <v>6</v>
       </c>
@@ -17223,7 +17373,7 @@
         <v>19.766553136970135</v>
       </c>
       <c r="P304">
-        <v>1.9574634655674679</v>
+        <v>2.06</v>
       </c>
       <c r="Q304">
         <v>0.15436246831556219</v>
@@ -17234,8 +17384,17 @@
       <c r="Z304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:26">
+      <c r="AE304">
+        <v>43</v>
+      </c>
+      <c r="AG304">
+        <v>60</v>
+      </c>
+      <c r="AI304">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="305" spans="1:35" hidden="1">
       <c r="A305" t="s">
         <v>6</v>
       </c>
@@ -17270,7 +17429,7 @@
         <v>27.848001245683907</v>
       </c>
       <c r="P305">
-        <v>2.1212777660276179</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="Q305">
         <v>0.26272606837235474</v>
@@ -17281,8 +17440,17 @@
       <c r="Z305">
         <v>2.0586823253398414</v>
       </c>
-    </row>
-    <row r="306" spans="1:26">
+      <c r="AE305">
+        <v>43</v>
+      </c>
+      <c r="AG305">
+        <v>60</v>
+      </c>
+      <c r="AI305">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="306" spans="1:35" hidden="1">
       <c r="A306" t="s">
         <v>6</v>
       </c>
@@ -17317,7 +17485,7 @@
         <v>57.498992672335888</v>
       </c>
       <c r="P306">
-        <v>1.4506555603731148</v>
+        <v>1.39</v>
       </c>
       <c r="Q306">
         <v>0.25217879221598083</v>
@@ -17335,8 +17503,17 @@
       <c r="Z306">
         <v>30.747951121142297</v>
       </c>
-    </row>
-    <row r="307" spans="1:26">
+      <c r="AE306">
+        <v>43</v>
+      </c>
+      <c r="AG306">
+        <v>60</v>
+      </c>
+      <c r="AI306">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="307" spans="1:35" hidden="1">
       <c r="A307" t="s">
         <v>6</v>
       </c>
@@ -17382,8 +17559,17 @@
       <c r="Z307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:26">
+      <c r="AE307">
+        <v>43</v>
+      </c>
+      <c r="AG307">
+        <v>67</v>
+      </c>
+      <c r="AI307">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="308" spans="1:35" hidden="1">
       <c r="A308" t="s">
         <v>6</v>
       </c>
@@ -17429,8 +17615,17 @@
       <c r="Z308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:26">
+      <c r="AE308">
+        <v>43</v>
+      </c>
+      <c r="AG308">
+        <v>67</v>
+      </c>
+      <c r="AI308">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="309" spans="1:35" hidden="1">
       <c r="A309" t="s">
         <v>6</v>
       </c>
@@ -17476,8 +17671,17 @@
       <c r="Z309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:26">
+      <c r="AE309">
+        <v>43</v>
+      </c>
+      <c r="AG309">
+        <v>67</v>
+      </c>
+      <c r="AI309">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="310" spans="1:35" hidden="1">
       <c r="A310" t="s">
         <v>6</v>
       </c>
@@ -17530,8 +17734,17 @@
       <c r="Z310">
         <v>25.765741920483489</v>
       </c>
-    </row>
-    <row r="311" spans="1:26">
+      <c r="AE310">
+        <v>43</v>
+      </c>
+      <c r="AG310">
+        <v>67</v>
+      </c>
+      <c r="AI310">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="311" spans="1:35" hidden="1">
       <c r="A311" t="s">
         <v>6</v>
       </c>
@@ -17577,8 +17790,17 @@
       <c r="Z311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:26">
+      <c r="AE311">
+        <v>43</v>
+      </c>
+      <c r="AG311">
+        <v>60</v>
+      </c>
+      <c r="AI311">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="312" spans="1:35" hidden="1">
       <c r="A312" t="s">
         <v>6</v>
       </c>
@@ -17624,8 +17846,17 @@
       <c r="Z312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:26">
+      <c r="AE312">
+        <v>43</v>
+      </c>
+      <c r="AG312">
+        <v>60</v>
+      </c>
+      <c r="AI312">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="313" spans="1:35" hidden="1">
       <c r="A313" t="s">
         <v>6</v>
       </c>
@@ -17671,8 +17902,17 @@
       <c r="Z313">
         <v>0.25023322454595631</v>
       </c>
-    </row>
-    <row r="314" spans="1:26">
+      <c r="AE313">
+        <v>43</v>
+      </c>
+      <c r="AG313">
+        <v>60</v>
+      </c>
+      <c r="AI313">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="314" spans="1:35" hidden="1">
       <c r="A314" t="s">
         <v>6</v>
       </c>
@@ -17725,8 +17965,17 @@
       <c r="Z314">
         <v>21.196272061510136</v>
       </c>
-    </row>
-    <row r="315" spans="1:26">
+      <c r="AE314">
+        <v>43</v>
+      </c>
+      <c r="AG314">
+        <v>60</v>
+      </c>
+      <c r="AI314">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="315" spans="1:35" hidden="1">
       <c r="A315" t="s">
         <v>6</v>
       </c>
@@ -17772,8 +18021,17 @@
       <c r="Z315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:26">
+      <c r="AE315">
+        <v>40</v>
+      </c>
+      <c r="AG315">
+        <v>53</v>
+      </c>
+      <c r="AI315">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="316" spans="1:35" hidden="1">
       <c r="A316" t="s">
         <v>6</v>
       </c>
@@ -17819,8 +18077,17 @@
       <c r="Z316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:26">
+      <c r="AE316">
+        <v>40</v>
+      </c>
+      <c r="AG316">
+        <v>53</v>
+      </c>
+      <c r="AI316">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="317" spans="1:35" hidden="1">
       <c r="A317" t="s">
         <v>6</v>
       </c>
@@ -17866,8 +18133,17 @@
       <c r="Z317">
         <v>11.848665077567608</v>
       </c>
-    </row>
-    <row r="318" spans="1:26">
+      <c r="AE317">
+        <v>40</v>
+      </c>
+      <c r="AG317">
+        <v>53</v>
+      </c>
+      <c r="AI317">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="318" spans="1:35" hidden="1">
       <c r="A318" t="s">
         <v>6</v>
       </c>
@@ -17920,8 +18196,17 @@
       <c r="Z318">
         <v>15.757838400771089</v>
       </c>
-    </row>
-    <row r="319" spans="1:26">
+      <c r="AE318">
+        <v>40</v>
+      </c>
+      <c r="AG318">
+        <v>53</v>
+      </c>
+      <c r="AI318">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="319" spans="1:35" hidden="1">
       <c r="A319" t="s">
         <v>6</v>
       </c>
@@ -17967,8 +18252,17 @@
       <c r="Z319">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:26">
+      <c r="AE319">
+        <v>40</v>
+      </c>
+      <c r="AG319">
+        <v>49</v>
+      </c>
+      <c r="AI319">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="320" spans="1:35" hidden="1">
       <c r="A320" t="s">
         <v>6</v>
       </c>
@@ -18014,8 +18308,17 @@
       <c r="Z320">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:26">
+      <c r="AE320">
+        <v>40</v>
+      </c>
+      <c r="AG320">
+        <v>49</v>
+      </c>
+      <c r="AI320">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="321" spans="1:35" hidden="1">
       <c r="A321" t="s">
         <v>6</v>
       </c>
@@ -18061,8 +18364,17 @@
       <c r="Z321">
         <v>3.274137149551628</v>
       </c>
-    </row>
-    <row r="322" spans="1:26">
+      <c r="AE321">
+        <v>40</v>
+      </c>
+      <c r="AG321">
+        <v>49</v>
+      </c>
+      <c r="AI321">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="322" spans="1:35" hidden="1">
       <c r="A322" t="s">
         <v>6</v>
       </c>
@@ -18115,8 +18427,17 @@
       <c r="Z322">
         <v>29.401922981328966</v>
       </c>
-    </row>
-    <row r="323" spans="1:26">
+      <c r="AE322">
+        <v>40</v>
+      </c>
+      <c r="AG322">
+        <v>49</v>
+      </c>
+      <c r="AI322">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="323" spans="1:35" hidden="1">
       <c r="A323" t="s">
         <v>6</v>
       </c>
@@ -18162,8 +18483,17 @@
       <c r="Z323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:26">
+      <c r="AE323">
+        <v>40</v>
+      </c>
+      <c r="AG323">
+        <v>54</v>
+      </c>
+      <c r="AI323">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="324" spans="1:35" hidden="1">
       <c r="A324" t="s">
         <v>6</v>
       </c>
@@ -18209,8 +18539,17 @@
       <c r="Z324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:26">
+      <c r="AE324">
+        <v>40</v>
+      </c>
+      <c r="AG324">
+        <v>54</v>
+      </c>
+      <c r="AI324">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="325" spans="1:35" hidden="1">
       <c r="A325" t="s">
         <v>6</v>
       </c>
@@ -18256,8 +18595,17 @@
       <c r="Z325">
         <v>9.2657590982426665</v>
       </c>
-    </row>
-    <row r="326" spans="1:26">
+      <c r="AE325">
+        <v>40</v>
+      </c>
+      <c r="AG325">
+        <v>54</v>
+      </c>
+      <c r="AI325">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="326" spans="1:35" hidden="1">
       <c r="A326" t="s">
         <v>6</v>
       </c>
@@ -18310,8 +18658,17 @@
       <c r="Z326">
         <v>50.899819059836311</v>
       </c>
-    </row>
-    <row r="327" spans="1:26">
+      <c r="AE326">
+        <v>40</v>
+      </c>
+      <c r="AG326">
+        <v>54</v>
+      </c>
+      <c r="AI326">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="327" spans="1:35">
       <c r="A327" t="s">
         <v>6</v>
       </c>
@@ -18357,8 +18714,17 @@
       <c r="Z327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:26">
+      <c r="AE327">
+        <v>40</v>
+      </c>
+      <c r="AG327">
+        <v>54</v>
+      </c>
+      <c r="AI327">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="328" spans="1:35">
       <c r="A328" t="s">
         <v>6</v>
       </c>
@@ -18404,8 +18770,17 @@
       <c r="Z328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:26">
+      <c r="AE328">
+        <v>40</v>
+      </c>
+      <c r="AG328">
+        <v>54</v>
+      </c>
+      <c r="AI328">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="329" spans="1:35">
       <c r="A329" t="s">
         <v>6</v>
       </c>
@@ -18451,8 +18826,17 @@
       <c r="Z329">
         <v>14.66400230692178</v>
       </c>
-    </row>
-    <row r="330" spans="1:26">
+      <c r="AE329">
+        <v>40</v>
+      </c>
+      <c r="AG329">
+        <v>54</v>
+      </c>
+      <c r="AI329">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="330" spans="1:35">
       <c r="A330" t="s">
         <v>6</v>
       </c>
@@ -18505,8 +18889,17 @@
       <c r="Z330">
         <v>24.558059135821743</v>
       </c>
-    </row>
-    <row r="331" spans="1:26">
+      <c r="AE330">
+        <v>40</v>
+      </c>
+      <c r="AG330">
+        <v>54</v>
+      </c>
+      <c r="AI330">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="331" spans="1:35" hidden="1">
       <c r="A331" t="s">
         <v>6</v>
       </c>
@@ -18552,8 +18945,17 @@
       <c r="Z331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:26">
+      <c r="AE331">
+        <v>40</v>
+      </c>
+      <c r="AG331">
+        <v>53</v>
+      </c>
+      <c r="AI331">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="332" spans="1:35" hidden="1">
       <c r="A332" t="s">
         <v>6</v>
       </c>
@@ -18599,8 +19001,17 @@
       <c r="Z332">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:26">
+      <c r="AE332">
+        <v>40</v>
+      </c>
+      <c r="AG332">
+        <v>53</v>
+      </c>
+      <c r="AI332">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="333" spans="1:35" hidden="1">
       <c r="A333" t="s">
         <v>6</v>
       </c>
@@ -18646,8 +19057,17 @@
       <c r="Z333">
         <v>8.107434070693893</v>
       </c>
-    </row>
-    <row r="334" spans="1:26">
+      <c r="AE333">
+        <v>40</v>
+      </c>
+      <c r="AG333">
+        <v>53</v>
+      </c>
+      <c r="AI333">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="334" spans="1:35" hidden="1">
       <c r="A334" t="s">
         <v>6</v>
       </c>
@@ -18700,8 +19120,17 @@
       <c r="Z334">
         <v>42.470371984124505</v>
       </c>
-    </row>
-    <row r="335" spans="1:26">
+      <c r="AE334">
+        <v>40</v>
+      </c>
+      <c r="AG334">
+        <v>53</v>
+      </c>
+      <c r="AI334">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="335" spans="1:35" hidden="1">
       <c r="A335" t="s">
         <v>6</v>
       </c>
@@ -18747,8 +19176,17 @@
       <c r="Z335">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:26">
+      <c r="AE335">
+        <v>40</v>
+      </c>
+      <c r="AG335">
+        <v>53</v>
+      </c>
+      <c r="AI335">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="336" spans="1:35" hidden="1">
       <c r="A336" t="s">
         <v>6</v>
       </c>
@@ -18794,8 +19232,17 @@
       <c r="Z336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:26">
+      <c r="AE336">
+        <v>40</v>
+      </c>
+      <c r="AG336">
+        <v>53</v>
+      </c>
+      <c r="AI336">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="337" spans="1:35" hidden="1">
       <c r="A337" t="s">
         <v>6</v>
       </c>
@@ -18841,8 +19288,17 @@
       <c r="Z337">
         <v>11.800830744062051</v>
       </c>
-    </row>
-    <row r="338" spans="1:26">
+      <c r="AE337">
+        <v>40</v>
+      </c>
+      <c r="AG337">
+        <v>53</v>
+      </c>
+      <c r="AI337">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="338" spans="1:35" hidden="1">
       <c r="A338" t="s">
         <v>6</v>
       </c>
@@ -18895,8 +19351,28 @@
       <c r="Z338">
         <v>37.052521096654857</v>
       </c>
+      <c r="AE338">
+        <v>40</v>
+      </c>
+      <c r="AG338">
+        <v>53</v>
+      </c>
+      <c r="AI338">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AL338" xr:uid="{3519DD51-BED6-4262-8A50-4DB48CCAF26B}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="TOSyear3SowFeb21CvCeleraII"/>
+        <filter val="TOSyear3SowJan21CvJade"/>
+        <filter val="TOSyear3SowNov20CvJade"/>
+        <filter val="TOSyear3SowOct20CvJade"/>
+        <filter val="TOSyear3SowSept20CvJade"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL290">
     <sortCondition ref="B2:B290"/>
     <sortCondition ref="C2:C290"/>
